--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6557E578-5AF3-49F2-8864-49B5A0C3B684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="caña" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>REL-BC03</t>
-  </si>
-  <si>
-    <t>C:\feria\reeles\SURFISH</t>
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
@@ -240,24 +237,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -288,26 +273,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -615,14 +597,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -631,7 +613,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -648,189 +630,222 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>55357.5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>28495.5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>23413.5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>56482.799999999996</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>22143</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>47553</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>58443</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4">
         <v>58715.25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>64432.5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4">
         <v>66429</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4">
         <v>51183</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -844,14 +859,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -859,7 +874,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -876,122 +891,122 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="5">
         <v>23213.121750000002</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>43590.592499999999</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>29403</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>41026.44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="5">
         <v>26850</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>31071.495000000003</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
     </row>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49D2CC-B5F9-4D25-8F8A-B3771A600E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -105,15 +105,6 @@
     <t>KARP RUSH 270 CASTER</t>
   </si>
   <si>
-    <t>COSTA TELE</t>
-  </si>
-  <si>
-    <t>peje</t>
-  </si>
-  <si>
-    <t>bait</t>
-  </si>
-  <si>
     <t>RIO 2 T</t>
   </si>
   <si>
@@ -184,6 +175,351 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
+  </si>
+  <si>
+    <t>atlantic 420 xfish</t>
+  </si>
+  <si>
+    <t>BAKER 2102 WATERDOG</t>
+  </si>
+  <si>
+    <t>BLACK POWER 270 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK POWER 300 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 1,80 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 2,40 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 2,70 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 3,00 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK TARU 198 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK TARU 210 XFISH</t>
+  </si>
+  <si>
+    <t>CAPITANIA 2,70 MTS 8855-6</t>
+  </si>
+  <si>
+    <t>CATANA EXPERT 300</t>
+  </si>
+  <si>
+    <t>CATANA EXPERT 390</t>
+  </si>
+  <si>
+    <t>CHASCOMUS 4,50</t>
+  </si>
+  <si>
+    <t>chelsea 270 water</t>
+  </si>
+  <si>
+    <t>COMPACT 1,80 ALBATROS</t>
+  </si>
+  <si>
+    <t>CORVINA 360</t>
+  </si>
+  <si>
+    <t>CORVINA 390</t>
+  </si>
+  <si>
+    <t>costa 390 xfish</t>
+  </si>
+  <si>
+    <t>costa 420 xfish</t>
+  </si>
+  <si>
+    <t>daiwa 240</t>
+  </si>
+  <si>
+    <t>DERBY 2102 waterdog</t>
+  </si>
+  <si>
+    <t>ESMERALDA 270 XFISH</t>
+  </si>
+  <si>
+    <t>gol xfish 2,40</t>
+  </si>
+  <si>
+    <t>GUAZU 240 SURFISH</t>
+  </si>
+  <si>
+    <t>GUAZU 270 SURFISH</t>
+  </si>
+  <si>
+    <t>HORCONES 450 kunnan</t>
+  </si>
+  <si>
+    <t>horizonte 3 mts red fish</t>
+  </si>
+  <si>
+    <t>KARP RUSH 300 CASTER</t>
+  </si>
+  <si>
+    <t>legend 270 xfish</t>
+  </si>
+  <si>
+    <t>litoral 180 surfish</t>
+  </si>
+  <si>
+    <t>MAGNA 210 ALBATROS</t>
+  </si>
+  <si>
+    <t>MAGNUN 1,85 BANDO</t>
+  </si>
+  <si>
+    <t>MOJARRA 1,50 XFISH</t>
+  </si>
+  <si>
+    <t>MUSTANG 210 BANDO</t>
+  </si>
+  <si>
+    <t>NASSER 210</t>
+  </si>
+  <si>
+    <t>NEO 360 XFISH</t>
+  </si>
+  <si>
+    <t>OCEAN 300</t>
+  </si>
+  <si>
+    <t>ORIENTE 210 WATERDOG</t>
+  </si>
+  <si>
+    <t>ORIENTE BECH 2702 WATERDOG</t>
+  </si>
+  <si>
+    <t>PACIFIC 4206 CASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pacific surf 270 </t>
+  </si>
+  <si>
+    <t>parana 270 mts red fish</t>
+  </si>
+  <si>
+    <t>paranacito 180 surfish</t>
+  </si>
+  <si>
+    <t>paranacito 210 surfish</t>
+  </si>
+  <si>
+    <t>peje 420</t>
+  </si>
+  <si>
+    <t>PLATINUM 3 MTS XFISH</t>
+  </si>
+  <si>
+    <t>PLATINUM 3.30 MTS XFISH</t>
+  </si>
+  <si>
+    <t>power 180</t>
+  </si>
+  <si>
+    <t>power boat 1 tramo</t>
+  </si>
+  <si>
+    <t>predator 180</t>
+  </si>
+  <si>
+    <t>predator 198</t>
+  </si>
+  <si>
+    <t>PREDATOR 210</t>
+  </si>
+  <si>
+    <t>QUERANTI 210 XFISH</t>
+  </si>
+  <si>
+    <t>QUERANTI 270 XFISH</t>
+  </si>
+  <si>
+    <t>RED FISH 300 XFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO PARANA 270 BANDO </t>
+  </si>
+  <si>
+    <t>ROCK 270 SURFISH</t>
+  </si>
+  <si>
+    <t>san pedro 180 1 tramo</t>
+  </si>
+  <si>
+    <t>SENNA 2702 WATERDOG</t>
+  </si>
+  <si>
+    <t>sensosurf 390 silvtar</t>
+  </si>
+  <si>
+    <t>sensosurf 450 silvtar</t>
+  </si>
+  <si>
+    <t>silver stone 300 kunnan</t>
+  </si>
+  <si>
+    <t>SNIPER 390 CASTER</t>
+  </si>
+  <si>
+    <t>SNIPER 420 CASTER</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 180</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 210</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 240</t>
+  </si>
+  <si>
+    <t>SPIDER 385 ALBATROS</t>
+  </si>
+  <si>
+    <t>SPUN 3 MTS WATER</t>
+  </si>
+  <si>
+    <t>SPUN 3,30 WATER</t>
+  </si>
+  <si>
+    <t>START 360 SURFISH</t>
+  </si>
+  <si>
+    <t>sudestada fish 270</t>
+  </si>
+  <si>
+    <t>super x xfish 2,40</t>
+  </si>
+  <si>
+    <t>supercast 360</t>
+  </si>
+  <si>
+    <t>supercast 390</t>
+  </si>
+  <si>
+    <t>supercast de marine sport 420</t>
+  </si>
+  <si>
+    <t>supreme 180</t>
+  </si>
+  <si>
+    <t>supreme 198</t>
+  </si>
+  <si>
+    <t>supreme 390 caster</t>
+  </si>
+  <si>
+    <t>supreme 420 caster</t>
+  </si>
+  <si>
+    <t>SURUBI 1,80 ALBATROS</t>
+  </si>
+  <si>
+    <t>takumi 425 4203</t>
+  </si>
+  <si>
+    <t>TELE SURF390</t>
+  </si>
+  <si>
+    <t>TELECAST 4</t>
+  </si>
+  <si>
+    <t>titanium 390 caster</t>
+  </si>
+  <si>
+    <t>titanium 420 caster</t>
+  </si>
+  <si>
+    <t>TRONADOR 3 MTS ALBATROS</t>
+  </si>
+  <si>
+    <t>ULTIMATE 360 PLUSFISH</t>
+  </si>
+  <si>
+    <t>ULTIMATE 390 PLUSFISH</t>
+  </si>
+  <si>
+    <t>VALIANT 2702 CASTER</t>
+  </si>
+  <si>
+    <t>VARIADA 240 XFISH</t>
+  </si>
+  <si>
+    <t>VARIADA 300 XFISH</t>
+  </si>
+  <si>
+    <t>VENDETA 210 ALBATROS</t>
+  </si>
+  <si>
+    <t>WARRIOR 165</t>
+  </si>
+  <si>
+    <t>XTREM CHAOS 270 CASTER</t>
+  </si>
+  <si>
+    <t>ZARATE 270 XFISH</t>
+  </si>
+  <si>
+    <t>VARIADA DE RIO 2 T 3MTS</t>
+  </si>
+  <si>
+    <t>BAITCASTING 2 T 1,80 MASIZA</t>
+  </si>
+  <si>
+    <t>VARIADA DE RIO/MAR TELESCOPICA 390MTS</t>
+  </si>
+  <si>
+    <t>AGUA NEGRA RED FISH</t>
+  </si>
+  <si>
+    <t>AMBITIONS XFISH</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPDw0NDQ8NDQ0NDQ0NDQ0NDw8ODw0NFREWFhURFRUYHSggGRonHRUVITEhJSkrOi4uFx8zODMsNzQtLisBCgoKDg0OFQ8QFSsdHR0rLS0tLS0rLS0tLSsrLS0tKysrLS0tLS0tKysrKy0tKysrKy0rLS0tLS0rLS0tLS0tLf/AABEIAMIBAwMBEQACEQEDEQH/xAAcAAADAQEBAQEBAAAAAAAAAAAAAQIDBQYEBwj/xABHEAACAgECAgQICQkGBwAAAAAAAQIDEQQSITEFBkFRBxNTYXGBktEUFhciUlSRk6IjMmJjocHS4eIVJEJDsfAzNERyc6Oy/8QAGgEBAQEBAQEBAAAAAAAAAAAAAAECAwQFBv/EAC4RAQACAgAEBQMEAgMBAAAAAAABAgMRBBIhUQUUMUFSExVhMkJxoSKxM0ORI//aAAwDAQACEQMRAD8A/UkiikiB4KFgIMALAUsEQYKpOJBLiUKUeH++ZBaAMFQ9oCcSiXEiaG0qngBOJAtoCcSoNoEuIRLiRdk0BO0gWAp4AEgE1y/32ECaCM5IDJoo7SK0ZAwEAYAQUwhNFEgGAoSIh4KGkANBCwFGAgwAmFJhCCkwEwiQhMKkCWQSAgKQCwQJlGcwMyo66I0oBgAExeQpgDKhECIoKhooCKyv1EYcOcuaiuLa/cSZ1A5ml6alOy+CplJUS22OLW9Zz/gfPk+0zW29jpaXVwtTdclLHNcpR9KfFG9jUqJ3BCbCk2AsgLIA2EIITAhhSYEkCAoBZAlgZzAgqOkr/wBGf2EaV4/9Gf4feAfCP0J/g94B8I/Ql+H3hC8e/oS/D7ymx49/Qf2oaNl8If0f2oo+bVdJKtZlDPof8jM9HSlJtOnEu68UQbTrnw86weeeIrHR9CnhuS0b2xn18qw/F0W2NRlLEX3JvD4eZlrxEWnULl8NvjpN5mOjzFfhmi8f3CUV9KV/Bed4g3j1HqiIfKmXsOj+slus007aKJwnKCenlWpX12t54puMcLh2rtOVp1OnSIjT6tLqdRGtbtHYt2VOy26G+T5NtJfsJaLTWW+Sny/p4Po/rStF0l0k7lK1WV1LK3Jbo225eIxfDEvMcsc6gpj550+3V9eNNqW/FwnTfFZjfXdKmyPrnXiXoeTfO7Tw9Y9/6Y6zwmz0tUVZCnVWNtRtjPapxSX50Yp4kdIl5rV0468NF+XnSabHZ+Uuy/sizTm9I/CNJNp6aGU3H/iy44f/AGnktxGp1p93D4TW9ItzeqX4SJfVofey/hM+Zns39nj5NNN1/lN48TXHP6cn+41XiNzrTz5vDYpHSXUr60SazipeqXvPTWdvmXpNZV8Zn+q+yfvOnRymJQ+tEv1Xsz95dQz1Zy60S/V+xL3k6J1Zy60z76/Yl7wvVjLrXZ3w+7fvB/kzl1rt74/dsm4OrKfW236UfuxtdSyfW+/6S+6RNrpnLrhqPpL7pDYwn1x1PZKP3SCaYT66av6S+6iQ0xfXXWfSj90gafrqnf5Wteir+YaUnqPLr7te8BPx/wBYfqgveAtt/wBYl7CAl13fWJ+zEipdF31ifsxAiWlt+sWezEo+bU9FSsWJX2cfNEkxtul5rLiXdQ6ZPc9Rfl+aHuOHlq930KeJ3pGoiEx6hUrLjfqMtOL/ADOKaw1yLXBWJ3sy+J3yUms1jq88/A7T2a27Hnqg3j7Tu+XD1nVvqzPQUS09esvsrlHaozWFHi2tuHmP5z5NGJpEzt1545YjXo5r6kp4lqdTqrZRfCzdvSSeU8Sy0Yti37vXHHcsaikOVb1aq1Gv1U9ROdMXBKCgotze/s4PzvBiuPfSXLBxM4bc1YbWeD5S4UWW1rPGeoUW2vNCOH9pqMER7vRbxK9o1NYadJeC/T3x4321zzulKuuuMW+3EV7ztFdPnzfcTGnMj4GtPnMtZqGu5V1r/XJqXOHe+T3S83bqW28vDrXH2TzzgrM7l9XH4rkpWKxEdD+TzSeU1PtV/wAJPLVa+75u0Lr6haWLyrNT651/wljh6xO3HJ4jkv7Q+2HVLTr/ABX+uUfcdYrp475Js0XVXT99vtL3GtQxMj4rab9Z7S9xdJsvitpu6z2/5BNl8VtL3We2DY+K+l+hP22AvitpfoS9tkUn1V0nk37cgJ+Kej8k/bkBL6p6PyP45e8Il9UdF5H8UveBnLqhofI/jl7wbZvqdofI/jl7wbe2SCrSAMAGAFgBgGAFtKpbQFtANoQtoBsAXi13ImjY2FBsCFsATgAtoBgA2gG0KTiEJoIlxCjABgCWiCcAJoBYCpkgjPAHVQVWQGgHgKAgACgAQAAmAACAGEACYEgAUBCwAMCcgJgS2AYAABkEMqpZEIKQQmwMmB1EFUA0FMICgIAoAEAmAAAAggAABgS0AgAKTAQQmAgFgBMBZIBlVLIiGwEFJsIlgZtgddBVYAAGUAQgABNgLIUABAmUNBAAAIBMBMBZCk2EJsCXIBbgDeBLmAtwA5EEuRRDZAZCpbKiJSIMmyjsKZFVvCGpFDyAOQC3AJyAW4A3ALIUZANwDUggcgFvCluCE5AS5ALcBLkAtwEuQC3ALcBLkELcAt4EymDZbgpbgSnIREmBk2B10yKpMopMug3IaC3DSbLJdA3FBuMypbiBbgo3AG4BpkNHkoTYCyDRNkQslElUmiIQVOAgwDQwDROJDUp2jZqS2g1KXEGp7EkNrqUymlwbS9LQ2kxLK7VVwW6dlcF3ynGK/aWB5Lp3wh6PTS2RVmpf0qXXsXrbWfUVHCl4WqsvGiux57YL9wNPf9IdYK9N/wAxZRVLmoSm3N+iC+c/sIsVmekQ4UvCTTv2xpulDDxYoNKTXcm0xt1jBefSH0Q65arMZPo63xU4wmnCcLLlCWNsnSpblncuDxzNOM9nT0nWiFrUd0aJubrUNVVdpm7E2nBOeFJ5jLgm+TKjruWo7q/sl7y6RhPWXKSrShKbW7bGMniPe3yQ0u2EulbPm42uTco7FVNyTi8Syl50WKkS+KfT1vzlGVeYtxknXJYks5jx7eHLzmMlZj0d8XLadS5d/WzURy3Zp4LjjdXNuWHjKUU+HneDzWtavrL6GLh8d/SsyNL1j1djkvG6epxk4tTrk3lc+EIyfr/mc4yXn3dMmHh6a1WbfwhdZNY7JUq3TqyOcKUa4Kb7FFyxlvsHPfcxt0nh+HrSLzWev9H/AG50g3CKs035SKlGSlpNqWWnl7uzD+wc2TuxGPhZrNuWeh6rpfpKMoQhZVc5p4dEapLK5p7sNd+eWPWJtk7rTFwsxMzWY13Y29O69OMYarT2yk9rVUU9jw3hvbjsfFZXDmN5O5NOFj1pMPkv6z66Mdy1NNrziSog5bM8m90I8OzKzx9Rmb5I99umPBw97a5JjfdEusuvW2LvxbLGKXU1Ys8k/m4TfdntRea8a/y69j6GDczGOeXuldY9a45errUmlJQf5zTWVxUdqysPi+0nNbW+Y+lh5tRimY7vno6z62bxLUSrWMuU8JJepNt8eRmmS1p62d8/C4cdNxj5paf27rXNR+GLZKDmrXJxjtTw1hxTbz2L3mua2/1dHnrXFNJt9HrHsI9Ma6VihDVb4uErHd43bXGtNpyk2ljisetDdt6iyx9CMc2nFqezLpDprXVNf3mVkJZ2W1Xb4SxzWVyfFcPOYyWtWf1bduGx4M24nHyzHs5760a3yuo7f82X2ljm+RNMUdPpM31m1nltR97InXf6nSMWPX/Ez+Mur4N3X8f1suH7TVa2mf1JNcMa/wAB8YNU/wDqLvbk/wB50th1/wBrG6a3GH/Q/tvUNNvUXLuWZceHpOVqzH70i9fT6P8Apr0frdVfYq1fOOctycm1FL18exes415rTrbpxt8XDYJy8nNPtHeTj01p3KcfhuqxXOMJ3xg51Rk20uPN5w+XDhz7TvOC+ukvh08Uya5rYY/hn0lqNRTNR8e7ISW6u1PCsj383j7Wee8Xr6v0HBZMXE4+eKa/Dm626VtN26bTVc5ww8vxkY7l9uGvWdMF9X/ljxDh6zhmYj0eNlq7HznL7WfRfl1ae1KWbMzi+cU9rfrwWJQPD4l6D13SPQWp02rtq1ttb1bgrptO21uVnFNtR4v0ZXHn2GLROuj1cLemO02s06H0Nc9RTG6+qFcr6Y271dHFO5KWW44XzXLtOdd76vZbiqamYnrL2VPTmjb1Govvp0879Ta7qq9Pqm79NCt1RjNqLabjZZiWVxjHHBNHbb5LhdNWy6VnpF0XK7UfA4tuS0uotU9S5Ripzco7U3Gut5lwy3ntGzT9L6g9A6rSaKNWv1TnbubhVudq09fZDf2+jilyXAnNJp0HZXXK/dZY7PGLCVc3uW1bVu5d/wBpuIt6sTMR6vi0UIrxqnZPxkpSf/DlJdzXBcs5frRes+hz1j1cnWwTrahNt/OSjCC4tcezH+Hc+XajnaZerFMRqzyup6MtlBX2y26bxcd1ylW8QUUtsVu4z4Y288v1njy47Tbmn0fY4fiaVxzjrG7vrqeoXjlp6nqovUXuVcqa9RGmTsljK/OjmO154L04Y6+kdXC1MV5rfJPLMR+dy5Tt8XqoTyoqq+mcvFvdGLi4yko8XlJ7scTzXn/6dH1605+GnfXpL7IaeycoQqk3bW9Xp61YklZKNrk4JPg5ONreH3eg6794nq8FYrSurek6mf8AxF/RN9O1Xb6L73KFcJThF2Jxlu4LhGL4Q587OxcprpuZ6utc8XmIrG61/B/2fdp1X8Iq1FVnwmmyO+e1OvK5V9+cfO9CJXcerWTNXLaeTrGp9vd8C0snXOyqNltdS/LyltjKpLscU3wePzu3GOD52PXpLfNPpkjrrpptPQXxtjZqFKHjbcwlvg3bZKWU48Xlcct93nwarTV5tMwl8sfSimOu5Kiq6VVTVMLadibutjXthDCylYsOG3iuLzw5dh1m06iutw801ibTeZms9oc7TaN3SlXXjO2TjGc4wclnknJpZw8+pnkpTmtMRL6HEcV5fFW16zO+k6dPXdGXWutTjTHUuE841GnXjYR2pcE8KXF9vFLzHa9Zt+rpL5fC8VTFNvp1tNJ7/ler0Nr2wudVepuqlBNaihQuUJ1zjGUVwT4Pt4tR7h1tGp6S6YbUpfeOJmkTty9bo5UwULHDfOan4uFkJ7UotNyS5N5Xb2P1YvSa11MvpY8sZcnNWOkQ+NzWOTfYvnrnjg+X7DUTqHKes+kdUyknnEXxzzkn+4kzG9kVtFdREalPi33Pm2uPb9nn/aai/Ri2GvNrXQpxlyalwXe1ju9BnfvPs1rry0iNSz2S5YljzTZYvHdynBabTMViXQ6Fj+U2brIOyLinGxxlufn/AHeguO8c/Vy4/h58tqI99vp1UYaXo+rSdHU3rXXxrWr1ca3GCePnp3SWMNtqO3kueHlP3c0Pz2ny66l1w02mcpWS09WybcnKMZcPmxzyXDl6D5+eYmz9J4TivXHNre75YtR3SljbGE5NN4TxF8DGGN3h7OOtFcFpeLwfUfj22lkozhKUYzUXlxnlxljseOOAHBcEB/SnWDq6ukFD4XpoynXwhbGartjF847ovO3zevmTqrpui9wjU6q3VCMYwhLZKMYpYSw/MNI8/q+o0btZDW2UwzVGCror8TVSpxk5KyUY43PL7e7tGh6HxOqxhRikuS3RwhpUy02qf0faQ0M5aDUvDxDKWE3JZSLoZz6KvksNVNZzhyTWe/kRdvj1XV2+eV+R488yfH9hi1Zl2x5Yq49nUO6Ut2aPaln/AOTzzw9u76VPEaV9kx8H9/bPT93OT4d35pI4e3tLrPimKY1NTfg/v8rR9s/cZnhLd2/vGPsXyd29t1X43+4eVt3T7vj9qH8nNnlquPmn7i+VnuzHi1I6RQLwbzX+dSvRGQjhJ7n3antQ/k4l5ev2JMeUnus+MV+AXg2xn8vXx5/k3x/aXys92fvFfifybLOXfHPf4p+8eWn5JPi8fAn4Nk+eoXo8W/4hHCflZ8Y3+wvk2j26hY/8X9RfLTvfMz93jWuQ14N4fWP/AFf1F8rv1sn3bXTkNeDeH1h/df1E8r+SPF5j9g+Tev6zL7r+o15b8pPi8/AfJtX9Zl93/UZ8t+T7tPxHyb1fWJ/dr+Ivlvyz91t8C+Tajy9nsL3jy8dz7tf4n8nFHl7PZXvL5aO5Hit/iH4OdP5a32V7yeWjuk+K3n2afEOr6zqH6zX0fzLl5+N75IZfJ5pvK3fhJ5aO7pHi2Ts+XW+DWmyLh8ItjGWM4gm8d2cm6YYrO3HiOPvmpyy5tngg02Pmam5PvlCLX+p2eB5bp3waazTv+7wlq4P/ABVbU15nFvP+pUcSXVLpL6jqvYA/qZIqKCqwAgEFJoiE0BLQUYAMA2WAAAAAAAAMAS0BLIqMAACATAQCYRIUmEQ2BLkAmyolsCJMIz3AejKp4AYCwAsEUYCE0FS0BIDAQAAAACAGAmwEyCWFIBAIGiYA0BOAiWgqWEZtAQ0BLZUTJgZSYROQPTpGlVgAACBEUgABNAS0RCaCkAgEyhNkC3AG4oMkAAmgE0AsBSwDZAGAhMCWFRIIzkBDAiSAhoCGUQB6VSNI0TAMgBBLCgAIEyAAlgSwEAAS0BLAQDQAAsgJsAyAskCAMgJlEsKmQGUgiGBMgIYESAz3FHo0dEUZQshRkgNwUbiAyAsgJsAyRCbCjIBkCWwJbCEFNADAlgSwE2AsgGSATAMlEtgTJhWUghMIloKiSCs5hGLkB6VHVkyACpIEQBFGQJcgDcAKQDyQACATKiGRQAZClkAbAlyAlyCFkB5AW4BNgQ2BLYENgGQEBMmFYyYHzTsjlgeqSOrmrACaIqcEUsADRBLQEtEEsKnJFG4IN4BvANwCyAZAWQoyAmwJbAlsBZAAABNhEMBMCQh4AQVnIKxmB8jT7gPYI6uZ5AnJFIkhBQAEEtBU7SBOIEOJFJxAloCcBCYDQUAACYEtgSABAAAS2BICZULJAygZBnIKxsAwCvVI6MBgSAZIEFMgABhUhCIpBCaAhoipaAnACYVOQhZAHICWwFkgEyh5AWQEwEESyhEQFAwrNkVjYBiwPUo6SgAWQEyCckC3EApDam5BEtgGQpZIg3FEuRAmwEBLCokyCGyiWwIbIDIApAG4oeQhOQVO4IMgADKhNgY54sisrGBi2Db1SOkiQAqAyqGSRJlUgMBMAYEsBBAwEAwADORFZsohgQyBgIBAMCZBElQwpxAo0gJIxXOXpIrKwqMWUf/Z</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/Ha6moH-lbCxVHu6pnOeE6Krf9KgDrUP_YKAbgPdRv5s/rs:fit:500:0:1:0/g:ce/aHR0cHM6Ly9odHRw/Mi5tbHN0YXRpYy5j/b20vRF9OUV9OUF84/ODU3NDQtTUxBNTE1/NjEyNTY0OTFfMDky/MDIyLU8ud2VicA</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/-WHRBCfIVbq4l2uIX8Yi0IeMywWLYE5ifaL8cDePHtM/rs:fit:500:0:1:0/g:ce/aHR0cDovL2h0dHAy/Lm1sc3RhdGljLmNv/bS9EXzkxMTQ5Ny1N/TEE3OTY0NTU3NjQ1/M18wOTIwMjQtWC5q/cGc</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/xfLUTDawqZFFR7NNkvp6tuklYFb_dMXq4hWcGPXUNc0/rs:fit:500:0:1:0/g:ce/aHR0cHM6Ly9odHRw/Mi5tbHN0YXRpYy5j/b20vRF9OUV9OUF85/MDk1NTAtTUxBODE4/NTUyODQzOThfMDEy/MDI1LU8ud2VicA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUQBxMVFhUXGBkXGRgWGBoYGRcaIBoXFxkXFiEaHSghGB8lGxMTIjIhJSkrLy8uFx8zODMsQygtLisBCgoKDQ0NFRAQFSseHR0tLS0rLSstKysrLSstLSstLS0tLS0rKy0tLSstLS0tKy0rLS4tKystNy0tKy0tLS0tLv/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABDEAABAwIEBAMFBgIJAwUBAAABAAIDBBEFBiFBBxIxURMiYRQyQnGBI0NSYpGhscEVJDNTcoKywtE1Y3NEVJLh8Bb/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAHxEBAQACAwACAwAAAAAAAAAAAAECESExQRJRYXGB/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERAREQEREBERAWDwTNEVTNNTxNkY+Jzx5wAJAx5jc+Mgm4D2kG9iLjTULOKL8jxslxeoqsNMr2eE8SuuDCyaR8byyPX3+VjeYAacovqUEoIiICIiAiLG1+NxRO8O7pJdoohzyehIHuD8ziB6oMkoX4r51dO92HYG8CMXEsgOj3f3YPTlHQ66n0GvniHxBqy99FRckQtZ/hu55G36sc8Dla4DqGXte3N1WgYThsk8jKfDmF0jzYAfuSdgOpOy3jjvm9JaYJgktRK2mwwFzyddvmXHYAEEna+9wuoMMpTFDFE43LGMYTa1+Vobe23RYPI+T4cOi5YrOldrJJbqevK3s0Hb6lbKrnn8v4mOOhERc2hERAREQEREBERAREQEREBERARFqmP4zLNMcNy0601gZ57XbSMP7GVw91n+Y6dQoZkxGermOG5beWWsKqpb9w0/dRHeZwP+UG+m2x4Hg8NHAymwtnJGwaDqSTqXOJ1JJJJKYJhMVLC2CgBDW3Nybuc46ue89XOcbkk91foCIiAiIgjTijj1e2ogw/L72xeOB5yeUuJLmhjXfd+6NRr5hqN9YxDiJVU9PJQOpY6WrDuR7oiOUC1y8C585v15ndb3VTjjikTqmCKCQGSJruYNvdriWOaCR0NgD6XCjok3Lnkuc43JOpJOpJ+q3jjv8ASWvUETi4NiBc9xAG5c4np8ySug+H2TWYfFzT2dUPA8R34R18NnoNzufoBo/BvLbJnCumaSI3HkJHlc8XaOTuG3cSfxctvdKmZMsvIaERFhRERAREQEREBERAREQEREBERARFrOaMwyMe2hy8GyVkouL+5AzoZ5uwGzerig85lxuUyjDst2NU8XfIRdlLGfvZO7j8LNzr0CymXcCio4RDRXOpc97jd8rzq+SQ/E4nX9gvGWsBjo4iyIl8jzzyyv1fNIer3n+A6AaLLoCIiAiIgLS+JGcxQxiGiINVNpGLX5AdPEcPnoBufQFX2fM4RYbBzyWfM+4ijvq4/id2aNz9N1A1ZK55fW5mLnyS8xa2/KSQLA22jb006co6rUx2MbWQuiLjiF3Sm7iSeYuJ1LuY7Xvr8762Cl3hxw6jMAqcyx80jxdkbrgMb3cAfePY9Bbe6p8L8husytzKC46OhifqWDrzvv3NiG7WBOvSWFcs7rU6ZmPqjSUrImNjpGNYxos1rQAAPQBVkRYaEREBERAREQEREBERAREQEREBFrWdoJWxirwh/h1EbmNaXEmJ7XyMYWTtHvM817jzNtcHqDiMzZjrYIoWUJidWzlojpzHzE/jeS145WNHMeY6aa7oMpm3M5gc2jwRolrph9nH8MY3mnt7rG9e5tYel1lLLbaNjjK8y1Ep5553e9K//axtyGtGgHzKtsl5TFGHzV7/ABqubWaY7/kZ2YP1O+wGzoCIiAiIgLA5xzTDh0BmrTdx0jjHvSO7DsNydh9Aq+aMwwUEDqjEnWA0a0e9I7WzGDcmx+QBJ6Ln3EMUfiM767MTwI2aCMOHlablsbATfXl6/Ee21k2KVTiTqqaSuzG650LWdA4a8sbB1DevQEdbkXud94aZJdUyDFMxMs24dDEb2NvdkcDc8o+EHra/S17Lh9lB+JStr8dby0zD9lFtIR/sBGtrcxFrWFlNoFtGrVvkR9REWFEREBERAREQEREBERAREQEREBEWEzZmSKgh8SoBe955IomavmkPRjB8yLnZBiuJ2NNhpHU8AL6mo8kEbdXF9xyut2Drf/rkVsmZXfTl9Zjr/GrpgPEkPRjdoYtmsHoBc69gKeUctSNkOI5mIfWyDoNWUzD0hi+h1dub/M7cgIiICIiArDHMYho4H1OJu5Y2DXuTs1o3cToAq2JV8dPE+eveGRsBc5x6Afz+W6gHM2Pz4rUMqKiF5oo5OWOIG1wPekdtzWIuegBtcXJVk2LDHMwPxWpNRjDvDhjB5IwfcZcDT8TyeW5A/YBZnIuUXYrOKitbyUUR5QLWMtj/AGbbdGjfU290Em5FrlbJrcUq3uog9lGx5538oYHaktihGpHl5bk9ybNuAugKGjjhjZDRNDGMAa1rdAAOgC1brpFSGJrGhkIDWtAAAFgANAANhZe0RYUREQEREBERAREQEREBERAREQERYzMeOwUMD6nFHcrG7fE52zGDdx7IKeaMww0EBnxAnrysY3V8jz7rGDclYHKWXZpJv6VzYAapwtDF1ZSRn4G/9wg+Z3qR3VLK2Bz1c4xbNjeWT/0tMelMw/E4byuFrnb9m70gIiICIiAqNXVMiY6WrcGMYC5znGwaBqSSqkkgaC6QgAAkk6AAaknsoIz1myTF520WCEilDrc3QTuF3Fx7tAaXBvU2va9gAtM6ZolxiUtpS5lHE9oY0NJdK9zgxr3NuLkucLNJHKDrqbJl/A5MQldQYFzRUsflqZrg89iTZptYkkycp3a8cws0NVlgNFWV74sOw+8Xhf20jHeVrLADn5TbmALxyg+Zx11BKn7LuBwUUDKbDG8rG/q47ucdyVrpFfCMMipoWU+HMDI2CwA/cnuSdSdyVeIiyoiIg+E919WscSaCSfD52UNy4AP5WmxeGnmc3TuAdFE2Tsz1NFG2oopXz02njQvJcYjuWX1aOxGncbqybHQCLWcMzkypjE2FU1TLGSRzNbHa4NiPNIDoVb4pn6Kmbz4rSVsTL25nQgtHzLXkBQbcsLjGa6KlkZDilQyN7+jTcn5usDyj1NgtHxzjFTGEjLrZHzuPK3nZytYT8RufNa406ai6h6qMr5DJWFz55D1Nybn9ydVvDH5X8Jbp1T/SMP8Aex//ADb/AMoudf8A+BxT/wBtJ+jP+UWvjh9s7y+nSiIi5NiIiAiK1xTEYqaJ8+IvDI2Dmc49AP5nYDdBSxzGIaOB9TijwyNguSd+zWjck6ALS8uYRNiU7MWzQwtjZrR0rukY2nlG8h0I7aHta3wLD5caqGYnj7CyijN6Omd952qJhvfqB/LV8loCIiAiIgIT3RQxxWz+6Uvw3LjiWgO9olZrcAHnjZbYAHmd9O6DHcVM/OrHPocBcfZm6SyNufGNwOUEfd8xaPzEja18RS4cZ5o8PywC6QXd4hJtAHeG4yOs0XcGsaL7c7mWJs5WuCz+IyGmyxF/XXEs5tbgWBfI42tyaNte/KbkWLRzTpkTKEWGweHD55XWMsttXu7Ds0XNh9epK10i6yhliDDqdtPhw9XvPvSO3c7+Q2GizaIsqIiICIiAoS4t5dFHIKnBPI2oEnixiwboAXOHa/MSR31HUqbVGPHu7aSCRv8AeuYfk+CYfxa1N0apwuwLEJhPFTzzU1MCD5bt5pDa4bvo0C5BHULY8zZNoKKB1Vmaoqqkg+WN8zrSP+FrQST9b6C5W05fxSGkwxtXiLgyPlLye9zZoaNybNsB1uoRzfmeXEJzUVvlYLiKK9wxvr3cbAk/8KybGELhzGRwAJNwB8I2aNzYaXU0cMMhmIjEMeBMzheNjtfDB15nX+M36bX79MTwoyJzluI423y9YY3Dr2lcO34R9eymNayvkSPqIiwoiIgIipVVQyNjpKpwYxgLnOcbBoAuSSegAQea6sjhjdNWvDI2Auc5xsABuVG9BSyY/O2rxRrmYZE68ELtDVOGniyj8HWw+ne9CIS5iqOaUOjwiF+gN2urJGnqdwwft0635JThia1oZCA1rQAABYADQAAdAAg9NaALN6BfURAREQERRjxV4jeyg0WBOvUuFnvHSEb22MliNPhvc7Ah54k5zkfIcJyrzOmdYTysBPgtJDSAW6g2d5nfCPXppNE1lDE2mwphlq5rNsAOZzrkGNu7WgAkk6WIdc9FotPK9r2+xlxkLhYtuXueTpbdxJ/W66I4eZNdTc1bjx562a5drdsDXEu8KK5Nhcm9vkNBrqXSK3DfI8eGw80wa6pkA8R46N38KO+oYD+pFzsBuSIsqIiICIiAiIgLQON8HNhb3aeSWJ2vq7kP7PK35zgAS42A1JO3zXO3EfNcmJVDoqcltLEeVg1+0N7GU+mw9D3JVk2lumGxXH5aqKCGbywU8bWRsB0JDeUyO7uP7XsN77XwwyKa14rMWb/VmHytP3zh/sB69+ndYrhzlH+kJy2QEU0R+0cPi7RtPc7nYD1C6IpoGRsbHTNDWtADWgWAA0AC3lZOIk57VGi2jei+oi5tCIiCwx7F46Snkqq+/hxN5ncouTsAB3JIH1WPwHNsFS50REkE7QC6Cob4cgadA4Amz2k7tJCyuJ0EdRDJT1zeaORpY4dwRY/I+qi2LLlYa2mgramF8dJ7SI5ZIuebwwyMeHPc8jxyVEZv6EnVBK9TUMjY6Spc1rGguc5xAa0DUkk6AKK5qqTMdQYKEujwqBw8V4u11U8WcGDs3obbXBOpaBg34Y/Gqs0mAyubh8JAnnjY2Jkrrg8sbWANf0Fi69tXdgZowbCoaSFlNhjAyNgs1o/cnuSbkk9SUFejpGRMbFRtDGMAa1rRYNA0ACrIiAiIgIi0riNnltAwQ0Fn1Unut/u29DK/0GthvbsCgsuKWf8A2JhpcHPNVvaemvhNtcuPd1rkN+p2Bgelri2N4qmh4e/ne91y8u7Mdrre5J3JI1Xk1MjZXzTyOMnMTLI7Ul19W69Tf9OilvhZw/DzHiONxcgFnQQHbtLIDfX8I20PZZ3u8C/4ScPxTgYhjLft36xMcLeCwj3iNnm/+UablSkiLQIiICIiAiIgIijLirnzwAaDBXfbuH2jx9y07D85H6DXcIMTxXz34hfh2Cu8g0nkB6neJp7fiP07rUMqYNUYm9tHTANijA5pQ23ht/DffmF7N+ve+My5gM1dO2lwsa9XvPuxt3c7/jcrpHLWAw0MDafDxoOrj7z3bvd3J/8ApavCPeA4LDRwMpsNbysb+rju5x3JO6yKIsqIiICIiD4TbUqCMfqX47irqbLD3tpmt8OeZpPIW3PO8W0cHAMYASebkBtYLLZ3zPPi9T/QmS3eTUVM4vy8oNnNBHwDoSPePlGl7yRlLLNPh1O2mwttgNXOPvSO3e87n02GgQXeBYPDRwMpsMYGRsFgNz3c47knUlX6IgIiICItezvm2DDaczVpBedI476vd29ANzt+gQWXEPOrMOhtFZ9TICIYr9T+N35R+/T5c74rPK6aSSre50rzzySnq0HUBvY2sLDpb0sPeYa6eondVYm68so5ub4ImWtZuwtY2H1313Hhfkl+IFs+LNPscZ8ofq6cjq3UX5Aep+g3tm8qyXCzJBrCyvx5g8BpvCxw1mI6Sv7jr197r3vOC8xsDQGxgAAWAAsABoAOy9K6QREVBERAREQERanxBznHh0Pks6okuIo/Xd7uzR+5sEFhxNz0KFns+GkGqkGm4iafvHevYb9egUG4dQzVU7YKAGSaVxJJN9Tq57zsOpJXiV81RMSeaaomf83PcdLD9vQAein7hxkpuHQ81RZ1TIPtHjXl38Nh7Dvude1tdIyWSsqxYdTiGm8z3WMkltXu/k0a2G31K2BEWVEREBERAREQazkHJsOF04hpfNI6zpZbayO9OzRqA3b5kk7MiICIiAiKI+LHEvwS6gy48eLq2aVv3feOM/j7n4enXoGazpxVp6KU09Ez2iVt+ezuVkZ/C51jd3cDpuVCGYsdqK2c1OKODpXf2bB7kTNdtgP3N+qwYdqr7D4HVErKeEHnmeyPQXJuQ0D5W/YJcdwbZwxydJiMh8UvbSMdeV4JBlfp5GH1Fr9hbey6OpaZkbGx0rQ1jQGta0WAA0ACt8GwqKlhZTYc0NjYLAfxJ7km5J9VeoCIiAiIgIiICIsdmDGoaOB9TiLrMaPq47NaNyeyCzzjmeHD6cz1mrj5Y4wdZH7AdhuTsFzhi+Jz1U7p64mSaU2AAJts2Ng2A6AfxJVxmrMctdO6qxI22jjv5YmfhHruTufoBJ3CPIfhhuI400+K4XhY4W8Np+NwPxkdOwPc6a6GS4WZC9jZ7Xi7R7U8aDr4LT8I/MdyPl3vIiIsgiIgIiICIiAiIgIiICIo04s8RBRNNHgzr1Tx5nDXwGnf/GR0G3U7AhZcWuJHgc1Bl9323SWVp/sh+Bn5zufh+Z0ghfS43JcSSdSTqST1J7leSqPhd3U/cG8g+zMGIYw2072/ZsPWFh3I2e4foNNytc4L8P8AxnNxLGmfZNN4GO+Nw+9cPwg+73OuwvOyUERFAREQEREBEXmSQNBdKQAASSTYADqT2QUcQrY4I3zVzgyNgLnOPQALnHPeb34jN4kl2wMJEMZ/1v8AzH9hp3vkOJmeDiEng0RIpIz5dvGePvHflHwj6/KpwyyMcQk9pxYH2VhsAfvnD4R+Qbnfp3VGW4TZC8YtxHG23jBvDGR75HSR35RsN+va82LyxgADYwAALADQAbAdl6UBERAREQEREBERAREQERWuJ17IInzVZs1guf4AfUkD6oNc4m5rOG0ZlpgDLI4RxX6BxBJeRuGhpNtzZcwVE75HukqXFz3kuc5xuXE9SSpEzfi0mKvkfK4MhYD4d/dB2H11BPrfawjqaJzSWzNLSOoIsUxsq6UyVv8AwqyA7EJRUYi0ikjOu3jOH3bfyj4j9BvbH8N8jyYnP57tpoyPFkG+/hsP4jv2BvuL9N0FHHDGyGiYGRsAa1regA6AK2oqxsDQGxAAAAAAWAA0AA2C9IigIiICIiAiIgKDeK+e/anOoMHf9g02lePvXD4G92A9TuR265Xi3n0jmw7An2d0nkb8I3iYdnHc7DTr0jnJ2V5cRnFPQ+WNtjLJbRjfTYuPQD69AVRf8P8AJj8Tm+0uyljI8Rw6uPXw2epHU7A+oXRtFSRwxsho2hjGANa1ugAHQBW+CYRDSQspsMYGxsFgNyd3OO7idSVfqAiIgIiICIiAiIgIiICIiDy94AJeQANSToAO5XP3FHiJ7ZJ7NhR/qsbruPTxyD19GDbv17K94vcQ/HLsPwR32INpZG/eEdWNP4Aep+L5dYmJQbgzEGuAfBpGw+Vu5d3cO63rh/ksVp9rzAwOiBs2NwuCRrY36Advp3Vlwh4c+Ly4hjzPs+sMTvj/AO48bt7Dfr0tecI2BoDYwAB0A0A+SxMJLtbdqVHSRxMEdExsbB0axoa0fIDRV0RbQREQEREBERAUc8T89Opw6iwDzVBbeR419nYd/wDGdht1WW4g5uNGwQYUA+rl0jbcWYN5X+gsbDcj0Kgisnfzey4UHyzySDneNXySk3/Y366DX1TZpa4NhM1ZOykwocz3kkk6ho+KR57C+p3uBuumcp5dioKZlNQjoLudbWR/xPd8/wBhYLE8OsnNw6Amo5XVMtnTPHf8DfQXPzJJW3ICIiAiIgIiICIiAiIgIiICIiDjEozqvqIrsai/s2f4W/wCroiIIiICIiAiIgIiIIJzV/1iv/8AHF/oVlwp/wCsRf8Ahd/pC+Is+r46EREWkEREBERAREQEREBERAREQEREH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMQERUUExMVFRUXFRsYGRcYFx0aGxkeGh8YGhshIBgdHSggGh0mGxsbJDEiJSorLi4uGiIzODMsNygtLisBCgoKDg0OFRAQFS0dIB8tKzctLS0tLS0tLS0rLS0vLS0tLS0tLS0tKy0tLS0tNzctLS0tMS0tKzctLSsvLTItLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABwgEBgEDBQL/xABNEAACAQIEAwUDCQMGCwkAAAABAgMAEQQhMUEFBhIHEyJRYTJCcRQjUmKBkaHB8LGy0RVDktLh8RckMzQ1U1RjdILCCBZyc5Oio8Pi/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAIBAwQF/8QAJxEBAQACAQMEAgEFAAAAAAAAAAECETEDIWEyQXGxElEEIqGy4fD/2gAMAwEAAhEDEQA/ANdkw+L4Nj/AQmIW/SiqFimiy3v4wbHLIgjW4qauUuesLj4kYukMxPS0LuAwcahb26x5Efgbivvn7liLiGFYMhMsas8LLkwYC4APkxABH5gVVqROvM5k63rZLa5SZTK9+y5dKr52d9qU2DKwYxmlw+gc3aSL7dXT0OYGmwqfsLiUlRZI2DowDKym4IOhBpZp1dtKUrApSlArwObOaY+HqgIDyydXQjOsa2QAuzyvkiKCLnM5iwNe/WLj+HQ4hemaKOVc8nQMM8jkQdqDTOH9pK2w7YzCyYSLEErHMzdUdxYrdrKVVs+kkaC9rZjfAb6V4fE+UsNiYWhlErRMAChnlK2FiLKXIFiBa3lWi8DxM3LmJGExMjScOlf/ABeZs+5Jz6WOw8xp7wsOuwSvSuFN8xpXNApSlArxua+WoOJYcwTrcaq49qNtmU7H8Doa9mlBVjjHKuJ4fimw08fWhUskgIVWQEDrUsQARcXUnK/kQTtnLvMEnA5vB3k/DX8TeIP3fjZOtCNslNt+rW9iZm5j4DFj4TFLcbo6npeNrEBkYZqcz8QSDcEiokx/VhJv5N4gh7mZX7vELIwEhZr2XKwJJzVzYXtmLFqjE0YDGx4iNJYnDxuvUrKbgg1kVX3gHGsVy1ie6mvNgZWOa5gebL9GQC3Um+2xqeuHY6PERJLC4eNx1Ky6Efrass01kUpSsClKUClKUClKUCoB7YeSjg5mxkK/4vK93AH+SkbX/lY5+hJG4qfq6cXhkmRo5FDo4KsrC4IOoIrZdMqoDRhhcVunZp2gScMcRTdT4VmzXUxE6sg8vNd9Rnrx2i8hvwmXvI7vhHbwtqYyfcY/sbfTXXUHjDC4q+1Zwt3hMUkyLJGwdHAZWU3BB0INd1Vv7M+0F+GSdzMWfCscxqYifeX08131Geti8JiUlRZI2Do4DKym4YHMEHcVFmlO2lKVgUpSgVicU4bFiomhmQPG4sQfwIIzUg5gjMEXFZdKDRuWY5+EP8kxEneYS4GGmPtIP9W5tYW2/DLwpvNdGMwqTIUkUMrCxB/WR9a8DCYp8A4hnYtAxtFMfd+o529D+WkXK43vw7YdOZ46x9U9v38efDZqUpVuJSlKBXk8z8uwcRw7QYhOpDmCMmRhoynYj8cwbgkV61KCtXOEeM4ZbAYwCXDE/NTlbllFrAMSejpsLqtjfPxA+JyJzlLwWXpbqlwUjDqUZ9BPvLsGtqNGH2GrA8ycAg4hh2gxCdSNofeU7Mp2YfrKoPkil5emOFxKNLhpG+adQOiUHLpcNfpK3zAzz3FVGJ74dj48REksLh43HUrLoR+ttqyahCLjMnL06SLG/wAhxBvLB7QgfK5RhkDn7Ohzte3hmbhuPjxMSTQuHjcdSsuhH5H02rLGsmlKVgUpSgUpSgUpSg6Mdg4542jlQOjgqysLgg+lV07RORZOEy95H1PhHaytqYyfcc/sbf462Srox2DjnjaKVFeNwVZWFwQa2XQqMyBs63Xs07QH4a4hmJfCsc9zET7yjdfNftGeR6O0TkOThUneR3fCOfC+pjJ0Rz+xt9NdddwOBEyu3WF6RkMyWJ2AFX2sSthh51kVXRgysAysDcEHMEHcWrsqFeynntcMFweIKrGCe7e+Skm5BPxNTSpuLiuanNKUoFKUoFdOMwqTIUdQysLEH9ZGu6lGy2XcaxhMU+AcQzsWgY2ilPu+SP8Akfyv07OK6cXhUlQo6hlYWIP6yPrWu4TFPw9xDMS2HY2ilPufVb0/WlwvP0fH09Nk683PV7z9+Z58NopXANc10eUpSlArzuPcFhx0LQzr1I2fqpGjKdmB0NejSghDiuBOBmXB8QUy4Vr9zJ1FY20ydb5FcrLn0eIr4bAYHAOJYjl2UP45+GyvZvCR3bXtcAk2Pkb9Mg0OlTfxvhEWMhaGZepG+wqRoytqrA5gioY4pwL5Biljx958MVKQsco2BN81AykXUrfbqXTpqt7YmzhvEI8TEk0Lh43HUrLoR+R2I2NZVQRwzHzcuSiRC0/C5mHUNTETuM/LQ6OLb2Jm3hnEIsTEk0Lh43HUrDQj8j6bVljWVSlKwKUpQKUpQKUpQdGNwiTRtHKgdHBVlYXBB2IqHufezRcNH32EuI0U9Skk2A1udT8fv86mivl0DAggEEWIOYIOuVBUiRvlGQIUiwC2sLCpk7Ju0ASqmBxRCTIAkTHISAZBfRwNPpD11wu1Ds0ABxeATpKi8kCDIgD2kUbgaqNds9YqVhMAQemRcwd8q6drE8Lb0qL+yztG+U2weMa2JXJJDl3wGx/3lv6XxqUKizSilKVgUpSgV04vCpKhR1DK2oP6yPrXdSjZbLuNXw2JfhziKYlsOxtHKfc+q3p+zXS4XZwb11YrDLKhR1DKwsQf1kfWtdw+IfhziKUlsMxtHKfc+q3p+zXS4Xl6Pj6emydfvPV9+Z5+20UrgG9c11eUpSlArB41wmHGQtDOnWjfYQRoQdVYHMEaVnUoISxuDm4TP8nxR7zByhwrlQVlUgkq2V1kHiJUWDZkC+VY3CuIycAlMsBOI4Y7L3sat1Nh2a1iL72I+IsGsek1NPGeFQ4yF4Z0DxuLEH8CDqGBzBGYNVx7ROXcVwyURzO0uFYnuZTfpN8ysgGj5X6tTbqG4FbZpZHhfEYsVEk0Lh43F1YaEfkfMHMVlVX7k/iGI4DCmJMqTYKVh3kCsCydVgHQ3sXBuGAsDb7VnbhfEYsVEk0LiSNxdWGh/gRoQcwalrLpSlApWn9nnPMfFIrNZMQg+cj8/rL5r6bfcTuFApSlApSlAqHe1Ts4N2xuBXxZtLCo13LoBv5rvqM9ZipWy6KqISJlDKbSCxuD5aEHb41N/ZV2ifLAMLi2tiVFlc5d8B/1ga+evnXkdqvZuSWxuCXxZtNCo183Qefmu+ozvePuXOAtjQZ+8GHjiHUZmJHiGaqpHvXtntluRerqxPC0lKjDkTnoxsuExrENYdEr3uwOnV1eIE+uh/CT6hRSlKBSlKBXVisMsqFHAZSLEH9ZH1rtpRsuu8avh534c4ilJbDMbRyHWP6ren94yuF2dTfMaV14rDrKhRwGUixBrWsPO/DXEcpLYZjaOTeP6ren94yuBy9Hx9PTZOv3nq+/9/baqVwrXFxmDXNdXlKUpQKwuM8KhxkLwToJI3Fip/Ag6gg5gjMGs2lBXPj/AAifl6dI5UXEYFpOqGR0DdLZZNoQ62BtcBrXFs+n2OFcxpwoLjMM5bBTvabDP7Ya5DSRgeFTpdRZSPLK00cX4XFi4XhnQSRuLMp/WRBzBGYNVp585Jm4LMDcyYZyVjlI2OfdyAb2++1xbMDdsTb/AIVuE/7UP6D/ANWlVq72H/U//J/+aU017OAxkkUiz4dzHMhuCPxy3B3G9WD7Pud4uKRWNkxCD5yP8OpfNSfu0OxOpdqPZyWLY3Ar482lhUe35sg+l5rvqM9Yn4fj5IZUxGHcxzIb3H45bg7g61XqTwtnStR7Pud4uKRbJiEHzkX/AFL5qfw0PmduqFFKUoFKUoFRbzjy8eHBsRCglwvV1ywtY9LXv3gLXs18+r7/AFlKvmWMMpVgCCCCCLgg6gjcUFZuc+Yl4lKJEiCCMBbHN2AyBcnX8vxqQux/nkyt8hnkuyreFmPiIGsZJ9ogZg62B8q8ftC7MJYC+JwI641HUYrkuvmFFvGAM9b2BHiyqLmlLurglHW+YNjf47Vc1YlcKlQN2Zdo/wAhthcWzGAnwSE37m+x3Md8/q57aTujhgCCCCLgjMEH1qbFPqlKVgUpSgV04rDLKhRwGVhYg/rI+td1KNlsu41PD4h+GyCKUlsMx8D7p6H0/vG4G1owIBBuCLgjeurF4VJUKOOpWGY/Wh9a1fD4h+GyCKUlsMx8D/Q9D+Y+0bgcvR8fT1anXm56/wDL48/bbqV8owIBBuDmCNDX1XV5ClKUCsTinDosVE8MyCSNxZlOh/gRqCMway6UEW/4C+H/AOtxP9Nf6tKlKlAqI+1Ps5LF8bgl8ftSwqPb3LoPpea76jPWXKVsuhUvhvEJIZVxGHcxzIbi345bg7jerD9n3O8XFYdkxCD52K+n1l80J+7Q+uodqXZwWLY3BL857UsKj2/NkH0vNd9RnrE3DeIyQSriMO5jmQ3y38wRuDuN6rlPC2tK1Ps/53i4rDsk6Ad7FfT6y+aH8ND67ZUKKUpQKUpQfMqBgQb2IIyJBz8iMx8arH2i8iS8Im616nwzt83JupOfQ/1vI+98birPVjcRwEeJieKZA8bizKwyI/W+1bLpmlRo5VfLepF7NO0ZsCy4bFuWwxsEc5mHy+Mf7vwrXu0jkGXhEveJ1PhXbwPuh+g/r5Hf45VrMM4kGetXyzhcKNwwDKQQRcEG4IOhB3FfVQB2X9oTYBlwuKa+FJsjn+YJ/wDrP/t10vU/KwIBBuDmCN6izSnNKUrApSlArpxmFSZCji6nUfwOxHnXdSl7tlsu40+DFPwyQRSkth2J6H+juf7R9o3A22GVXUMrBlYAhgbgg5ggjUVjcW4bHioWilXqRhY2NiPUEZqRsRUY8O4nPwDFDCzkyYR7sr5DpFxd1Glhcd5GNCepdbNGOP49vZfW60z1lZ397+/KWqV8xSBgGUgqQCCDcEHMEHcV9VbmUpSgUpSgUpSgVEXap2bly2NwK/Oe1LCo9vzdB9LzXfUZ6y7SmxUjhfEZYJVxGHcpMhvcb+YI3BGoNWG7Puf4OKx2yjxCjxxHfzZPpL+I38zpna9yKYj/ACjgl6XVuuaNdDv3gA9faG4JPnfQcNB1lcVgz3WIB6+hTbMe10bXG43B01FVbNOPU6k6c3VoqVpfZzz3HxOPoeyYpB4006re8o8vMbfdW6VLrLLNwpSlGlKUoMbiOBjxETxSoHjdellbQg/rXaq0dpHIMvCJetOp8K7eCTdT9B/I+R3+NxVoKx8fgo8RG0UqK8bjpZWFwQa2XQqDDiQ+VS92L86lWXh87Eqb/J2J0Iue7J8rX6fK1vIVrHaD2VT4BmmwgafDa2GckXowGbL9Yfb5nTuDYwpLFJ0k9DrIAD0luhgcm20tcaGr5ieFwKV5XLXMEHEIFnga6nIg5MjDVWGxH45EXBBr1a5qKUpQKUpQfMjhQSTYAXJOwFRicVPzGz91DFHgYiwinxETO0rkFOtI+pLBQWIN8j0nUWWT2UEWOYNcIoAAAAAyAGgoIY4LxbGcuzjDY0mXCEnocDRcrNH8CfFFqNVv70yYTEpKiyRsHR1DKym4IOYIPlWNxnhEOMhaGeMSRtqDsdiCM1YbEZio8wWMl5dnEGILScOlc91NbOFmzIYAfafPNhn1CjJvaUaV8xSBlDKQQQCCDcEHQg7ivqjSlKUClKUClKUHDLfI6VDHP/Z2+DZsZgFvGD1yQC91tmWT0HkM12yyE0UojPCZzVVhUmTu8ThWK4lXHs5FiTkbfSzAIGTXyvnUmch9pjT4k4fGdKsxAjcCw6tOk7Z7Hzy3Fax2i8sScOxL4mKEHCyNmV9wtqD9DM2Fss7Z3tWtYvCLi1DIw70+y2nefVPlIPxv6gmd6eG9S9CzH2WepUWdl3aJ33Tg8Y1px4Udsuu3ut9fyO/x1lOqe/HKZTcKUpRRSlKBWr88clQcTg6DaOVLmKUDNCdQRuh3H26gGtopQVk4VxPG8BxzKy9Mi2EsRPgnTYqfvKtscjuKsNy1zBBxCBZ4GupyIPtI26sNiP4EZGvN585Mh4rB0t4JkuYpgM0PkfpIdx9uoqCuEcUxvAccysnTIthLET4J0zsQfv6XGmYI1FVyzhZyleXy3x+DiECzwNdTkQfaRhqrDZh/bpXqVLSlKUClKUCsXinDosVE8MyB43FmU/x1BGoIzBzrKpQRRguITctzrh8Szy8Nla0M5FzAT7rW29N/aX3gJUhlV1DKQysAQQbgg5ggjUEVj8U4bFioXhmQPG4synf+B3BGYqLcDj5+WMQuHxLNNwyVrQzEXaEnPpa32kga5soyZaCXaV5P/efBf7Xh/wD1k/jSg9aldGCxaTxrJE4dHUMrKbgg6EGu+gUpSgUpSg654VkUo6hlYWKkXBB1BG9QP2gclPwuRp4FL4Rz4l3iO2e2fst9h9Z8rrxECyKyOoZWBDKRcEHIgjcVliM8JnO6seLwwxgDo3z1vC1rCa2diPdlHlv915O7Lu0Xv7YTGHpnGSO3859U/X9d/jrqvP8AyS/C5DPArPg3PiW+cR2z2+q3rY+uuYvDrilEiN88PZcZd7bYjaUb+euepnenhmWXRy17LP0qLuy3tE7/AKcJi2tOPCjt/OW2Y/T9d/jrKNXK9+OUym4UpSiilKUCtX595Lh4rB0t4JkuYpQM0PkfpIdx+dbRSgrHwXiuM4DjmV06ZBYSxE+CZNmU+evS22YO4qxHLfH4eIYdZ4Gurag5Mjbqw2Yf3ZV5fPvJcPFYOlvBMlzFKBmh8j5odx9uoqDOC8WxnAccyOpVxYSxE+CZNmU6X+i/2HcVXLOFm6V5fLfH4OIQLPA11ORByZGGqsNmH9ouDXqVLSlKUClKUCsTi3DIsXC8M6B43FmU/rIg5gjMEVl0oIq/wFYH/aMV/ST+pSpVpQVv5A55k4RIFctJgpDcqMzETqyj9q76jPWxGAxkc8aSxOrxuAyspuCDVe+0Pkl+FSF0BkwUjWBOZjJ91j+62+hz16eQudZODSBWJlwMhuyjMxk+8vr5jf41dm+8TtZKlY/D8dHiIklidXjcdSspuCKyKhRSlKBSlKDrnhWRSjqGVgQVIuCDqCN6gftB5HfhbmfDqz4Rz4lvcxHbPW19G+w6+KfK+J4VdSrKGVgQQRcEHUEbiss259TpzOaqr2JhGJUOjWl1V9O8tsfKQfjrvcyp2Xdonyi2ExjWxAyR2y7y2x+v+3466p2h8iPwx2xGGBfCMfGm8ROmflnk22hvfPU5YhiQrobSjNGGXVbY+Tj8ftBMb/GvDLl0MvH/AH9lp6VF/Zh2i/KLYTGHpnHhRzl3nkD9f13+OsoV0lfQxymU3ClKUUUpSgVq3P3JUPFoOlvBMlzFMBmh8j9JDuPt1raaUFZeB8WxnAccyOpVxYSxE+CZNmU+ds1cfA7irD8u8dhx8CzwN1KciPeRhqrDZh/boa8nn3kuHisPS3gmS5imAzQ+R80O4+3WoP4HxbGcCxzo69MgIEsRPgnTYg6Xtfpf7DuKrlnCzNK8zl3j0OPgWaBupTkQfaRt1YbMP7dK9OpaUpSgUpSgUpSg6Mbg4542jlUOjgqysLgg1Xjnzk1+ESki8mClNlY5lCfcY+fk29vOrHVjcSwEeJieKZA8bizKdCPyO4O1bLoV15F5yk4NKASZcFK3iTUoT7yevmN7fbViOF8SixUSywuskbC4YfrI+hqBOJ8ufyPjnglBkwk4+bZsyF39A6E57kWO9q54NxabgOI64yZsHIwDrf8AXS9swdCPSsuU28t/kTHqfhYsLSsPhHE48XCk0LdUbi4P7QRsQciPSsyj1FKUoFKUoPiWIOpVgGUgggi4IOoI3FQR2jciNw12xOGUvhHN3j3iPx8r6NtexuNZ6r4miDqVYBlIIIIuCDqCNxWWbRnhMpqqsyouJsytaUC6tp1eh8ny/W8v9lfPpxf+KYo2xKDwsf5wDz+uB94z861DtF7OZMC7YrBqWw/tPGD4ovM+ZT11G+WdauJ1xIV4mMeJjIKsPCXI+GhG39uXOf014Jcv4+XfhaGlaD2Yc+fyghgnsuLjGY07wD3gPMbj7fhv1dX0cbLNwpSlGlKUoFatz9yVDxWDpbwTJnFMBmh8j9JDuPzraaUFOcPxueM2hlkia/iaN2Tq6b2uBbzOtS52cdrbFlw/EWGeSYjTPYSDT/n+/wA61ntj5FfAYlsXCt8NM5Y2/mpGNyD5KxzB+Iyyvo8YEg9aud4lccG9c1AnZX2knBlcHjGJgv0xyk37nyU/7v193/w+zPSsCLjMHeps0pzSlKwKUpQKUpQePzTy7FxCAwy3B9pHHtRsNGH5jQgkVAXM3f8ADJPk2ITUdPULGOWPPpZQbkEHbY7Z3M681c4YbhwUSsWkf2IYx1SNna4W+Qvlc2zyGeVeBxbBvjEkfHQ4aKOWPu1XETWMSX6gbBf8qT0knrHT0qBoWZrvtyz6WGdlsRTyNzhLwaX3pMHIfGl79P1lvow3GjDXYixfDOIxYmJJoXDxuLqw3/gfMHMVWPjPBTgMQIBNHiEYDxAN0sGF8ioY9QttfavX5T45ieCOrq3fYSQ+NAT0i/l1WKuBbMgX3ysa3Kwy6mOGpleVj6Vg8F4tDjIVmgcOjDI7g7gjYjyrOrHUpSlApSlBwReoc7R+zRoy2L4ev1pMOuuWpjA/d+7yqZKVlm05YTKaqo/8qSPIkyN3cyWKumTXG9/P8PSp87NO0BOJJ3M1kxaL4l0EoHvJ+a7fCtb7VuzXr68bgU8ebTQqPb3LoB73mo9rUZ6xDgsUysskbFJEPUrKbEEbg1epYzGTGanC31K0Ps17QU4knczWTFoM10EoHvIPPzXb4VvlSspSlApSlB0Y7BxzxtFKgeN1KsrC4INVp7SeQJODy97F1PhHbwvqYyfcf8m3+NWdrHx+CjnjeKVA8bqVZWFwQa2XQqIgWUZZNUj9lvaMcEVwmMYnD3tHIdYfQneP934aeB2j9n8vCJe9i6nwjN4X1MZOiv8Ak2/xrWlkWVfrVfKeFv1YEAg3BzBG9c1AnZd2inBdOFxbE4fSOQ5mH0PnH+78NJ5RwwBBBBFwRmCDpnUWaVt9UpSsCtD5s55cT/IOHJ3+MN+ojNIBoSx06h5E2G+dlO9utwRnmNsj99edwTgOGwSsuHiWMMepiM2Y+bMbsx+JoNU5a7N44X+UYqWWfFsep5BIygEi2TLZtMr3GWQAGVblhOGQxG6RorbtbxH4scz9prLpQeDzjytDxODu5MnXxRyWuUbz9QdCNx9hqDOKJNw+ZoMYnT1De/dygbhra53DbE2YAkk2RrzuO8Egx0LQ4iNZEOx1B81Oqn1FZZtx6vRx6k7q9clc4twrEmSMNJgJDZ195duoD6Q+4jLXSxvDcfHiYkmhcPG4urDQj+PptVauceV5uDT93JeTCyE91LbIj6LeTgffqPTJ5E5zk4NLvJgpGu6DWMn3l9fMb/cavXbsvCfjJFlaVjcOx8eIiSWFw8bi6spyI/W1ZNSspSlApSlAqH+1fs1Ll8bgU+c9qaFR7fm6D6W5XfUZ+1MFKSioWDxLdSyRsUkQhlZTYgjQg1P3Zp2grxBRBPZMUo00EoHvL5HzX7Rlpr3at2ali+NwS+PNpoVHt7l0A97zXfUZ6xHhcSbq6MUkQhlZTYgjQg+dXynhbylR/wBmnaCuPUQYiyYpR8BKBuvk3mv2jLSQKhRSlKBSlKDox2DjnjaOVFeNwVZWFwQarf2k9n8nCJO9hu+EdvCxzMZPuv8Ak2+hz1svXRjcIk8bRyoHR1KsrC4IOxFbLoqo/UHXLXf9frSpv7B58U2FlWXqOHRlEBb/AJu8VfNAem2wJI2sMKDsQjXF9fyk/Jeq/ddPzlvod51aX9617eudSxhsOsSKiKFRQAqgWAA0AFVllNJkdtKUqFFKUoFKUoFKUoI/7df9Dy/+ZF++KgHC/wCbN8KUq8eE1OH/AGe/9Ft/xD/sSpOpSpvKilKVgUpSgUpSgGql8w/6RxX/ABEn7xpSqxTkz+XP8/wn/ER/vCrS0pTJsKUpUtKUpQKUpQKUpQKUpQf/2Q==</t>
+  </si>
+  <si>
+    <t>https://xfish.com.ar/Image/0/750_750-SOLID25-1.80_2.png</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhUPDxEWFhAXExoZFRgYFxcaGBgXFRcXHR0dGhgYHSoiJBslHhcfIjEiJSktLi4uFyAzODctNygtLisBCgoKDg0OGxAQGy8mICUtLS0tLS0tLS0vNS0tLS0tLS04Ly8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOsA1wMBEQACEQEDEQH/xAAcAAEAAwADAQEAAAAAAAAAAAAABQYHAQMEAgj/xAA9EAABAwIFAgQDBgYBAgcAAAABAAIDBBEFBhIhMUFREyIyYWJxgQcUI0JSsTNykaHB4fAVQ1Njc4KS0dL/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAwQFAgEG/8QAMBEAAgICAQMCBAUEAwEAAAAAAAECAwQRIRIxUSJBE2GRoQVxgbHRIzLB8BTh8UL/2gAMAwEAAhEDEQA/ANxQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQHTW1IijdK69mtJsASTboANyTwANzdAV/7PczPxOlNRJH4bxK9hAvY6bEEX9nAH3BQFmQBAEAQBAEB8veACSbAC5J4ACAjcLzDS1LnNgma8tNjYOA3vwSLHjopJ1Th/cjiFkJ7UX2JRRnYQBAEAQBAEAQBAEAQBAEAQBAEAQFMxnMpqZW0eFtE8rZPxpCHGmgLWuLfEe0WLg6zgxpuS22yAseBYb92hbFqDnbue4NDQ97jdztI4uST9UBIIAgCAIAgI3HMcgoozNUPDW9B+Zx7NClqpnbLUERW3RrW5GOZnzZPinlIMVD0jB80gHBkI6dbcfut7GwYU8vlmNl/iD30x7/AO/c9FNiNDBFDHG9s0+tsrmNddl2C1i9u3luSBvc79Fw6LbrHvha0SKX/Fo6ny97Zp+UswNrY3FocHMIBDrXsRcHb6j6LIycWWPJJmhiZcciO4+xPKsWggCAIAgCAIAgCAIAgCAIAgOmsq44WOlleGRtF3OcbAL1RcnpHjaXcgKunmxJhjJkp6N1r28s8zeoII/DjI/956269Tio8b5OYtv8iZwjCoaSJsFNG2OJvDR3PJJ5JPUncrg7PYgCAIAgCAgc25ljoIS82MhsGN5N3EgbDc8HbrY8WJE+PRK6XSiK21VrbMTxnGzVOMlbIHG/lZfUW9dw3b6AWFl9NRjxqj0xR8/kTutnuvf5/L5HfjdG0RmWMl1IT4TZdRa0vc3kAcgOaW/LleV27ajLiXg5rolCTaW9e7X7ERl/K1RNPG0xu0l2zhbTqAvYu7bb8mw2C6yL41Qb2t+C9XON+4x9/kb9lbA/ubC29ybf2ubm3Ukn6AL5rJyHdLqZexMZUR6UTirFsIAgCAICmZmz0yEmKk0SSh1nvcT4LCOWlzAS5/s0G197K9RhynzLt9yndlRh2a/MuaolwIAgCAIAgCAjMTxlsLhCxplqXC7Ymc2/U88MZ8Tvpc7KSNba2+F5OJT09LudNJhDnvbUVrhJM03YwX8KE/A08v8Ajdv20jZeymkumHb7hR95Ewojs5QBAEAQBAdc8oY1z3EANBJJNgAO5KHjPzxjuMDE3ufNUthZFdx8rnGRz3OBLAw+YtGhtriwub8rdw7aovprW2zPULOndvcseTsv033Z7pony0cgL5J5mRxNaIr2MdnmWx73A2XmXk2KxJPUl7Lnv9iSEVos+FV8VW00uH072tib4f4kbo2MaQLWLhfcb/q623uqc65VS+Ja+/PD2eWdU10QRbMGwVlOAfVJptqtYAdmNGzW/Lc9SSqttzsfyJ6KFVFRJVQk4QBAEBw51tzwgM0zBmZ2ISOpqWfwqNgvNM293gG1g4cNPSxBf3tzq4+Kqo9c1uT7Iy8rKb3CD0vd/wCPzKU4jX4bdhbyNLgXBo9gB89tt1twjpfM+dsbkutbaP0Cvjz7YIAgCAIDhzgBcmwHKAgHYnLWEsoTphvZ1SRcHuIWn1H4z5R8XCn6FXzPv4/khU3P+3t5/gk8LwuOnaWxg3cbve43e93d7juT+3RRzm5dySMVHse1cHQQBAEAQBAeTFMThpYzNUSBkY5J79gOSfYLqEJTeoo5lJRW2YtnbM8+K6o4nGCjadg7bxCN/PY3JPRgPNr2vqF6eBKNfVvkqxzIufSeHLeQ62pj8WKIRQ7W8YDxJh/LawZbhuw35cd1VomoWKTekixbtweltmm5RyvWwAfe6wGMABsMTGhrA0WADy0GwHQDpyVYyciqb/px58sjrhLXqZbqSkZE0MiYGsF9gLbncn5k73VKUnLlk6SXY714ehAEAQBAZt9q2PExCjgfYyvLHEHctZ/EO3Ruzf5ne2+p+HUN2dTXYzsy1KDfsvuZtieOeBC2kjsNIGkACwJHqcer7d+/ZbkKYqfV7mXCFmTqVn9vggKGpkY507QS4bFztx5u/v8A7UzLdtcJx+Gz9Yr4k2ggCAIDxYpikVM3VKdybMa0anvd2Y0bkruFcpvSOZTUe5FjDpazzVo0QctpgeexmcPV/IPL3upeuNfEO/n+P5Iulz5n28fyT7GAAACwAsAOAAq5OfSAIAgCAIAgK5m3OEGHts465yPJE0+Y+7j+VvuforFGNO58dvJDbdGtcmT11RVYnUNM4dJKf4UDNgxvf4R3cdz7CxW1CurHhv7mRO+zIl0wNIyrkWOn0zVWmSoHpaB+FF7MaeT8R/2szKzpW+mPC/c0MbDjXzLllzVAuhAEAQBAEAQHRXVkcDHSzPayNou5zjYBexi5PSPG0ltn51rMVke5zGWkhFRI+N+lwk0PJuAOotZxFti3dfSUxa1JcPWjGsVb3B9t7PXh+RRLh0lYJHPqGlxYyPzBwaQAC0jUXO526EbL2Wa4XqtrjyWIJTi3E6cPwSOnsyvkEhHmNJE462ucBvM9o8lgfTuSbdLqWV07OKlr5v8AwRWfDq/qT79j9GL5Q1wgPHhWJMqWGSK9hI+MhwsQ+J7mOBHzafpZAeKvxkl5p6NglnHqN/w4veRw6/CNypo1LXVPhfd/75IZW89MOWdmGYMIneNK4y1JFjI4cD9LG8Nb7D63Xk7epdK4Xg6hXrl8slVESBAEAQBAEBwSgM8zd9oYaTTYdaSbh0vLGd9PRxHfgLRxcFz9U+xRyMyMOEU3LmX56+VzoyXO1XlqX3LWnqG39b/7DbjYrRuvrx46XfwUK6bMp7fCNfy7l6ChZohbdx9cjt3vPdx/xwsO/IndLcjYqpjUtRRLqElCAIAgCAIAgIPNOaafDo9c7rvI8kbfW8+w7e52UtNM7XqKI7LFBbZjOYcbqMRf4lU7RA0+WK50M7arbufbpz/KFv4+JGlcdzIvypTekezL+U6nEWOMA8Gm0kCSQWMpHAAH5L9th8RXGRmQqfT3Z7RiSn6pF8wvJssULqRpZHA7lwe8ycAbadPbm4PQhZs8qMpKb7r6FyGPOLaTWn9SawXJ1JS7siDnW5cBtfmzQLA+9rnqSoLMqyzhvgsKiCe2tssCrkx48VxOGlidPUPDIm8k/wBgANyT0A3KAqWXpJq9skkLHUtFLM95dxNLqsLstcNabXLhe5Oymg4QW+7+xDNSnx2RcKChjgYIoWBrB0H7k9T7lRyk5PbJIxUVpHpXJ0EAQBAEAQHkxPEYqaN007wyNvJP7AdT7BdQhKb1E5lJRW2ZhmDMs+IghpNNho9TjcSStPyHpNuOLA79tWnGjVy+ZfZGddkufC7HflvIZqD4szfBpLDTGLtklsB6id2sv05PJ7n2/P6F0w5fk4owXKXXZ9DTaSlZExscTQyNos1rRYAewWQ25PbNVJJaR3Lw9CAIAgCAIAgKLnP7QWUxNNRgS1W4Jv8Ahxdy48EjtfbrbhXcbDlbzLhFW/KjWuO5ldTI58nj1L3y1Eh25L3k8BjbeVvY2v8ApA5W5CEa46XCMeds7pcF/wAp/Z26TTUYmBpG8dMPS2+/4nc+39SeFl5X4hv01dvJo4+Co+qfc01jA0BoAAAsAOAB2WUaJygOUBFY1jsdNpZYyVD/AOHCzd7z8uje7jsFLXU589l5I52KPHv4I6LLzqstmxQNeQ4OjgG8URAPJ/O6zje+3tsEscP7YL9RBS7y+hZQ22w4URIcoAgCAIAgCArua83wYeNLjrqHDyRNI1H3d+lvufpdWKMeVr47eSG26Na57ma11RNWzg1QdNU7+DSxjyM5F3kngEbk26G5C1oVxphxwvdvuZkrZXS0u5oeAZV0Fs9ZpfMPRG2/hRb38oPqdf8AMfpbk5d2T1cQ4X3L9OOocvuWlVS0EAQBAEAQBAdFbVshY6WVwbGxpLnHgAL1Jt6R43owbOX2j1da8x0pkp6XVpZpB8WU9ANO5cf0t2HUrqUJQepLQUk+x0YDTSVdoqWEPqw4Ca1jEw9JHOA0k7EG3lDgdIN1qYmdGMGrH2MzJw5SnuHua5k/JMVD+NIfGqz6pXdL8hgPA9+T/ZU8nLlc/C8FyjGjUuO5a1ULAQBAEBFYLgUdNqfcyTv3kmfu95+fRvZo2Clstc/kvBHCtR59/JKqIkCAIAgCAIDglAZvnH7R9JNLhlpJtw6XljO+jo53v6R7rRxsFz9U+EUsjLjBcFcy1g89VI77s4vkc4+NWPuWt1W8rL+uQC42Nhf5FW7rIUrn9I/77FWuud3P3NUy7l2ChYWxAmR28kjt5JD3c7/HCybr52vcjSqqjWtImFCShAEAQBAEAQERmTMdPQR+LUPsT6GDd7z2aP8APAUtNM7XqKI7LI1rbMfzFj1RiLi+pPh0zTdsNyGt7GQ8l3tyegA3W9jYkKVvuzGyMyVnESIgwSoxCRkNHGWhzSPFcC0aB6rOtZrDv5W7mx53VX8SlW469yzgRsXMuxtuScqQ4XTiCLzPO8r7WL3W7dGjgDosY1CwoAgCAIAgCAIAgCAIAgPJimJRUsbp6iQMjbyT+wHJJ7DddQhKb1FHMpKK2zHc353mxDVFCTBQg2cTs+T2dbof0D67cbeLgKHqn3MvJzN+mJIZP+z904ElS10VLsRHxLL/ADn8rPh5/c85X4hGPpr7+TzHwnN9dv0NXpKVkTGxxMDI2izWtFgB7BYspOT2zWSSWkdy8PQgCAIAgCAICp5mzi2F5pKNomrbem/kjHeR3tfgb/JSqCjD4lj1H9/yIbLlHhdzK8XLjL94qZHTTSW8N1t38WETOjbm2q3Nw0EglbmHKPwd615RiXyssnruXHKv2fOmLajE22YDeOmHA95D1J7c9+yq5X4h/wDFX1L+NgqPqmaG7DY9ccgGkxizQ3ZtgHAAgdAHut/MVkN7NHR7EPQgCAIAgCAIAgCAIAgK5m7OEGHNs/zzkeSJp8x93H8rfc/S6sY+NO58dvJDdfGtcmR4hWVeJztM4dJI4/g07Ng0d7flb3ed/wB1uV0140Nv6mPZdZkS6YGkZQyIynLZ6vTJUD0NH8KL+UHl3xH/AGsrKzpWemHCNDGwo1cy5Zd1QLwQBAEAQBAEB8TStY0ve4NaBckmwAHUkok29IGc47nJ9Y51NQPMUAsJKix1uuQAIW873G/O9wO9qdTogpyj1N9l7fqUp5Kk3FPXzK9TxEPNFQReLKXXc02IbwNc7+4tfQDbc6rnyqWFO0r8nvr/AFJf5+RV9U30Q/38zQMq5NZSu+8VDvHrXeqV3DfaMHgAbX/YbKK/JdnpXEfBfpx1Dl8stSqlgIAgCAIAgCAjsYxunpGCSokDWk2bYFznH4WtBJ77DZS1UzseoLZHO2MFuTJFREgQBAeapxCGO/iSsbZuo6nNFmjqbnhe6etnPUt62ZnmT7WGukFLhwuXHT47h5Qe7WHkd3HYDe1l3V09a6ux5Pq6X09yvYBl2orpXFl3P1fjVEly1jutr+t/sNh7cretyKqIJL9EjDhTbkS3LhGu5by5BQs0xC8jv4kjt3vPue3sNliX5E7nuRs00wqWoomVATBAEAQBAEAQEbjuOQUUZlqH6R+UcucezR1P/CpKqp2vUUcWWRgtyZm9XjlRiLvEka5lM14tC3TszS465Xu2aTYaSdhY27rTWLGlab513/wjLnlSsfp7bPqmoarFZtUD/DpGFwNRpsXaramw33tYBur4bk76UdsKIafMn7fydQonbPqfCNFwHA4KKMQ0zA1v5jy5x7uPUrMttnbLqkzShXGC1Ek1GdhAEAQBAEBFY9mCnomh1Q+1zs0Auce50tBOkck/6Cmpx7LnqCIrLoQ7syfNGcqmqaXMa9sZdZkQNrsB3Lw3ff3O19uLrfxsCuHD5l7mPfkzlYtvUDtyrhJxOXTUOewhpJLLG1j6W3GlrQXDytG1tySdo8q3/ir0e5LTWsl7fZG0L542CPxrGoKOPxamQMbewuRdxPQD/PA5NhupK6p2PUVs4nOMe5l+YvtJ8RpdGXCHVZjWOLTIBsSXCzuR0sLc34WtR+GPvIzrMycpuEV+pB4hHNVxPAYyKnDC94Hpu0aiZZjubHe23I2KsPGqjxZLbfH+opVZcpT6aY+/LPrKX2ezVcha8hlIA3xJWnUZw4BwERsLRkEdBbrqPGDZDok0b0JdS2bjh9FHBG2GFgbGwWa0dAFHvZ0elD0IAgCAIAgCApePfaHTxSOpKT8erAPlafIC3kaupaNyB0B7FS0wjOajJ6IrrHCDklszTE6980n3ipk8WZxs227W9mxN4Pz4/mO6+jqqhVHS4R89bdO+Rb8qZAfNaoxEaY76m09zc+8p7+3Pe3CzsvPX9tf1/g0sTA6fVM02KMNAa0ANAsABYADoAFkN7NQ+0AQBAEAQBAVPOmdoqFr44/xKuwDYwCQ0uFwXnpsb25O3zXUdb5OZ709dzIcUrJ6q8sspEjtQksT5WjzeciwsRw0fp4C+owrKZw1Bdv3Pn7YTom3N739zz4VgU1cY4KPW97nEzuLdLWAWDS531cbHf2U92VClOU/08k9VMp86N3yrl5lBCImnU+w1vIsXW4AHRoubD3PJJJ+WyciV03JmrTUq46IvPGeocNboA8SpI8sY6X4Lj/gbqXFwp389l5OLshR9K7mM5txZ9TUN+8yeI5oHi6D5Q42JjYAbBrfTe+51Hst/DpUI+laXt/JRtT773IiayWWZwkkLneUBpI/K3YAWAFh7KzGEYrSOFKO+5oOUsec2P/p0sHjTy69LBpIJcD5ZN7aSOvQLMzcXqfx+rSR5j29G4Qhx7fn7mq5dwx1PEBK/XO6xkcBZt7bNYOjGjYf1O5WFdYpy2uEa1dah+pKqIlCAIAgCAID5e8NBc4gAC5J2AA7lAZtmvPJm1U2H/wAP0yTm9t/yxgbkni43PTutTHwNrqs+hm5GeocQ7mX1WHuhljjoQ98j3B0YZu/W0g6ZnN3u02tG3a1nOJJsqV9Lqn0lui1XQUja8mZQbABV1TAa54Bd1bESNwwcD/F7DYL2zKsnFQb4Qrxq65NxRcFXJwgCAIAgCAICsZrzlDRAsbaSot6Qdm+7z0+XJ9uV6eNmI4zjLpp3Tv8ANNKbOIAF7AAWA6ANsOtkBacqfZxU1P41U4wQu/Jb8Rzeb2Ow3/V/RWsbKljtuPJBdRG3W/Y1/B8KhpImwU7A2NvTkknkknck9yq9lsrJdUnyTRiorSPauDo/M+BVAqJnuqmePI5jheQkgF35u5dc/stv8Pu64fD6tNc/oY/4i5UL4kff9yQxbAmxuGhjbsaC9hBAddgdbbqCbLXqt+Itox4ZE4ydc29v38NnflCmkr53sbFrtHZvLYowXC5d8wLWUeVcqYqTev3Zb/4jcfh1rbb7/wCWbBlTKUFACWNBmcLOfpA27NHRv1JPXovnMrMne+e3g28bGVK77fuywqoWggCAIAgCA8OL4tDSxmWd+lvAHLnHo1rRuXHsF3XXKb1FHMpKK2zOc24lLVxkzyeDCbGOBrhqcL+qdwBABHAHUW8xstLGrjXLet+X/Bm5Nsprpj3fZIiMu4DPiB0048KlGzpiLfNsTT36nnufyq5flwqXl+P5KmPgzm/Vxo1fAcAp6KMR08YH6nHd7j3c7/gWFddO2XVI26641rUSUUZIEAQBAEAQELmnM0GHRGWc3d+Rg9Tz7dh7ldxrlJOSXCOHZFNJvlmYVmfq6Vpe9zYY3X0MjFnael3m7vqLLnR7sp000k7wxgL5Hus1o3JLj/c3XoNnyNkSGiY2WdjZKs+YuIBEZ7Mvxa/q6/JeHRc14AgCA/L0WICmc19P/FYQQ825Ht2XS4OHFSWmazhGHVGL+HU1MIgpvDALS38SR3UtJ3EZHF1dpy1TXqP9z+hRvwI3yTlxr3XcvWEYRBSRiGmjbHGOg6nuSdyfcqpbbO2XVN7ZehBQWke5RnYQBAEAQBAV/MWZ2Ux8GJvjVRFxGCAGg8Okdw1vz3N/qp6qHPl8IhtuUPzM9qMf0Wq6h3i1pJDT6mRC/pgbtf3duL9XWDTbu6KF0vt4XdlfGruy36PbvJ/2pEtl3JUtW4VOJ6mx31Ngv5ndjIeRt056bDZQWZD7L5a+X8luuqFcdR78qUvPP2XBpMMLWNDGNDWgWAAsAB0ACqNt9zs+0AQBAEAQBAVLMmcmQSfdYPNMdnOsCI+9m3Gp4/SO256K/j4E7I9b4X7mfkZ8K30rl/Lkz3FqiKSVwmcWzyyaGl7jbwtH5i7dpv2FiXjYbrZpg4Q0luOvbz/kxrXLI3Ym00+z7EZHlaqrZ9NK17oXE2keCxo0mx9W+m/FxcjosDKrVdjX28H0GNJzrTb29GqZMyLDh/4hPiVFvWRYNvyGDp8+flwq5YLcvD0IAgCApOWPs1pKMiSUePON9Tx5Gn4WcfU3+i92C7LwBAEAQBAEBw5wG5Nh1QGdZqz8XF1PhpBI2fOfQ2+1mdz77+wPTTxcDq9Vn0M/IzYw4jyyuYW2Qj7tE0ySSOdrNml79xq1u6Dfgm2wBP5V1kXwhLVfdfRf9jFw7LI/EyOIv293/wBfMv2WcmRU7/vM4ElUbb7lkdhwzV1+L+gA2WbKW5N+79zUdr6FXFaiuyX+fLLUuCM5QBAEAQBAEBV895j+6RCOFw+9SXDG8uDQCXOAHa39e52VnEhCdiVj4K2XOyNf9Pv+xiH/AFmoZd0ExGp1pHsbaQudc2Lz5yPqOCvqJUVy7r8kZdc3GOuxbcCybLir46mV72Qgkve5tnSG42YCTcbG7jtxbUb2oZGdDHTrhyzvGxZzcnNaTNhw+hjgjbFE2zGjb/ZPJXz85ucnKXc1qqo1RUI9kelckgQBAEAQBAEAQBAEAQHixbFYaSMz1EgZGOp6nsByT7BdQhKb6Yo5lJRW2ZNmTNU+JkxxB0dJa+geuRn6pHcNj9+Og1mwWrCqrGj1T5ZnWW2XtwrWl7s68Fy1PVv8GmdpiaSJptNmMP6YSTqc619RO99iR6BVuyrZp7ek/HcuYmPRTLqlHqa7b7b/AC9/yNVy/l+Chj8KnZb9Tju557uP+OAqXtpFuyyVkuqT2yVQjCAIAgCAIAgKhm3PEVJqihLXzjZxPojPxEcu+Ab97K9i4MrvU+EUcnNjX6Y8yKRhuR6vE5jV1MjooJCHOc6/jSW/S07NZ+noOjTbUYsiMK7GoPsTUOc607FyaRhuU6WAOa2MOa61w5rCCWjk2aNRJ3JdfcrmeRZJ7b5Oo0QitJcE61tthwoCY5QBAEAQBAEAQBAEAQBAVvNmcIaACO3i1TyBHC31EuNm37Ak27noFNVS58vhL3I52KPHuZ8/XUk12KTAPDnsjiOnw4JYzfTY6mue5oNjYtB51u0tUkp6XTBaX3ZGvMu5M5cydLUyPqKouipZHh4gALXyHfd5J1Bm/Bs4gNuGW0jic10pPujqMNN67Gj01OyNojjaGsaLNa0WAA6ABQPkmR2oAgCAIAgCA6qmdsbTJI4NY0Xc5xAAA6klepNvSPG0ltmaZmzxLUv+6Ye19nbAtBEsn8v6GfEdz8I3WtRhQqXxL3+hl25c7H0U/UlMoZAbCW1FbpknG7IxvHF/+ne52v35MOTnuz0w4RPj4ca/VLll8WcXggCAh6jNFFHUCjkqY21B4Y42uT0udr+17oCYQBAEAQBAEAQBAcEoDPMz/aBqlFDhrmmZ7tBnd/DYTf083O1gdxcgAOJV2GK1D4k1x4K0711dEXyVWPBY3NYA6SXEJXaj6XylzfLLG8tdpY1rvi2LfM51tB5+NLuvy17HLr6uP/TRcv5V0OFVXFktXsRpaBHG7SG3aLeZ9hbWRe2zQ0bKu5eCxGPktK4OwgCAIAgCAICKx/H4aJmuZ3mN9DG2L3kdh27k7DqVLTRO16iiK26FS3IzOWprsclLIgGwNdudzDF9f+5J+3S3qWvqnDj5kZr+LlS8RNFyzleCgYRENUrv4krvW8/Po32H9+VlX5E7pbl9DRpohUtRJtQExygCAIDFpsAjxKurqGfae80kRJ2NpiGgg9NBbx3vuvAWv7KcxvnZLh9Rq+8UhDNTzdz49wC74gRY89F6C/IAgCArOZ85w0R8No8Wfa7Gua0MB6vedm+wO5VmjFnbz2RBbkRr/MsyrE4QHkxTEoqWN01RIGRt5J/YDkk9huuoRcnpHkpKK2zJM1ZunxNroqXVHTX44dI0E3L3X2b1twbOFyQAtCulY84ysXH7EUenJrlGD9S7LyROVMtTVjtNJ5IwfPVEEBpHSIc6vfnvp4V/Lya4w6Xzv2MvHx7JT6nxo2nA8DipGnRd0jt5JHWL5D3JHTs0WA6BYEpbNlLgk1yehAEAQBAEAQFLzjn2KkDooC1842ceWRnsbbuf8A+pCvYuDK31S4iU8jLVb6Y8srOA5PqsSk+94i57IXWOkm0so5F7eiPs0f7Vq3MhTH4dKIKsWVj67TUqKjjgY2KFjWRtFmtaLALIlJye2aSSXCPQvD0IAgCAIDP884bLS1LMXpGAuG01wdrADUbflLRpJ6WB9x4CCybViXMEs8YtFLSOuAbt1lzHW1DYnyuK9BrqA66idsbS+Rwaxou5xIAAHUkr1Jt6R43ozDOX2j+UspCWRnbxLfiSf+i08N/8x30HfTowUl1WfQoWZTm+mr6kTln7Pp8RHjV5dDSnzMjHreSPW4u5PxO56ABe35ajxA6pxvdm0rKLxVM1Z8paEuiv4tSG6vCZyNwPOeG8jubb2UlVfxJKJxOXStmP4zjc1e77zWvtGCRHGB5B7MZ+Y+5+p/KvoKceFK4Mi3IlY9IueTckTT6Z6wGGm5bD/wByTsZD09uCOmlUczLg04RW/mWcTGlCSsb5NUp4GxtDGNDWAWAAsAsk0m23tnYh4EAQBAEAQHVVVLImOklcGsaLuc42AHuSvUm3pHjaS2zL8z55mq3/AHPDmPs/YaQRLJ8v/Dj9z5j8I3WtRhwqXxLvoZ1mRK19FX1JrJuQG05FRW6ZKgbsYB+HD8v1O+L+nc18nOlZ6Y8ImoxI18vll7WeXAvQEAQBAEAQHBF9jwgKtlCJtow1rR4QmDiALkid8TCT1OmF2/ugJTH8wQ0TQZSTI70Rt3kefhb/AJOympona9RIrboVLcmZBmLMtTiMwgYzxJCfJAw6ooz3eR63j/4j+oWvXTXjx6vv/v8A6ZrlZkPwvBdcmfZ0yBwqq8+NVncA7sYenzI/oOndZ+RlufEeEX6qIwNAVIsGZ59+0lkeqjoHaqhwLTKCNMbiCBpPV1+vA9zsrlWHOcXIgnkRi9GL0Mc8NQC5jnV2shsQ1OeXPBBEtju0gm7B5naty0c1U3F7RLpSRu2RcjCLTWV7Aas7sjvqZAOgaONQ+tuAeps3Zk7I9PZENeNCt7RflULAQBAEAQBAfL3hoJcQAOSdgEBAY1nKjpg28rZJHhxjjjLXOdpBvwbAbWuSBfbnZdxg3JR7HMpJR2Zy6or8fm0x2ZAx2538GL5ceJL79Omnk6/9HEj5kZ2rMl88RNLyvlenw9mmEXkd/Eldu959z0HsNv3WXdkTte5F+qqNa1EnFCSBAEAQBAEAQBAdVTUMiaZJXhjGi7nOIAA9yUBlOH55bFBIaQNc50shMzv4UbC9zh0u9xc95DR3v872Lh/F9UnwU8nLVXpXLIHC8NrMXld4JcI3bTVMnqcOw7N7Mb9Vo2XV48dfYqVUTtl1z5NcyrlWnw6PRA27yPPIfW4/PoPYLGuvna9yNSFah2J1QnYQH54yhlWasdppNgDaSqcDpb3EQ5Lv7/yr6K/Irojr38GRXTO57fCNqy5lamoWjwmapQ3SZX2Mjh21dB8I2WBZY7JOTNWEVGPSidXB0EAQBAEAQEDmrNUNBG5zyHSgXbGCASTsNR6AkH3NjYGxVjHxp3S0u3kguvjUt9zLcZzJVSvY+rkezU0OZFFfYOaSBoabk25LtwN7dFu041FcG4reuNsxb7ci2zpT478ELlbLrsTrQ2QSspnEvkdpc18mmzvURxdzRfpqFt91l51EYTc4vg1sVzUFGzufoKgoo4I2wwsDI2izWjgD/wC/dZ7bfct60eheAIAgCAIAgCAICIzLmKDD4TNUOt+lo9Tz2aP88BAYVnfOE1W+9Xs3mKjYSAL8OncNx8vUemgG692CZ+zvI9RXkVGIXbR2/DiA0g24DGDZrPlz7ndT05M6k1H3IZ0RnJSZttHSshYI4mBjGiwa0WAUDk29slSS7HcvD0IAgOijpI4WNiiYGRtFmtaLAD2C9bbe2eJa4R3rw9CAIAgCAICv58xiWiopKiAN8QFjQXAkDW9rb2HJ329yOeDYxao2WqMuxFbJxjtGGnEZpi9pjkfM4XZqBfdxe0OkdsfOLBt+jbg2BAX0fTXBrXCRkqE5R7733/InMmZYdJMPCnf94Zq8UssQ0uAG8ti0eUkW3NyLDy3VHOyvTrXDLGLHb3rsbTheHNgbYbvNtTt7m3zJsB2+fUlYbezSS0e1eHoQBAEAQBAEAQFezJmuKk/CYPFqSLtiaePd7vyt+atY+LO3nsvJVyMuFK57+DIc0TTVjxU07jLWlwjIaC9sRPpMDTwCAfMb2c3Ybhw6y8X4LWuxziZLujtotmQfsqZBapxAeJOdxGdw0ne7z+Z3tx3uqZcNSDbbDhAcoAgCAIAgCAIAgCAIAgOuohD2ljuCLHcg/QjcH3C9T09njWyi1X2dmVsdNJVONGy5It+K+5PqeTa+581vcAGxFtZfTuSXqf0K7pk5LnhfIuWE4XDSRNgpo2xxN4a39yeST1J3KqznKb3J8lhJLsexcnoQBAEAQBAEB8SyNYC5xAaBckmwAHclEtgz7MeezIHR0Lg2IXDqgjm3IiaeT8R2H91q42Cv7rfp/Jk5X4io+irl+So4LgtRiLjHT3ZT6vxZnEkvPdzvzHrpG37q9dk146+fsirj4k7ZdUjWst5bgoGaIW+Y+p59Tj7nt7BYV187ZbkbldUa1pEwoSQIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAID5ewOFnAEdigOv7rHxobb+ULrql5OeiPg7GMDRZoAHYbLlvZ1o+kAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8NDQ0NDQ0NDQ0NDQ0ODQ0NDQ8ODQ0NFREWFxURFRYYHSggGBolHRYXITEtJykrLi4vGB81ODMuNygtLysBCgoKDg0OGA8QGC8jIB8tLS0rLTIrLTcrKysrLSstNy0yNS0rLS8vLS01LSsyLSsvLS03Ky01LS0tKysrLS0rK//AABEIALcBEwMBIgACEQEDEQH/xAAbAAADAAMBAQAAAAAAAAAAAAAAAQIDBQYEB//EADoQAAICAQIDBgIIBQMFAAAAAAABAhEDBCEFEjEGIkFRYXETgQcjMkJikaGxFFJywdEzgvBDY3Ph8f/EABoBAQEAAwEBAAAAAAAAAAAAAAABAgMEBQb/xAAtEQEAAgAEBAMHBQAAAAAAAAAAAQIDESExBBJBUTKR8AUiQmFxoeETI4Gxwf/aAAwDAQACEQMRAD8A7aKMkUTFGSKMmJxRkSEkWkRQi0hJFpACRQJDABgMARSENBTGhDAYAMARQhoBoaENAAxIYQwEMAAAAAAABiGIBEsolgSyWUyWBNAMANVFGSKEkWkA0i0hJFpACRSBIYAMKGFNDEkMBjQhgAwGADEMBjEMBgAAMYhgAxAAwEMIAPLxLiGLS4pZ80uXHDq/FvyX/P0OS030j6fJl5f4fIsD2jqFmwSgn5T73Lj93KvUxm1YnKZXJ2wGg4h2w0Wmg3lySU0k1i5bk0+lSXda9mfPuP8A0sZpNw0WOOPwUmuef5vb9DJH1vUZ4YoueScMcI9ZzkoxXzZxfF/pP4fp5/Dx/G1crp/AjHlXs5NWfKNRl1/EZfE1eoycnXvSbXskXotPBZI4dJhlqNRJ0uWPM2wPr2m7faPNPFjxY9VKWV4418FRcZSaVO3vV+FnUs5jsL2anocMsuqUJazNLmk4pP4OOtsaf5t11v0OoaAkAADXpFpAkUkA0ikgSKSAKGkCRSCkkOgGADAAAYAAxiGADQhoAGAAMYhgAxDABiQAMRObLGEZTnKMIRVynOSjGK8230R817bfSP8ADXwuGZcM3T59Q7lv/LjVU/6vy8wPX9JXEMWr4VizaTUYMsZ5ozhF5FFZYJtN096TTT2OV7bduoauMMGn0+OGPH9iUlCWTpVJraMfCl1/Q+d6jU8z7ycJPm3T627fK36jw5eSSnyqSXg7XN/h/mYxWNfmNlg0mo1TuUny+t1Rscelw6WPNJqc/wA7foZcGtnPlxabFJyk4qMOV8yckny14u2z6B2T+jlRa1PEu/kfeWnT7sX+Jr9l/wCjIctwLsxrOLNPfT6VOpZJKk15R837H1bs92b0vDcfJp8a5mqnmlvln7vwXojb48ajFRjFRjFJRjFJRivJLwKCJoTRVBQEUBVCA8CRaQkikA0MENBTGJDABgAAMQAMEIYDAQwGAhgMZNjsChk2FgWBJ59dr8WnjzZZqC8F1lL2XiY2tFYzmcliM9nqPBxPi+DSr6yfe8Mcd5v/AB8zlOL9r8k7hp08UenP1yP/AAarScNzah887jHq5z8fzPLx/acZ8uDGc9+jopw/W+j28Y7QZdYniUIxxNp/DpTcmnabvyaT+RxvbfgX8PpYa2ePlrLCMoqL70X4uujOs/iseCXJp6yzXWcVs35c78Pav7mu7X8D4nrsMMUdPlyy1L+13Y4sEE09033b9fJnHw1sXEx4vMzM/aI9dG28VrSY2cTxDTaXliuX4jVNb0na2s3fY3sdk4lmU541h0uP7eVQSfTaEPN/t+V9Z2c+jvS4MuOGtzfHy48UGsEU4YnN1bcruddK7vV7Pw+jYscYRUIRUYRSjGMUoxjFLZJLoj6GJzcUxMbtZwTs7pdBGtPiSn97LPvZZf7vD5UjbAMqEAwAkBiCEAAB4kNCRSAaGJDCmCAAGAgAYCAgYCAB2FisVgXYWTYWBVhZFilNRTlJpJbtt0kgMtkZ9RDFFzyTjCK8ZOv/AKc7xXtVjx3HAlkl/O/sL2XicpqdXn1c7lKU2+i8l6LwPNx/aVKe7T3p+zopw9p1tpDpOLdsKuGlXp8Sa3+Uf8nORhn1c+ZuU3J7yk2zJ/CQ08fiaiST+7DrKT9Et3+g9PqtTqn8HSwlFPq4pKSXv0ijy8S2LjW/dn6RDprFaR7vmvJDFpGk2smb+VJTcfddF+p69JpNZxFKO+PTrrbqL9395+iVext+C9k8WKp6hrLk68u/In6+MjqIpJJJJJKkkqSR34Hs+Z1vpHaP9ab48fC1vCOA4NKk4x58i/6kktn+FeH7m2JRSPVpStI5axlDlm0zOcuN43lvXZH/ACci2e9KKbX6s3XCuKuT5Jp7vuy6un0T8zktVqOfVZcm7Uss2ntvG6X6G/4FHmyQ9G3+R4mJxN6Y0RSfFaI85e9xOBWMCvNG0R/TpwEKz3ngHYCsLAYhWADAmwCPINCQ0FMYkNAMBAAwEBAwEAAAmxWA7CyWxWBVis5/tB2t0mgUlkmsmWK/0cbTcf630h89/Q+c8f7S8T4g3DHp8+LA+kY4smPC16zaTn+3kgZvonF+2Wl0zcITWfKtqhL6uL9ZePyOW1vHM2se8nyv7MI7QXsvE+eyxvDNrUOayRXM4Si4tKr6PZWunX2Rt+H8WnNcuLuLx5b5n7y6nl8fS9o1nTs3YN4idnWYdHFd7PNQS3ackpV6+X/NwjxdpvHpMad1GM+R2/VLq2TwXs1n1dTnePFd887p+sV947vhfBsGlX1cbnW+SW83/j5HPw/B3trEcsd+rovjRHzc5wzsrkyy+NrZyTe/Ld5H6PwijrtJp8eGChihGEV4JdfVvxZkolnrYPD0wvDGvfq5L4lrbsymZI5DxslzaNzBs4sw8RzfC0+fJ4wxZJL3UXR4VrXHwJ1ethmw5cMk4/ExyhzVaTa2bMbbTk2YcRzxntm4jRrwOv7OY92/KP7nJaSDjNwmqlGTjJeTR2nCe5j9z5vCrOJxtK9s58vy+g9qXyw5+bbuRPOeX4oc59M+bennDmMKkUmBlsdmNFIoYAAR5kMSGgpgAAMBAQMQCAYNibFYBYmzz63W4tPDnzTjCPhfWT8klu37HzztR9IGRc2PSQliVSfPy8+okl1airUOvq910A7fjPHdNoY3qMiUmrjij3ss/aP93SPmvHO3+q1uT+G0MXjU7ShjnFZJL8eV0or2rys4jU6vLqcknJynzNvJ3ns/F5cju9t9r2vpRlyZtPpKtrVaiEk4wx3HS4Zrx85yXm7fsYXxIrpEZz2j1p/JETK3q/4asksuDNq5zvCsc8OoxaaMak8mzknN9Fe65ZPyNrwTia/hm54pSlNZ4ZNQ8dwcFcnKU4xtv6xxq3vCKVN29XpsC1M5yxYIajNrnjeTD8LLWN8qlkUappyybrleyivOj6N2e+j+cvreIZJKMuStHinLkUYKoQbukorZJW/W7M+ubLOOXly17uC4Z2e1HE8sI6fFNYcOOGHHzNdzEr72SXRNtt0vOldH1jsx2IwaKMZZaz5lXVfVQfovH5/kdJpdNjwwjjxQjjxx+zCCSijOiTETuxCQ6GikiieUOQuikBj+GS8JnGgryS01nny6J+BtBmMwzrbJzmp4X8Sm1y5Y7RnW00ukZf2Z7NPjlCCjJNNdUba15Cbs5o4SkY360b5ZfVtvxFrUik7Q8UYNmSOM9AUdbnYlAtIqhhCoYAADEBR5wAAhjEADEFiCmIUnSbbSS3beySOc4r2rxY7jp0s8+nPdYYv3+98vzA6DNljji5zlGEV1lJpJfM5riXatbw0sebw+LNbf7Y+PzOY4jxHJmanqcrfjGNOorzjBdP3fqeLPqVBNR3feTUXvJ7tb+TXLXg6ez6mq+JFYzWImXq4nmyZ1OTzNZHFpZGviTXyeyXpscRrs88eSbhPDky4ZQwTeWDinjbTU5NV4txdd1qS86N1quIrm5Y80m66rvTl/NSv835t7FaDstqOJZVLl+rjFxfMlHHG+vNLx2rZGqK4lrTzbdGXuxGm7i8+fJnaxYYuGBbRUVyrl71Jvxa5pRvxXU7Lsl9G2fUKOXUXgw7PmnH6ya/DD+7/U+i9nexek0KjLkWbNGqnKK5IP8EfD3e/sdMdFaxWMoYTObXcE4FptBDk0+JRbVSyS3yz95f2WxsxFIoEUhIoBoogdgVY7IsLCrsdkWFgXYWRYWQVYWTY7KKCyUOwirAmwsCrCybCyirAmwAwgIdhDEI13FON4NLtOTlkrbDjqWR+6+6vcDZGo4l2hxYXKGNfxGaP2oY5JQx/+Sb2j+5y/Eu0GXUJqUnixV/oYpNNx/wC5k6v2VI02TiMKXK1yw6Y0nDGrTp0t2159X0601hfErWNWVazbSGx4txXLqVJ5cv1cb+rxqUcCaVpecnSb38nSNZl1ChLkjHmak4uUqj0vm5bdLZPrsq3bR4Nbror6yWVOSX1cISjOEPP7PdXyvqr8zSw1WXUSUcUG90vidVGkklH5V039TVNr2nKu3r1+GXLEbtnreJcq5bucO4pdeeqUWvlt7RXW2YtFpc+syKGPHLvVSim5NbfkvekjpeznYGc2suqbxxe9SX1svaP3fnufQuH8Pw6aHJgxxgvF9ZSfm31ZnXCrE59Um0zo5Xs92Fx4Up6p88uvwou1f4pePstjssWOMIqMIqMYqoxikopeiRQGxiYUAwAYCAodkWFgXYWRYWBdhZFhYVdhZNhYFWOyLCwLsLIsdhF2FkWOwLsLJsLAqwsmwsoqwJADGeXiHEsOmjzZsijf2Y9Zz/pit2c5xLtTOdx0sfhx6fHyLvP+mHh8/wAjl9VrIxbyTlLLkajKU5tt1JJxt9ejWy8+qexLTkjf8V7S583dwqWnxu1a31E/mvs/Lf1Ob1GqjjVqpty7zUua5NXu11/vv5OtZqOIdVKVf6bjzNXPlu4teqafq4L0NTrOLUnGMU5ScU5NtvkjVKl97qur2uuppnEm08sfZsisRrLc6vWNJuU2oShPlx9FkdPlaj+W/wCHq+j0+p4pOV4YLmb7r5Y3KlVK+tbLd108TJwnger184qMZrpaX2qWylJvaOyW73Pp3Z3sNg0qUs6WbJ15Ffwk/W95v32Mq4c/FOZNoy0hwvZ3sVqNa1Oa5cd/alaxr0/G/bY+ocE7OafRJOEefKl/qzStf0r7v/NzbpJJJKklSSWyQzawAwAACgAgAsLFYDsLJsLAdhZNisC7CyLCwLsLIsdgVY7IsLAqwsmwsC7CyLHYF2OzHY7AuwsmwsouwsiwsC7AiwA+N63it3ytRiusntFGlz8diko8ryci5Yz5uRON3UlW6XhTTql4I1Cnm1MvFr8oxXp5HXdmfo/y6lxy5bhi8JZF3X/THrL9jXyzbxeS5xHh83OY1qNdNKEWk7jBqO1Pwgl1+XXxbPoHZf6OuXly6tuL27mzyv3fSC9Fudrwfgen0Uaww79U8sqeR/PwXsbMziIjZiw6PSY8EFjwwjjgvCK6vzfm/cziGUNAIAGArFYVVismxWBQrJsTZBVismwsB2Fk2FgVYWTYWBVhZNhYFWFkWFgXYWRY7AuwsmwsC7HZFhZRdhZFjsC7CyLCwLsRNgEcz2f7G6fSKMsiWbKvNfVQfpHx+Z06ACodgAAAABFFhYAArCwABWKwAKVisQAFhYAArCxAAWFgABYWAEBYWAAFjsQFDsdiAB2FgADsLAAgsVgABYAAH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxANEA8NDQ8QDg4NDw0PDw0PDQ8QDw8QFxEWFhURGBcYHSggGBslGxUTITEhJSkrLi4uFx8zOTMtOCgtLisBCgoKDQ0OFRAQFSslHx0tLS0rKy0tKy0rKy0tLS0rLS0rLS0tKystKystLSs3KystLTcrKy0rKysrKy0rKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEBAQADAQEBAAAAAAAAAAAAAQIEBQYHAwj/xAA5EAACAQIDBQcCBQMDBQAAAAAAAQIDEQQFMQYSIUFhEyJRcYGSsUKRBzJSodEUYvFywfAVFiOy4f/EABgBAQEBAQEAAAAAAAAAAAAAAAABAwIE/8QAHBEBAQEBAQEBAQEAAAAAAAAAAAECEQMxIUET/9oADAMBAAIRAxEAPwD6vKXlpH6V4Im95e1Enr6L4QRFaUvL2o0peXtRhFQG1Ly9qNb3l7UYRoDW95e1F3vL2owUDe95e1F3/L2owUDW95e1F3vL2oyANb3l7UN7y9qMgCuXl7UN7y9qIyAa3vL7Ib3l9kZAF3vL2oX6L7IgAvovaiei9qAANLwXtRLLwXtRQA3V4L7Im4vBfZFAGdxeC+yG5HwX2KUDldlH9K+xTYA6ievpH4REcd4lKVn018jkRd+KA0iozctwNI1cygQbRTKNAUpClFAAAAgAAAAAAAAAAAAwAIAABSADngADxG1M1Qgq2801KKSvaL7uj4NuPPgrnS4TbCNKsqNfuKpbsptrdm7cYX5Po/3Od+IFenGnShV/I25zXek9yNL9MU3Li0rdTyFfF4XF0alDsJb0FBdlKmoXe6n4vs+DT1u7gfUsNjY1Oav5nJPg/wD3DicqcaM5VJUX+Sco3qUkvovfvR66nocl/FOrVcKf9MqqU1HdTaqOFtb6b1+TQ4PrKZUfjRq70YyStvJOz1V1oz9kyDSNGUaRRUUhQKAABCsgAAAAAAAAAAAQFAEAAAAAc6wKAPnm1+UzrVI16dKVacaShHs66o1Kb5TjKXBpq9zj7PbFQoz/AKjEcaknv9hGTlCD6y1qS4u8nrc9nNcfSPwiWA8/tJs3RxlKVNwSbi0moq6fifEcxyjGZRVnKknaPDS8ZR5SP6OaOvzTK6eJi4TindeGgiPkewv4jzw8uyxe9VpSfHj34P8At8fLofaMDjaeIhGtQqRqU56Tjp5dH0Z8O222DqYeUq2HV1rZaM6jZDbHEZZVau3Bu1SjO+7L+H1Lwf0lFmkdHs3tHh8yp9pQmt6KXaUW1v031XNHdxZyr9CmUaAoAKFiMpGBAAAAAAAAAAAAAAhQBAABzwAB1E9fSPwganr6L4QAyLGrFA4uJwsakXGaTT5WPl23X4fKd62HVnrwR9baMTppqz4gfzBl+PxOWV4tSlSqU33ZJ2v08j7hsVt5RzBRo1nGjiuCUW7Qqv8Atvz6c+RxdtNh6eLjKUIpT46I8psVs28FN1a6jOSk4Uoyim6dndyVya1JOrnNt4+1o0edy/NHFLfu4vg23dX6PVM7+hWjUW9F3XwcY3NfHWsXNfoUyjRo4AABGQ0SwEBSAALkuBQZ3ib4GwYc+hO06AfoD8+16EdboB+oPx7boTt+i+4Hag4/9R0/cAcKWvovhAs9fRfBEBSgqAJCxUWwGHG50ub5ZdOUIp3/ADRta/VdTvkg1clnZxZbL2PARlOk3Z70Xe6lx4fpa5HaYPHOF6lJ92N3NSdnBdX4HZ5plKnecLKX7S8zxedUa0HGFKTpTi5VG5JSTnFrdi78JRvxs/A8/wDlc38ej/SWfr3eTZ1SxkW6bd463TSl1XQ7K5/P2YZ9i6dTsKeIlRqYeUZTq02oyq1Gt61rWjFX4rm7n07Y3bmnjlGhibUcWlZpvuVX4x8H0+x6J1569pcp+aZpMqNAlygQAAQyzRkDLDNGWBlkZWRgRkZpmQIZNMjA5gAA/CWvovhBCWvpH4QQFKQoFRURFQFKQoFaOtzPK4V42kuPJrVHZEA+IbabHVaNSpXheanKU5ebdzyVKs48J3Uo6SXCSfgf0ni8JGonGSunyPmO2mw196th1x4txQDZD8RnScMLmTcoOyp4v6kuUZ21/wBX+T6lRqqajKDUoyScZRd014n89bK5R2uIcMXCcsNRs61OPCcnyprzPfYjaL/pLVXDJTwFTdUcDLhKg7O0VfRvi93la7tdXD6YmW553ZXazD5pC9J9nVirzw85Lfj1T+pdT0CYFAAAyUgBmWaIwMsjKyMCGTRGBlkZojA5gAA48tfSPwgJa+i+EAKVERUBUVERUBpAiKBQAAPyq0lJWa1P1CA8jm+SOm5VcOkpOzlG1rtXs/3PjOdYqp29TtbrcnJOMub5yt4vhx6H9I1YbyPEbWbEUsbeaW7P9S56agfO/wAP8vxFfFxxuEkqUcO//JvaST1ppfVJ/sfastzSNV7k+5UT4pqyf/08dkmBWBpww8VZ0+M3az3nq34o7udSFZbrap1Uu7U5P1MNelleiecseouU8/gc3lRl2OKVtN2r9LR3sZJq6d09HyNc7lY6zctEFwdOUDBAIQpGBCMpAIQpkDnXBABx56+i+CFnr6L4IBUVEKgKjSMooGikAFKZKBQQoBkauVhAdVmmVqp3l3Zx4qS/5xPM16Mqctyatx8lLrF+J7s4WPwEasWmvLxXVHGsSu87seYji4zj2VbvQ037cYs/bC4mrg3dvtsNK1nziji5hgZUW78YvSdv2f8AJnD4p0+GqX0SfC/TxMOXLeWaj2GGxUKsVOnLeT+6P2PJUoSg1XwkuD4zp8uqsd5lmawxCt+WovzU3r6G2PTv5WO8c/Y7AMhDRmrIwyAQEAAyVkA5oAA409fRfCIWevpH4REBSogQGkVGUVAaKZRQKCADQIANAguBSozcXA/HE4dTTTV078Dy+Y5W6V3FNw8FrHy/g9cfnUpqRNZlXNsrxFGtKDU4Pi+HSXTzOVuxrrepPs68eLtwd/E5uZ5Q03Okl4uHKX8M6KV1xvJOL1+qH8o8+8WPRnc09Dl+ctPscV3Zrhv6KXn16ndHif6uGJXZ1uElwhVStf8Ag5eX5nUwjVKt36V+7PVwXR8zrHpZ9c78v7Hqrhn5Ua0akVODUoy4prT/ACbubz4ws4oIABAQo5wAA4s9fRfCIJ6+i+EQg0EQIDSKiIqAtxclxcDQJcoFBLi4FKjNwBojZLi4FuLkIBZxudPmmUqpeUeE/Fc+jO3DJZ1ZePneLwcoNxtuz8OUvI1hMdaPZ1o78Vwd9V1XkeyzDLoVk015PmvU8nmOXypu0/Solr0Zhvz/ALG+PWfK/XDV54R9pRk6lF2bjy9fBnpsuzGGIjvU3x5wf5keEp4qpQm0neMvpf5WcyL49rhW4zXFw/5qjnG7l1vE091cHTZTnka1oVbQrfZSZ29z0zXXmss+qCA6cucAAOJN8fRfCIJvj6L4RLkGgiXCA0UyigaQMluBoXM3KBblMgDQuZAGiNkAFuQAACXFwKcfFYaNRNNJ3P2Fwrxua5S6V+G9T/eHl0OnW9TaafDk1yPo1WkpKzVzzea5M4tzpK65w/3Rjvzl+NsevPyumco1rX7tTlLRSZ2uS57u1Vg8RNKpJXpX/NKz/LfS/qdP/STk2qKvKze7dJ8PMzXlhMxhRweJqvDYmjJqnVUHCUKl+7vX142/2J5Yq+u5x9BTKeMecYzJnGjnEO1w992nmVFSlG3Lfja65HebO7Q4fMqTrYWTcYScJxlHdnCXg14PxubvO9JchLgDiy19F8Ignr6L4RAKioyUDVymQBoXJcXAqKZKBohLgDVxcyEwNAlwBSXIALclyC4FuQEApJJPgCXA6rMcpjPvLhJaNcHc6apgo1KkY4mCdZd2nWaSc1+mT8fA9ccDNsBGtCUWk95NPly8QPmm2m2lRQqZPSnGup7sas+L7K3HsIy0kv7j0X4Y5e8LhOKs61R1OrWiZ1mA2Eo0KrnuufeulJ3Wt9OZ7rB0t1JaFHc7wIAOPPX0XwQT19F8IhBSmSoClIAKUyUCggAtwQoFBABRcgAtwQFAAhBSAgFIxcFC5GCAfnKmtSqJoAcywNACS5f6Yf8AqigEEZUUAEVgAQoAAAACkAFAAAAAAAUAQEAMACAAoiIwAAAA5gAA/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhUTERIWFRUXFxgYGBgVFxkeHhcXGhcXFxcaGxsaHyghGBolHRcVITEiJi0rLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGzAlHSUtLS0tLy8rLS8vLS0tLS8tLS0vKy8tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAMEBBgMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcBBAUDAgj/xABHEAACAQMCAgcFBAcGBAYDAAABAgMABBESIQUxBgcTIkFRYTJxgZGhM0JisRQjUnKSosFDU4LC0fA0Y4PhFZOjstLxFiRE/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EADMRAAICAQIEAgkEAQUAAAAAAAABAgMRBCESMTJBBVETFGFxgZGhwfAiQrHRUhUkYuHx/9oADAMBAAIRAxEAPwC8aUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSsMwG5OB60BmleCXkRBIkQgcyGBA9/lX1b3CSDVG6uOWVIIz7xQHrSlKAUrDMBzricR6YcOgJEt3EGH3QwZv4VyaA7lKrm+64eHglbdJZyOZGlVHqSxyB8KjF/1w30pItbeKMAZLPmQgeeFZT5fdPuqLkkWKqT7F20r88v0i6Q3ZPZvdhRvkQiIeWxymR6bmlOI76Jn6GpSlSKhSlKAUpSgFKUoBSlKAUpSgFKUoBSlfMjhQSxAA5k8hQH1SvMTpjVqGnzyMfOvsHPKgM0rznmVFLMcKBknyFQDi3TS+7Qx29qRsCMozsVIyrYXYZHvxyoCw685p0QZdlUebEAfWq2jueLTrh+0BPlIE0+XcjXX8819WfQm6La5Jt/MjUf/AFNwfhXCWFtuSTjXTmxgUkTJIwxsrZAGcZLAEAVCulvSKa7CIYlEesMhRic5BUajsMb+XlW/0m6GJHbyTNIzt3dRPeITUNRAwu4GTg5rmdG7CGDTFIe1hYkYbBGhxg4xjbfOR5jc1XKUk8vkaoVVzrwurfHw7GhY8Du5D+rjbbyXl/SpPbdHr6BDIsphLNqk7MLv5HSuBnw+PxEl6M8SYSS2U5/XQAFWP9tbt9nL6nYq34lPmK2uk97otpijEEI3eABxt6girTGQjpZ0o4pb2qvDLDI4B1ERNvgFtidi2ATyAODjwBqqTp/x26zouJ2Hj2EYGPii5Hzq4OiDxcQi+1xJpDEKo7siud9843CNjycVwOL9L7CxkNqT2XZhCIoozpQOiyADGAdnoCu7bo7x2777dvgjnPMw9PZZtX0qUWvVvKVAlulhXbKxjtCTjfLPpHuC591avE+tSEH9RDI/q5CA/LUa5q9Y97OrqipEBg5jVmkAzvpycE7YycYzUZLuW1SecE6g6E2KpiQdog3JlOAfU4VRn416PxHhVkmQbeFB/dAMSfTQram+NVFxK9kuWBuVkCjlqc5PqFxzPnsPWsxWc2AVcIngi4TPr3j3v3t6qND5vfP55PsWdH1j2bk9n22kbanVUUn0JYkn0OKxVdNwouczDfGwXUcD4NgUph+f8Ek4pYaz8WvofrKlKVeYBSlKAUpSgFKUoBSlYZgNycUBmlR7j3TOxtBmSUM37EXeb442HxIqveL9eaocQ2THyaWQAe/Cg5+dcyiXC8ZwXHXldXCRqXkYKq7kscAVQVx163x9mCBfg5/zV42HWRf8Qfs5GQaSG0INIIBxq5E6lJB58t/CukSw+kPWMwylnET4dpIpA/wqf6/KoTNf3N23/wC1NIw5gA4A88DkKmvSXj8MnDlklwspOnT49ouz+4YOfiKrYcZUHIGa5JNrYnXKKmnJZR37DhuvELNjS3dbGcqw2OCRz2+dSheGSQWjdhdSBlIdUEmAQD3wAOWR6nlyqBW3Hn1rtgY059MnB9cHB+FWR0Y4Na3adoXmJXAZTlVBIDYU4ywGcZBqMdtmXXpSXFHfDx/TIvxa54x2hM5Mlmww8YKAhTzIxudOxzk/Gur0Z4jLAZIXi7dodKqMb9md4mAwcAasY8mHlWj1m3RhsruFH09mY1RmYamVipZB4k6S488D3mo1w/pIkz2sv6SIpXthFIWB77phTnI07kas5+8MctpmYt5briUgGm3ji9ZHJ/lXetKOSSSQRPxDDMSNNvHgDGc98g/OtNenXYxATPE7gbtHk6vIlcgKfPvYqL8Q61EUnsyq55hNI388Rq5/mFQcvIujVJ819ieXnAliACRPcZzlpJsAe/cZzvUC6ScDEV0k0QQK0eGWI6hG+AmjI5DJXGfhUcvOsO4lPcV2Ph3R+cpcj34FcqbjF/K4YMCVORmVnCkcmC6goI8wtQmlJYZook6pJrH1/wDCe23Rm8SVJ3vu+mdOVPdViNa5Lbg4Hyr74lx23QMt5fqQVKMiuxLKRgg4O23lv61XF0Z5vt5pn8yW0L7sEZb/AHtWIeFRJuhVfxONz7gQB/vnUuLYp9Hlkh4n1jiKMxcNh0jBVSAyhR5hRjJ9Nx51WhsJnYmTOo7ksckk77+tTf8ARGxpWMsT4oh1Ef8ATA29N67HB+r++mOVt2RT4zdwD4Hvfy1KLK7ElyK/t+CA4zvXcsuERKp1AeGM8vXO4q2+FdVKjBuJz+7CMfDW+cj/AAipXYdC+HRY02yMR4yZkP8AOTj4V1kYvDyUbw7h8jnEKtNjYBIyQPcFG3zFSPh3V/fyHP6OIs/elkAJ9cDWwPyq7Y4wowoAA8AMCvqucKJO1srWw6sZAP1l3pPlEn+Zjk/IUqyqV3CI8cvMUrXu72KIZlkRB5uwH51wL7p/w2L+3DnyjBb6jb60bSCi3yRJ6VWt91twjIht3b1dgo+majnEOtHiD7RCOIei6j82J/KoO2C7l0dLbLsXbWjf8YtoBmaeOP8AfdR9Cc1RQvuLXxYfpEjYGWHaLGACcZ5qMZI+YrxPQy8yC0ROrOGBDA4ODuD51B3rGUsotjo/1cMpJMtbiHWdwuPZZGlPlGh/NsD61HL/AK4D/wDz2h98r/5VH9aj1n0ElPtlU95z+Wa7Nt0Lt03kct7gB9TmsstZLsjbHQUx6pZONedYnFZtldYh5RoM/NsmuPM99cn9ZLNJnwZmI+VWXZ9H7dRlLfV6sCf+1bnapGGBeKLSuplJAKoM5YqNwNj8qhx3T5fwWf7Wvt82VvY9C7pv7MqPxYX/AN2K9OOdX5WMO5QjWoYKTtk41ZxsN8HHnUzu+lFnHGkpleRHJCmNfIkNkNjkRy9R51q8b4+j284ih7RFyjOGyNJj1M/uGR+dSVNsf1vP57ERerhY1WksP2fdkF4/0R4ZbyQzuzR2u6uMu5dwdSAEAlQRrz+6PPNY4v0x4OikW1tlwuFdIwmny7xw30qvb+9ctIiuwjdtRQE6SfaBK8iQSd6147V25D516SllHiyjiTRY3CIlv0CzXaQNqJ0kAmTb2sFgAfA+4VIoOrlcbXjEfhjX/U1U9twa5yHXY7YKsM+nj9K60Usw2e5lLctMJwc+pQfTeot7klDbcs6Lo3w23Gqdw+PGZxj+Ef1Fa931j2sKdnCXdVzhEbA3OcAx5GN/vGq8Th6McnUz+Tkn4krk/CtlISDgyIcD2RoAA9cjP++dRbyy2MUlg4vSC9ubyVpXTSGOQoOygDAGSdzt/wBhS24HJIisxOF2GN8emBv4eld+y4XLdviCJpTsB2QYqPjnCj34FWTwzqplKr286oAPZRdZGee5woPwNS3K8RT3KlXhcZx2gf3u2SfcpB/09a3YrNF2VgufDHeb5/8A176vTh/VxYR7v2sx/wCZIcfJMCpHw/g9tAMQwRx/uIAfnjJrnCzrsXZFD8P6LXswAS0dl88FAfe7FAfgDUn4f1XXTY7Vo4R5Bi5HvAABPrqNW9ild4URdrIPw/qztUx2sssvpkIvyXf61IrDozYw7xW0YP7RXLfxNk11qV3CIuTfMAUpWvd3sUQzLIiDzdgPzrpE2KVFOIdYXDouUplPlGpP1OB9ajd/1rMdre2+Mrf5V/1qErIx5svhp7Z8oln15z3CIMu6qPNiAPmapO96a8Um5TaB5RKB9ef1rmxcLu7lsntJT5sWb/6rNLW1rZbm2HhVzWZbIu206SWcshiinR3CliFOQACAe9y5sNs1mqw4T0NvEJZSIzjG7AHGxxtnypUVrH/gxLw+Ce1iIZFYzzHKq8h8wCfrXUteh123OML++wH0GTU0ueldjHt2wb0jBb8tvrXHu+sKIfZws375C/lqrK+J82ekppdMUfFr0CP9pMB6Iufqf9K69n0OtE5q0h/E39FxURu+sC6b2BGg9FJPzY4+lcW86UXb+1M59xwPkuBXOB+Q45Pmy3YnhtSHRIlxt91TvjxPlz+FavEelUCh2kuDIFRX0xLjOopjYkKfbTnyqmHv535Zrc4PBtJ2xYBgg7qhsqJBI4wSACdCjOfE1qpckuGXIw6iuLfHHLkWbddLowrvBD2iB0jR5GIEjMwDaVX7q55+JIrl8d6UXZna3tmSLLRoCqrkFg7HLEHkAM+VR5RGVdexOh2DmMyHs1cAjKqoDDYkY1fkMe0SsF0Ikca77Igz3hpPefU+4251o4qo8kZlp9RPqZ83d/d3zfr+1RBoSXAbSnZrIZWx7KnONvMgeVeJFwVkE0yYZY0Lq6uzRx6ioCht9R0bsRsDmtmSFmHfdmxy1MTj5navq14a8m0UbyH8CM31Gwp6dvpR31KMeuRrWwSMAazMq9ppQx6RiUKr6jq/ZDAYGxOaSCJIm0RkYR11O5Y4fAbYBVyQAuccqk9h0Ev5MZiWIecrgfRNR+eK35Oq+6k7r3ESp+FGYn5kUXpJc+RF+rwW27Kbt+Frktj3E1vQWRZgqqWY8lUEk+4Dc1eXD+rCyUATM8uN8Z0KT7l73w1VLOG8Jt7caYIUjH4FAz7yNz8auMTZSXDOr++kwUtmi29uUqp/qyj3AfGpTw7qrlx+vu8DxWNS380h/wAtWhSucKJekfYiVj1c8OQDXG0xH96xIPvVcKfiKklhw2CAaYYo4h5Roqj+UCtmldIttjFZrGa5XEuktlb/AG1zEh8iwz8hvXTh1qVX/EetvhyZEQkmP4RpHzbf6VHL3raunyIII4x5tlj/AEH0NRc0uZZCmc+SLjrTveJwQjMsqJ+8wH0qirzpTxG42e4fB8EOkfyYzXxZ9HbuY5EcjZ8SD+ZrPLVwWy3NsPDptZk0kWpxDrH4fHkK7Sn8CnHzbAqN33WpK32FuqjzkJP0GBXOs+gEx+0dE9M5PyH+td2y6FWie0zyH0wAfzP1ql33S6Y495ctNpa+uWfcRK96XcTn5zso8o8L9V3+tffDehtzdKJdanV+0XLDDFe93Tjlnny3qfNY2tuhcQqAo8Rkk+ABbxqH8Q6TcUB1QSwqpORFoxkcvb3Y8vDGceFSrjOTza9hbfXFJUR392dvcZh6vpw2JGQeuSc/DFdmz6DW6+27MfQAD+pr4senUZTvw4lGoSLq5NpBQjHNWJ55OADz2ztv0ldGj7SREVohIdK7buNhjJPdBHvzT1KLeX9SD8Ttwknj3LB1rTgMEeNEA97DP/ur2/TYdQj7aPUeSqc+Y2xtnY1BIJ7lsSmRlkUKUMh2dmLNpy226788HIHiK1RGiriVxq7oUxnUYzl2LHScEZ0rgNnfPhVyprgjO7rrXyz9SaXnSK3REcK769WBywFOknbPjjHxpUJfs8AAGUgYBkDKAuWOFVJAcksSSSfdSu5qJqjUPcr9YJW+7WzHwpzzOK7PaKCAOZ5Acz7h4117Ho7fTfZ2smPNxoH8+M/CsyjJ8kelKVcepkai4QvjvW0vD08BU7sura7bHbTRxjyUFz/lH51IbHq4s03keWU+raR8kwfrU1RNlEtbTHluVQtoo510+H8BuJfsreRh56SB/E2F+tXNY8DtYd4oI1PnpGf4jvXQq1UebMs9e/2oqyx6AXjY19nEPxNqPyXb61ILPq8hH2szv6KAg/qfrUzrNWKqKM8tVbLucaz6L2UXswIT5uNR+bZrrooAwBgelfVYqeChtvmZpXxLKqjLMFHmxAH1rkcQ6U2UK6nmXHmOX8R7v1rpw7NKr3iHWtartEpf1GSPgVGg/wAVRm96y7+X7CEqCQue6oydgCQHwT+8K5xLzLFVN9i52YAZJwPM1ybnpNZpnEwkI5iFWlI94jDY+NUnxH/xmZmEssMekqDr77DUcAgP2j4HiQBjB8jXPm4EZVDXN9cSKyghWwiqxHsPqdgDk6TpGNj6Z7lEXHBbHFesy3iJVUUHHOeeKMfwBnl/kqI8S62ZGTWtwiJnSTbWssve54Ek5iTOx8K5vBOhgSRuxtRpfAUXCBtI0upIeQYIYNkjBwyDGxxUyXog8yst1KDGxBaNQCDjGNQ9nbSmNvujyo3g5hsrG+6dLcNpZuIXRP3DMkQP+CFGNbXB4Zpf+H4DEfNrmSR8epDsuflU0uuIcJ4fmNmhQr932jjmCEXJGeYwBzrpQdN+HyaY4ZVdmTVtzAwCSSM6CAfZODnbnz5JpLJ2KbeCMp0Avbkhrlra3QezHaxYVfoCT7y1SPh3V/Zx+2WkPq2B/L/rXyOnaFNQjbPjqG6fvg+yfHbOxFRq56wVwVaZDknAQ6u74DMY2OOecDnVE1n9pqqnJbKRYkVpZ2ykqkUeOZOAR8960J+lVpkKHZzn7qn+uPpVXnpMrhlRHcMxY6sDLEgkkDIPIbeg5V8i9uWGFCoD4Af0Ofpis05SzthfnwN9dMWnxZf58Sxp+lP7EXv1E5GRz07HY/8AauLe9MH5duq7/wBnv4cjpGob1FBYSP8AaOzf79a2oeEoOYz76g22XQogu358T2uukIZJGy50oSWbyLDODn1OMjNcmOGR941Cod1A2wDuNhXam4eGjdAPaQr9Nvriux/4MNSpaq0qaE06RqIGkAayNlOxO+KsdfFWl7SCsjVe9+aItLxCS3uLdyFPaK8LErkEnGnI/wATfxN6VIFuJMAKEQDONKjIycnDNlhv61zOm/BpkNrG66HadCq5BOD3ATg+Z5VaNn0GhG8sjP6L3R/U/WtDjY4oxRtohOWVnfYr2VS28jFvVmJ/Otyy4PPL9lC7eoGB/E2F+tWlZcEtovs4UB8yMn5nJro0VHmxLxB8oIri16EXTDLmOP0JLH46Rj6mlWNSp+hgUPWW+ZqWHDIIBiGGOMeSIq/kK26Uq0y5FK1LzicEQzLKifvMB9KjvEOsSwjzpZpD+Bdvm2BXHJLmTjCUuSJdSq8//Or2f/hLPA/blJI9/gPkTUV4909aMlZ793fl2NioznyMnh7udE88jrr4eplz3N3HGMyOqDzZgPzrkTdLLQAlGaUDmY1JUe9zhR86o1+M3cpzFBHAP25szze8a+6vyrat+jj3PfuJ3mPP9YS4X/p7Kg9wqiWqri8J5fsNENFY1xNYXm/6LA4h1p26krFpZvJCZWB9RF3B8XriXHTPitxnsYGRcHLSEIBjOdl3yNLbdp91vI1nhXDP0dSqHAyCc6dOcacAqMpkNgg7Ec+VbyxTtGQw075XW2rDYJBLZ38R57533qqWr8l9y2OjXnn8+ZHBZXtwC814UPeXSikMGBAA1jL6TnnrOwOxr7g6KW4bU2uR8e02xbfxbvMfDx8T5ZMj7KIJ+skGrAB0kqScDIySEzk4+HxrZgu7eNdOnVgD2sEDbG4HInGTtzJqpWynz/PgXOEYL9P8fc5VrwuMkmGFRkEZCkkDGhhhs5Bw2SBzJ8hjojg8jKe10qh2Kk90gHUCVx3Tkk8vWta86QMM6iqr7wgbfwYDbHLnvvsKj/EOlUYOe1ZscgoDEHl94aTtkd0jmdt811N/mw4W/wAySyPh9khGt3kO2F5Y9o5BQAkYVuZI7taVt0ks4N7WAZkkKuebKQrA69OpwqsgU5273jzNd8U6YM3swgnw17rnlnsx7JxkZVvGo9d8av5Ng2geGkY0+5my4+daYJvuZLv09i3J+ljNl2ymlmCnuhSAdmLaiVz7W4BGrBG1Rq66wFTUHuFcEkqEDMy/4gSjNz3wvuxVfW3A7q6fP6yZuWQGc/Fjy+NdqDoSsf8AxU8cP4c9o/8A5ce3zNW8C7mfikafEuktvJIZRa9rI2AXlAxgDCjs+8o2A9nTyr0srnit3+rtosKPBEGlf8T57P4Eeldu2gsIfsbZpm/buCAo90SbMP3jW1LxC6n/AFetseEUC6Vx5BU3I9+akRwcxuiUKb8TvmeQDAigbtHX0LPkL7sD314WvA4NWY0fT4dqwJ+OkAD3VLeFdAr6XGm3KL5ykIPke99K6nGOiE1okffjeSRtKxjIy23dViN2OdhpFRayTrkovLI/a2IUcse4Vv2toWOEUufJVJP0qedC+HcNuIyywkyodMsc7FmRvIjZSOeCBvj4VNIYVQYRQo8lAA+Qqr0OeZr9dwsRRV9l0QvJP7MRjzkYD6DJrv2PQBR9tOT6RqB9WyT9KmtZqapiimestl3wcS36K2SAgQgkgjU5LHfbILeyfdioAvDbiwke7gdu4TFcppBDFN1Z1G41KyOp5gSY28baqGdP9UMF0y7C4tZk900cTvGR6smsZ/5aCrEsGdtye7I90esLnid7HfXEZSCJg6BhjWy5EYQfsgksTyOw8zVp1q8LC9jFoxp7NMY5Y0jGPStfjXHrS0Aa6nSIMcDW2Mn0rpE6dK5MnSaxVFkN1FoYZUhwdQ9MZzXDveseyXaJZJT+FdI+b4P0qErIx6ngshTOfSmyZUqtpOnl/Kf1FqoH4tbn+XTilUeu0+Zp/wBPv8vqjn33WjcNkQwonqcsf6Co9fdKr+b253x5KdI+S4rT/RwPd4eu9esca5GrlkZ93jXkz19ktsnuQ8Pqgs4NjgnR24u2znSme9I2ce4eLH/ZIqQcYPCeDQiWZDPMdo1bBZ2HPSvsooyMsc49TgGY2iRBFEeNGBpxyx6VX3Wr0MlvjHNA6h41KmNzgMCdQKsdg2SefPbcYr3KdMoxTe7Pm9RrZTlhfpiV3x3prxDicghLiKJ2wIYu6mN/bPOTbnnbbYCu9wngcNuO6Mt4seZ/0HpUHl6P38LZ/RpgVOQyIWAI8mTIrpx8bv12e3dv+m6n8qza6i6xJQeF3Nnhuq01TcrN32fMm+pB4iujwfiKAlM48Qc45jSd/A7jB9PWq8Xid23KzmPuVz/lrYgTibbx2VwDyyQybe8gbV59Xh1sZZZ6l3iennBxTLIn4okY06sDcESEBsHOdJJw3PwI9xNcifpHErs4ldyfADIG4OMSYxggbgmo1b9G+KvubdIx5ySL/Q1uw9E5/wC1u4E9EBc/Ktvq0l2S+JijfB8svPsPe66TMxyIxnkC5LHHpyI92TWlPxO5bcvo9dl2/e2J+ddOLo7ar7dxcSeiBYwf61sx2tlFutrGT5zM0h/mOKcC7y+RNSl+2HzZFowJGwHMjeUYZyfkK6cXRu4YZMBRf2rh1jH8OdX0qYWcN9KMQROF8NCCNfnsPrXUtegN1JvNIkefe7f0H1NWwrj2TKrLpLqkl7tyBDgUCj9bcA+a20ef/UkwPpXg0tvGQIbaMsTgNOzSsfcndXPwNW9Z9XdmuDKZJT5M2lfkmM/Emtji1zbcMVDDZqdRORCqK2kYyfNz6ehrTFYPOsmpPYrC24Jxi7AAjm7PyIECAfu93I+BrvcL6qJjgzzxxjyiUuf4m0gH4GrQ4feRzRrLE2pHGQf98j4Y9K2a6V5Ihw7q54fFu6NMfOVtv4VwvzFSezsYYRpijSMeSKB+VbFKHBUQ6zrK4a0We13mtZEnUftBDl1+W/wqX1g0BVt7xeKO7suK2h/U3jLbXKjwZiNBYeEiNkH3Hzq0qrDpP0RhhnQ6uxt5rqJ3YA6Q+e6DvhCWwob8QHhvIOP9ZfCbQHVcpI4+5CQ5z5HTsPia6CX0qkh13XBl7RbLNmCFZu9qXJxkyexn8OPjUnHSjiV3va9ksZ3VwMkggEe2djgjbFVW2xrWZFtVMrHhFjVVvWb04smjmsMSFyMdqFIRH5qQ33sHn4YyM1m46OXk+91dsR4gscfw7LWnL0f4RCrCVw5II2PL3BfH3msr1y/x+Zrjov8All+xEc4H0m47PbxwW1zBD2KrEQ6ntO6BhjlGyunG/oa9eI9FL+8Ufp/FFcjkFg1Y9zHszUVur8tZ6F1CW3kdYpVOG0AqUBI3BALAejYr4sOk/GGXSJB++6KW/Lf41rrnxZMttfA0SD9CteH3EFsZnkjlyxU4BHgGwNgGYSY8RkDcb1Yaf+HW4B/VDxBY6j58v+1Uh+gXM93G80mt2kTJxjYEcgNhgA8qtS06JSyMWSFiCSQWGBjPm2BWXVU8UlJLc2aO1KDjN4R05+mduNk1uPwrgfWlb1l0CfHfZF9AC3+gpVS09hf6xp0VnxDpYboKwAVB7K4GR55I8a50nECa5XRqwZ4jnbDEfkf61IIOEgczmqrqo8byatPbN1Rx5HlZ8euovsZXUeQPd/hO2fWunb9Kr481R/3kP9CK+YrBF8BWwFUVbXdZBYi2V26Sm18VkU2bkPSe78YoR8H/APlWwnSW5P8Ad/BW/wDlWja28kpxFE0h/Apb5kbCu/Y9CL+TBKJEP+Y2Tj91M/UirlZfLuzNLT6KvnFHOfjVy338e4CvCS/k+9K3zx+VTmy6uoxvPO7+iAIPrk/IipBYdGbKHeOBMj7zd4/NskVJVWPqkQep08OiC+RVFpZTz/ZRSSeoU4/iO31rv2PQW9f2zHEPU6m+S7fWrPArIqxaePfcpnr7H07EOs+r63XeaSSU+QOhf5e99a79hwO1g+ygRT+1py38R3+tdE1xulXGmtIVlVFf9YqkFiuzZ5HBGryzseXjVqhFckZp2zn1M7NZrV4Zfx3ESTRNqSRQyn0P9fD4Vs1IrM1DesiOWNba8iXV+izh5FAyTAw0S4HmAQdvDNTGvl0BBBGQRgg+IoCCdALtY7y7tonEltIEvLZgcgJL9qo8gH0kD8Rqe1BOwsuE3TzyOqRPHoTH9lvqKaFyxDEAhgOYwdyM8vinW4GZoeHWU9xKvMuuhV9SPa+emgLPpVD2nWVxyK5AvERElIUK0YGg+GjB1HfA3J51JLy6uJFDXPETGGGdCDG3hsmM1RdequaL6dO7eTLJvuKW8IzNKifvMB9OdR286wLNdohJM3gEU4+bY+magAuOHxnuxyTt5ttk/X8q9o+OzqMW8EcIPjjJ+ZzmsUtdJ9K+5vh4fFdX9f8AZodM4uK3sj3AEqwBdrdj3CqjJGNsk7nPPyri3HFrOytoJYoVm7QKwDBFeFiG1DtVXW3lnnzyTmpLfWPEZo2eQXEi45IjnOfIY3+FcmDq5vZYoUNs225LlVC89tyM4zjl4VdRO2TTkVaiFUE0sEU450+uLhOziiWJSCCctI+CMEB39kb+A+NSToFxK7WzxGxXDlNx90DK/LVj4CpJF1RXGkd+EHy1Nt/JU/6N9C7W1hSMqJHG7Ow2LHckKcgDw9wrTdV6SPCZKLfRz4nuVstlcznvPJIfIZb/AFrop0KutJdbcsQNgzqC3zO3xxVtRxhRhQAPIDFfVZ4aGuO5qs8RsfLYpfhXVjfFCsqxxl3Lvl84yeQ0g5wAB4eNSzhfVlboP1sjOcfcAUD55Jqe1g1sUUuRhlNyeWRzgHQu0tJDMgZ5cEB5CCVB5hQoAGfPGakdKV0iZpWBWaA/N3RiE6WVEZ2LbKilidh4AZqX2PQ/iEv9iIx5ysF/lGW+Yq1uG8Ngt00QRJGvkigfPHM++tyqXRFyyzXHWTjBQiV/Y9W/9/cE/hiXH8zZz8hUhsOh9hDuIAx85Muf5th8BXfrFTUIrkimV1kubPmNAowAAPIDFfdYpUyoVzoONwPO9sGIlXfDAgMPHSeTY8a6VVb0y4fcWt+LqIEpJNBKrDHcdcQTRt4lZI3z6FKAtGs0pQGDWjxzhUV3BJbyjuSLg45g8wwPgwIBHqK3q5HFulFhbHFxdRRt+yXGo+5Blj8qAj3V/ZTWUtxZzsApImgGr2g2RLozuQCEYjwMlSrivGba1XXczxxL5yMBn3A7k+gqpOtHp6lxCkdlkEPrZpk0EqFOOz198NnG4A/Oqpu2kM2tIw+3tTIp3JJLNnZm9Tnwpk7gvuw64OHzXLQosmjHdlIUBz5BSQw8uXwA3rwvetGQjNvZFF/vLyRIl94GTrHuNUbDwC7eRMD9Y7LoVVxlie7pAAA38quGDqgkkfXcXCrnwUM5A8gWIA+Rrjz2Oxx3IJxa+R739LlnjuJJZEWWGNJDGUI0gBn227uwz471H+LidbiUW5kijZtWkOw8Ns4O+OVX7D1U8OULntWKkHOsDJHLIAxjO9de16DcMQ6v0ZHbzly/0YkVBRfFknKUXHCPy7BwSaRgFLM7EAaVJJY8h5k5q+rTq8mcgylE2GR7Rzjc4G31qxYLWNAAiKoHIKoGPlXvSdcZ9QrtlX0kVsegtqnt6nP8I+Q3+td6z4XBF9nEi+oAz8+dblK7GuMeSIytnLmxWKzSpkBSlKAUpSgFYNZrFAKUpQAVmsCs0BilK53DONwXDSJG3fibS6MCrDfGcHmpxsRtQHRpSlAc3pLHK1pOIcmTsn0AEglsHABG4J5ZHnXB6sekL3lqwl1dpC+glubKVDxk+ulgD6qal0siqMsQoHMk4A+JqpOk/WHDYXrjh/YzrKgabDd1ZgWVSGQHvEDBXx7u43yBbteF9ZxzIUkUMp8PyI8j61CeEdLOK3sKPaWEagrvNcSlYy3JtMagyFc+ZH9a226McSuP+M4pIinnHZIsIHmO0bU5+lAcrph07fhBFsR+kydnrRnbSQmWVRJgd9sqdxjON8Hdqn4/1ncXvQV7Qwxn7tuCmfe+S5+YHpV3Dqv4SSGeF3YZyzzSszZx7RLb8q7Vr0V4fGMJaQD/AKak/Mgmh0o7o7Z8a4lAFjkmKKSrdpO+jP8AEMjGO6S3PkKlXB+ppx/xF1oHiluun+YYz8Qatq3t0jXTGioo5BQAB8BXoa4MkP4Z1Z8KhGP0ftCRgtIxJPywAfXGa7th0csoCDDbQoRyYIuR/ixmunSujIxWaxShwUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoAKzWBWaAxVb9Muic0VweIWczxEkdrpBYoGIEjKu+peTFcYyCfE4silAVpH0u4ms5htYDxOMAYuEjWNCSPCQOY3wdjy3BraWy6R3ZYS3MNhHnYRRq7kc9iWYDnjOQcg7eNWDSgIda9XVocG8knvXHjcysV552jBCj5GurddD+HSCMNaxARnKBVC45HHdxkbDY7bV3KUAVQBgDAHIChpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgArNYFZoDFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoAKzSlAf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAACTFBMVEX//////v8AAAD///0cGhseHB0ZFxgYFhcSEBEVExT9//8jISIgHh////wgHBsdGx4vLjMAPqIUExEBQaMeHRsUEhQALp0oJywAJpcaGRcXFxnt8/gASa0AO6EAMpsiHh02NToAOaKertIAMZk5OD1CQUYkIygsLC709PRvjcAARaGXp84ALJcpKC4lJi4oJidNTlJiXVp9fX2pqKiGo8qBnctehb2qvs3cAABTcbIANpcoUKRrgrS1w9/L1+rX4u5sa2vgwcenW2HFx96krtCTUFKyY1+6urpZXWOanaGiRUmwYVXeu7nk4eCSj5Dm5eTOzM+et9Occ47QVl7LSEjKPDaUX3iImrvHJyazbXqSZoujJTtQbaS4PUnGUFecj67PnJ7bhYyllaDOnp/Vx8adX4hkKWoqbsJ7Nm24RFvIAACTF0apCC5saaIXV6tPfL47X59FToRDJXLOcmm+d3SmhpbWi45UZbONlcRne8F2jsicntTJs8kxRZm+k7Ollb8AJ3tfcpovT5JQYXIoPWo4T2lEWoMzQ2k/WYikTV6gteR+e6tylrkAAIJoeIt0hoqaqnsTMnhvhZU1GB3tiY3kYmraoreVydyvzvA5e7YabKp4sNBblMVJeoZng1xVf3NmS5ZkP3e9iofVb4NTKSjlPTvUhJymsp2WopNUSZXglZLrq6rla2fRO0a/jZW5aopmmGblx7iRbq93l97ch25gMS9cXoO1CwCJOTp3Hh6zbnR2L1fOmIfjd3i1WoP31cXvu5/utraiYE6cdXWebhb9AAARb0lEQVR4nO2ci0NTV57H8yLvEEgISDIhAfIiwCRAAyQhDwWL8gqhKqJoYdE6MiPCghBo6dioCOLgOOrUnS11hnathSmsu87oOrjKzj+2v9+5j1wQK6UPx93zSe6599zXOd/zO69wf1yRiEKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhiN90Bn5s2v/PK6x60xn40en4/reo3u2FnoPfP3GRSPrth8VO/kRgNwmoPTW7bcueg54dnytmT1UDzBZmGGM6ANdqMcAfkap1YqlYLNV5auAwbKnVRCGcgueJpS9BUsGLyX3YO6vFOrhFtUitg4NMyi9fKRVmhyAVq6U6sdrj6dBJ1dukxQOJwF11kGh7Z0fiO5cgXCpKeNp1WC7S19n6lTcRt6vbX1tTXk6aXNnezG4jW2sQUzhSNW54PJ2eGsaISaQEeEdIYAtlSNd7hw4f6U6VBY4cPfReT5mQ2rLanXHs8NHj3SW9Jw6ffL+sjL05lyCfeklJMkMdS1//+D91Nl4YHzgVQyzbgNb2eMQeRNRZw7bZn+0AoxGC3J+drh+s/yDszT/zi/r6+rPeXCuAQS5CtniKEQyLYJWLZxgBr9f7i8HBX4bD3l8NHj7nFRAeYjhDCALn8QPUssHw2cGTI8Hafz45unbm/PkzQXLiMCHIch5KsLdrbGxstbm5o6adq6OlHKFQyOidDgNDQxMTeFlvAwOxUioVuDA61v9+eUlJ+YX+8fG+yGYao0Ji25czFHEi4bGILe2JhJivbTuD7RSgLX9rbQbzJTyMFcVMLd5kYvUu29bbAdN1YPcFPRLpz7g46TTZHhaLku3f3nSGdwo7Lgg6bSKRl8D11yhNin2oWsSNEG845ztFMJTwCtUZK7E9MJpUzI6RMMhhkbw1NqRQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKN8VNevEItjBPyEU68QiqUgnFeFzUubxMHmmqEP/GqlYp9bh40Ux2cKIWKxGLxp0wEEvHDVE4bA680iVe+QqFj6qFL28wWUE3XHE6syjTkgVTsCviAkFzzw74hxVVX6/08nejTsuTBIVss+ByYeUAHq1MOWBfit44eZHwaSEdKy3DJQKs1f3svPLLmywowfrByVClEqlKMwwNDQEAdn0TgPhDBPDQ8PhCY5gqqlpqrc8NdmdauguLy9PpaYmYV93ajKV6oZIeXmgYSpV/mF5d6q7qSTV/SGc0t3UVN4Nq/KtlPCUl5A4tzCgO00kUvLReH9/f9/eb+MUS3ubzaYyqAxKpQFRKk1KkdVabC0Ohb1hdGvJLzUWGY3GXGOoqKi0CCktqpie//jsr8+FMAKxWUt5Y+PFWPfFaPcnlqZIoKnTuCcdi0TrRmKNkeRQRSQR3BO6dPnK5Zk9MxevXpm9OnN1ZmbkyuXZUP7rqajIJ6lWVBRVFHHk/2lwcPDx0ZZ9PC3vtghic3Nz3DI3t/+WQskrVCIidOYJTU0CZdeCgcnJu7g9MTWda2Q9grzzA7+v7/vofCgXdhhDJbHhZOJ6omQ4lkxaeveEIp0TExHLJ8lot6X7NxVFZQlPJFy8MLswc2Phym+rL43cSy8sXFq4+buFdKh4s0NRcRF+SEGiYxEEVs79KJd1MTISXyRUOHj0UOvoyZbRltbWltaWlpMtJ09i0AKcPdty9viJE8ePnz0O3DIbDCqVwZBRGAyeCU+DstqGQPhab6BsIvBO4HpgMsSkYPRa52/fvlO/fPv3XiN+hqOx3nDwM0/0U8v1u4nk3WBjXbj4XxLRz/7wr5a6Tz8LBTyNdUP56cXFmcUbi59/fmn2XnhxMTRzL73ozfUyGf/jn/5ICE/WTgaDUw0NwbJ0Q3qoNlSWzhVg5MgFhfWD7622rbYNLA0MDLQttQ2w9MGyvNy3Mt43ML6yPN4/fv+LLwuVrD6CSiWarD0fRq+qyfORhslA8FqA8aDiUrBa5+/c+bf6b+7c95LUauuiZbUlJZ7GpCUZSdTVvRONBou9kZilMeqJRiPhWGOsPRD6Kv3Vwo2Z33714MHsg+EbBx/M3ngQMlqZ/H5959ny8rOVP9efjsVidbHGOktTO/pQRaN1ZSErKyqjz2gc+ghMWP/N6tLS0ur40sA4Clsl6jbG+nA9vrq6urTac/+L+z1ra1/6TAqFQqUAdYVoTIUIK2l5U+Da1FTq7mTD3eCHkWjk2rXzIWiMpCStQ917xwfbu6YgcUz/bjSYjF23JHtj5clYMD8cjQxdDHSXxequW8r2eD+LRT619KYvLV4Mfz576ebsv6cXw5cW783MhKahOuAdrV/fbmtfXn6+8s0HICpmqUtZmjzdsZilKdEYTXM1ExLnTVi7FxUe2hh4uL6x/nBgZf3FOnw3YHtl5eFG28ZDDFaA5ysbGyt/8akKFfJCRSGDXC4CK1lLK9CrDYCuxGsMhYwY5VpNxfyx1aPvN00XW43Ydt6JTSc7hy2pdKw7GRsunY40TjclLZ80QjucLw2BcSOJkpFLN24+eLCw+KCjeuTG7ELHvd9BNFSMDdla7P2PY8dOIxOBhobywDvBZEmqPJkqi0xEGv6z1PpyLS3Gdlh/9IvVpT5SNdueLg0sgdlWB1Z7ILzQs9r1cVfXhZ6eC0e6jqx9maeQZQN5AK6zRRWlpRXQhyF7KvZsz/TX07/ZA8fxhJvJaGPDzcaG6caG67HGaKokGol9EolGr/8BTFJyPZYORZKzV29evnhlT/jq5Suzl9OXr165ePlm+mYov7S0uLg0NzwBIxCMTDDyFHvDE8FwEMapIK4mSoutaD7OzZHV+gH2NN+09I+Ojj7686NHsBobGx0bxS9uPhtdHl0eG4NgfHx09C8GWV62zWZDhTYtIGL8CuHDQ1wNmzhKuLErhUylcNSbb0il5lPzvQ2p+flz8/PzvcPz5yaCuAXr6XPn0n8FRsKwSo+M/HVkegaiMxX5IVKO+a8oRgRGCSgFMi6VksGJGS0eA0db9u+DD+EJsp9bEOhSyc4n/3WrUJ7N2TAvC0CHve8220DPZxE6RRMHZ/QFExNvMIvHg1+Lh3wIMQvjhRkj3pjRzWWYKUdBGU41QPeKQ1cwyE0x0uFjhw8fPnro3bF3N9Mq3G7FBYL9t6CHUWTL2UYIZPy80fmQc7DWER/vTd55as5JkaxE7LnoUY3zO9wrkurQpZNM6iAiwjkq7MIprA4XPPfbS3Pbg2qLJ9G+dy86jSYQCNuFMJMZbnLTZiNDBDMiqhQqlULgyb5pgsl58mV8yaWs8dCdXUyyjvqZIzqcpIpxLktcyVGHGv01YfJNpMNsHCJCT3X1piJj5+FiETNFJpkhhcE4zaqZEmMLj5ygZg7wxcBnPC5hBnp2NITx8AdDutUKxD11644fG53O7/RlGwST758g0Z8UnZT1J8UKDXW4s/NN5+iH5nVN/e3nbXFc3j28P/ebzgiFQqFQKBQKhUKhUCgUCuUt5v/H39HeeBaEz3LEnEuQaNNf91/+U9+mPVsflGxH5gU//4hvdnj5j5nS7RVm3JR+ajqbOWqAgx0ACaqBeDxOgngVelz5cXE6nfZm9n0qnp2/5Amo8ccdTv+BePVBfNOMp6ZZQCeCz9aYB26bEXuIaXdr3WbJDlAyqEwKuUyWlad0+A8Q/NXVHQIOCiEFBsXWXH2AFFf8gN2ldzodTqfffrCz07+DNE1mk1mvd7lclTmVbrvb7nDYnR0iiyXWvretbS9TGiyeVyFu1tq454+cCqUAOIQLg0KhkMvloFCmN5kgbZPZ6fAV/DxDJbMqqIRPgauy0pXj0ue4CszOuFMiwSuUPiDH7jZJ9Dk5ZhWUmNksk5vlcjMUnEyukMlkeoKMJQsjZg5IVVItsuaGTh8FTrz7lIV5bvz06T5ux9MegNuwKQysQoNyOxhxJjZEkTKZXItHXD+vdDi17koCagIqceV2+3yVUPJ6/IIN9BJ/PH6gAEQqfW53Tk6OneQbKoQCb6ggN1WQR9hy2DLL9XomQgTLUC4vEhR6jda/Ea+qEy3bMzc3x2w8IUF2xqtqW4VEG6+UyY1ci3tMerNS5rbb7ZBlDHjcbtThYqwB1UxvgkpndislSpVMq9dr9RqQBxcrwGpMvQAxWHCMQrxEzoEG3KQwLsrNtf6tHhS+t7yyvrK8vL68vr6+AgusMbY8js5U/bfRPfDZs/4vTn5ZaOC8qhiTwbLFiJw+FKuQExtmYTORKCUKVMiB6uyMQIi5kAJiR7OJNCyJwUBs6PD50LImVqECKieaS0aEymWZWspHMjVVGRcZjaUfo8IT+6AKEhcc9MIh/jgDuNm3NE7231+7v9Yz999zt1wGsAx5SA7VHBaixUS2sVqqhDAlniXzuSG/EqUhz1eA0hz45cxnJwIdjhy7oyDHUZljdzn0Jp+tyi3RGPIMUIGhErvwiF4JJlMwtVHOSpKxLTErCxsh2w4xSioro9BrDewFhfXPNp4/f/j8BQQvnr8AcPVwA3YyvHi40vZw4zl6VRkwHQXrVwXVhEQhhqphj4qpSkx9whxobTa3322A7lHi9/vcThxCHCT0k9EElhwH7jgAXzfudkiqOxIHJVX26pqOjnh1ldseh8MOFeoQ6oO1NitLSxYMCVoGRqneVAU2DB1DhYd60P2t60LX6tjf0acKrYk9TNeRta412DoCllw7sjZ3y0ekCR2r5IUkwnqSyeQyvlXIME+o0Kk1NDdXS5x2RiEIAhw4WKJCPzRM2HMARj9Qyihsr5FU+Tuaod/HTj+OZeHLIt0l3BMWYraMIAEaXLK0jC1BoTXXSryqDo1Cq1t5tP7i0cYj0gixLY5hsNS3vrSytLLevzLeN95/y5ydbbOhX5WNUQgR3gcJKJRlyTJgPkChBmqpxmeWKOU+t53IIhI57KRB2rGKwjfH4VK6nXGHxKdx5rnxGNRiJzTbLM5MxFScxTQAF2iZqIbfpzHHRcUh6wePBx8P/qoFnWxb5p7M/ZL0m0+ePCEh04XyPLllIIJAYPYOFJJM2GxaMzMmSxQ+t7AXFUCGC2awcJmVZAw3KPMMeRpNQY7bZ9a6NGa5QFiWljOfZjPazIaWVVgUOv0YxsNDra2t/9Payoab/av2o4sV7GzZ17L/lkFB/Klk6FglI26AhRnIXgU5pZBvLCAZ+xnMNNiQGRtILyqgAHpRGKLNKtIBKtlpitwGMxPoijQmGC1McqZ+CuxIBPIiXRqhFaFhwjYojEUbT7UN9PW1nTrVth0DPEvI322ssxFxU2VHJ9KFq7jRWEGGSxDKjc4KFVHo82UrVZoCtxBeoMuFcx7skiFQSrJtbjcavdDnc8G0RgG7zUq5sGawzZFrexrSuzA9DBvTZoEVZXH0N2PZ0UTe42MUkgWkYI4UbMZMZKA08RusZlCYrVQaCu1+mI7Lt1QqUvBskbP1Wy6X4Jk+GPUlPh+coNWoZGa0IT9zYYXKuXbASNXrubGC6VtRsLkKXxsoknJOe4SXX3tK9JN/x3jlzDvjS8ZP6vg5jcFgQ3tBN1mFvagDsGfMSAY8xG3zabJ92dkOGfSndh+0dIeE9Eh2t9ytKdCYMjMaTigrlzGpnleozQwbZj/8yJBK1WIx46fHO+xtUSjm3z4oFiXQlYr98cT9aCL/neJw27K3l+/HM/GnQw0/p884GHYy8L+JOp1O9l9eQDn0SwVuX1ZVdbVfuaVIJYJZFKMcmzCRyNoU66rMv8vfUK+ry0RCgsv/rn6peaqccV9BQU6OvxpfJtvO/xKtZkoVf4dWxau4H6FYL8Du2XKVZFNZOH5obaIdtucdgD9ldezrSl/v4sQ5xIoZP9RM8f5AuXkl3/81oNtcTv48Ixby5v4O9z1fdCrd1eUZ3f/Y8FnctLGjnL8lCikUCoVCoVAoFAqFQqFQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhUCiU3fG/+NwcPYU0CVcAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSDxUQEhIWExUVGBYVFxYYFxYVGRseHxYWGBgYFhgYHSkgGhwnIBoYIjUjJSkrLi4uGiA2ODMsNygvLiwBCgoKDg0OFRAQGi0fHR0tLS0rLS0tKy0tLjcrKy0tLS0tLS0tLS0tLS0tKy0tLSsrLS0tLTUtLS0tLS0tKy0tK//AABEIAPcAzAMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcFCAECBAP/xAA8EAABAwIDBgMGBQMEAgMAAAABAAIDBBEFITEGBxJBUWETInEUIzJCUoEVYnKRoSSxwTNDgtHh8Aglo//EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAIhEBAQACAQUAAgMAAAAAAAAAAAECERIDISIxQTJhE1GB/9oADAMBAAIRAxEAPwC8UREBERAREQEREBERAREQEREBEWF2zxY0mHVNUPijjcW/qtZv8kIK2qN8r2YrLTuhj9lje+K54my3a7hLuK5bmQbCw5ZhWjgGOQVkAnp3h7Llp0u1w1a4DQj/AKIuCtRKeoY1r+NniPdezjna/PW975q8/wD470MrKOondlHNI0Ri+vAC17reth/xQW0iIgIi8mK4jHTQSVEzuCONpc49h06nlZBGd522TcNoyWkGoluyBuufN5H0tvfubDmqCwjD5ZZGtF5KiodbM3JLjckn+SfVffG8bkxKtfXTXDB5YmcmtHwt9eZ7kq3d0eynhM/EJm+8lHumkfBGfm7F39rdSuWXldR6MZ/HjyvtL9kNnY6CkbTszPxSP5vefid6ch0ACza4XK6vPbsREQEREBERAREQEREBERAREQFSO/Pah80zMIpSX6OmZG0uc5+RZFlmbDzED8vRTrejts3DKS7CDUS3bC08vqkcPpb/ACbDqsJua2LdTxnEqoE1VTdw4/iYxx4iTf53nM9rDqghWAbk62XhdVSx0zMiWj3ktuYy8oP3Por2wXCoqSnjpoG8McY4Wj+SSeZJuSepXuRAREQFQW+Da011UMNp3Xghd71wOT5BqO7Wf3v0CnG+Lbb2Gm9mgd/UzggW1jZoX+pzA73PJU9s9gsj3spohxTTED9I1JPQAZlc88tTU9u3Sw33vqJPu42UFbUjib/TU5Bf0e7kz76nt6q/gLCwWM2awSOipWU0ejRm7m5x+Jx7k/4WUWsMeMY6mfKiIi0wIiICIiAiIgIiICIiAiIgLH4/i8dHSy1UxsyJpcbankGtv8xJAHchZBVRth4mN4iMLgfw0lO4PqpWnVwJHCMrEjNoz+IOJHkCDAbB4PLjmKPxatb7iJwDGatLm5sibfVjL8R6uPcq9V5sMw+KnhZBCwRxsHC1rcgB/k876kr1ICIiAsJthtNDh1I6qmzA8rGD4nvN7Nb+xPYAlZieZrGOe9wa1oLnOJsAALkk8gAtWN5u2j8UrLsuKeK7YW5j1kcPqdb7AAdbh1dVyVdRLiVSeJz3XaL5D6Wt6NaMvsru3VbKGnhNZM3384uAdWM1DexORP2HJVTub2bdWVwc4f08FpJAfhc7/baRoSSL+jSOa2UXOYeVtdcupvGYwREXRyEREBERAREQEREBERARFw91gTrbOw1+yDlFHNlttaSvL2QvLZWX44ZBwSCxsTa+YvlkTbmuNuNsIMNp/EkIMjriKK9i8jmejBcXdy9SAg8G8HaR8QZQUh4qyps1gBzjab3kJ+XIOseVnOz4bLL7HbNx0FK2Bli74pH2txvsLu7DQAcgAsHu6wGQcWKVYvVVQ4rEWMbCBZtuRNm5cgGt5EmcKRq35BERVkUe242jNDSiRjBJLI9sMLCbAvdfN1s+EAFxt0UhVY78awwxUkws4xyyu4CQCfcSDi7gE5+oQQPeHt9WmM0Mk0TxI0GUMiLCMwQ0u4zcHmLaW6quoYSfNkAcuLMNH7D+AF0e50hdNISXOJJPU8yrJ2a2Li9nBqWEyP8ANbic3hBGTcjrzN+foguPd3gdPR4fFHTvbK148R0zcxI4jNwPTkByACkypnYSlqsOxCKCKTxaSoeWOY7VjuBzw8DQGzTcjI9Bla5kBERAWPr8bp4HBk08cbiOIBzg02uRex5XB/Zc49i8VJTSVUzuFkbeI9TyDW9STYDuVqxtHikmIVT6uYDiechckNaPha2/ID98zzWblprHG5NtkRFpkREQEREBERAREQUht5suaDFGYjA/wWySOla75WPDHPkY63yuDXG3PicOS+WxuETY7ibsUq7mmidZgI4WuLbFkbGXNmA+Z2ZuTbPO3z3k1dRi2KR4bTvPgiQxtA0LmG007+rWeZoz1a62quvBcLipaeOmhbwxxtDWj+5PUk3JPMkoPYuURAREQeevrGQxPmlcGMjaXucdAALkrVPbTauTE691QbiMXZEw/JH36E6k9T2Cn+/Pa100gwunJLWG8/DmXOGbYx1DdSOtuirXAsAlqqmOkgHFJIbE52aNXOd0Def+bhNrpntgNl56l/tTaZ88MRIFiwAyCxaPMRe179L2uQrMhw7EnfDhxYestRC0f/mXn+FYOzWBx0NJFSRfDG21+bjq57rcyblZREQ7ZjZepjnbU1csd2A8EMLTwgkcJc6R+bzYkCwaMzqpiiIC4QlVdvD3kw/hpbRSkzTl8INnMdGAbSOIcAQbZA97jRCITvj22FZV+xRO/p4HeZwOUkguCctWtzaO/Eeix+zewVZXQe0QNYI+IsBe7hvw2uW9Re4v1BWE2T2UkrayOkj0d5pH2/02Ajid652HUkLanDaCOCFkETeGONoY1vQAWHqe6zZK6TO49o9SIi05iIiAiIgIiIChm8fas0kIghuambJoaLloJ4eID6ifK0cznmGlZ/aTG46OmdUSZ2yawavcfhY3168gCTkFB93WCyVc7sYq/MXEmAHTp4jQdGgeVg6XOrrrNvyN4z7Wb3dbGtoIfEkANTKB4jteEZWiaTqBlc/MRfopiiKxm3YiIqgobvP2xGHUZLCPaJbthb06yEdG3/eyk+K4jHTQPqJncMcbS5x/wOpOgHUrWfFMTkxWvkq5som/C2+TWC/Cwf57klZyymM2308OV08uFwljDVSXdLITwXuXEk/F1JJV67r9jvYoDUTN/qpwDIebG6tj9eZ6n0Cim6zZv2qf8Qmb7qE8MDTo5w1fbmG8u/orjXPpY38r9dOtlPxnwREXZwERVnvj299ih9kp3WqZhm4axMOXF+o6D7nkLhjt5O9w0s5pKAMkkYbTSuBcxpH+2wAi7up0GmulJ1VfLNUvqHnilleXGw1c48mj+AvEF7sGw6SpqYqaH/Ule1jT0JPxdgBc/ZXQ2b3b7KCgo2hwHjygPmd3tlGPytvb1uealq6RMs0Am5AAudTlqV3UBERAREQEREBdJpWsaXuIa1oLiSbAAC5JPILuqw3iY9JVTtwqkHGXO4ZOjnCxLHEf7bBZz+p4W/UFLdRrHHlXhJfjuJW8zaODUZjynl2kk582ssMi4q2oow1oa0BrWgAAZAAZAALGbMYHHRUzaePO13Pefie85ue7uT+wsFlkkMst9p6ERFWREVf73Ns/Yab2eF39TOCG21YzMOf2OoH3PJFk2gu+Dat1bUjDqY3iidaRwOT36W7tbp63PRYnZ3Z91VPHh0GTR5p5B8rR8R9eQ7qPUdI6ARVEbuJ84DRFa7jfJpaNbk6f9FbD7vNlhQUlngGeWz5nd+TAejdPW55rhceeW/kd5nww1PdSHD6JkMTIYmhrGNDWgcgF6URd3nERdXvABJIAAuScgO5KDB7a7TR4dRPqZLEjyxsvYveQeFo/a56AErVHE8QkqZ5KiZ3HJI4uc7v0HQAWAHIAKU70dsTiVaSwn2eG7IR9X1Snu62XRoHdQ8BWDqrs3A7KEceKSt1vFAD00kkH38o9HdVWGxuzb8QrY6VlwHeaR4+RgtxO9dAO5C2ww+iZBEyGJoayNoY1o5ACwCUehERQEREBERARFjdoMYjpIHTSXOjWMFuKR5ybGwHmT+2ZOQJQYHeLtWKKDw2O4ZpGkh2R8NmjpSDqbkNa35nEcg63l3ZbKGmiNXO21RMBZpuTFHfiDCTmXkniedS45qPbD4RJiVa7Eqoh8TH3bzbLK24bwX/2YR5W/U67jmXBW2sTv3dMvGcZ/oiItuYiLglBjto8bioqWSqmPljF7c3H5Wt7k5LWHEcWlrauSrlfwyus9gOTQAfKxpOmQyv0sTqpNvV2uOIVRhhu6mpzcWz43XAc8/lzsDyGeXEvjsbs67EasQA3p2ESveBZzWEAeHxfUbBvPMF2a55XfZ0xmu6abpdlvGk/Fp2Z5+C03tewaZADyAFh6nsrcXypoGxsbGxoa1oDWtGQAAsAF9VuTU0xbsREVQVQ79NtPCj/AAyB3nlF5yPljOkfq/n+X9Sn23G08eHUT6l9nO+GJn1vPwt9NSegBWqddWSTzPnlcXySOL3uPMnX0HbkLKwfABcgLmytDcjsZ7TUe3zNvDA73YIyfKM79wzX9VuhRFj7pdjvw+i45G2qJ7Plvq0fJF9gbn8xPZTpEUUREQEREBYHbajnkopDSyPjqI/exFjrcTmgkMeNHtcLjhOWY6LPLgm2ZQV9spvPglonzVpFPLC27xoJBydCDm4k5cGZBy5gmqsaxysxzE4448g67YowbiFpuHOeR85Au7UcOXZNuMcp5qieKlaDE6Vzm8IPvXE6C3yeJxv7jhA1ytndRsKMPg8aUXqZQOP8gNjwDvpf0A5ZhNMMoWQQxwRjhZG1rGgdALfvzXqREBERAVYb6Ns/ZoPYYXe+mb7wg/BHz9C4fxfqFNNsNoo8PpH1MmZGTG83uOjR/c9gVrLUVElTLJWTe9c515W3s6zvhI6AH9rNvks5XTWMd8No3ucyKDjbVcfh8OvEHH9r63BytzWyWxGzLMPpGwNsXnzSvHzOty/KNB2HcqH7ndkPDYMQmBL3N4YA4Ztj+s9CRkOjfVWepjPplfjlERbZF0lkDWlziAACSTkABmST0XdU9v02z4GfhcDvPIAagj5WHSP1dqfy/qQV5vN2wOJVpcwn2eK7IW9RfzSHu6w9AB3USCNC7WVRldlcAkr6yOkiyLzdzuTGD43n0H7kgc1tbg2GR0tPHTQt4Y42hrR/knmSbknmSVEd0uxn4fSeJK21TOA6TqxvyxfbU9yegU7UqiIiAiIgIiICgG+HaM09C6mjJ8WdrgS3VkWQkfrzuGjnd2Wil+PYvHSU7p5LkNsGtHxPcTZjGDm5xsAqfwjDpcZxB/im8TXB9S9pPCSL+HTxO+huYB5njdzCzllrtG8cdy2+nw3K7FulnGIzt91FlADeznDQgH5W5n9XoVe6+VLTtjY2ONoYxoDWtAsABkAAvqtMCIiAussga0ucQAASScgAMySuyqPfVtiQPwynPnfbxiOQOYj++RPa3UqW6WS26iEbwdp3YpXcLTw00XGIycm5fO/9R4ftYL27udkziFU10sYbFAAJiDlIR8LcsrmwvbkD1CwlBs9N4zaKMNkNSGktOsZ1uelhc36emexmzOBR0VKymi0bm53Nzj8Tj6/wLDkuWPld/HTKcezKNaALAWAyAXKIuzkIi4KDwY9XGCkmnaATFG94BNgS1pIBPc2WotdUySzPllcXSPcXvcdSSbn09OSszeJt7LUTS08ZdHFG8sMZFrlriLv5k3F7XsLDnmozhGCMljfLNfPRw1v/AJTci6RQBWhuT2M9pn9vmbeGB3uwRk+QZ37tZr+q3QhRXZ3YqprKlsMTHeEX8Lqjhd4bAM3Eutbito29ySPVbO4RhsdLTx00LeGONoa0f5J5km5J5klXaPYiIoCIiAiIgLq94aC4kAAXJOQA5kldlVm9ba1tnUUfmY2wnsf9RxzbTAjlo5/5bD5ipldRrHG5XTCbV45NilbHBTXs4ltOMxwsNw+qf9JcLhvMMudXK2NmMBioaVlNEMm/E7m53Nx/9yFhyUe3Z7KGliNVUC9VUeZ9/kbqGAcuVx2A5KbqYz7fbWeXyeoIiLTmIi8+IVscET5pXBkcbS9zjoABcoMFt9tUzDqN0psZXXbE3q7qR9I1P2HNUNhERtJiVTdxLiW8Wr3m5/7JXrxbFZMbxEyE8ELPhBOUcYzJd3Op/wDAUr2IwMYjViUttRUnljaRYPdrmOfIn7BefqW5XhHq6UmGPOpRuq2ZdDG6vqB7+oFwDqxhsQOxdkfQAKwFwFyu+Mkmo8+WVyu6IiKsijm3e1DMOonTusZD5ImfU8jK/wCUansO6z80rWNL3ENa0FzicgABck9lrBvJ2tdiNaXtv4LLshbp5b5uI+p2p+w5II3UVck0zpnuLnvcXOcdSSbklS7A6iWufFQxMDXnK4+G3zPd0sM/7dFEmMIs0C5NgANSTkABzK2S3XbHjD6O8gHtE1nSn6fpjHZt8+5PZLJSVJcDwqOlp46eIeVgtfmTqXHuTc/de9EQEREBERAREQRTb/aj2ODgjcBPKHcF8xG0fHM8fS3kObiB1UG3W7MGqmGIzNPgxEina/Mvfe7pX31dxZk83fpWGoaOfGsTe15s0lr6l4zDGtPkp4z0bp+Z3E7kr3o6VkUbYo2hrGANa0aADIBc55Xbtl4TjPf19kRF0cRERAVEb9NrzLIMOgN44zeYj5njRno3U/m/SrF3m7XCgpbRn+olu2MfT1kPpy726FU7s/GKaN1fO3xJXksp2HzcTzbzOB1AuCe5aPmWLlq6dMMNzbFYLs9UOqY6CnfaadoMwFx4bDZ1pM/ps4ju0amw2awPCY6SnjpohZjBbuTzce5OajW7XZD2KJ1RKL1VR55XHMtueLgv6m57+imi2xf6EREQXBXKjW321TMOo3TGxlddsLDzdbU/lbqf21IQQLfhtnwt/DYXZmxnI6atj++RPaw5lUxAy3mK7zzPnldI9xc5zi5zjqSTck+pWc2Q2ckxGsZTR5NHmkfyawEXPqdB3KqJtuU2O8ab8Snb7uIkQtPzPGr/AEboPzfpV6LzYbQRwQsgibwxxtDWt6AL0qKIiICIiAiIgIiIMDsXszHh9I2Bti8+aR/1O5n0Gg7d7rPIiG9iIiAvHjGJx00D6iU8LIxc9T0A6kmwHqvYqA3rba+21fsMDvcROsXXye/m6/0jMD7nmFLdRcZu6Y0zyYrXvq5ntYxpvYkENY25sG8w0C50uctXAGf7FYE2srvxF544IbMp2nTiBu53Q2JLri93O7WESwrAHz1DcKgefD8r6qQaDh1aCMnWJy/MejQVe9BRshiZDE0NYwBrWjkAuOGNt5V26l4+MehERd3ARF1e6wuTYDMlBi9p8ZFJSSVBsS0WY0/M45NHpzPYFa3bcY/PiNSah/w/CyNpuGN6Ad9Sed+gAGc2/wB40lbJJBHwimbIDEbAl3CC3jcTnZ13EWIsLXvmsfseyGO80xFwCYwdH214TobcxqMrgXUqxF44ieGNg4nPLWgDUkmzQO5JC2U3a7Htw6ks4A1Eoa6Z2udsmNP0tufuSoPuqwUVOIyYi6EcEdw12g8QkeYNtmQ2+eVuLmVc6u9oIiICIiAiIgIiICIiAiIgIhVI7wd8EragwYc5oZGS18xaH8buYjvlwjS/M6ZC5CXb3drvZKU00TvfzgtFtWMORd2J0H3PJUM3BZ4zG3wXufNYRFouXZ2yHrkkuPyz1bqyoPiuceI37WsANALZWCvDdXhXj3xaVub7sp22sGRi4JaO5uB2B6rPly/TpOPH9s5u22PbhtGI3WM8lnTOGl+TG/lbe3qSealqItOYiIg4uobvZxeODCp2OfwvmaYWAakuGY1yHCDc9OuhzO1+0UeH0clVJnw5MZze85NYPU/sATyWq2J18lTPJUTO4pJSXPd/gdGjQDkAFYPgzMr2QTP/ANJt3BxHu8yC7QWAz4uQIz5dl8qdpdwxxtLnvIaANSSbABXzsFusZRzMq55PFlawFrLeVjyPMb/NbkbC2utrKiX7FYUaXD4IHNDXtYOMAAeY5u4rZF2diedlm0RRRERAREQEREBERAREQERQreltqMNpLMINTNdsTdeH6pXDo3+TYdUES31bwDGHYZSv87haokac2gj/AEmkaOI1PIZc8qPY1dnvLnFziXOcS5zibkkm5JPMk5rkKoeH0W0m6xkwwelE/wAXCS3keAvcYr/8OH+FQm7nZg4jXshI90z3kx/ID8Pq4+X0ueS2la0AAAWAyACVXKIigLhxQqrd9u2fs8H4fC600zbyuBzZGcrdnPzHpfqEFdb1tsPxCs4Y3XpoCWxWOTzo6X76DsPzKGNXVoX3pqdz3tjY0ue4hrWjUkkAAdySFpEg3fbNyV9fHExzmNYRJLK0lpY0H5XDR5OTfuflK2lUZ3e7Jtw2jEWRlf55n63db4QfpaMh9zqSpOsqIiICIiAiIgIiICIiAiIg8WM4nHS00tTLfgiYXusLmwGgHVan7UY/LX1b6ubJz8mtvcMaPhY3sP5JJ5oiDGBc3RFpGz+6/ZQYfQNDgPGmtJKRnnbysB6NGXqXHmpgiLKiIiDD7WY8ygopauQFwjGTR8ziQ1je13EC/Jaq4niElTPJUTO4pJXFzj36DoALADoAuEViV8QFce43ZEH/AO0lANi5kAyNiCWySHodWj/keYRFaRcyIiyoiIgIiICIiAiIgIiICIiD/9k=</t>
   </si>
 </sst>
 </file>
@@ -193,7 +529,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +572,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -273,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -282,7 +672,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -290,6 +679,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -595,17 +1019,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,7 +1038,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -630,223 +1055,1635 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4">
-        <v>55357.5</v>
+      <c r="A2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="23">
+        <v>40950</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5">
-        <v>28495.5</v>
+      <c r="A3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24">
+        <v>23625</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="25">
+        <v>55357.5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="24">
+        <v>49500</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="26">
+        <v>32042.010000000002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="27">
+        <v>28495.5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="28">
+        <v>14962.5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="28">
+        <v>19125</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="28">
+        <v>21375</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="28">
+        <v>24750</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="28">
+        <v>13500</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="28">
+        <v>15750</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B16" s="11">
         <v>23413.5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="23">
+        <v>25200</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="24">
+        <v>31500</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="24">
+        <v>39375</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="29">
+        <v>59624.565000000002</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="26">
+        <v>46081.034999999996</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4">
+        <v>52350</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B23" s="25">
         <v>56482.799999999996</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="23">
+        <v>78750</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="23">
+        <v>86625</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="28">
+        <v>67500</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="28">
+        <v>73125</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="24">
+        <v>11306.25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B29" s="25">
         <v>22143</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="C29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B30" s="25">
         <v>47553</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B31" s="25">
         <v>58443</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="26">
+        <v>32537.504999999997</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="28">
+        <v>39379.049999999996</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="24">
+        <v>40500</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="30">
+        <v>23379.037499999999</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="30">
+        <v>25641.524999999998</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="29">
+        <v>59624.565000000002</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="31">
+        <v>37800</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B39" s="25">
         <v>58715.25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B40" s="25">
         <v>64432.5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B41" s="25">
         <v>66429</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B42" s="25">
         <v>51183</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="25">
+        <v>57717</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="30">
+        <v>22323.21</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="4">
+        <v>32850</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="32">
+        <v>57807.75</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="28">
+        <v>10125</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="32">
+        <v>32207.175000000003</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="26">
+        <v>29234.205000000002</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="28">
+        <v>33750</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="26">
+        <v>31876.845000000001</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="26">
+        <v>44429.385000000002</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="25">
+        <v>59749.799999999996</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="28">
+        <v>33750</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="31">
+        <v>33075</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="30">
+        <v>23228.204999999998</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="30">
+        <v>26697.352500000001</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="31">
+        <v>33075</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="24">
+        <v>23625</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="24">
+        <v>26325</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="24">
+        <v>15750</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="24">
+        <v>16875</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="25">
+        <v>49186.5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="28">
+        <v>42750</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="32">
+        <v>49549.5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="30">
+        <v>44495.587499999994</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="26">
+        <v>42529.987500000003</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="21">
+        <v>93365.317500000005</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="21">
+        <v>100001.94749999999</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="29">
+        <v>63093.03</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="25">
+        <v>64795.5</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="25">
+        <v>73235.25</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="25">
+        <v>14520</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="25">
+        <v>16698</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="25">
+        <v>18694.5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="4">
+        <v>32250</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="26">
+        <v>52026.975000000006</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="26">
+        <v>55495.44</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="30">
+        <v>25641.524999999998</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="23">
+        <v>50400</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="23">
+        <v>78750</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="23">
+        <v>83475</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="21">
+        <v>-115447.87424624999</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="24">
+        <v>15750</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="24">
+        <v>16875</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="11">
+        <v>101095.5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="11">
+        <v>104453.25</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="4">
+        <v>54000</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="25">
+        <v>117975</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="24">
+        <v>45422.482499999998</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="31">
+        <v>31500</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="11">
+        <v>88935</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="11">
+        <v>92565</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="4">
+        <v>40500</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="33">
+        <v>62762.700000000004</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="33">
+        <v>68213.145000000004</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="25">
+        <v>53905.5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="28">
+        <v>39543.75</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="28">
+        <v>50979.127500000002</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="4">
+        <v>39000</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="24">
+        <v>17775</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="11">
+        <v>47916</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="24">
+        <v>39375</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +2703,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,7 +2711,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -892,7 +2729,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5">
         <v>23213.121750000002</v>
@@ -904,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -912,9 +2749,9 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8">
+        <v>37</v>
+      </c>
+      <c r="B3" s="7">
         <v>43590.592499999999</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -924,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -932,9 +2769,9 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7">
         <v>29403</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -944,15 +2781,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5">
         <v>41026.44</v>
@@ -964,15 +2801,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5">
         <v>26850</v>
@@ -984,17 +2821,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7">
         <v>31071.495000000003</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1004,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49D2CC-B5F9-4D25-8F8A-B3771A600E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F107EEA-C6CA-4542-A54D-91E6B8F5A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="caña" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="162">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,9 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1127,9 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1453,6 +1457,9 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -1467,6 +1474,9 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -1481,6 +1491,9 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
@@ -1495,6 +1508,9 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
+      <c r="E26" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -1509,6 +1525,9 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
+      <c r="E27" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
@@ -1523,6 +1542,9 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
@@ -1537,6 +1559,9 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
+      <c r="E29" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
@@ -1551,6 +1576,9 @@
       <c r="D30" s="2">
         <v>1</v>
       </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
@@ -1565,6 +1593,9 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
@@ -1579,8 +1610,11 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>69</v>
       </c>
@@ -1593,8 +1627,11 @@
       <c r="D33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>70</v>
       </c>
@@ -1607,8 +1644,11 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>71</v>
       </c>
@@ -1621,8 +1661,11 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>72</v>
       </c>
@@ -1635,8 +1678,11 @@
       <c r="D36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>73</v>
       </c>
@@ -1649,8 +1695,11 @@
       <c r="D37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>74</v>
       </c>
@@ -1663,8 +1712,11 @@
       <c r="D38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>19</v>
       </c>
@@ -1677,8 +1729,11 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>20</v>
       </c>
@@ -1691,8 +1746,11 @@
       <c r="D40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1763,11 @@
       <c r="D41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>22</v>
       </c>
@@ -1719,8 +1780,11 @@
       <c r="D42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>75</v>
       </c>
@@ -1733,8 +1797,11 @@
       <c r="D43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>76</v>
       </c>
@@ -1747,8 +1814,11 @@
       <c r="D44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>77</v>
       </c>
@@ -1761,8 +1831,11 @@
       <c r="D45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>78</v>
       </c>
@@ -1775,8 +1848,11 @@
       <c r="D46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>79</v>
       </c>
@@ -1789,8 +1865,11 @@
       <c r="D47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>80</v>
       </c>
@@ -1803,8 +1882,11 @@
       <c r="D48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>81</v>
       </c>
@@ -1817,8 +1899,11 @@
       <c r="D49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>82</v>
       </c>
@@ -1831,8 +1916,11 @@
       <c r="D50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>83</v>
       </c>
@@ -1845,8 +1933,11 @@
       <c r="D51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>84</v>
       </c>
@@ -1859,8 +1950,11 @@
       <c r="D52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>85</v>
       </c>
@@ -1873,8 +1967,11 @@
       <c r="D53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>86</v>
       </c>
@@ -1887,8 +1984,11 @@
       <c r="D54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>87</v>
       </c>
@@ -1901,8 +2001,11 @@
       <c r="D55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>88</v>
       </c>
@@ -1915,8 +2018,11 @@
       <c r="D56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>89</v>
       </c>
@@ -1929,8 +2035,11 @@
       <c r="D57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>90</v>
       </c>
@@ -1943,8 +2052,11 @@
       <c r="D58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>91</v>
       </c>
@@ -1957,8 +2069,11 @@
       <c r="D59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>92</v>
       </c>
@@ -1971,8 +2086,11 @@
       <c r="D60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>93</v>
       </c>
@@ -1985,8 +2103,11 @@
       <c r="D61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>94</v>
       </c>
@@ -1999,8 +2120,11 @@
       <c r="D62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>95</v>
       </c>
@@ -2013,8 +2137,11 @@
       <c r="D63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>96</v>
       </c>
@@ -2027,8 +2154,11 @@
       <c r="D64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>97</v>
       </c>
@@ -2041,8 +2171,11 @@
       <c r="D65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>98</v>
       </c>
@@ -2055,8 +2188,11 @@
       <c r="D66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>99</v>
       </c>
@@ -2069,8 +2205,11 @@
       <c r="D67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>100</v>
       </c>
@@ -2083,8 +2222,11 @@
       <c r="D68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>101</v>
       </c>
@@ -2097,8 +2239,11 @@
       <c r="D69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>102</v>
       </c>
@@ -2111,8 +2256,11 @@
       <c r="D70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>103</v>
       </c>
@@ -2125,8 +2273,11 @@
       <c r="D71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>104</v>
       </c>
@@ -2139,8 +2290,11 @@
       <c r="D72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>105</v>
       </c>
@@ -2153,8 +2307,11 @@
       <c r="D73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>106</v>
       </c>
@@ -2167,8 +2324,11 @@
       <c r="D74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>107</v>
       </c>
@@ -2181,8 +2341,11 @@
       <c r="D75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>108</v>
       </c>
@@ -2195,8 +2358,11 @@
       <c r="D76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>109</v>
       </c>
@@ -2209,8 +2375,11 @@
       <c r="D77" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>110</v>
       </c>
@@ -2223,8 +2392,11 @@
       <c r="D78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>111</v>
       </c>
@@ -2237,8 +2409,11 @@
       <c r="D79" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
         <v>112</v>
       </c>
@@ -2251,8 +2426,11 @@
       <c r="D80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>113</v>
       </c>
@@ -2265,8 +2443,11 @@
       <c r="D81" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>114</v>
       </c>
@@ -2279,8 +2460,11 @@
       <c r="D82" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>115</v>
       </c>
@@ -2293,8 +2477,11 @@
       <c r="D83" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>116</v>
       </c>
@@ -2307,8 +2494,11 @@
       <c r="D84" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>117</v>
       </c>
@@ -2321,8 +2511,11 @@
       <c r="D85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>118</v>
       </c>
@@ -2335,8 +2528,11 @@
       <c r="D86" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>119</v>
       </c>
@@ -2349,8 +2545,11 @@
       <c r="D87" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>120</v>
       </c>
@@ -2363,8 +2562,11 @@
       <c r="D88" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>121</v>
       </c>
@@ -2377,8 +2579,11 @@
       <c r="D89" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>122</v>
       </c>
@@ -2391,8 +2596,11 @@
       <c r="D90" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
         <v>123</v>
       </c>
@@ -2405,8 +2613,11 @@
       <c r="D91" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>124</v>
       </c>
@@ -2419,8 +2630,11 @@
       <c r="D92" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>125</v>
       </c>
@@ -2433,8 +2647,11 @@
       <c r="D93" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>126</v>
       </c>
@@ -2447,8 +2664,11 @@
       <c r="D94" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>127</v>
       </c>
@@ -2461,8 +2681,11 @@
       <c r="D95" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>128</v>
       </c>
@@ -2475,8 +2698,11 @@
       <c r="D96" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>129</v>
       </c>
@@ -2489,8 +2715,11 @@
       <c r="D97" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>130</v>
       </c>
@@ -2503,8 +2732,11 @@
       <c r="D98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>131</v>
       </c>
@@ -2517,8 +2749,11 @@
       <c r="D99" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>132</v>
       </c>
@@ -2531,8 +2766,11 @@
       <c r="D100" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>133</v>
       </c>
@@ -2545,8 +2783,11 @@
       <c r="D101" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
         <v>134</v>
       </c>
@@ -2559,8 +2800,11 @@
       <c r="D102" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
         <v>135</v>
       </c>
@@ -2573,8 +2817,11 @@
       <c r="D103" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>136</v>
       </c>
@@ -2587,8 +2834,11 @@
       <c r="D104" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>137</v>
       </c>
@@ -2601,8 +2851,11 @@
       <c r="D105" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>138</v>
       </c>
@@ -2615,8 +2868,11 @@
       <c r="D106" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>139</v>
       </c>
@@ -2629,8 +2885,11 @@
       <c r="D107" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>140</v>
       </c>
@@ -2643,8 +2902,11 @@
       <c r="D108" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>141</v>
       </c>
@@ -2657,8 +2919,11 @@
       <c r="D109" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>142</v>
       </c>
@@ -2671,8 +2936,11 @@
       <c r="D110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>143</v>
       </c>
@@ -2684,6 +2952,9 @@
       </c>
       <c r="D111" s="2">
         <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D9C0C8-8CA6-45EF-8D87-0EFC188F6739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="caña" sheetId="1" r:id="rId1"/>
     <sheet name="reel" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">caña!$A$1:$F$111</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="185">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -78,21 +81,9 @@
     <t>BLACK DRAGON 400 CASTER</t>
   </si>
   <si>
-    <t>blue max 1802 beas</t>
-  </si>
-  <si>
     <t>CORSAIR 270 CASTER</t>
   </si>
   <si>
-    <t>DEFENDER 180</t>
-  </si>
-  <si>
-    <t>DEFENDER 3003</t>
-  </si>
-  <si>
-    <t>DEFENDER 3603</t>
-  </si>
-  <si>
     <t>KARP HUNTER 270 CASTER</t>
   </si>
   <si>
@@ -105,24 +96,12 @@
     <t>KARP RUSH 270 CASTER</t>
   </si>
   <si>
-    <t>COSTA TELE</t>
-  </si>
-  <si>
-    <t>peje</t>
-  </si>
-  <si>
-    <t>bait</t>
-  </si>
-  <si>
     <t>RIO 2 T</t>
   </si>
   <si>
     <t>BAIT</t>
   </si>
   <si>
-    <t>RIO 3T</t>
-  </si>
-  <si>
     <t>COSTA 3 T</t>
   </si>
   <si>
@@ -184,6 +163,453 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
+  </si>
+  <si>
+    <t>atlantic 420 xfish</t>
+  </si>
+  <si>
+    <t>BAKER 2102 WATERDOG</t>
+  </si>
+  <si>
+    <t>BLACK POWER 270 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK POWER 300 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 1,80 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 2,40 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 2,70 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 3,00 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK TARU 198 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK TARU 210 XFISH</t>
+  </si>
+  <si>
+    <t>CAPITANIA 2,70 MTS 8855-6</t>
+  </si>
+  <si>
+    <t>CATANA EXPERT 300</t>
+  </si>
+  <si>
+    <t>CATANA EXPERT 390</t>
+  </si>
+  <si>
+    <t>CHASCOMUS 4,50</t>
+  </si>
+  <si>
+    <t>chelsea 270 water</t>
+  </si>
+  <si>
+    <t>COMPACT 1,80 ALBATROS</t>
+  </si>
+  <si>
+    <t>CORVINA 360</t>
+  </si>
+  <si>
+    <t>CORVINA 390</t>
+  </si>
+  <si>
+    <t>costa 390 xfish</t>
+  </si>
+  <si>
+    <t>costa 420 xfish</t>
+  </si>
+  <si>
+    <t>daiwa 240</t>
+  </si>
+  <si>
+    <t>DERBY 2102 waterdog</t>
+  </si>
+  <si>
+    <t>ESMERALDA 270 XFISH</t>
+  </si>
+  <si>
+    <t>gol xfish 2,40</t>
+  </si>
+  <si>
+    <t>GUAZU 240 SURFISH</t>
+  </si>
+  <si>
+    <t>GUAZU 270 SURFISH</t>
+  </si>
+  <si>
+    <t>HORCONES 450 kunnan</t>
+  </si>
+  <si>
+    <t>horizonte 3 mts red fish</t>
+  </si>
+  <si>
+    <t>KARP RUSH 300 CASTER</t>
+  </si>
+  <si>
+    <t>legend 270 xfish</t>
+  </si>
+  <si>
+    <t>litoral 180 surfish</t>
+  </si>
+  <si>
+    <t>MAGNA 210 ALBATROS</t>
+  </si>
+  <si>
+    <t>MAGNUN 1,85 BANDO</t>
+  </si>
+  <si>
+    <t>MOJARRA 1,50 XFISH</t>
+  </si>
+  <si>
+    <t>MUSTANG 210 BANDO</t>
+  </si>
+  <si>
+    <t>NASSER 210</t>
+  </si>
+  <si>
+    <t>NEO 360 XFISH</t>
+  </si>
+  <si>
+    <t>OCEAN 300</t>
+  </si>
+  <si>
+    <t>ORIENTE 210 WATERDOG</t>
+  </si>
+  <si>
+    <t>ORIENTE BECH 2702 WATERDOG</t>
+  </si>
+  <si>
+    <t>PACIFIC 4206 CASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pacific surf 270 </t>
+  </si>
+  <si>
+    <t>parana 270 mts red fish</t>
+  </si>
+  <si>
+    <t>paranacito 180 surfish</t>
+  </si>
+  <si>
+    <t>paranacito 210 surfish</t>
+  </si>
+  <si>
+    <t>peje 420</t>
+  </si>
+  <si>
+    <t>PLATINUM 3 MTS XFISH</t>
+  </si>
+  <si>
+    <t>PLATINUM 3.30 MTS XFISH</t>
+  </si>
+  <si>
+    <t>power 180</t>
+  </si>
+  <si>
+    <t>power boat 1 tramo</t>
+  </si>
+  <si>
+    <t>predator 180</t>
+  </si>
+  <si>
+    <t>predator 198</t>
+  </si>
+  <si>
+    <t>PREDATOR 210</t>
+  </si>
+  <si>
+    <t>QUERANTI 210 XFISH</t>
+  </si>
+  <si>
+    <t>QUERANTI 270 XFISH</t>
+  </si>
+  <si>
+    <t>RED FISH 300 XFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO PARANA 270 BANDO </t>
+  </si>
+  <si>
+    <t>ROCK 270 SURFISH</t>
+  </si>
+  <si>
+    <t>san pedro 180 1 tramo</t>
+  </si>
+  <si>
+    <t>SENNA 2702 WATERDOG</t>
+  </si>
+  <si>
+    <t>sensosurf 390 silvtar</t>
+  </si>
+  <si>
+    <t>sensosurf 450 silvtar</t>
+  </si>
+  <si>
+    <t>silver stone 300 kunnan</t>
+  </si>
+  <si>
+    <t>SNIPER 390 CASTER</t>
+  </si>
+  <si>
+    <t>SNIPER 420 CASTER</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 180</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 210</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 240</t>
+  </si>
+  <si>
+    <t>SPIDER 385 ALBATROS</t>
+  </si>
+  <si>
+    <t>SPUN 3 MTS WATER</t>
+  </si>
+  <si>
+    <t>SPUN 3,30 WATER</t>
+  </si>
+  <si>
+    <t>START 360 SURFISH</t>
+  </si>
+  <si>
+    <t>sudestada fish 270</t>
+  </si>
+  <si>
+    <t>super x xfish 2,40</t>
+  </si>
+  <si>
+    <t>supercast 360</t>
+  </si>
+  <si>
+    <t>supercast 390</t>
+  </si>
+  <si>
+    <t>supercast de marine sport 420</t>
+  </si>
+  <si>
+    <t>supreme 180</t>
+  </si>
+  <si>
+    <t>supreme 198</t>
+  </si>
+  <si>
+    <t>supreme 390 caster</t>
+  </si>
+  <si>
+    <t>supreme 420 caster</t>
+  </si>
+  <si>
+    <t>SURUBI 1,80 ALBATROS</t>
+  </si>
+  <si>
+    <t>takumi 425 4203</t>
+  </si>
+  <si>
+    <t>TELE SURF390</t>
+  </si>
+  <si>
+    <t>TELECAST 4</t>
+  </si>
+  <si>
+    <t>titanium 390 caster</t>
+  </si>
+  <si>
+    <t>titanium 420 caster</t>
+  </si>
+  <si>
+    <t>TRONADOR 3 MTS ALBATROS</t>
+  </si>
+  <si>
+    <t>ULTIMATE 360 PLUSFISH</t>
+  </si>
+  <si>
+    <t>ULTIMATE 390 PLUSFISH</t>
+  </si>
+  <si>
+    <t>VALIANT 2702 CASTER</t>
+  </si>
+  <si>
+    <t>VARIADA 240 XFISH</t>
+  </si>
+  <si>
+    <t>VARIADA 300 XFISH</t>
+  </si>
+  <si>
+    <t>VENDETA 210 ALBATROS</t>
+  </si>
+  <si>
+    <t>WARRIOR 165</t>
+  </si>
+  <si>
+    <t>XTREM CHAOS 270 CASTER</t>
+  </si>
+  <si>
+    <t>ZARATE 270 XFISH</t>
+  </si>
+  <si>
+    <t>VARIADA DE RIO 2 T 3MTS</t>
+  </si>
+  <si>
+    <t>BAITCASTING 2 T 1,80 MASIZA</t>
+  </si>
+  <si>
+    <t>VARIADA DE RIO/MAR TELESCOPICA 390MTS</t>
+  </si>
+  <si>
+    <t>AGUA NEGRA RED FISH</t>
+  </si>
+  <si>
+    <t>AMBITIONS XFISH</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPDw0NDQ8NDQ0NDQ0NDQ0NDw8ODw0NFREWFhURFRUYHSggGRonHRUVITEhJSkrOi4uFx8zODMsNzQtLisBCgoKDg0OFQ8QFSsdHR0rLS0tLS0rLS0tLSsrLS0tKysrLS0tLS0tKysrKy0tKysrKy0rLS0tLS0rLS0tLS0tLf/AABEIAMIBAwMBEQACEQEDEQH/xAAcAAADAQEBAQEBAAAAAAAAAAAAAQIDBQYEBwj/xABHEAACAgECAgQICQkGBwAAAAAAAQIDEQQSITEFBkFRBxNTYXGBktEUFhciUlSRk6IjMmJjocHS4eIVJEJDsfAzNERyc6Oy/8QAGgEBAQEBAQEBAAAAAAAAAAAAAAECAwQFBv/EAC4RAQACAgAEBQMEAgMBAAAAAAABAgMRBBIhUQUUMUFSExVhMkJxoSKxM0ORI//aAAwDAQACEQMRAD8A/UkiikiB4KFgIMALAUsEQYKpOJBLiUKUeH++ZBaAMFQ9oCcSiXEiaG0qngBOJAtoCcSoNoEuIRLiRdk0BO0gWAp4AEgE1y/32ECaCM5IDJoo7SK0ZAwEAYAQUwhNFEgGAoSIh4KGkANBCwFGAgwAmFJhCCkwEwiQhMKkCWQSAgKQCwQJlGcwMyo66I0oBgAExeQpgDKhECIoKhooCKyv1EYcOcuaiuLa/cSZ1A5ml6alOy+CplJUS22OLW9Zz/gfPk+0zW29jpaXVwtTdclLHNcpR9KfFG9jUqJ3BCbCk2AsgLIA2EIITAhhSYEkCAoBZAlgZzAgqOkr/wBGf2EaV4/9Gf4feAfCP0J/g94B8I/Ql+H3hC8e/oS/D7ymx49/Qf2oaNl8If0f2oo+bVdJKtZlDPof8jM9HSlJtOnEu68UQbTrnw86weeeIrHR9CnhuS0b2xn18qw/F0W2NRlLEX3JvD4eZlrxEWnULl8NvjpN5mOjzFfhmi8f3CUV9KV/Bed4g3j1HqiIfKmXsOj+slus007aKJwnKCenlWpX12t54puMcLh2rtOVp1OnSIjT6tLqdRGtbtHYt2VOy26G+T5NtJfsJaLTWW+Sny/p4Po/rStF0l0k7lK1WV1LK3Jbo225eIxfDEvMcsc6gpj550+3V9eNNqW/FwnTfFZjfXdKmyPrnXiXoeTfO7Tw9Y9/6Y6zwmz0tUVZCnVWNtRtjPapxSX50Yp4kdIl5rV0468NF+XnSabHZ+Uuy/sizTm9I/CNJNp6aGU3H/iy44f/AGnktxGp1p93D4TW9ItzeqX4SJfVofey/hM+Zns39nj5NNN1/lN48TXHP6cn+41XiNzrTz5vDYpHSXUr60SazipeqXvPTWdvmXpNZV8Zn+q+yfvOnRymJQ+tEv1Xsz95dQz1Zy60S/V+xL3k6J1Zy60z76/Yl7wvVjLrXZ3w+7fvB/kzl1rt74/dsm4OrKfW236UfuxtdSyfW+/6S+6RNrpnLrhqPpL7pDYwn1x1PZKP3SCaYT66av6S+6iQ0xfXXWfSj90gafrqnf5Wteir+YaUnqPLr7te8BPx/wBYfqgveAtt/wBYl7CAl13fWJ+zEipdF31ifsxAiWlt+sWezEo+bU9FSsWJX2cfNEkxtul5rLiXdQ6ZPc9Rfl+aHuOHlq930KeJ3pGoiEx6hUrLjfqMtOL/ADOKaw1yLXBWJ3sy+J3yUms1jq88/A7T2a27Hnqg3j7Tu+XD1nVvqzPQUS09esvsrlHaozWFHi2tuHmP5z5NGJpEzt1545YjXo5r6kp4lqdTqrZRfCzdvSSeU8Sy0Yti37vXHHcsaikOVb1aq1Gv1U9ROdMXBKCgotze/s4PzvBiuPfSXLBxM4bc1YbWeD5S4UWW1rPGeoUW2vNCOH9pqMER7vRbxK9o1NYadJeC/T3x4321zzulKuuuMW+3EV7ztFdPnzfcTGnMj4GtPnMtZqGu5V1r/XJqXOHe+T3S83bqW28vDrXH2TzzgrM7l9XH4rkpWKxEdD+TzSeU1PtV/wAJPLVa+75u0Lr6haWLyrNT651/wljh6xO3HJ4jkv7Q+2HVLTr/ABX+uUfcdYrp475Js0XVXT99vtL3GtQxMj4rab9Z7S9xdJsvitpu6z2/5BNl8VtL3We2DY+K+l+hP22AvitpfoS9tkUn1V0nk37cgJ+Kej8k/bkBL6p6PyP45e8Il9UdF5H8UveBnLqhofI/jl7wbZvqdofI/jl7wbe2SCrSAMAGAFgBgGAFtKpbQFtANoQtoBsAXi13ImjY2FBsCFsATgAtoBgA2gG0KTiEJoIlxCjABgCWiCcAJoBYCpkgjPAHVQVWQGgHgKAgACgAQAAmAACAGEACYEgAUBCwAMCcgJgS2AYAABkEMqpZEIKQQmwMmB1EFUA0FMICgIAoAEAmAAAAggAABgS0AgAKTAQQmAgFgBMBZIBlVLIiGwEFJsIlgZtgddBVYAAGUAQgABNgLIUABAmUNBAAAIBMBMBZCk2EJsCXIBbgDeBLmAtwA5EEuRRDZAZCpbKiJSIMmyjsKZFVvCGpFDyAOQC3AJyAW4A3ALIUZANwDUggcgFvCluCE5AS5ALcBLkAtwEuQC3ALcBLkELcAt4EymDZbgpbgSnIREmBk2B10yKpMopMug3IaC3DSbLJdA3FBuMypbiBbgo3AG4BpkNHkoTYCyDRNkQslElUmiIQVOAgwDQwDROJDUp2jZqS2g1KXEGp7EkNrqUymlwbS9LQ2kxLK7VVwW6dlcF3ynGK/aWB5Lp3wh6PTS2RVmpf0qXXsXrbWfUVHCl4WqsvGiux57YL9wNPf9IdYK9N/wAxZRVLmoSm3N+iC+c/sIsVmekQ4UvCTTv2xpulDDxYoNKTXcm0xt1jBefSH0Q65arMZPo63xU4wmnCcLLlCWNsnSpblncuDxzNOM9nT0nWiFrUd0aJubrUNVVdpm7E2nBOeFJ5jLgm+TKjruWo7q/sl7y6RhPWXKSrShKbW7bGMniPe3yQ0u2EulbPm42uTco7FVNyTi8Syl50WKkS+KfT1vzlGVeYtxknXJYks5jx7eHLzmMlZj0d8XLadS5d/WzURy3Zp4LjjdXNuWHjKUU+HneDzWtavrL6GLh8d/SsyNL1j1djkvG6epxk4tTrk3lc+EIyfr/mc4yXn3dMmHh6a1WbfwhdZNY7JUq3TqyOcKUa4Kb7FFyxlvsHPfcxt0nh+HrSLzWev9H/AG50g3CKs035SKlGSlpNqWWnl7uzD+wc2TuxGPhZrNuWeh6rpfpKMoQhZVc5p4dEapLK5p7sNd+eWPWJtk7rTFwsxMzWY13Y29O69OMYarT2yk9rVUU9jw3hvbjsfFZXDmN5O5NOFj1pMPkv6z66Mdy1NNrziSog5bM8m90I8OzKzx9Rmb5I99umPBw97a5JjfdEusuvW2LvxbLGKXU1Ys8k/m4TfdntRea8a/y69j6GDczGOeXuldY9a45errUmlJQf5zTWVxUdqysPi+0nNbW+Y+lh5tRimY7vno6z62bxLUSrWMuU8JJepNt8eRmmS1p62d8/C4cdNxj5paf27rXNR+GLZKDmrXJxjtTw1hxTbz2L3mua2/1dHnrXFNJt9HrHsI9Ma6VihDVb4uErHd43bXGtNpyk2ljisetDdt6iyx9CMc2nFqezLpDprXVNf3mVkJZ2W1Xb4SxzWVyfFcPOYyWtWf1bduGx4M24nHyzHs5760a3yuo7f82X2ljm+RNMUdPpM31m1nltR97InXf6nSMWPX/Ez+Mur4N3X8f1suH7TVa2mf1JNcMa/wAB8YNU/wDqLvbk/wB50th1/wBrG6a3GH/Q/tvUNNvUXLuWZceHpOVqzH70i9fT6P8Apr0frdVfYq1fOOctycm1FL18exes415rTrbpxt8XDYJy8nNPtHeTj01p3KcfhuqxXOMJ3xg51Rk20uPN5w+XDhz7TvOC+ukvh08Uya5rYY/hn0lqNRTNR8e7ISW6u1PCsj383j7Wee8Xr6v0HBZMXE4+eKa/Dm626VtN26bTVc5ww8vxkY7l9uGvWdMF9X/ljxDh6zhmYj0eNlq7HznL7WfRfl1ae1KWbMzi+cU9rfrwWJQPD4l6D13SPQWp02rtq1ttb1bgrptO21uVnFNtR4v0ZXHn2GLROuj1cLemO02s06H0Nc9RTG6+qFcr6Y271dHFO5KWW44XzXLtOdd76vZbiqamYnrL2VPTmjb1Govvp0879Ta7qq9Pqm79NCt1RjNqLabjZZiWVxjHHBNHbb5LhdNWy6VnpF0XK7UfA4tuS0uotU9S5Ripzco7U3Gut5lwy3ntGzT9L6g9A6rSaKNWv1TnbubhVudq09fZDf2+jilyXAnNJp0HZXXK/dZY7PGLCVc3uW1bVu5d/wBpuIt6sTMR6vi0UIrxqnZPxkpSf/DlJdzXBcs5frRes+hz1j1cnWwTrahNt/OSjCC4tcezH+Hc+XajnaZerFMRqzyup6MtlBX2y26bxcd1ylW8QUUtsVu4z4Y288v1njy47Tbmn0fY4fiaVxzjrG7vrqeoXjlp6nqovUXuVcqa9RGmTsljK/OjmO154L04Y6+kdXC1MV5rfJPLMR+dy5Tt8XqoTyoqq+mcvFvdGLi4yko8XlJ7scTzXn/6dH1605+GnfXpL7IaeycoQqk3bW9Xp61YklZKNrk4JPg5ONreH3eg6794nq8FYrSurek6mf8AxF/RN9O1Xb6L73KFcJThF2Jxlu4LhGL4Q587OxcprpuZ6utc8XmIrG61/B/2fdp1X8Iq1FVnwmmyO+e1OvK5V9+cfO9CJXcerWTNXLaeTrGp9vd8C0snXOyqNltdS/LyltjKpLscU3wePzu3GOD52PXpLfNPpkjrrpptPQXxtjZqFKHjbcwlvg3bZKWU48Xlcct93nwarTV5tMwl8sfSimOu5Kiq6VVTVMLadibutjXthDCylYsOG3iuLzw5dh1m06iutw801ibTeZms9oc7TaN3SlXXjO2TjGc4wclnknJpZw8+pnkpTmtMRL6HEcV5fFW16zO+k6dPXdGXWutTjTHUuE841GnXjYR2pcE8KXF9vFLzHa9Zt+rpL5fC8VTFNvp1tNJ7/ler0Nr2wudVepuqlBNaihQuUJ1zjGUVwT4Pt4tR7h1tGp6S6YbUpfeOJmkTty9bo5UwULHDfOan4uFkJ7UotNyS5N5Xb2P1YvSa11MvpY8sZcnNWOkQ+NzWOTfYvnrnjg+X7DUTqHKes+kdUyknnEXxzzkn+4kzG9kVtFdREalPi33Pm2uPb9nn/aai/Ri2GvNrXQpxlyalwXe1ju9BnfvPs1rry0iNSz2S5YljzTZYvHdynBabTMViXQ6Fj+U2brIOyLinGxxlufn/AHeguO8c/Vy4/h58tqI99vp1UYaXo+rSdHU3rXXxrWr1ca3GCePnp3SWMNtqO3kueHlP3c0Pz2ny66l1w02mcpWS09WybcnKMZcPmxzyXDl6D5+eYmz9J4TivXHNre75YtR3SljbGE5NN4TxF8DGGN3h7OOtFcFpeLwfUfj22lkozhKUYzUXlxnlxljseOOAHBcEB/SnWDq6ukFD4XpoynXwhbGartjF847ovO3zevmTqrpui9wjU6q3VCMYwhLZKMYpYSw/MNI8/q+o0btZDW2UwzVGCror8TVSpxk5KyUY43PL7e7tGh6HxOqxhRikuS3RwhpUy02qf0faQ0M5aDUvDxDKWE3JZSLoZz6KvksNVNZzhyTWe/kRdvj1XV2+eV+R488yfH9hi1Zl2x5Yq49nUO6Ut2aPaln/AOTzzw9u76VPEaV9kx8H9/bPT93OT4d35pI4e3tLrPimKY1NTfg/v8rR9s/cZnhLd2/vGPsXyd29t1X43+4eVt3T7vj9qH8nNnlquPmn7i+VnuzHi1I6RQLwbzX+dSvRGQjhJ7n3antQ/k4l5ev2JMeUnus+MV+AXg2xn8vXx5/k3x/aXys92fvFfifybLOXfHPf4p+8eWn5JPi8fAn4Nk+eoXo8W/4hHCflZ8Y3+wvk2j26hY/8X9RfLTvfMz93jWuQ14N4fWP/AFf1F8rv1sn3bXTkNeDeH1h/df1E8r+SPF5j9g+Tev6zL7r+o15b8pPi8/AfJtX9Zl93/UZ8t+T7tPxHyb1fWJ/dr+Ivlvyz91t8C+Tajy9nsL3jy8dz7tf4n8nFHl7PZXvL5aO5Hit/iH4OdP5a32V7yeWjuk+K3n2afEOr6zqH6zX0fzLl5+N75IZfJ5pvK3fhJ5aO7pHi2Ts+XW+DWmyLh8ItjGWM4gm8d2cm6YYrO3HiOPvmpyy5tngg02Pmam5PvlCLX+p2eB5bp3waazTv+7wlq4P/ABVbU15nFvP+pUcSXVLpL6jqvYA/qZIqKCqwAgEFJoiE0BLQUYAMA2WAAAAAAAAMAS0BLIqMAACATAQCYRIUmEQ2BLkAmyolsCJMIz3AejKp4AYCwAsEUYCE0FS0BIDAQAAAACAGAmwEyCWFIBAIGiYA0BOAiWgqWEZtAQ0BLZUTJgZSYROQPTpGlVgAACBEUgABNAS0RCaCkAgEyhNkC3AG4oMkAAmgE0AsBSwDZAGAhMCWFRIIzkBDAiSAhoCGUQB6VSNI0TAMgBBLCgAIEyAAlgSwEAAS0BLAQDQAAsgJsAyAskCAMgJlEsKmQGUgiGBMgIYESAz3FHo0dEUZQshRkgNwUbiAyAsgJsAyRCbCjIBkCWwJbCEFNADAlgSwE2AsgGSATAMlEtgTJhWUghMIloKiSCs5hGLkB6VHVkyACpIEQBFGQJcgDcAKQDyQACATKiGRQAZClkAbAlyAlyCFkB5AW4BNgQ2BLYENgGQEBMmFYyYHzTsjlgeqSOrmrACaIqcEUsADRBLQEtEEsKnJFG4IN4BvANwCyAZAWQoyAmwJbAlsBZAAABNhEMBMCQh4AQVnIKxmB8jT7gPYI6uZ5AnJFIkhBQAEEtBU7SBOIEOJFJxAloCcBCYDQUAACYEtgSABAAAS2BICZULJAygZBnIKxsAwCvVI6MBgSAZIEFMgABhUhCIpBCaAhoipaAnACYVOQhZAHICWwFkgEyh5AWQEwEESyhEQFAwrNkVjYBiwPUo6SgAWQEyCckC3EApDam5BEtgGQpZIg3FEuRAmwEBLCokyCGyiWwIbIDIApAG4oeQhOQVO4IMgADKhNgY54sisrGBi2Db1SOkiQAqAyqGSRJlUgMBMAYEsBBAwEAwADORFZsohgQyBgIBAMCZBElQwpxAo0gJIxXOXpIrKwqMWUf/Z</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/Ha6moH-lbCxVHu6pnOeE6Krf9KgDrUP_YKAbgPdRv5s/rs:fit:500:0:1:0/g:ce/aHR0cHM6Ly9odHRw/Mi5tbHN0YXRpYy5j/b20vRF9OUV9OUF84/ODU3NDQtTUxBNTE1/NjEyNTY0OTFfMDky/MDIyLU8ud2VicA</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/-WHRBCfIVbq4l2uIX8Yi0IeMywWLYE5ifaL8cDePHtM/rs:fit:500:0:1:0/g:ce/aHR0cDovL2h0dHAy/Lm1sc3RhdGljLmNv/bS9EXzkxMTQ5Ny1N/TEE3OTY0NTU3NjQ1/M18wOTIwMjQtWC5q/cGc</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/xfLUTDawqZFFR7NNkvp6tuklYFb_dMXq4hWcGPXUNc0/rs:fit:500:0:1:0/g:ce/aHR0cHM6Ly9odHRw/Mi5tbHN0YXRpYy5j/b20vRF9OUV9OUF85/MDk1NTAtTUxBODE4/NTUyODQzOThfMDEy/MDI1LU8ud2VicA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUQBxMVFhUXGBkXGRgWGBoYGRcaIBoXFxkXFiEaHSghGB8lGxMTIjIhJSkrLy8uFx8zODMsQygtLisBCgoKDQ0NFRAQFSseHR0tLS0rLSstKysrLSstLSstLS0tLS0rKy0tLSstLS0tKy0rLS4tKystNy0tKy0tLS0tLv/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABDEAABAwIEBAMFBgIJAwUBAAABAAIDBBEFBiFBBxIxURMiYRQyQnGBI0NSYpGhscEVJDNTcoKywtE1Y3NEVJLh8Bb/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAHxEBAQACAwACAwAAAAAAAAAAAAECESExQRJRYXGB/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERAREQEREBERAWDwTNEVTNNTxNkY+Jzx5wAJAx5jc+Mgm4D2kG9iLjTULOKL8jxslxeoqsNMr2eE8SuuDCyaR8byyPX3+VjeYAacovqUEoIiICIiAiLG1+NxRO8O7pJdoohzyehIHuD8ziB6oMkoX4r51dO92HYG8CMXEsgOj3f3YPTlHQ66n0GvniHxBqy99FRckQtZ/hu55G36sc8Dla4DqGXte3N1WgYThsk8jKfDmF0jzYAfuSdgOpOy3jjvm9JaYJgktRK2mwwFzyddvmXHYAEEna+9wuoMMpTFDFE43LGMYTa1+Vobe23RYPI+T4cOi5YrOldrJJbqevK3s0Hb6lbKrnn8v4mOOhERc2hERAREQEREBERAREQEREBERARFqmP4zLNMcNy0601gZ57XbSMP7GVw91n+Y6dQoZkxGermOG5beWWsKqpb9w0/dRHeZwP+UG+m2x4Hg8NHAymwtnJGwaDqSTqXOJ1JJJJKYJhMVLC2CgBDW3Nybuc46ue89XOcbkk91foCIiAiIgjTijj1e2ogw/L72xeOB5yeUuJLmhjXfd+6NRr5hqN9YxDiJVU9PJQOpY6WrDuR7oiOUC1y8C585v15ndb3VTjjikTqmCKCQGSJruYNvdriWOaCR0NgD6XCjok3Lnkuc43JOpJOpJ+q3jjv8ASWvUETi4NiBc9xAG5c4np8ySug+H2TWYfFzT2dUPA8R34R18NnoNzufoBo/BvLbJnCumaSI3HkJHlc8XaOTuG3cSfxctvdKmZMsvIaERFhRERAREQEREBERAREQEREBERARFrOaMwyMe2hy8GyVkouL+5AzoZ5uwGzerig85lxuUyjDst2NU8XfIRdlLGfvZO7j8LNzr0CymXcCio4RDRXOpc97jd8rzq+SQ/E4nX9gvGWsBjo4iyIl8jzzyyv1fNIer3n+A6AaLLoCIiAiIgLS+JGcxQxiGiINVNpGLX5AdPEcPnoBufQFX2fM4RYbBzyWfM+4ijvq4/id2aNz9N1A1ZK55fW5mLnyS8xa2/KSQLA22jb006co6rUx2MbWQuiLjiF3Sm7iSeYuJ1LuY7Xvr8762Cl3hxw6jMAqcyx80jxdkbrgMb3cAfePY9Bbe6p8L8husytzKC46OhifqWDrzvv3NiG7WBOvSWFcs7rU6ZmPqjSUrImNjpGNYxos1rQAAPQBVkRYaEREBERAREQEREBERAREQEREBFrWdoJWxirwh/h1EbmNaXEmJ7XyMYWTtHvM817jzNtcHqDiMzZjrYIoWUJidWzlojpzHzE/jeS145WNHMeY6aa7oMpm3M5gc2jwRolrph9nH8MY3mnt7rG9e5tYel1lLLbaNjjK8y1Ep5553e9K//axtyGtGgHzKtsl5TFGHzV7/ABqubWaY7/kZ2YP1O+wGzoCIiAiIgLA5xzTDh0BmrTdx0jjHvSO7DsNydh9Aq+aMwwUEDqjEnWA0a0e9I7WzGDcmx+QBJ6Ln3EMUfiM767MTwI2aCMOHlablsbATfXl6/Ee21k2KVTiTqqaSuzG650LWdA4a8sbB1DevQEdbkXud94aZJdUyDFMxMs24dDEb2NvdkcDc8o+EHra/S17Lh9lB+JStr8dby0zD9lFtIR/sBGtrcxFrWFlNoFtGrVvkR9REWFEREBERAREQEREBERAREQEREBEWEzZmSKgh8SoBe955IomavmkPRjB8yLnZBiuJ2NNhpHU8AL6mo8kEbdXF9xyut2Drf/rkVsmZXfTl9Zjr/GrpgPEkPRjdoYtmsHoBc69gKeUctSNkOI5mIfWyDoNWUzD0hi+h1dub/M7cgIiICIiArDHMYho4H1OJu5Y2DXuTs1o3cToAq2JV8dPE+eveGRsBc5x6Afz+W6gHM2Pz4rUMqKiF5oo5OWOIG1wPekdtzWIuegBtcXJVk2LDHMwPxWpNRjDvDhjB5IwfcZcDT8TyeW5A/YBZnIuUXYrOKitbyUUR5QLWMtj/AGbbdGjfU290Em5FrlbJrcUq3uog9lGx5538oYHaktihGpHl5bk9ybNuAugKGjjhjZDRNDGMAa1rdAAOgC1brpFSGJrGhkIDWtAAAFgANAANhZe0RYUREQEREBERAREQEREBERAREQERYzMeOwUMD6nFHcrG7fE52zGDdx7IKeaMww0EBnxAnrysY3V8jz7rGDclYHKWXZpJv6VzYAapwtDF1ZSRn4G/9wg+Z3qR3VLK2Bz1c4xbNjeWT/0tMelMw/E4byuFrnb9m70gIiICIiAqNXVMiY6WrcGMYC5znGwaBqSSqkkgaC6QgAAkk6AAaknsoIz1myTF520WCEilDrc3QTuF3Fx7tAaXBvU2va9gAtM6ZolxiUtpS5lHE9oY0NJdK9zgxr3NuLkucLNJHKDrqbJl/A5MQldQYFzRUsflqZrg89iTZptYkkycp3a8cws0NVlgNFWV74sOw+8Xhf20jHeVrLADn5TbmALxyg+Zx11BKn7LuBwUUDKbDG8rG/q47ucdyVrpFfCMMipoWU+HMDI2CwA/cnuSdSdyVeIiyoiIg+E919WscSaCSfD52UNy4AP5WmxeGnmc3TuAdFE2Tsz1NFG2oopXz02njQvJcYjuWX1aOxGncbqybHQCLWcMzkypjE2FU1TLGSRzNbHa4NiPNIDoVb4pn6Kmbz4rSVsTL25nQgtHzLXkBQbcsLjGa6KlkZDilQyN7+jTcn5usDyj1NgtHxzjFTGEjLrZHzuPK3nZytYT8RufNa406ai6h6qMr5DJWFz55D1Nybn9ydVvDH5X8Jbp1T/SMP8Aex//ADb/AMoudf8A+BxT/wBtJ+jP+UWvjh9s7y+nSiIi5NiIiAiK1xTEYqaJ8+IvDI2Dmc49AP5nYDdBSxzGIaOB9TijwyNguSd+zWjck6ALS8uYRNiU7MWzQwtjZrR0rukY2nlG8h0I7aHta3wLD5caqGYnj7CyijN6Omd952qJhvfqB/LV8loCIiAiIgIT3RQxxWz+6Uvw3LjiWgO9olZrcAHnjZbYAHmd9O6DHcVM/OrHPocBcfZm6SyNufGNwOUEfd8xaPzEja18RS4cZ5o8PywC6QXd4hJtAHeG4yOs0XcGsaL7c7mWJs5WuCz+IyGmyxF/XXEs5tbgWBfI42tyaNte/KbkWLRzTpkTKEWGweHD55XWMsttXu7Ds0XNh9epK10i6yhliDDqdtPhw9XvPvSO3c7+Q2GizaIsqIiICIiAoS4t5dFHIKnBPI2oEnixiwboAXOHa/MSR31HUqbVGPHu7aSCRv8AeuYfk+CYfxa1N0apwuwLEJhPFTzzU1MCD5bt5pDa4bvo0C5BHULY8zZNoKKB1Vmaoqqkg+WN8zrSP+FrQST9b6C5W05fxSGkwxtXiLgyPlLye9zZoaNybNsB1uoRzfmeXEJzUVvlYLiKK9wxvr3cbAk/8KybGELhzGRwAJNwB8I2aNzYaXU0cMMhmIjEMeBMzheNjtfDB15nX+M36bX79MTwoyJzluI423y9YY3Dr2lcO34R9eymNayvkSPqIiwoiIgIipVVQyNjpKpwYxgLnOcbBoAuSSegAQea6sjhjdNWvDI2Auc5xsABuVG9BSyY/O2rxRrmYZE68ELtDVOGniyj8HWw+ne9CIS5iqOaUOjwiF+gN2urJGnqdwwft0635JThia1oZCA1rQAABYADQAAdAAg9NaALN6BfURAREQERRjxV4jeyg0WBOvUuFnvHSEb22MliNPhvc7Ah54k5zkfIcJyrzOmdYTysBPgtJDSAW6g2d5nfCPXppNE1lDE2mwphlq5rNsAOZzrkGNu7WgAkk6WIdc9FotPK9r2+xlxkLhYtuXueTpbdxJ/W66I4eZNdTc1bjx562a5drdsDXEu8KK5Nhcm9vkNBrqXSK3DfI8eGw80wa6pkA8R46N38KO+oYD+pFzsBuSIsqIiICIiAiIgLQON8HNhb3aeSWJ2vq7kP7PK35zgAS42A1JO3zXO3EfNcmJVDoqcltLEeVg1+0N7GU+mw9D3JVk2lumGxXH5aqKCGbywU8bWRsB0JDeUyO7uP7XsN77XwwyKa14rMWb/VmHytP3zh/sB69+ndYrhzlH+kJy2QEU0R+0cPi7RtPc7nYD1C6IpoGRsbHTNDWtADWgWAA0AC3lZOIk57VGi2jei+oi5tCIiCwx7F46Snkqq+/hxN5ncouTsAB3JIH1WPwHNsFS50REkE7QC6Cob4cgadA4Amz2k7tJCyuJ0EdRDJT1zeaORpY4dwRY/I+qi2LLlYa2mgramF8dJ7SI5ZIuebwwyMeHPc8jxyVEZv6EnVBK9TUMjY6Spc1rGguc5xAa0DUkk6AKK5qqTMdQYKEujwqBw8V4u11U8WcGDs3obbXBOpaBg34Y/Gqs0mAyubh8JAnnjY2Jkrrg8sbWANf0Fi69tXdgZowbCoaSFlNhjAyNgs1o/cnuSbkk9SUFejpGRMbFRtDGMAa1rRYNA0ACrIiAiIgIi0riNnltAwQ0Fn1Unut/u29DK/0GthvbsCgsuKWf8A2JhpcHPNVvaemvhNtcuPd1rkN+p2Bgelri2N4qmh4e/ne91y8u7Mdrre5J3JI1Xk1MjZXzTyOMnMTLI7Ul19W69Tf9OilvhZw/DzHiONxcgFnQQHbtLIDfX8I20PZZ3u8C/4ScPxTgYhjLft36xMcLeCwj3iNnm/+UablSkiLQIiICIiAiIgIijLirnzwAaDBXfbuH2jx9y07D85H6DXcIMTxXz34hfh2Cu8g0nkB6neJp7fiP07rUMqYNUYm9tHTANijA5pQ23ht/DffmF7N+ve+My5gM1dO2lwsa9XvPuxt3c7/jcrpHLWAw0MDafDxoOrj7z3bvd3J/8ApavCPeA4LDRwMpsNbysb+rju5x3JO6yKIsqIiICIiD4TbUqCMfqX47irqbLD3tpmt8OeZpPIW3PO8W0cHAMYASebkBtYLLZ3zPPi9T/QmS3eTUVM4vy8oNnNBHwDoSPePlGl7yRlLLNPh1O2mwttgNXOPvSO3e87n02GgQXeBYPDRwMpsMYGRsFgNz3c47knUlX6IgIiICItezvm2DDaczVpBedI476vd29ANzt+gQWXEPOrMOhtFZ9TICIYr9T+N35R+/T5c74rPK6aSSre50rzzySnq0HUBvY2sLDpb0sPeYa6eondVYm68so5ub4ImWtZuwtY2H1313Hhfkl+IFs+LNPscZ8ofq6cjq3UX5Aep+g3tm8qyXCzJBrCyvx5g8BpvCxw1mI6Sv7jr197r3vOC8xsDQGxgAAWAAsABoAOy9K6QREVBERAREQERanxBznHh0Pks6okuIo/Xd7uzR+5sEFhxNz0KFns+GkGqkGm4iafvHevYb9egUG4dQzVU7YKAGSaVxJJN9Tq57zsOpJXiV81RMSeaaomf83PcdLD9vQAein7hxkpuHQ81RZ1TIPtHjXl38Nh7Dvude1tdIyWSsqxYdTiGm8z3WMkltXu/k0a2G31K2BEWVEREBERAREQazkHJsOF04hpfNI6zpZbayO9OzRqA3b5kk7MiICIiAiKI+LHEvwS6gy48eLq2aVv3feOM/j7n4enXoGazpxVp6KU09Ez2iVt+ezuVkZ/C51jd3cDpuVCGYsdqK2c1OKODpXf2bB7kTNdtgP3N+qwYdqr7D4HVErKeEHnmeyPQXJuQ0D5W/YJcdwbZwxydJiMh8UvbSMdeV4JBlfp5GH1Fr9hbey6OpaZkbGx0rQ1jQGta0WAA0ACt8GwqKlhZTYc0NjYLAfxJ7km5J9VeoCIiAiIgIiICIsdmDGoaOB9TiLrMaPq47NaNyeyCzzjmeHD6cz1mrj5Y4wdZH7AdhuTsFzhi+Jz1U7p64mSaU2AAJts2Ng2A6AfxJVxmrMctdO6qxI22jjv5YmfhHruTufoBJ3CPIfhhuI400+K4XhY4W8Np+NwPxkdOwPc6a6GS4WZC9jZ7Xi7R7U8aDr4LT8I/MdyPl3vIiIsgiIgIiICIiAiIgIiICIo04s8RBRNNHgzr1Tx5nDXwGnf/GR0G3U7AhZcWuJHgc1Bl9323SWVp/sh+Bn5zufh+Z0ghfS43JcSSdSTqST1J7leSqPhd3U/cG8g+zMGIYw2072/ZsPWFh3I2e4foNNytc4L8P8AxnNxLGmfZNN4GO+Nw+9cPwg+73OuwvOyUERFAREQEREBEXmSQNBdKQAASSTYADqT2QUcQrY4I3zVzgyNgLnOPQALnHPeb34jN4kl2wMJEMZ/1v8AzH9hp3vkOJmeDiEng0RIpIz5dvGePvHflHwj6/KpwyyMcQk9pxYH2VhsAfvnD4R+Qbnfp3VGW4TZC8YtxHG23jBvDGR75HSR35RsN+va82LyxgADYwAALADQAbAdl6UBERAREQEREBERAREQERWuJ17IInzVZs1guf4AfUkD6oNc4m5rOG0ZlpgDLI4RxX6BxBJeRuGhpNtzZcwVE75HukqXFz3kuc5xuXE9SSpEzfi0mKvkfK4MhYD4d/dB2H11BPrfawjqaJzSWzNLSOoIsUxsq6UyVv8AwqyA7EJRUYi0ikjOu3jOH3bfyj4j9BvbH8N8jyYnP57tpoyPFkG+/hsP4jv2BvuL9N0FHHDGyGiYGRsAa1regA6AK2oqxsDQGxAAAAAAWAA0AA2C9IigIiICIiAiIgKDeK+e/anOoMHf9g02lePvXD4G92A9TuR265Xi3n0jmw7An2d0nkb8I3iYdnHc7DTr0jnJ2V5cRnFPQ+WNtjLJbRjfTYuPQD69AVRf8P8AJj8Tm+0uyljI8Rw6uPXw2epHU7A+oXRtFSRwxsho2hjGANa1ugAHQBW+CYRDSQspsMYGxsFgNyd3OO7idSVfqAiIgIiICIiAiIgIiICIiDy94AJeQANSToAO5XP3FHiJ7ZJ7NhR/qsbruPTxyD19GDbv17K94vcQ/HLsPwR32INpZG/eEdWNP4Aep+L5dYmJQbgzEGuAfBpGw+Vu5d3cO63rh/ksVp9rzAwOiBs2NwuCRrY36Advp3Vlwh4c+Ly4hjzPs+sMTvj/AO48bt7Dfr0tecI2BoDYwAB0A0A+SxMJLtbdqVHSRxMEdExsbB0axoa0fIDRV0RbQREQEREBERAUc8T89Opw6iwDzVBbeR419nYd/wDGdht1WW4g5uNGwQYUA+rl0jbcWYN5X+gsbDcj0Kgisnfzey4UHyzySDneNXySk3/Y366DX1TZpa4NhM1ZOykwocz3kkk6ho+KR57C+p3uBuumcp5dioKZlNQjoLudbWR/xPd8/wBhYLE8OsnNw6Amo5XVMtnTPHf8DfQXPzJJW3ICIiAiIgIiICIiAiIgIiICIiDjEozqvqIrsai/s2f4W/wCroiIIiICIiAiIgIiIIJzV/1iv/8AHF/oVlwp/wCsRf8Ahd/pC+Is+r46EREWkEREBERAREQEREBERAREQEREH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMQERUUExMVFRUXFRsYGRcYFx0aGxkeGh8YGhshIBgdHSggGh0mGxsbJDEiJSorLi4uGiIzODMsNygtLisBCgoKDg0OFRAQFS0dIB8tKzctLS0tLS0tLS0rLS0vLS0tLS0tLS0tKy0tLS0tNzctLS0tMS0tKzctLSsvLTItLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABwgEBgEDBQL/xABNEAACAQIEAwUDCQMGCwkAAAABAgMAEQQhMUEFBhIHEyJRYTJCcRQjUmKBkaHB8LGy0RVDktLh8RckMzQ1U1RjdILCCBZyc5Oio8Pi/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAIBAwQF/8QAJxEBAQACAQMEAgEFAAAAAAAAAAECETEDIWEyQXGxElEEIqGy4fD/2gAMAwEAAhEDEQA/ANdkw+L4Nj/AQmIW/SiqFimiy3v4wbHLIgjW4qauUuesLj4kYukMxPS0LuAwcahb26x5Efgbivvn7liLiGFYMhMsas8LLkwYC4APkxABH5gVVqROvM5k63rZLa5SZTK9+y5dKr52d9qU2DKwYxmlw+gc3aSL7dXT0OYGmwqfsLiUlRZI2DowDKym4IOhBpZp1dtKUrApSlArwObOaY+HqgIDyydXQjOsa2QAuzyvkiKCLnM5iwNe/WLj+HQ4hemaKOVc8nQMM8jkQdqDTOH9pK2w7YzCyYSLEErHMzdUdxYrdrKVVs+kkaC9rZjfAb6V4fE+UsNiYWhlErRMAChnlK2FiLKXIFiBa3lWi8DxM3LmJGExMjScOlf/ABeZs+5Jz6WOw8xp7wsOuwSvSuFN8xpXNApSlArxua+WoOJYcwTrcaq49qNtmU7H8Doa9mlBVjjHKuJ4fimw08fWhUskgIVWQEDrUsQARcXUnK/kQTtnLvMEnA5vB3k/DX8TeIP3fjZOtCNslNt+rW9iZm5j4DFj4TFLcbo6npeNrEBkYZqcz8QSDcEiokx/VhJv5N4gh7mZX7vELIwEhZr2XKwJJzVzYXtmLFqjE0YDGx4iNJYnDxuvUrKbgg1kVX3gHGsVy1ie6mvNgZWOa5gebL9GQC3Um+2xqeuHY6PERJLC4eNx1Ky6Efrass01kUpSsClKUClKUClKUCoB7YeSjg5mxkK/4vK93AH+SkbX/lY5+hJG4qfq6cXhkmRo5FDo4KsrC4IOoIrZdMqoDRhhcVunZp2gScMcRTdT4VmzXUxE6sg8vNd9Rnrx2i8hvwmXvI7vhHbwtqYyfcY/sbfTXXUHjDC4q+1Zwt3hMUkyLJGwdHAZWU3BB0INd1Vv7M+0F+GSdzMWfCscxqYifeX08131Geti8JiUlRZI2Do4DKym4YHMEHcVFmlO2lKVgUpSgVicU4bFiomhmQPG4sQfwIIzUg5gjMEXFZdKDRuWY5+EP8kxEneYS4GGmPtIP9W5tYW2/DLwpvNdGMwqTIUkUMrCxB/WR9a8DCYp8A4hnYtAxtFMfd+o529D+WkXK43vw7YdOZ46x9U9v38efDZqUpVuJSlKBXk8z8uwcRw7QYhOpDmCMmRhoynYj8cwbgkV61KCtXOEeM4ZbAYwCXDE/NTlbllFrAMSejpsLqtjfPxA+JyJzlLwWXpbqlwUjDqUZ9BPvLsGtqNGH2GrA8ycAg4hh2gxCdSNofeU7Mp2YfrKoPkil5emOFxKNLhpG+adQOiUHLpcNfpK3zAzz3FVGJ74dj48REksLh43HUrLoR+ttqyahCLjMnL06SLG/wAhxBvLB7QgfK5RhkDn7Ohzte3hmbhuPjxMSTQuHjcdSsuhH5H02rLGsmlKVgUpSgUpSgUpSg6Mdg4542jlQOjgqysLgg+lV07RORZOEy95H1PhHaytqYyfcc/sbf462Srox2DjnjaKVFeNwVZWFwQa2XQqMyBs63Xs07QH4a4hmJfCsc9zET7yjdfNftGeR6O0TkOThUneR3fCOfC+pjJ0Rz+xt9NdddwOBEyu3WF6RkMyWJ2AFX2sSthh51kVXRgysAysDcEHMEHcWrsqFeynntcMFweIKrGCe7e+Skm5BPxNTSpuLiuanNKUoFKUoFdOMwqTIUdQysLEH9ZGu6lGy2XcaxhMU+AcQzsWgY2ilPu+SP8Akfyv07OK6cXhUlQo6hlYWIP6yPrWu4TFPw9xDMS2HY2ilPufVb0/WlwvP0fH09Nk683PV7z9+Z58NopXANc10eUpSlArzuPcFhx0LQzr1I2fqpGjKdmB0NejSghDiuBOBmXB8QUy4Vr9zJ1FY20ydb5FcrLn0eIr4bAYHAOJYjl2UP45+GyvZvCR3bXtcAk2Pkb9Mg0OlTfxvhEWMhaGZepG+wqRoytqrA5gioY4pwL5Biljx958MVKQsco2BN81AykXUrfbqXTpqt7YmzhvEI8TEk0Lh43HUrLoR+R2I2NZVQRwzHzcuSiRC0/C5mHUNTETuM/LQ6OLb2Jm3hnEIsTEk0Lh43HUrDQj8j6bVljWVSlKwKUpQKUpQKUpQdGNwiTRtHKgdHBVlYXBB2IqHufezRcNH32EuI0U9Skk2A1udT8fv86mivl0DAggEEWIOYIOuVBUiRvlGQIUiwC2sLCpk7Ju0ASqmBxRCTIAkTHISAZBfRwNPpD11wu1Ds0ABxeATpKi8kCDIgD2kUbgaqNds9YqVhMAQemRcwd8q6drE8Lb0qL+yztG+U2weMa2JXJJDl3wGx/3lv6XxqUKizSilKVgUpSgV04vCpKhR1DK2oP6yPrXdSjZbLuNXw2JfhziKYlsOxtHKfc+q3p+zXS4XZwb11YrDLKhR1DKwsQf1kfWtdw+IfhziKUlsMxtHKfc+q3p+zXS4Xl6Pj6emydfvPV9+Z5+20UrgG9c11eUpSlArB41wmHGQtDOnWjfYQRoQdVYHMEaVnUoISxuDm4TP8nxR7zByhwrlQVlUgkq2V1kHiJUWDZkC+VY3CuIycAlMsBOI4Y7L3sat1Nh2a1iL72I+IsGsek1NPGeFQ4yF4Z0DxuLEH8CDqGBzBGYNVx7ROXcVwyURzO0uFYnuZTfpN8ysgGj5X6tTbqG4FbZpZHhfEYsVEk0Lh43F1YaEfkfMHMVlVX7k/iGI4DCmJMqTYKVh3kCsCydVgHQ3sXBuGAsDb7VnbhfEYsVEk0LiSNxdWGh/gRoQcwalrLpSlApWn9nnPMfFIrNZMQg+cj8/rL5r6bfcTuFApSlApSlAqHe1Ts4N2xuBXxZtLCo13LoBv5rvqM9ZipWy6KqISJlDKbSCxuD5aEHb41N/ZV2ifLAMLi2tiVFlc5d8B/1ga+evnXkdqvZuSWxuCXxZtNCo183Qefmu+ozvePuXOAtjQZ+8GHjiHUZmJHiGaqpHvXtntluRerqxPC0lKjDkTnoxsuExrENYdEr3uwOnV1eIE+uh/CT6hRSlKBSlKBXVisMsqFHAZSLEH9ZH1rtpRsuu8avh534c4ilJbDMbRyHWP6ren94yuF2dTfMaV14rDrKhRwGUixBrWsPO/DXEcpLYZjaOTeP6ren94yuBy9Hx9PTZOv3nq+/9/baqVwrXFxmDXNdXlKUpQKwuM8KhxkLwToJI3Fip/Ag6gg5gjMGs2lBXPj/AAifl6dI5UXEYFpOqGR0DdLZZNoQ62BtcBrXFs+n2OFcxpwoLjMM5bBTvabDP7Ya5DSRgeFTpdRZSPLK00cX4XFi4XhnQSRuLMp/WRBzBGYNVp585Jm4LMDcyYZyVjlI2OfdyAb2++1xbMDdsTb/AIVuE/7UP6D/ANWlVq72H/U//J/+aU017OAxkkUiz4dzHMhuCPxy3B3G9WD7Pud4uKRWNkxCD5yP8OpfNSfu0OxOpdqPZyWLY3Ar482lhUe35sg+l5rvqM9Yn4fj5IZUxGHcxzIb3H45bg7g61XqTwtnStR7Pud4uKRbJiEHzkX/AFL5qfw0PmduqFFKUoFKUoFRbzjy8eHBsRCglwvV1ywtY9LXv3gLXs18+r7/AFlKvmWMMpVgCCCCCLgg6gjcUFZuc+Yl4lKJEiCCMBbHN2AyBcnX8vxqQux/nkyt8hnkuyreFmPiIGsZJ9ogZg62B8q8ftC7MJYC+JwI641HUYrkuvmFFvGAM9b2BHiyqLmlLurglHW+YNjf47Vc1YlcKlQN2Zdo/wAhthcWzGAnwSE37m+x3Md8/q57aTujhgCCCCLgjMEH1qbFPqlKVgUpSgV04rDLKhRwGVhYg/rI+td1KNlsu41PD4h+GyCKUlsMx8D7p6H0/vG4G1owIBBuCLgjeurF4VJUKOOpWGY/Wh9a1fD4h+GyCKUlsMx8D/Q9D+Y+0bgcvR8fT1anXm56/wDL48/bbqV8owIBBuDmCNDX1XV5ClKUCsTinDosVE8MyCSNxZlOh/gRqCMway6UEW/4C+H/AOtxP9Nf6tKlKlAqI+1Ps5LF8bgl8ftSwqPb3LoPpea76jPWXKVsuhUvhvEJIZVxGHcxzIbi345bg7jerD9n3O8XFYdkxCD52K+n1l80J+7Q+uodqXZwWLY3BL857UsKj2/NkH0vNd9RnrE3DeIyQSriMO5jmQ3y38wRuDuN6rlPC2tK1Ps/53i4rDsk6Ad7FfT6y+aH8ND67ZUKKUpQKUpQfMqBgQb2IIyJBz8iMx8arH2i8iS8Im616nwzt83JupOfQ/1vI+98birPVjcRwEeJieKZA8bizKwyI/W+1bLpmlRo5VfLepF7NO0ZsCy4bFuWwxsEc5mHy+Mf7vwrXu0jkGXhEveJ1PhXbwPuh+g/r5Hf45VrMM4kGetXyzhcKNwwDKQQRcEG4IOhB3FfVQB2X9oTYBlwuKa+FJsjn+YJ/wDrP/t10vU/KwIBBuDmCN6izSnNKUrApSlArpxmFSZCji6nUfwOxHnXdSl7tlsu40+DFPwyQRSkth2J6H+juf7R9o3A22GVXUMrBlYAhgbgg5ggjUVjcW4bHioWilXqRhY2NiPUEZqRsRUY8O4nPwDFDCzkyYR7sr5DpFxd1Glhcd5GNCepdbNGOP49vZfW60z1lZ397+/KWqV8xSBgGUgqQCCDcEHMEHcV9VbmUpSgUpSgUpSgVEXap2bly2NwK/Oe1LCo9vzdB9LzXfUZ6y7SmxUjhfEZYJVxGHcpMhvcb+YI3BGoNWG7Puf4OKx2yjxCjxxHfzZPpL+I38zpna9yKYj/ACjgl6XVuuaNdDv3gA9faG4JPnfQcNB1lcVgz3WIB6+hTbMe10bXG43B01FVbNOPU6k6c3VoqVpfZzz3HxOPoeyYpB4006re8o8vMbfdW6VLrLLNwpSlGlKUoMbiOBjxETxSoHjdellbQg/rXaq0dpHIMvCJetOp8K7eCTdT9B/I+R3+NxVoKx8fgo8RG0UqK8bjpZWFwQa2XQqDDiQ+VS92L86lWXh87Eqb/J2J0Iue7J8rX6fK1vIVrHaD2VT4BmmwgafDa2GckXowGbL9Yfb5nTuDYwpLFJ0k9DrIAD0luhgcm20tcaGr5ieFwKV5XLXMEHEIFnga6nIg5MjDVWGxH45EXBBr1a5qKUpQKUpQfMjhQSTYAXJOwFRicVPzGz91DFHgYiwinxETO0rkFOtI+pLBQWIN8j0nUWWT2UEWOYNcIoAAAAAyAGgoIY4LxbGcuzjDY0mXCEnocDRcrNH8CfFFqNVv70yYTEpKiyRsHR1DKym4IOYIPlWNxnhEOMhaGeMSRtqDsdiCM1YbEZio8wWMl5dnEGILScOlc91NbOFmzIYAfafPNhn1CjJvaUaV8xSBlDKQQQCCDcEHQg7ivqjSlKUClKUClKUHDLfI6VDHP/Z2+DZsZgFvGD1yQC91tmWT0HkM12yyE0UojPCZzVVhUmTu8ThWK4lXHs5FiTkbfSzAIGTXyvnUmch9pjT4k4fGdKsxAjcCw6tOk7Z7Hzy3Fax2i8sScOxL4mKEHCyNmV9wtqD9DM2Fss7Z3tWtYvCLi1DIw70+y2nefVPlIPxv6gmd6eG9S9CzH2WepUWdl3aJ33Tg8Y1px4Udsuu3ut9fyO/x1lOqe/HKZTcKUpRRSlKBWr88clQcTg6DaOVLmKUDNCdQRuh3H26gGtopQVk4VxPG8BxzKy9Mi2EsRPgnTYqfvKtscjuKsNy1zBBxCBZ4GupyIPtI26sNiP4EZGvN585Mh4rB0t4JkuYpgM0PkfpIdx9uoqCuEcUxvAccysnTIthLET4J0zsQfv6XGmYI1FVyzhZyleXy3x+DiECzwNdTkQfaRhqrDZh/bpXqVLSlKUClKUCsXinDosVE8MyB43FmU/x1BGoIzBzrKpQRRguITctzrh8Szy8Nla0M5FzAT7rW29N/aX3gJUhlV1DKQysAQQbgg5ggjUEVj8U4bFioXhmQPG4synf+B3BGYqLcDj5+WMQuHxLNNwyVrQzEXaEnPpa32kga5soyZaCXaV5P/efBf7Xh/wD1k/jSg9aldGCxaTxrJE4dHUMrKbgg6EGu+gUpSgUpSg654VkUo6hlYWKkXBB1BG9QP2gclPwuRp4FL4Rz4l3iO2e2fst9h9Z8rrxECyKyOoZWBDKRcEHIgjcVliM8JnO6seLwwxgDo3z1vC1rCa2diPdlHlv915O7Lu0Xv7YTGHpnGSO3859U/X9d/jrqvP8AyS/C5DPArPg3PiW+cR2z2+q3rY+uuYvDrilEiN88PZcZd7bYjaUb+euepnenhmWXRy17LP0qLuy3tE7/AKcJi2tOPCjt/OW2Y/T9d/jrKNXK9+OUym4UpSiilKUCtX595Lh4rB0t4JkuYpQM0PkfpIdx+dbRSgrHwXiuM4DjmV06ZBYSxE+CZNmU+evS22YO4qxHLfH4eIYdZ4Gurag5Mjbqw2Yf3ZV5fPvJcPFYOlvBMlzFKBmh8j5odx9uoqDOC8WxnAccyOpVxYSxE+CZNmU6X+i/2HcVXLOFm6V5fLfH4OIQLPA11ORByZGGqsNmH9ouDXqVLSlKUClKUCsTi3DIsXC8M6B43FmU/rIg5gjMEVl0oIq/wFYH/aMV/ST+pSpVpQVv5A55k4RIFctJgpDcqMzETqyj9q76jPWxGAxkc8aSxOrxuAyspuCDVe+0Pkl+FSF0BkwUjWBOZjJ91j+62+hz16eQudZODSBWJlwMhuyjMxk+8vr5jf41dm+8TtZKlY/D8dHiIklidXjcdSspuCKyKhRSlKBSlKDrnhWRSjqGVgQVIuCDqCN6gftB5HfhbmfDqz4Rz4lvcxHbPW19G+w6+KfK+J4VdSrKGVgQQRcEHUEbiss259TpzOaqr2JhGJUOjWl1V9O8tsfKQfjrvcyp2Xdonyi2ExjWxAyR2y7y2x+v+3466p2h8iPwx2xGGBfCMfGm8ROmflnk22hvfPU5YhiQrobSjNGGXVbY+Tj8ftBMb/GvDLl0MvH/AH9lp6VF/Zh2i/KLYTGHpnHhRzl3nkD9f13+OsoV0lfQxymU3ClKUUUpSgVq3P3JUPFoOlvBMlzFMBmh8j9JDuPt1raaUFZeB8WxnAccyOpVxYSxE+CZNmU+ds1cfA7irD8u8dhx8CzwN1KciPeRhqrDZh/boa8nn3kuHisPS3gmS5imAzQ+R80O4+3WoP4HxbGcCxzo69MgIEsRPgnTYg6Xtfpf7DuKrlnCzNK8zl3j0OPgWaBupTkQfaRt1YbMP7dK9OpaUpSgUpSgUpSg6Mbg4542jlUOjgqysLgg1Xjnzk1+ESki8mClNlY5lCfcY+fk29vOrHVjcSwEeJieKZA8bizKdCPyO4O1bLoV15F5yk4NKASZcFK3iTUoT7yevmN7fbViOF8SixUSywuskbC4YfrI+hqBOJ8ufyPjnglBkwk4+bZsyF39A6E57kWO9q54NxabgOI64yZsHIwDrf8AXS9swdCPSsuU28t/kTHqfhYsLSsPhHE48XCk0LdUbi4P7QRsQciPSsyj1FKUoFKUoPiWIOpVgGUgggi4IOoI3FQR2jciNw12xOGUvhHN3j3iPx8r6NtexuNZ6r4miDqVYBlIIIIuCDqCNxWWbRnhMpqqsyouJsytaUC6tp1eh8ny/W8v9lfPpxf+KYo2xKDwsf5wDz+uB94z861DtF7OZMC7YrBqWw/tPGD4ovM+ZT11G+WdauJ1xIV4mMeJjIKsPCXI+GhG39uXOf014Jcv4+XfhaGlaD2Yc+fyghgnsuLjGY07wD3gPMbj7fhv1dX0cbLNwpSlGlKUoFatz9yVDxWDpbwTJnFMBmh8j9JDuPzraaUFOcPxueM2hlkia/iaN2Tq6b2uBbzOtS52cdrbFlw/EWGeSYjTPYSDT/n+/wA61ntj5FfAYlsXCt8NM5Y2/mpGNyD5KxzB+Iyyvo8YEg9aud4lccG9c1AnZX2knBlcHjGJgv0xyk37nyU/7v193/w+zPSsCLjMHeps0pzSlKwKUpQKUpQePzTy7FxCAwy3B9pHHtRsNGH5jQgkVAXM3f8ADJPk2ITUdPULGOWPPpZQbkEHbY7Z3M681c4YbhwUSsWkf2IYx1SNna4W+Qvlc2zyGeVeBxbBvjEkfHQ4aKOWPu1XETWMSX6gbBf8qT0knrHT0qBoWZrvtyz6WGdlsRTyNzhLwaX3pMHIfGl79P1lvow3GjDXYixfDOIxYmJJoXDxuLqw3/gfMHMVWPjPBTgMQIBNHiEYDxAN0sGF8ioY9QttfavX5T45ieCOrq3fYSQ+NAT0i/l1WKuBbMgX3ysa3Kwy6mOGpleVj6Vg8F4tDjIVmgcOjDI7g7gjYjyrOrHUpSlApSlBwReoc7R+zRoy2L4ev1pMOuuWpjA/d+7yqZKVlm05YTKaqo/8qSPIkyN3cyWKumTXG9/P8PSp87NO0BOJJ3M1kxaL4l0EoHvJ+a7fCtb7VuzXr68bgU8ebTQqPb3LoB73mo9rUZ6xDgsUysskbFJEPUrKbEEbg1epYzGTGanC31K0Ps17QU4knczWTFoM10EoHvIPPzXb4VvlSspSlApSlB0Y7BxzxtFKgeN1KsrC4INVp7SeQJODy97F1PhHbwvqYyfcf8m3+NWdrHx+CjnjeKVA8bqVZWFwQa2XQqIgWUZZNUj9lvaMcEVwmMYnD3tHIdYfQneP934aeB2j9n8vCJe9i6nwjN4X1MZOiv8Ak2/xrWlkWVfrVfKeFv1YEAg3BzBG9c1AnZd2inBdOFxbE4fSOQ5mH0PnH+78NJ5RwwBBBBFwRmCDpnUWaVt9UpSsCtD5s55cT/IOHJ3+MN+ojNIBoSx06h5E2G+dlO9utwRnmNsj99edwTgOGwSsuHiWMMepiM2Y+bMbsx+JoNU5a7N44X+UYqWWfFsep5BIygEi2TLZtMr3GWQAGVblhOGQxG6RorbtbxH4scz9prLpQeDzjytDxODu5MnXxRyWuUbz9QdCNx9hqDOKJNw+ZoMYnT1De/dygbhra53DbE2YAkk2RrzuO8Egx0LQ4iNZEOx1B81Oqn1FZZtx6vRx6k7q9clc4twrEmSMNJgJDZ195duoD6Q+4jLXSxvDcfHiYkmhcPG4urDQj+PptVauceV5uDT93JeTCyE91LbIj6LeTgffqPTJ5E5zk4NLvJgpGu6DWMn3l9fMb/cavXbsvCfjJFlaVjcOx8eIiSWFw8bi6spyI/W1ZNSspSlApSlAqH+1fs1Ll8bgU+c9qaFR7fm6D6W5XfUZ+1MFKSioWDxLdSyRsUkQhlZTYgjQg1P3Zp2grxBRBPZMUo00EoHvL5HzX7Rlpr3at2ali+NwS+PNpoVHt7l0A97zXfUZ6xHhcSbq6MUkQhlZTYgjQg+dXynhbylR/wBmnaCuPUQYiyYpR8BKBuvk3mv2jLSQKhRSlKBSlKDox2DjnjaOVFeNwVZWFwQarf2k9n8nCJO9hu+EdvCxzMZPuv8Ak2+hz1svXRjcIk8bRyoHR1KsrC4IOxFbLoqo/UHXLXf9frSpv7B58U2FlWXqOHRlEBb/AJu8VfNAem2wJI2sMKDsQjXF9fyk/Jeq/ddPzlvod51aX9617eudSxhsOsSKiKFRQAqgWAA0AFVllNJkdtKUqFFKUoFKUoFKUoI/7df9Dy/+ZF++KgHC/wCbN8KUq8eE1OH/AGe/9Ft/xD/sSpOpSpvKilKVgUpSgUpSgGql8w/6RxX/ABEn7xpSqxTkz+XP8/wn/ER/vCrS0pTJsKUpUtKUpQKUpQKUpQKUpQf/2Q==</t>
+  </si>
+  <si>
+    <t>https://xfish.com.ar/Image/0/750_750-SOLID25-1.80_2.png</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhUPDxEWFhAXExoZFRgYFxcaGBgXFRcXHR0dGhgYHSoiJBslHhcfIjEiJSktLi4uFyAzODctNygtLisBCgoKDg0OGxAQGy8mICUtLS0tLS0tLS0vNS0tLS0tLS04Ly8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOsA1wMBEQACEQEDEQH/xAAcAAEAAwADAQEAAAAAAAAAAAAABQYHAQMEAgj/xAA9EAABAwIFAgQDBgYBAgcAAAABAAIDBBEFBhIhMUFREyIyYWJxgQcUI0JSsTNykaHB4fAVQ1Njc4KS0dL/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAwQFAgEG/8QAMBEAAgICAQMCBAUEAwEAAAAAAAECAwQRIRIxUSJBE2GRoQVxgbHRIzLB8BTh8UL/2gAMAwEAAhEDEQA/ANxQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQHTW1IijdK69mtJsASTboANyTwANzdAV/7PczPxOlNRJH4bxK9hAvY6bEEX9nAH3BQFmQBAEAQBAEB8veACSbAC5J4ACAjcLzDS1LnNgma8tNjYOA3vwSLHjopJ1Th/cjiFkJ7UX2JRRnYQBAEAQBAEAQBAEAQBAEAQBAEAQFMxnMpqZW0eFtE8rZPxpCHGmgLWuLfEe0WLg6zgxpuS22yAseBYb92hbFqDnbue4NDQ97jdztI4uST9UBIIAgCAIAgI3HMcgoozNUPDW9B+Zx7NClqpnbLUERW3RrW5GOZnzZPinlIMVD0jB80gHBkI6dbcfut7GwYU8vlmNl/iD30x7/AO/c9FNiNDBFDHG9s0+tsrmNddl2C1i9u3luSBvc79Fw6LbrHvha0SKX/Fo6ny97Zp+UswNrY3FocHMIBDrXsRcHb6j6LIycWWPJJmhiZcciO4+xPKsWggCAIAgCAIAgCAIAgCAIAgOmsq44WOlleGRtF3OcbAL1RcnpHjaXcgKunmxJhjJkp6N1r28s8zeoII/DjI/956269Tio8b5OYtv8iZwjCoaSJsFNG2OJvDR3PJJ5JPUncrg7PYgCAIAgCAgc25ljoIS82MhsGN5N3EgbDc8HbrY8WJE+PRK6XSiK21VrbMTxnGzVOMlbIHG/lZfUW9dw3b6AWFl9NRjxqj0xR8/kTutnuvf5/L5HfjdG0RmWMl1IT4TZdRa0vc3kAcgOaW/LleV27ajLiXg5rolCTaW9e7X7ERl/K1RNPG0xu0l2zhbTqAvYu7bb8mw2C6yL41Qb2t+C9XON+4x9/kb9lbA/ubC29ybf2ubm3Ukn6AL5rJyHdLqZexMZUR6UTirFsIAgCAICmZmz0yEmKk0SSh1nvcT4LCOWlzAS5/s0G197K9RhynzLt9yndlRh2a/MuaolwIAgCAIAgCAjMTxlsLhCxplqXC7Ymc2/U88MZ8Tvpc7KSNba2+F5OJT09LudNJhDnvbUVrhJM03YwX8KE/A08v8Ajdv20jZeymkumHb7hR95Ewojs5QBAEAQBAdc8oY1z3EANBJJNgAO5KHjPzxjuMDE3ufNUthZFdx8rnGRz3OBLAw+YtGhtriwub8rdw7aovprW2zPULOndvcseTsv033Z7pony0cgL5J5mRxNaIr2MdnmWx73A2XmXk2KxJPUl7Lnv9iSEVos+FV8VW00uH072tib4f4kbo2MaQLWLhfcb/q623uqc65VS+Ja+/PD2eWdU10QRbMGwVlOAfVJptqtYAdmNGzW/Lc9SSqttzsfyJ6KFVFRJVQk4QBAEBw51tzwgM0zBmZ2ISOpqWfwqNgvNM293gG1g4cNPSxBf3tzq4+Kqo9c1uT7Iy8rKb3CD0vd/wCPzKU4jX4bdhbyNLgXBo9gB89tt1twjpfM+dsbkutbaP0Cvjz7YIAgCAIDhzgBcmwHKAgHYnLWEsoTphvZ1SRcHuIWn1H4z5R8XCn6FXzPv4/khU3P+3t5/gk8LwuOnaWxg3cbve43e93d7juT+3RRzm5dySMVHse1cHQQBAEAQBAeTFMThpYzNUSBkY5J79gOSfYLqEJTeoo5lJRW2YtnbM8+K6o4nGCjadg7bxCN/PY3JPRgPNr2vqF6eBKNfVvkqxzIufSeHLeQ62pj8WKIRQ7W8YDxJh/LawZbhuw35cd1VomoWKTekixbtweltmm5RyvWwAfe6wGMABsMTGhrA0WADy0GwHQDpyVYyciqb/px58sjrhLXqZbqSkZE0MiYGsF9gLbncn5k73VKUnLlk6SXY714ehAEAQBAZt9q2PExCjgfYyvLHEHctZ/EO3Ruzf5ne2+p+HUN2dTXYzsy1KDfsvuZtieOeBC2kjsNIGkACwJHqcer7d+/ZbkKYqfV7mXCFmTqVn9vggKGpkY507QS4bFztx5u/v8A7UzLdtcJx+Gz9Yr4k2ggCAIDxYpikVM3VKdybMa0anvd2Y0bkruFcpvSOZTUe5FjDpazzVo0QctpgeexmcPV/IPL3upeuNfEO/n+P5Iulz5n28fyT7GAAACwAsAOAAq5OfSAIAgCAIAgK5m3OEGHts465yPJE0+Y+7j+VvuforFGNO58dvJDbdGtcmT11RVYnUNM4dJKf4UDNgxvf4R3cdz7CxW1CurHhv7mRO+zIl0wNIyrkWOn0zVWmSoHpaB+FF7MaeT8R/2szKzpW+mPC/c0MbDjXzLllzVAuhAEAQBAEAQHRXVkcDHSzPayNou5zjYBexi5PSPG0ltn51rMVke5zGWkhFRI+N+lwk0PJuAOotZxFti3dfSUxa1JcPWjGsVb3B9t7PXh+RRLh0lYJHPqGlxYyPzBwaQAC0jUXO526EbL2Wa4XqtrjyWIJTi3E6cPwSOnsyvkEhHmNJE462ucBvM9o8lgfTuSbdLqWV07OKlr5v8AwRWfDq/qT79j9GL5Q1wgPHhWJMqWGSK9hI+MhwsQ+J7mOBHzafpZAeKvxkl5p6NglnHqN/w4veRw6/CNypo1LXVPhfd/75IZW89MOWdmGYMIneNK4y1JFjI4cD9LG8Nb7D63Xk7epdK4Xg6hXrl8slVESBAEAQBAEBwSgM8zd9oYaTTYdaSbh0vLGd9PRxHfgLRxcFz9U+xRyMyMOEU3LmX56+VzoyXO1XlqX3LWnqG39b/7DbjYrRuvrx46XfwUK6bMp7fCNfy7l6ChZohbdx9cjt3vPdx/xwsO/IndLcjYqpjUtRRLqElCAIAgCAIAgIPNOaafDo9c7rvI8kbfW8+w7e52UtNM7XqKI7LFBbZjOYcbqMRf4lU7RA0+WK50M7arbufbpz/KFv4+JGlcdzIvypTekezL+U6nEWOMA8Gm0kCSQWMpHAAH5L9th8RXGRmQqfT3Z7RiSn6pF8wvJssULqRpZHA7lwe8ycAbadPbm4PQhZs8qMpKb7r6FyGPOLaTWn9SawXJ1JS7siDnW5cBtfmzQLA+9rnqSoLMqyzhvgsKiCe2tssCrkx48VxOGlidPUPDIm8k/wBgANyT0A3KAqWXpJq9skkLHUtFLM95dxNLqsLstcNabXLhe5Oymg4QW+7+xDNSnx2RcKChjgYIoWBrB0H7k9T7lRyk5PbJIxUVpHpXJ0EAQBAEAQHkxPEYqaN007wyNvJP7AdT7BdQhKb1E5lJRW2ZhmDMs+IghpNNho9TjcSStPyHpNuOLA79tWnGjVy+ZfZGddkufC7HflvIZqD4szfBpLDTGLtklsB6id2sv05PJ7n2/P6F0w5fk4owXKXXZ9DTaSlZExscTQyNos1rRYAewWQ25PbNVJJaR3Lw9CAIAgCAIAgKLnP7QWUxNNRgS1W4Jv8Ahxdy48EjtfbrbhXcbDlbzLhFW/KjWuO5ldTI58nj1L3y1Eh25L3k8BjbeVvY2v8ApA5W5CEa46XCMeds7pcF/wAp/Z26TTUYmBpG8dMPS2+/4nc+39SeFl5X4hv01dvJo4+Co+qfc01jA0BoAAAsAOAB2WUaJygOUBFY1jsdNpZYyVD/AOHCzd7z8uje7jsFLXU589l5I52KPHv4I6LLzqstmxQNeQ4OjgG8URAPJ/O6zje+3tsEscP7YL9RBS7y+hZQ22w4URIcoAgCAIAgCArua83wYeNLjrqHDyRNI1H3d+lvufpdWKMeVr47eSG26Na57ma11RNWzg1QdNU7+DSxjyM5F3kngEbk26G5C1oVxphxwvdvuZkrZXS0u5oeAZV0Fs9ZpfMPRG2/hRb38oPqdf8AMfpbk5d2T1cQ4X3L9OOocvuWlVS0EAQBAEAQBAdFbVshY6WVwbGxpLnHgAL1Jt6R43owbOX2j1da8x0pkp6XVpZpB8WU9ANO5cf0t2HUrqUJQepLQUk+x0YDTSVdoqWEPqw4Ca1jEw9JHOA0k7EG3lDgdIN1qYmdGMGrH2MzJw5SnuHua5k/JMVD+NIfGqz6pXdL8hgPA9+T/ZU8nLlc/C8FyjGjUuO5a1ULAQBAEBFYLgUdNqfcyTv3kmfu95+fRvZo2Clstc/kvBHCtR59/JKqIkCAIAgCAIDglAZvnH7R9JNLhlpJtw6XljO+jo53v6R7rRxsFz9U+EUsjLjBcFcy1g89VI77s4vkc4+NWPuWt1W8rL+uQC42Nhf5FW7rIUrn9I/77FWuud3P3NUy7l2ChYWxAmR28kjt5JD3c7/HCybr52vcjSqqjWtImFCShAEAQBAEAQERmTMdPQR+LUPsT6GDd7z2aP8APAUtNM7XqKI7LI1rbMfzFj1RiLi+pPh0zTdsNyGt7GQ8l3tyegA3W9jYkKVvuzGyMyVnESIgwSoxCRkNHGWhzSPFcC0aB6rOtZrDv5W7mx53VX8SlW469yzgRsXMuxtuScqQ4XTiCLzPO8r7WL3W7dGjgDosY1CwoAgCAIAgCAIAgCAIAgPJimJRUsbp6iQMjbyT+wHJJ7DddQhKb1FHMpKK2zHc353mxDVFCTBQg2cTs+T2dbof0D67cbeLgKHqn3MvJzN+mJIZP+z904ElS10VLsRHxLL/ADn8rPh5/c85X4hGPpr7+TzHwnN9dv0NXpKVkTGxxMDI2izWtFgB7BYspOT2zWSSWkdy8PQgCAIAgCAICp5mzi2F5pKNomrbem/kjHeR3tfgb/JSqCjD4lj1H9/yIbLlHhdzK8XLjL94qZHTTSW8N1t38WETOjbm2q3Nw0EglbmHKPwd615RiXyssnruXHKv2fOmLajE22YDeOmHA95D1J7c9+yq5X4h/wDFX1L+NgqPqmaG7DY9ccgGkxizQ3ZtgHAAgdAHut/MVkN7NHR7EPQgCAIAgCAIAgCAIAgK5m7OEGHNs/zzkeSJp8x93H8rfc/S6sY+NO58dvJDdfGtcmR4hWVeJztM4dJI4/g07Ng0d7flb3ed/wB1uV0140Nv6mPZdZkS6YGkZQyIynLZ6vTJUD0NH8KL+UHl3xH/AGsrKzpWemHCNDGwo1cy5Zd1QLwQBAEAQBAEB8TStY0ve4NaBckmwAHUkok29IGc47nJ9Y51NQPMUAsJKix1uuQAIW873G/O9wO9qdTogpyj1N9l7fqUp5Kk3FPXzK9TxEPNFQReLKXXc02IbwNc7+4tfQDbc6rnyqWFO0r8nvr/AFJf5+RV9U30Q/38zQMq5NZSu+8VDvHrXeqV3DfaMHgAbX/YbKK/JdnpXEfBfpx1Dl8stSqlgIAgCAIAgCAjsYxunpGCSokDWk2bYFznH4WtBJ77DZS1UzseoLZHO2MFuTJFREgQBAeapxCGO/iSsbZuo6nNFmjqbnhe6etnPUt62ZnmT7WGukFLhwuXHT47h5Qe7WHkd3HYDe1l3V09a6ux5Pq6X09yvYBl2orpXFl3P1fjVEly1jutr+t/sNh7cretyKqIJL9EjDhTbkS3LhGu5by5BQs0xC8jv4kjt3vPue3sNliX5E7nuRs00wqWoomVATBAEAQBAEAQEbjuOQUUZlqH6R+UcucezR1P/CpKqp2vUUcWWRgtyZm9XjlRiLvEka5lM14tC3TszS465Xu2aTYaSdhY27rTWLGlab513/wjLnlSsfp7bPqmoarFZtUD/DpGFwNRpsXaramw33tYBur4bk76UdsKIafMn7fydQonbPqfCNFwHA4KKMQ0zA1v5jy5x7uPUrMttnbLqkzShXGC1Ek1GdhAEAQBAEBFY9mCnomh1Q+1zs0Auce50tBOkck/6Cmpx7LnqCIrLoQ7syfNGcqmqaXMa9sZdZkQNrsB3Lw3ff3O19uLrfxsCuHD5l7mPfkzlYtvUDtyrhJxOXTUOewhpJLLG1j6W3GlrQXDytG1tySdo8q3/ir0e5LTWsl7fZG0L542CPxrGoKOPxamQMbewuRdxPQD/PA5NhupK6p2PUVs4nOMe5l+YvtJ8RpdGXCHVZjWOLTIBsSXCzuR0sLc34WtR+GPvIzrMycpuEV+pB4hHNVxPAYyKnDC94Hpu0aiZZjubHe23I2KsPGqjxZLbfH+opVZcpT6aY+/LPrKX2ezVcha8hlIA3xJWnUZw4BwERsLRkEdBbrqPGDZDok0b0JdS2bjh9FHBG2GFgbGwWa0dAFHvZ0elD0IAgCAIAgCApePfaHTxSOpKT8erAPlafIC3kaupaNyB0B7FS0wjOajJ6IrrHCDklszTE6980n3ipk8WZxs227W9mxN4Pz4/mO6+jqqhVHS4R89bdO+Rb8qZAfNaoxEaY76m09zc+8p7+3Pe3CzsvPX9tf1/g0sTA6fVM02KMNAa0ANAsABYADoAFkN7NQ+0AQBAEAQBAVPOmdoqFr44/xKuwDYwCQ0uFwXnpsb25O3zXUdb5OZ709dzIcUrJ6q8sspEjtQksT5WjzeciwsRw0fp4C+owrKZw1Bdv3Pn7YTom3N739zz4VgU1cY4KPW97nEzuLdLWAWDS531cbHf2U92VClOU/08k9VMp86N3yrl5lBCImnU+w1vIsXW4AHRoubD3PJJJ+WyciV03JmrTUq46IvPGeocNboA8SpI8sY6X4Lj/gbqXFwp389l5OLshR9K7mM5txZ9TUN+8yeI5oHi6D5Q42JjYAbBrfTe+51Hst/DpUI+laXt/JRtT773IiayWWZwkkLneUBpI/K3YAWAFh7KzGEYrSOFKO+5oOUsec2P/p0sHjTy69LBpIJcD5ZN7aSOvQLMzcXqfx+rSR5j29G4Qhx7fn7mq5dwx1PEBK/XO6xkcBZt7bNYOjGjYf1O5WFdYpy2uEa1dah+pKqIlCAIAgCAID5e8NBc4gAC5J2AA7lAZtmvPJm1U2H/wAP0yTm9t/yxgbkni43PTutTHwNrqs+hm5GeocQ7mX1WHuhljjoQ98j3B0YZu/W0g6ZnN3u02tG3a1nOJJsqV9Lqn0lui1XQUja8mZQbABV1TAa54Bd1bESNwwcD/F7DYL2zKsnFQb4Qrxq65NxRcFXJwgCAIAgCAICsZrzlDRAsbaSot6Qdm+7z0+XJ9uV6eNmI4zjLpp3Tv8ANNKbOIAF7AAWA6ANsOtkBacqfZxU1P41U4wQu/Jb8Rzeb2Ow3/V/RWsbKljtuPJBdRG3W/Y1/B8KhpImwU7A2NvTkknkknck9yq9lsrJdUnyTRiorSPauDo/M+BVAqJnuqmePI5jheQkgF35u5dc/stv8Pu64fD6tNc/oY/4i5UL4kff9yQxbAmxuGhjbsaC9hBAddgdbbqCbLXqt+Itox4ZE4ydc29v38NnflCmkr53sbFrtHZvLYowXC5d8wLWUeVcqYqTev3Zb/4jcfh1rbb7/wCWbBlTKUFACWNBmcLOfpA27NHRv1JPXovnMrMne+e3g28bGVK77fuywqoWggCAIAgCA8OL4tDSxmWd+lvAHLnHo1rRuXHsF3XXKb1FHMpKK2zOc24lLVxkzyeDCbGOBrhqcL+qdwBABHAHUW8xstLGrjXLet+X/Bm5Nsprpj3fZIiMu4DPiB0048KlGzpiLfNsTT36nnufyq5flwqXl+P5KmPgzm/Vxo1fAcAp6KMR08YH6nHd7j3c7/gWFddO2XVI26641rUSUUZIEAQBAEAQELmnM0GHRGWc3d+Rg9Tz7dh7ldxrlJOSXCOHZFNJvlmYVmfq6Vpe9zYY3X0MjFnael3m7vqLLnR7sp000k7wxgL5Hus1o3JLj/c3XoNnyNkSGiY2WdjZKs+YuIBEZ7Mvxa/q6/JeHRc14AgCA/L0WICmc19P/FYQQ825Ht2XS4OHFSWmazhGHVGL+HU1MIgpvDALS38SR3UtJ3EZHF1dpy1TXqP9z+hRvwI3yTlxr3XcvWEYRBSRiGmjbHGOg6nuSdyfcqpbbO2XVN7ZehBQWke5RnYQBAEAQBAV/MWZ2Ux8GJvjVRFxGCAGg8Okdw1vz3N/qp6qHPl8IhtuUPzM9qMf0Wq6h3i1pJDT6mRC/pgbtf3duL9XWDTbu6KF0vt4XdlfGruy36PbvJ/2pEtl3JUtW4VOJ6mx31Ngv5ndjIeRt056bDZQWZD7L5a+X8luuqFcdR78qUvPP2XBpMMLWNDGNDWgWAAsAB0ACqNt9zs+0AQBAEAQBAVLMmcmQSfdYPNMdnOsCI+9m3Gp4/SO256K/j4E7I9b4X7mfkZ8K30rl/Lkz3FqiKSVwmcWzyyaGl7jbwtH5i7dpv2FiXjYbrZpg4Q0luOvbz/kxrXLI3Ym00+z7EZHlaqrZ9NK17oXE2keCxo0mx9W+m/FxcjosDKrVdjX28H0GNJzrTb29GqZMyLDh/4hPiVFvWRYNvyGDp8+flwq5YLcvD0IAgCApOWPs1pKMiSUePON9Tx5Gn4WcfU3+i92C7LwBAEAQBAEBw5wG5Nh1QGdZqz8XF1PhpBI2fOfQ2+1mdz77+wPTTxcDq9Vn0M/IzYw4jyyuYW2Qj7tE0ySSOdrNml79xq1u6Dfgm2wBP5V1kXwhLVfdfRf9jFw7LI/EyOIv293/wBfMv2WcmRU7/vM4ElUbb7lkdhwzV1+L+gA2WbKW5N+79zUdr6FXFaiuyX+fLLUuCM5QBAEAQBAEBV895j+6RCOFw+9SXDG8uDQCXOAHa39e52VnEhCdiVj4K2XOyNf9Pv+xiH/AFmoZd0ExGp1pHsbaQudc2Lz5yPqOCvqJUVy7r8kZdc3GOuxbcCybLir46mV72Qgkve5tnSG42YCTcbG7jtxbUb2oZGdDHTrhyzvGxZzcnNaTNhw+hjgjbFE2zGjb/ZPJXz85ucnKXc1qqo1RUI9kelckgQBAEAQBAEAQBAEAQHixbFYaSMz1EgZGOp6nsByT7BdQhKb6Yo5lJRW2ZNmTNU+JkxxB0dJa+geuRn6pHcNj9+Og1mwWrCqrGj1T5ZnWW2XtwrWl7s68Fy1PVv8GmdpiaSJptNmMP6YSTqc619RO99iR6BVuyrZp7ek/HcuYmPRTLqlHqa7b7b/AC9/yNVy/l+Chj8KnZb9Tju557uP+OAqXtpFuyyVkuqT2yVQjCAIAgCAIAgKhm3PEVJqihLXzjZxPojPxEcu+Ab97K9i4MrvU+EUcnNjX6Y8yKRhuR6vE5jV1MjooJCHOc6/jSW/S07NZ+noOjTbUYsiMK7GoPsTUOc607FyaRhuU6WAOa2MOa61w5rCCWjk2aNRJ3JdfcrmeRZJ7b5Oo0QitJcE61tthwoCY5QBAEAQBAEAQBAEAQBAVvNmcIaACO3i1TyBHC31EuNm37Ak27noFNVS58vhL3I52KPHuZ8/XUk12KTAPDnsjiOnw4JYzfTY6mue5oNjYtB51u0tUkp6XTBaX3ZGvMu5M5cydLUyPqKouipZHh4gALXyHfd5J1Bm/Bs4gNuGW0jic10pPujqMNN67Gj01OyNojjaGsaLNa0WAA6ABQPkmR2oAgCAIAgCA6qmdsbTJI4NY0Xc5xAAA6klepNvSPG0ltmaZmzxLUv+6Ye19nbAtBEsn8v6GfEdz8I3WtRhQqXxL3+hl25c7H0U/UlMoZAbCW1FbpknG7IxvHF/+ne52v35MOTnuz0w4RPj4ca/VLll8WcXggCAh6jNFFHUCjkqY21B4Y42uT0udr+17oCYQBAEAQBAEAQBAcEoDPMz/aBqlFDhrmmZ7tBnd/DYTf083O1gdxcgAOJV2GK1D4k1x4K0711dEXyVWPBY3NYA6SXEJXaj6XylzfLLG8tdpY1rvi2LfM51tB5+NLuvy17HLr6uP/TRcv5V0OFVXFktXsRpaBHG7SG3aLeZ9hbWRe2zQ0bKu5eCxGPktK4OwgCAIAgCAICKx/H4aJmuZ3mN9DG2L3kdh27k7DqVLTRO16iiK26FS3IzOWprsclLIgGwNdudzDF9f+5J+3S3qWvqnDj5kZr+LlS8RNFyzleCgYRENUrv4krvW8/Po32H9+VlX5E7pbl9DRpohUtRJtQExygCAIDFpsAjxKurqGfae80kRJ2NpiGgg9NBbx3vuvAWv7KcxvnZLh9Rq+8UhDNTzdz49wC74gRY89F6C/IAgCArOZ85w0R8No8Wfa7Gua0MB6vedm+wO5VmjFnbz2RBbkRr/MsyrE4QHkxTEoqWN01RIGRt5J/YDkk9huuoRcnpHkpKK2zJM1ZunxNroqXVHTX44dI0E3L3X2b1twbOFyQAtCulY84ysXH7EUenJrlGD9S7LyROVMtTVjtNJ5IwfPVEEBpHSIc6vfnvp4V/Lya4w6Xzv2MvHx7JT6nxo2nA8DipGnRd0jt5JHWL5D3JHTs0WA6BYEpbNlLgk1yehAEAQBAEAQFLzjn2KkDooC1842ceWRnsbbuf8A+pCvYuDK31S4iU8jLVb6Y8srOA5PqsSk+94i57IXWOkm0so5F7eiPs0f7Vq3MhTH4dKIKsWVj67TUqKjjgY2KFjWRtFmtaLALIlJye2aSSXCPQvD0IAgCAIDP884bLS1LMXpGAuG01wdrADUbflLRpJ6WB9x4CCybViXMEs8YtFLSOuAbt1lzHW1DYnyuK9BrqA66idsbS+Rwaxou5xIAAHUkr1Jt6R43ozDOX2j+UspCWRnbxLfiSf+i08N/8x30HfTowUl1WfQoWZTm+mr6kTln7Pp8RHjV5dDSnzMjHreSPW4u5PxO56ABe35ajxA6pxvdm0rKLxVM1Z8paEuiv4tSG6vCZyNwPOeG8jubb2UlVfxJKJxOXStmP4zjc1e77zWvtGCRHGB5B7MZ+Y+5+p/KvoKceFK4Mi3IlY9IueTckTT6Z6wGGm5bD/wByTsZD09uCOmlUczLg04RW/mWcTGlCSsb5NUp4GxtDGNDWAWAAsAsk0m23tnYh4EAQBAEAQHVVVLImOklcGsaLuc42AHuSvUm3pHjaS2zL8z55mq3/AHPDmPs/YaQRLJ8v/Dj9z5j8I3WtRhwqXxLvoZ1mRK19FX1JrJuQG05FRW6ZKgbsYB+HD8v1O+L+nc18nOlZ6Y8ImoxI18vll7WeXAvQEAQBAEAQHBF9jwgKtlCJtow1rR4QmDiALkid8TCT1OmF2/ugJTH8wQ0TQZSTI70Rt3kefhb/AJOympona9RIrboVLcmZBmLMtTiMwgYzxJCfJAw6ooz3eR63j/4j+oWvXTXjx6vv/v8A6ZrlZkPwvBdcmfZ0yBwqq8+NVncA7sYenzI/oOndZ+RlufEeEX6qIwNAVIsGZ59+0lkeqjoHaqhwLTKCNMbiCBpPV1+vA9zsrlWHOcXIgnkRi9GL0Mc8NQC5jnV2shsQ1OeXPBBEtju0gm7B5naty0c1U3F7RLpSRu2RcjCLTWV7Aas7sjvqZAOgaONQ+tuAeps3Zk7I9PZENeNCt7RflULAQBAEAQBAfL3hoJcQAOSdgEBAY1nKjpg28rZJHhxjjjLXOdpBvwbAbWuSBfbnZdxg3JR7HMpJR2Zy6or8fm0x2ZAx2538GL5ceJL79Omnk6/9HEj5kZ2rMl88RNLyvlenw9mmEXkd/Eldu959z0HsNv3WXdkTte5F+qqNa1EnFCSBAEAQBAEAQBAdVTUMiaZJXhjGi7nOIAA9yUBlOH55bFBIaQNc50shMzv4UbC9zh0u9xc95DR3v872Lh/F9UnwU8nLVXpXLIHC8NrMXld4JcI3bTVMnqcOw7N7Mb9Vo2XV48dfYqVUTtl1z5NcyrlWnw6PRA27yPPIfW4/PoPYLGuvna9yNSFah2J1QnYQH54yhlWasdppNgDaSqcDpb3EQ5Lv7/yr6K/Irojr38GRXTO57fCNqy5lamoWjwmapQ3SZX2Mjh21dB8I2WBZY7JOTNWEVGPSidXB0EAQBAEAQEDmrNUNBG5zyHSgXbGCASTsNR6AkH3NjYGxVjHxp3S0u3kguvjUt9zLcZzJVSvY+rkezU0OZFFfYOaSBoabk25LtwN7dFu041FcG4reuNsxb7ci2zpT478ELlbLrsTrQ2QSspnEvkdpc18mmzvURxdzRfpqFt91l51EYTc4vg1sVzUFGzufoKgoo4I2wwsDI2izWjgD/wC/dZ7bfct60eheAIAgCAIAgCAICIzLmKDD4TNUOt+lo9Tz2aP88BAYVnfOE1W+9Xs3mKjYSAL8OncNx8vUemgG692CZ+zvI9RXkVGIXbR2/DiA0g24DGDZrPlz7ndT05M6k1H3IZ0RnJSZttHSshYI4mBjGiwa0WAUDk29slSS7HcvD0IAgOijpI4WNiiYGRtFmtaLAD2C9bbe2eJa4R3rw9CAIAgCAICv58xiWiopKiAN8QFjQXAkDW9rb2HJ329yOeDYxao2WqMuxFbJxjtGGnEZpi9pjkfM4XZqBfdxe0OkdsfOLBt+jbg2BAX0fTXBrXCRkqE5R7733/InMmZYdJMPCnf94Zq8UssQ0uAG8ti0eUkW3NyLDy3VHOyvTrXDLGLHb3rsbTheHNgbYbvNtTt7m3zJsB2+fUlYbezSS0e1eHoQBAEAQBAEAQFezJmuKk/CYPFqSLtiaePd7vyt+atY+LO3nsvJVyMuFK57+DIc0TTVjxU07jLWlwjIaC9sRPpMDTwCAfMb2c3Ybhw6y8X4LWuxziZLujtotmQfsqZBapxAeJOdxGdw0ne7z+Z3tx3uqZcNSDbbDhAcoAgCAIAgCAIAgCAIAgOuohD2ljuCLHcg/QjcH3C9T09njWyi1X2dmVsdNJVONGy5It+K+5PqeTa+581vcAGxFtZfTuSXqf0K7pk5LnhfIuWE4XDSRNgpo2xxN4a39yeST1J3KqznKb3J8lhJLsexcnoQBAEAQBAEB8SyNYC5xAaBckmwAHclEtgz7MeezIHR0Lg2IXDqgjm3IiaeT8R2H91q42Cv7rfp/Jk5X4io+irl+So4LgtRiLjHT3ZT6vxZnEkvPdzvzHrpG37q9dk146+fsirj4k7ZdUjWst5bgoGaIW+Y+p59Tj7nt7BYV187ZbkbldUa1pEwoSQIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAID5ewOFnAEdigOv7rHxobb+ULrql5OeiPg7GMDRZoAHYbLlvZ1o+kAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8NDQ0NDQ0NDQ0NDQ0ODQ0NDQ8ODQ0NFREWFxURFRYYHSggGBolHRYXITEtJykrLi4vGB81ODMuNygtLysBCgoKDg0OGA8QGC8jIB8tLS0rLTIrLTcrKysrLSstNy0yNS0rLS8vLS01LSsyLSsvLS03Ky01LS0tKysrLS0rK//AABEIALcBEwMBIgACEQEDEQH/xAAbAAADAAMBAQAAAAAAAAAAAAAAAQIDBQYEB//EADoQAAICAQIDBgIIBQMFAAAAAAABAhEDBCEFEjEGIkFRYXETgQcjMkJikaGxFFJywdEzgvBDY3Ph8f/EABoBAQEAAwEBAAAAAAAAAAAAAAABAgMEBQb/xAAtEQEAAgAEBAMHBQAAAAAAAAAAAQIDESExBBJBUTKR8AUiQmFxoeETI4Gxwf/aAAwDAQACEQMRAD8A7aKMkUTFGSKMmJxRkSEkWkRQi0hJFpACRQJDABgMARSENBTGhDAYAMARQhoBoaENAAxIYQwEMAAAAAAABiGIBEsolgSyWUyWBNAMANVFGSKEkWkA0i0hJFpACRSBIYAMKGFNDEkMBjQhgAwGADEMBjEMBgAAMYhgAxAAwEMIAPLxLiGLS4pZ80uXHDq/FvyX/P0OS030j6fJl5f4fIsD2jqFmwSgn5T73Lj93KvUxm1YnKZXJ2wGg4h2w0Wmg3lySU0k1i5bk0+lSXda9mfPuP8A0sZpNw0WOOPwUmuef5vb9DJH1vUZ4YoueScMcI9ZzkoxXzZxfF/pP4fp5/Dx/G1crp/AjHlXs5NWfKNRl1/EZfE1eoycnXvSbXskXotPBZI4dJhlqNRJ0uWPM2wPr2m7faPNPFjxY9VKWV4418FRcZSaVO3vV+FnUs5jsL2anocMsuqUJazNLmk4pP4OOtsaf5t11v0OoaAkAADXpFpAkUkA0ikgSKSAKGkCRSCkkOgGADAAAYAAxiGADQhoAGAAMYhgAxDABiQAMRObLGEZTnKMIRVynOSjGK8230R817bfSP8ADXwuGZcM3T59Q7lv/LjVU/6vy8wPX9JXEMWr4VizaTUYMsZ5ozhF5FFZYJtN096TTT2OV7bduoauMMGn0+OGPH9iUlCWTpVJraMfCl1/Q+d6jU8z7ycJPm3T627fK36jw5eSSnyqSXg7XN/h/mYxWNfmNlg0mo1TuUny+t1Rscelw6WPNJqc/wA7foZcGtnPlxabFJyk4qMOV8yckny14u2z6B2T+jlRa1PEu/kfeWnT7sX+Jr9l/wCjIctwLsxrOLNPfT6VOpZJKk15R837H1bs92b0vDcfJp8a5mqnmlvln7vwXojb48ajFRjFRjFJRjFJRivJLwKCJoTRVBQEUBVCA8CRaQkikA0MENBTGJDABgAAMQAMEIYDAQwGAhgMZNjsChk2FgWBJ59dr8WnjzZZqC8F1lL2XiY2tFYzmcliM9nqPBxPi+DSr6yfe8Mcd5v/AB8zlOL9r8k7hp08UenP1yP/AAarScNzah887jHq5z8fzPLx/acZ8uDGc9+jopw/W+j28Y7QZdYniUIxxNp/DpTcmnabvyaT+RxvbfgX8PpYa2ePlrLCMoqL70X4uujOs/iseCXJp6yzXWcVs35c78Pav7mu7X8D4nrsMMUdPlyy1L+13Y4sEE09033b9fJnHw1sXEx4vMzM/aI9dG28VrSY2cTxDTaXliuX4jVNb0na2s3fY3sdk4lmU541h0uP7eVQSfTaEPN/t+V9Z2c+jvS4MuOGtzfHy48UGsEU4YnN1bcruddK7vV7Pw+jYscYRUIRUYRSjGMUoxjFLZJLoj6GJzcUxMbtZwTs7pdBGtPiSn97LPvZZf7vD5UjbAMqEAwAkBiCEAAB4kNCRSAaGJDCmCAAGAgAYCAgYCAB2FisVgXYWTYWBVhZFilNRTlJpJbtt0kgMtkZ9RDFFzyTjCK8ZOv/AKc7xXtVjx3HAlkl/O/sL2XicpqdXn1c7lKU2+i8l6LwPNx/aVKe7T3p+zopw9p1tpDpOLdsKuGlXp8Sa3+Uf8nORhn1c+ZuU3J7yk2zJ/CQ08fiaiST+7DrKT9Et3+g9PqtTqn8HSwlFPq4pKSXv0ijy8S2LjW/dn6RDprFaR7vmvJDFpGk2smb+VJTcfddF+p69JpNZxFKO+PTrrbqL9395+iVext+C9k8WKp6hrLk68u/In6+MjqIpJJJJJKkkqSR34Hs+Z1vpHaP9ab48fC1vCOA4NKk4x58i/6kktn+FeH7m2JRSPVpStI5axlDlm0zOcuN43lvXZH/ACci2e9KKbX6s3XCuKuT5Jp7vuy6un0T8zktVqOfVZcm7Uss2ntvG6X6G/4FHmyQ9G3+R4mJxN6Y0RSfFaI85e9xOBWMCvNG0R/TpwEKz3ngHYCsLAYhWADAmwCPINCQ0FMYkNAMBAAwEBAwEAAAmxWA7CyWxWBVis5/tB2t0mgUlkmsmWK/0cbTcf630h89/Q+c8f7S8T4g3DHp8+LA+kY4smPC16zaTn+3kgZvonF+2Wl0zcITWfKtqhL6uL9ZePyOW1vHM2se8nyv7MI7QXsvE+eyxvDNrUOayRXM4Si4tKr6PZWunX2Rt+H8WnNcuLuLx5b5n7y6nl8fS9o1nTs3YN4idnWYdHFd7PNQS3ackpV6+X/NwjxdpvHpMad1GM+R2/VLq2TwXs1n1dTnePFd887p+sV947vhfBsGlX1cbnW+SW83/j5HPw/B3trEcsd+rovjRHzc5wzsrkyy+NrZyTe/Ld5H6PwijrtJp8eGChihGEV4JdfVvxZkolnrYPD0wvDGvfq5L4lrbsymZI5DxslzaNzBs4sw8RzfC0+fJ4wxZJL3UXR4VrXHwJ1ethmw5cMk4/ExyhzVaTa2bMbbTk2YcRzxntm4jRrwOv7OY92/KP7nJaSDjNwmqlGTjJeTR2nCe5j9z5vCrOJxtK9s58vy+g9qXyw5+bbuRPOeX4oc59M+bennDmMKkUmBlsdmNFIoYAAR5kMSGgpgAAMBAQMQCAYNibFYBYmzz63W4tPDnzTjCPhfWT8klu37HzztR9IGRc2PSQliVSfPy8+okl1airUOvq910A7fjPHdNoY3qMiUmrjij3ss/aP93SPmvHO3+q1uT+G0MXjU7ShjnFZJL8eV0or2rys4jU6vLqcknJynzNvJ3ns/F5cju9t9r2vpRlyZtPpKtrVaiEk4wx3HS4Zrx85yXm7fsYXxIrpEZz2j1p/JETK3q/4asksuDNq5zvCsc8OoxaaMak8mzknN9Fe65ZPyNrwTia/hm54pSlNZ4ZNQ8dwcFcnKU4xtv6xxq3vCKVN29XpsC1M5yxYIajNrnjeTD8LLWN8qlkUappyybrleyivOj6N2e+j+cvreIZJKMuStHinLkUYKoQbukorZJW/W7M+ubLOOXly17uC4Z2e1HE8sI6fFNYcOOGHHzNdzEr72SXRNtt0vOldH1jsx2IwaKMZZaz5lXVfVQfovH5/kdJpdNjwwjjxQjjxx+zCCSijOiTETuxCQ6GikiieUOQuikBj+GS8JnGgryS01nny6J+BtBmMwzrbJzmp4X8Sm1y5Y7RnW00ukZf2Z7NPjlCCjJNNdUba15Cbs5o4SkY360b5ZfVtvxFrUik7Q8UYNmSOM9AUdbnYlAtIqhhCoYAADEBR5wAAhjEADEFiCmIUnSbbSS3beySOc4r2rxY7jp0s8+nPdYYv3+98vzA6DNljji5zlGEV1lJpJfM5riXatbw0sebw+LNbf7Y+PzOY4jxHJmanqcrfjGNOorzjBdP3fqeLPqVBNR3feTUXvJ7tb+TXLXg6ez6mq+JFYzWImXq4nmyZ1OTzNZHFpZGviTXyeyXpscRrs88eSbhPDky4ZQwTeWDinjbTU5NV4txdd1qS86N1quIrm5Y80m66rvTl/NSv835t7FaDstqOJZVLl+rjFxfMlHHG+vNLx2rZGqK4lrTzbdGXuxGm7i8+fJnaxYYuGBbRUVyrl71Jvxa5pRvxXU7Lsl9G2fUKOXUXgw7PmnH6ya/DD+7/U+i9nexek0KjLkWbNGqnKK5IP8EfD3e/sdMdFaxWMoYTObXcE4FptBDk0+JRbVSyS3yz95f2WxsxFIoEUhIoBoogdgVY7IsLCrsdkWFgXYWRYWQVYWTY7KKCyUOwirAmwsCrCybCyirAmwAwgIdhDEI13FON4NLtOTlkrbDjqWR+6+6vcDZGo4l2hxYXKGNfxGaP2oY5JQx/+Sb2j+5y/Eu0GXUJqUnixV/oYpNNx/wC5k6v2VI02TiMKXK1yw6Y0nDGrTp0t2159X0601hfErWNWVazbSGx4txXLqVJ5cv1cb+rxqUcCaVpecnSb38nSNZl1ChLkjHmak4uUqj0vm5bdLZPrsq3bR4Nbror6yWVOSX1cISjOEPP7PdXyvqr8zSw1WXUSUcUG90vidVGkklH5V039TVNr2nKu3r1+GXLEbtnreJcq5bucO4pdeeqUWvlt7RXW2YtFpc+syKGPHLvVSim5NbfkvekjpeznYGc2suqbxxe9SX1svaP3fnufQuH8Pw6aHJgxxgvF9ZSfm31ZnXCrE59Um0zo5Xs92Fx4Up6p88uvwou1f4pePstjssWOMIqMIqMYqoxikopeiRQGxiYUAwAYCAodkWFgXYWRYWBdhZFhYVdhZNhYFWOyLCwLsLIsdhF2FkWOwLsLJsLAqwsmwsoqwJADGeXiHEsOmjzZsijf2Y9Zz/pit2c5xLtTOdx0sfhx6fHyLvP+mHh8/wAjl9VrIxbyTlLLkajKU5tt1JJxt9ejWy8+qexLTkjf8V7S583dwqWnxu1a31E/mvs/Lf1Ob1GqjjVqpty7zUua5NXu11/vv5OtZqOIdVKVf6bjzNXPlu4teqafq4L0NTrOLUnGMU5ScU5NtvkjVKl97qur2uuppnEm08sfZsisRrLc6vWNJuU2oShPlx9FkdPlaj+W/wCHq+j0+p4pOV4YLmb7r5Y3KlVK+tbLd108TJwnger184qMZrpaX2qWylJvaOyW73Pp3Z3sNg0qUs6WbJ15Ffwk/W95v32Mq4c/FOZNoy0hwvZ3sVqNa1Oa5cd/alaxr0/G/bY+ocE7OafRJOEefKl/qzStf0r7v/NzbpJJJKklSSWyQzawAwAACgAgAsLFYDsLJsLAdhZNisC7CyLCwLsLIsdgVY7IsLAqwsmwsC7CyLHYF2OzHY7AuwsmwsouwsiwsC7AiwA+N63it3ytRiusntFGlz8diko8ryci5Yz5uRON3UlW6XhTTql4I1Cnm1MvFr8oxXp5HXdmfo/y6lxy5bhi8JZF3X/THrL9jXyzbxeS5xHh83OY1qNdNKEWk7jBqO1Pwgl1+XXxbPoHZf6OuXly6tuL27mzyv3fSC9Fudrwfgen0Uaww79U8sqeR/PwXsbMziIjZiw6PSY8EFjwwjjgvCK6vzfm/cziGUNAIAGArFYVVismxWBQrJsTZBVismwsB2Fk2FgVYWTYWBVhZNhYFWFkWFgXYWRY7AuwsmwsC7HZFhZRdhZFjsC7CyLCwLsRNgEcz2f7G6fSKMsiWbKvNfVQfpHx+Z06ACodgAAAABFFhYAArCwABWKwAKVisQAFhYAArCxAAWFgABYWAEBYWAAFjsQFDsdiAB2FgADsLAAgsVgABYAAH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxANEA8NDQ8QDg4NDw0PDw0PDQ8QDw8QFxEWFhURGBcYHSggGBslGxUTITEhJSkrLi4uFx8zOTMtOCgtLisBCgoKDQ0OFRAQFSslHx0tLS0rKy0tKy0rKy0tLS0rLS0rLS0tKystKystLSs3KystLTcrKy0rKysrKy0rKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEBAQADAQEBAAAAAAAAAAAAAQIEBQYHAwj/xAA5EAACAQIDBQcCBQMDBQAAAAAAAQIDEQQFMQYSIUFhEyJRcYGSsUKRBzJSodEUYvFywfAVFiOy4f/EABgBAQEBAQEAAAAAAAAAAAAAAAABAwIE/8QAHBEBAQEBAQEBAQEAAAAAAAAAAAECEQMxIUET/9oADAMBAAIRAxEAPwD6vKXlpH6V4Im95e1Enr6L4QRFaUvL2o0peXtRhFQG1Ly9qNb3l7UYRoDW95e1F3vL2owUDe95e1F3/L2owUDW95e1F3vL2oyANb3l7UN7y9qMgCuXl7UN7y9qIyAa3vL7Ib3l9kZAF3vL2oX6L7IgAvovaiei9qAANLwXtRLLwXtRQA3V4L7Im4vBfZFAGdxeC+yG5HwX2KUDldlH9K+xTYA6ievpH4REcd4lKVn018jkRd+KA0iozctwNI1cygQbRTKNAUpClFAAAAgAAAAAAAAAAAAwAIAABSADngADxG1M1Qgq2801KKSvaL7uj4NuPPgrnS4TbCNKsqNfuKpbsptrdm7cYX5Po/3Od+IFenGnShV/I25zXek9yNL9MU3Li0rdTyFfF4XF0alDsJb0FBdlKmoXe6n4vs+DT1u7gfUsNjY1Oav5nJPg/wD3DicqcaM5VJUX+Sco3qUkvovfvR66nocl/FOrVcKf9MqqU1HdTaqOFtb6b1+TQ4PrKZUfjRq70YyStvJOz1V1oz9kyDSNGUaRRUUhQKAABCsgAAAAAAAAAAAQFAEAAAAAc6wKAPnm1+UzrVI16dKVacaShHs66o1Kb5TjKXBpq9zj7PbFQoz/AKjEcaknv9hGTlCD6y1qS4u8nrc9nNcfSPwiWA8/tJs3RxlKVNwSbi0moq6fifEcxyjGZRVnKknaPDS8ZR5SP6OaOvzTK6eJi4TindeGgiPkewv4jzw8uyxe9VpSfHj34P8At8fLofaMDjaeIhGtQqRqU56Tjp5dH0Z8O222DqYeUq2HV1rZaM6jZDbHEZZVau3Bu1SjO+7L+H1Lwf0lFmkdHs3tHh8yp9pQmt6KXaUW1v031XNHdxZyr9CmUaAoAKFiMpGBAAAAAAAAAAAAAAhQBAABzwAB1E9fSPwganr6L4QAyLGrFA4uJwsakXGaTT5WPl23X4fKd62HVnrwR9baMTppqz4gfzBl+PxOWV4tSlSqU33ZJ2v08j7hsVt5RzBRo1nGjiuCUW7Qqv8Atvz6c+RxdtNh6eLjKUIpT46I8psVs28FN1a6jOSk4Uoyim6dndyVya1JOrnNt4+1o0edy/NHFLfu4vg23dX6PVM7+hWjUW9F3XwcY3NfHWsXNfoUyjRo4AABGQ0SwEBSAALkuBQZ3ib4GwYc+hO06AfoD8+16EdboB+oPx7boTt+i+4Hag4/9R0/cAcKWvovhAs9fRfBEBSgqAJCxUWwGHG50ub5ZdOUIp3/ADRta/VdTvkg1clnZxZbL2PARlOk3Z70Xe6lx4fpa5HaYPHOF6lJ92N3NSdnBdX4HZ5plKnecLKX7S8zxedUa0HGFKTpTi5VG5JSTnFrdi78JRvxs/A8/wDlc38ej/SWfr3eTZ1SxkW6bd463TSl1XQ7K5/P2YZ9i6dTsKeIlRqYeUZTq02oyq1Gt61rWjFX4rm7n07Y3bmnjlGhibUcWlZpvuVX4x8H0+x6J1569pcp+aZpMqNAlygQAAQyzRkDLDNGWBlkZWRgRkZpmQIZNMjA5gAA/CWvovhBCWvpH4QQFKQoFRURFQFKQoFaOtzPK4V42kuPJrVHZEA+IbabHVaNSpXheanKU5ebdzyVKs48J3Uo6SXCSfgf0ni8JGonGSunyPmO2mw196th1x4txQDZD8RnScMLmTcoOyp4v6kuUZ21/wBX+T6lRqqajKDUoyScZRd014n89bK5R2uIcMXCcsNRs61OPCcnyprzPfYjaL/pLVXDJTwFTdUcDLhKg7O0VfRvi93la7tdXD6YmW553ZXazD5pC9J9nVirzw85Lfj1T+pdT0CYFAAAyUgBmWaIwMsjKyMCGTRGBlkZojA5gAA48tfSPwgJa+i+EAKVERUBUVERUBpAiKBQAAPyq0lJWa1P1CA8jm+SOm5VcOkpOzlG1rtXs/3PjOdYqp29TtbrcnJOMub5yt4vhx6H9I1YbyPEbWbEUsbeaW7P9S56agfO/wAP8vxFfFxxuEkqUcO//JvaST1ppfVJ/sfastzSNV7k+5UT4pqyf/08dkmBWBpww8VZ0+M3az3nq34o7udSFZbrap1Uu7U5P1MNelleiecseouU8/gc3lRl2OKVtN2r9LR3sZJq6d09HyNc7lY6zctEFwdOUDBAIQpGBCMpAIQpkDnXBABx56+i+CFnr6L4IBUVEKgKjSMooGikAFKZKBQQoBkauVhAdVmmVqp3l3Zx4qS/5xPM16Mqctyatx8lLrF+J7s4WPwEasWmvLxXVHGsSu87seYji4zj2VbvQ037cYs/bC4mrg3dvtsNK1nziji5hgZUW78YvSdv2f8AJnD4p0+GqX0SfC/TxMOXLeWaj2GGxUKsVOnLeT+6P2PJUoSg1XwkuD4zp8uqsd5lmawxCt+WovzU3r6G2PTv5WO8c/Y7AMhDRmrIwyAQEAAyVkA5oAA409fRfCIWevpH4REBSogQGkVGUVAaKZRQKCADQIANAguBSozcXA/HE4dTTTV078Dy+Y5W6V3FNw8FrHy/g9cfnUpqRNZlXNsrxFGtKDU4Pi+HSXTzOVuxrrepPs68eLtwd/E5uZ5Q03Okl4uHKX8M6KV1xvJOL1+qH8o8+8WPRnc09Dl+ctPscV3Zrhv6KXn16ndHif6uGJXZ1uElwhVStf8Ag5eX5nUwjVKt36V+7PVwXR8zrHpZ9c78v7Hqrhn5Ua0akVODUoy4prT/ACbubz4ws4oIABAQo5wAA4s9fRfCIJ6+i+EQg0EQIDSKiIqAtxclxcDQJcoFBLi4FKjNwBojZLi4FuLkIBZxudPmmUqpeUeE/Fc+jO3DJZ1ZePneLwcoNxtuz8OUvI1hMdaPZ1o78Vwd9V1XkeyzDLoVk015PmvU8nmOXypu0/Solr0Zhvz/ALG+PWfK/XDV54R9pRk6lF2bjy9fBnpsuzGGIjvU3x5wf5keEp4qpQm0neMvpf5WcyL49rhW4zXFw/5qjnG7l1vE091cHTZTnka1oVbQrfZSZ29z0zXXmss+qCA6cucAAOJN8fRfCIJvj6L4RLkGgiXCA0UyigaQMluBoXM3KBblMgDQuZAGiNkAFuQAACXFwKcfFYaNRNNJ3P2Fwrxua5S6V+G9T/eHl0OnW9TaafDk1yPo1WkpKzVzzea5M4tzpK65w/3Rjvzl+NsevPyumco1rX7tTlLRSZ2uS57u1Vg8RNKpJXpX/NKz/LfS/qdP/STk2qKvKze7dJ8PMzXlhMxhRweJqvDYmjJqnVUHCUKl+7vX142/2J5Yq+u5x9BTKeMecYzJnGjnEO1w992nmVFSlG3Lfja65HebO7Q4fMqTrYWTcYScJxlHdnCXg14PxubvO9JchLgDiy19F8Ignr6L4RAKioyUDVymQBoXJcXAqKZKBohLgDVxcyEwNAlwBSXIALclyC4FuQEApJJPgCXA6rMcpjPvLhJaNcHc6apgo1KkY4mCdZd2nWaSc1+mT8fA9ccDNsBGtCUWk95NPly8QPmm2m2lRQqZPSnGup7sas+L7K3HsIy0kv7j0X4Y5e8LhOKs61R1OrWiZ1mA2Eo0KrnuufeulJ3Wt9OZ7rB0t1JaFHc7wIAOPPX0XwQT19F8IhBSmSoClIAKUyUCggAtwQoFBABRcgAtwQFAAhBSAgFIxcFC5GCAfnKmtSqJoAcywNACS5f6Yf8AqigEEZUUAEVgAQoAAAACkAFAAAAAAAUAQEAMACAAoiIwAAAA5gAA/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhUTERIWFRUXFxgYGBgVFxkeHhcXGhcXFxcaGxsaHyghGBolHRcVITEiJi0rLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGzAlHSUtLS0tLy8rLS8vLS0tLS8tLS0vKy8tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAMEBBgMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcBBAUDAgj/xABHEAACAQMCAgcFBAcGBAYDAAABAgMABBESIQUxBgcTIkFRYTJxgZGhM0JisRQjUnKSosFDU4LC0fA0Y4PhFZOjstLxFiRE/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EADMRAAICAQIEAgkEAQUAAAAAAAABAgMRBCESMTJBBVETFGFxgZGhwfAiQrHRUhUkYuHx/9oADAMBAAIRAxEAPwC8aUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSsMwG5OB60BmleCXkRBIkQgcyGBA9/lX1b3CSDVG6uOWVIIz7xQHrSlKAUrDMBzricR6YcOgJEt3EGH3QwZv4VyaA7lKrm+64eHglbdJZyOZGlVHqSxyB8KjF/1w30pItbeKMAZLPmQgeeFZT5fdPuqLkkWKqT7F20r88v0i6Q3ZPZvdhRvkQiIeWxymR6bmlOI76Jn6GpSlSKhSlKAUpSgFKUoBSlKAUpSgFKUoBSlfMjhQSxAA5k8hQH1SvMTpjVqGnzyMfOvsHPKgM0rznmVFLMcKBknyFQDi3TS+7Qx29qRsCMozsVIyrYXYZHvxyoCw685p0QZdlUebEAfWq2jueLTrh+0BPlIE0+XcjXX8819WfQm6La5Jt/MjUf/AFNwfhXCWFtuSTjXTmxgUkTJIwxsrZAGcZLAEAVCulvSKa7CIYlEesMhRic5BUajsMb+XlW/0m6GJHbyTNIzt3dRPeITUNRAwu4GTg5rmdG7CGDTFIe1hYkYbBGhxg4xjbfOR5jc1XKUk8vkaoVVzrwurfHw7GhY8Du5D+rjbbyXl/SpPbdHr6BDIsphLNqk7MLv5HSuBnw+PxEl6M8SYSS2U5/XQAFWP9tbt9nL6nYq34lPmK2uk97otpijEEI3eABxt6girTGQjpZ0o4pb2qvDLDI4B1ERNvgFtidi2ATyAODjwBqqTp/x26zouJ2Hj2EYGPii5Hzq4OiDxcQi+1xJpDEKo7siud9843CNjycVwOL9L7CxkNqT2XZhCIoozpQOiyADGAdnoCu7bo7x2777dvgjnPMw9PZZtX0qUWvVvKVAlulhXbKxjtCTjfLPpHuC591avE+tSEH9RDI/q5CA/LUa5q9Y97OrqipEBg5jVmkAzvpycE7YycYzUZLuW1SecE6g6E2KpiQdog3JlOAfU4VRn416PxHhVkmQbeFB/dAMSfTQram+NVFxK9kuWBuVkCjlqc5PqFxzPnsPWsxWc2AVcIngi4TPr3j3v3t6qND5vfP55PsWdH1j2bk9n22kbanVUUn0JYkn0OKxVdNwouczDfGwXUcD4NgUph+f8Ek4pYaz8WvofrKlKVeYBSlKAUpSgFKUoBSlYZgNycUBmlR7j3TOxtBmSUM37EXeb442HxIqveL9eaocQ2THyaWQAe/Cg5+dcyiXC8ZwXHXldXCRqXkYKq7kscAVQVx163x9mCBfg5/zV42HWRf8Qfs5GQaSG0INIIBxq5E6lJB58t/CukSw+kPWMwylnET4dpIpA/wqf6/KoTNf3N23/wC1NIw5gA4A88DkKmvSXj8MnDlklwspOnT49ouz+4YOfiKrYcZUHIGa5JNrYnXKKmnJZR37DhuvELNjS3dbGcqw2OCRz2+dSheGSQWjdhdSBlIdUEmAQD3wAOWR6nlyqBW3Hn1rtgY059MnB9cHB+FWR0Y4Na3adoXmJXAZTlVBIDYU4ywGcZBqMdtmXXpSXFHfDx/TIvxa54x2hM5Mlmww8YKAhTzIxudOxzk/Gur0Z4jLAZIXi7dodKqMb9md4mAwcAasY8mHlWj1m3RhsruFH09mY1RmYamVipZB4k6S488D3mo1w/pIkz2sv6SIpXthFIWB77phTnI07kas5+8MctpmYt5briUgGm3ji9ZHJ/lXetKOSSSQRPxDDMSNNvHgDGc98g/OtNenXYxATPE7gbtHk6vIlcgKfPvYqL8Q61EUnsyq55hNI388Rq5/mFQcvIujVJ819ieXnAliACRPcZzlpJsAe/cZzvUC6ScDEV0k0QQK0eGWI6hG+AmjI5DJXGfhUcvOsO4lPcV2Ph3R+cpcj34FcqbjF/K4YMCVORmVnCkcmC6goI8wtQmlJYZook6pJrH1/wDCe23Rm8SVJ3vu+mdOVPdViNa5Lbg4Hyr74lx23QMt5fqQVKMiuxLKRgg4O23lv61XF0Z5vt5pn8yW0L7sEZb/AHtWIeFRJuhVfxONz7gQB/vnUuLYp9Hlkh4n1jiKMxcNh0jBVSAyhR5hRjJ9Nx51WhsJnYmTOo7ksckk77+tTf8ARGxpWMsT4oh1Ef8ATA29N67HB+r++mOVt2RT4zdwD4Hvfy1KLK7ElyK/t+CA4zvXcsuERKp1AeGM8vXO4q2+FdVKjBuJz+7CMfDW+cj/AAipXYdC+HRY02yMR4yZkP8AOTj4V1kYvDyUbw7h8jnEKtNjYBIyQPcFG3zFSPh3V/fyHP6OIs/elkAJ9cDWwPyq7Y4wowoAA8AMCvqucKJO1srWw6sZAP1l3pPlEn+Zjk/IUqyqV3CI8cvMUrXu72KIZlkRB5uwH51wL7p/w2L+3DnyjBb6jb60bSCi3yRJ6VWt91twjIht3b1dgo+majnEOtHiD7RCOIei6j82J/KoO2C7l0dLbLsXbWjf8YtoBmaeOP8AfdR9Cc1RQvuLXxYfpEjYGWHaLGACcZ5qMZI+YrxPQy8yC0ROrOGBDA4ODuD51B3rGUsotjo/1cMpJMtbiHWdwuPZZGlPlGh/NsD61HL/AK4D/wDz2h98r/5VH9aj1n0ElPtlU95z+Wa7Nt0Lt03kct7gB9TmsstZLsjbHQUx6pZONedYnFZtldYh5RoM/NsmuPM99cn9ZLNJnwZmI+VWXZ9H7dRlLfV6sCf+1bnapGGBeKLSuplJAKoM5YqNwNj8qhx3T5fwWf7Wvt82VvY9C7pv7MqPxYX/AN2K9OOdX5WMO5QjWoYKTtk41ZxsN8HHnUzu+lFnHGkpleRHJCmNfIkNkNjkRy9R51q8b4+j284ih7RFyjOGyNJj1M/uGR+dSVNsf1vP57ERerhY1WksP2fdkF4/0R4ZbyQzuzR2u6uMu5dwdSAEAlQRrz+6PPNY4v0x4OikW1tlwuFdIwmny7xw30qvb+9ctIiuwjdtRQE6SfaBK8iQSd6147V25D516SllHiyjiTRY3CIlv0CzXaQNqJ0kAmTb2sFgAfA+4VIoOrlcbXjEfhjX/U1U9twa5yHXY7YKsM+nj9K60Usw2e5lLctMJwc+pQfTeot7klDbcs6Lo3w23Gqdw+PGZxj+Ef1Fa931j2sKdnCXdVzhEbA3OcAx5GN/vGq8Th6McnUz+Tkn4krk/CtlISDgyIcD2RoAA9cjP++dRbyy2MUlg4vSC9ubyVpXTSGOQoOygDAGSdzt/wBhS24HJIisxOF2GN8emBv4eld+y4XLdviCJpTsB2QYqPjnCj34FWTwzqplKr286oAPZRdZGee5woPwNS3K8RT3KlXhcZx2gf3u2SfcpB/09a3YrNF2VgufDHeb5/8A176vTh/VxYR7v2sx/wCZIcfJMCpHw/g9tAMQwRx/uIAfnjJrnCzrsXZFD8P6LXswAS0dl88FAfe7FAfgDUn4f1XXTY7Vo4R5Bi5HvAABPrqNW9ild4URdrIPw/qztUx2sssvpkIvyXf61IrDozYw7xW0YP7RXLfxNk11qV3CIuTfMAUpWvd3sUQzLIiDzdgPzrpE2KVFOIdYXDouUplPlGpP1OB9ajd/1rMdre2+Mrf5V/1qErIx5svhp7Z8oln15z3CIMu6qPNiAPmapO96a8Um5TaB5RKB9ef1rmxcLu7lsntJT5sWb/6rNLW1rZbm2HhVzWZbIu206SWcshiinR3CliFOQACAe9y5sNs1mqw4T0NvEJZSIzjG7AHGxxtnypUVrH/gxLw+Ce1iIZFYzzHKq8h8wCfrXUteh123OML++wH0GTU0ueldjHt2wb0jBb8tvrXHu+sKIfZws375C/lqrK+J82ekppdMUfFr0CP9pMB6Iufqf9K69n0OtE5q0h/E39FxURu+sC6b2BGg9FJPzY4+lcW86UXb+1M59xwPkuBXOB+Q45Pmy3YnhtSHRIlxt91TvjxPlz+FavEelUCh2kuDIFRX0xLjOopjYkKfbTnyqmHv535Zrc4PBtJ2xYBgg7qhsqJBI4wSACdCjOfE1qpckuGXIw6iuLfHHLkWbddLowrvBD2iB0jR5GIEjMwDaVX7q55+JIrl8d6UXZna3tmSLLRoCqrkFg7HLEHkAM+VR5RGVdexOh2DmMyHs1cAjKqoDDYkY1fkMe0SsF0Ikca77Igz3hpPefU+4251o4qo8kZlp9RPqZ83d/d3zfr+1RBoSXAbSnZrIZWx7KnONvMgeVeJFwVkE0yYZY0Lq6uzRx6ioCht9R0bsRsDmtmSFmHfdmxy1MTj5navq14a8m0UbyH8CM31Gwp6dvpR31KMeuRrWwSMAazMq9ppQx6RiUKr6jq/ZDAYGxOaSCJIm0RkYR11O5Y4fAbYBVyQAuccqk9h0Ev5MZiWIecrgfRNR+eK35Oq+6k7r3ESp+FGYn5kUXpJc+RF+rwW27Kbt+Frktj3E1vQWRZgqqWY8lUEk+4Dc1eXD+rCyUATM8uN8Z0KT7l73w1VLOG8Jt7caYIUjH4FAz7yNz8auMTZSXDOr++kwUtmi29uUqp/qyj3AfGpTw7qrlx+vu8DxWNS380h/wAtWhSucKJekfYiVj1c8OQDXG0xH96xIPvVcKfiKklhw2CAaYYo4h5Roqj+UCtmldIttjFZrGa5XEuktlb/AG1zEh8iwz8hvXTh1qVX/EetvhyZEQkmP4RpHzbf6VHL3raunyIII4x5tlj/AEH0NRc0uZZCmc+SLjrTveJwQjMsqJ+8wH0qirzpTxG42e4fB8EOkfyYzXxZ9HbuY5EcjZ8SD+ZrPLVwWy3NsPDptZk0kWpxDrH4fHkK7Sn8CnHzbAqN33WpK32FuqjzkJP0GBXOs+gEx+0dE9M5PyH+td2y6FWie0zyH0wAfzP1ql33S6Y495ctNpa+uWfcRK96XcTn5zso8o8L9V3+tffDehtzdKJdanV+0XLDDFe93Tjlnny3qfNY2tuhcQqAo8Rkk+ABbxqH8Q6TcUB1QSwqpORFoxkcvb3Y8vDGceFSrjOTza9hbfXFJUR392dvcZh6vpw2JGQeuSc/DFdmz6DW6+27MfQAD+pr4senUZTvw4lGoSLq5NpBQjHNWJ55OADz2ztv0ldGj7SREVohIdK7buNhjJPdBHvzT1KLeX9SD8Ttwknj3LB1rTgMEeNEA97DP/ur2/TYdQj7aPUeSqc+Y2xtnY1BIJ7lsSmRlkUKUMh2dmLNpy226788HIHiK1RGiriVxq7oUxnUYzl2LHScEZ0rgNnfPhVyprgjO7rrXyz9SaXnSK3REcK769WBywFOknbPjjHxpUJfs8AAGUgYBkDKAuWOFVJAcksSSSfdSu5qJqjUPcr9YJW+7WzHwpzzOK7PaKCAOZ5Acz7h4117Ho7fTfZ2smPNxoH8+M/CsyjJ8kelKVcepkai4QvjvW0vD08BU7sura7bHbTRxjyUFz/lH51IbHq4s03keWU+raR8kwfrU1RNlEtbTHluVQtoo510+H8BuJfsreRh56SB/E2F+tXNY8DtYd4oI1PnpGf4jvXQq1UebMs9e/2oqyx6AXjY19nEPxNqPyXb61ILPq8hH2szv6KAg/qfrUzrNWKqKM8tVbLucaz6L2UXswIT5uNR+bZrrooAwBgelfVYqeChtvmZpXxLKqjLMFHmxAH1rkcQ6U2UK6nmXHmOX8R7v1rpw7NKr3iHWtartEpf1GSPgVGg/wAVRm96y7+X7CEqCQue6oydgCQHwT+8K5xLzLFVN9i52YAZJwPM1ybnpNZpnEwkI5iFWlI94jDY+NUnxH/xmZmEssMekqDr77DUcAgP2j4HiQBjB8jXPm4EZVDXN9cSKyghWwiqxHsPqdgDk6TpGNj6Z7lEXHBbHFesy3iJVUUHHOeeKMfwBnl/kqI8S62ZGTWtwiJnSTbWssve54Ek5iTOx8K5vBOhgSRuxtRpfAUXCBtI0upIeQYIYNkjBwyDGxxUyXog8yst1KDGxBaNQCDjGNQ9nbSmNvujyo3g5hsrG+6dLcNpZuIXRP3DMkQP+CFGNbXB4Zpf+H4DEfNrmSR8epDsuflU0uuIcJ4fmNmhQr932jjmCEXJGeYwBzrpQdN+HyaY4ZVdmTVtzAwCSSM6CAfZODnbnz5JpLJ2KbeCMp0Avbkhrlra3QezHaxYVfoCT7y1SPh3V/Zx+2WkPq2B/L/rXyOnaFNQjbPjqG6fvg+yfHbOxFRq56wVwVaZDknAQ6u74DMY2OOecDnVE1n9pqqnJbKRYkVpZ2ykqkUeOZOAR8960J+lVpkKHZzn7qn+uPpVXnpMrhlRHcMxY6sDLEgkkDIPIbeg5V8i9uWGFCoD4Af0Ofpis05SzthfnwN9dMWnxZf58Sxp+lP7EXv1E5GRz07HY/8AauLe9MH5duq7/wBnv4cjpGob1FBYSP8AaOzf79a2oeEoOYz76g22XQogu358T2uukIZJGy50oSWbyLDODn1OMjNcmOGR941Cod1A2wDuNhXam4eGjdAPaQr9Nvriux/4MNSpaq0qaE06RqIGkAayNlOxO+KsdfFWl7SCsjVe9+aItLxCS3uLdyFPaK8LErkEnGnI/wATfxN6VIFuJMAKEQDONKjIycnDNlhv61zOm/BpkNrG66HadCq5BOD3ATg+Z5VaNn0GhG8sjP6L3R/U/WtDjY4oxRtohOWVnfYr2VS28jFvVmJ/Otyy4PPL9lC7eoGB/E2F+tWlZcEtovs4UB8yMn5nJro0VHmxLxB8oIri16EXTDLmOP0JLH46Rj6mlWNSp+hgUPWW+ZqWHDIIBiGGOMeSIq/kK26Uq0y5FK1LzicEQzLKifvMB9KjvEOsSwjzpZpD+Bdvm2BXHJLmTjCUuSJdSq8//Or2f/hLPA/blJI9/gPkTUV4909aMlZ793fl2NioznyMnh7udE88jrr4eplz3N3HGMyOqDzZgPzrkTdLLQAlGaUDmY1JUe9zhR86o1+M3cpzFBHAP25szze8a+6vyrat+jj3PfuJ3mPP9YS4X/p7Kg9wqiWqri8J5fsNENFY1xNYXm/6LA4h1p26krFpZvJCZWB9RF3B8XriXHTPitxnsYGRcHLSEIBjOdl3yNLbdp91vI1nhXDP0dSqHAyCc6dOcacAqMpkNgg7Ec+VbyxTtGQw075XW2rDYJBLZ38R57533qqWr8l9y2OjXnn8+ZHBZXtwC814UPeXSikMGBAA1jL6TnnrOwOxr7g6KW4bU2uR8e02xbfxbvMfDx8T5ZMj7KIJ+skGrAB0kqScDIySEzk4+HxrZgu7eNdOnVgD2sEDbG4HInGTtzJqpWynz/PgXOEYL9P8fc5VrwuMkmGFRkEZCkkDGhhhs5Bw2SBzJ8hjojg8jKe10qh2Kk90gHUCVx3Tkk8vWta86QMM6iqr7wgbfwYDbHLnvvsKj/EOlUYOe1ZscgoDEHl94aTtkd0jmdt811N/mw4W/wAySyPh9khGt3kO2F5Y9o5BQAkYVuZI7taVt0ks4N7WAZkkKuebKQrA69OpwqsgU5273jzNd8U6YM3swgnw17rnlnsx7JxkZVvGo9d8av5Ng2geGkY0+5my4+daYJvuZLv09i3J+ljNl2ymlmCnuhSAdmLaiVz7W4BGrBG1Rq66wFTUHuFcEkqEDMy/4gSjNz3wvuxVfW3A7q6fP6yZuWQGc/Fjy+NdqDoSsf8AxU8cP4c9o/8A5ce3zNW8C7mfikafEuktvJIZRa9rI2AXlAxgDCjs+8o2A9nTyr0srnit3+rtosKPBEGlf8T57P4Eeldu2gsIfsbZpm/buCAo90SbMP3jW1LxC6n/AFetseEUC6Vx5BU3I9+akRwcxuiUKb8TvmeQDAigbtHX0LPkL7sD314WvA4NWY0fT4dqwJ+OkAD3VLeFdAr6XGm3KL5ykIPke99K6nGOiE1okffjeSRtKxjIy23dViN2OdhpFRayTrkovLI/a2IUcse4Vv2toWOEUufJVJP0qedC+HcNuIyywkyodMsc7FmRvIjZSOeCBvj4VNIYVQYRQo8lAA+Qqr0OeZr9dwsRRV9l0QvJP7MRjzkYD6DJrv2PQBR9tOT6RqB9WyT9KmtZqapiimestl3wcS36K2SAgQgkgjU5LHfbILeyfdioAvDbiwke7gdu4TFcppBDFN1Z1G41KyOp5gSY28baqGdP9UMF0y7C4tZk900cTvGR6smsZ/5aCrEsGdtye7I90esLnid7HfXEZSCJg6BhjWy5EYQfsgksTyOw8zVp1q8LC9jFoxp7NMY5Y0jGPStfjXHrS0Aa6nSIMcDW2Mn0rpE6dK5MnSaxVFkN1FoYZUhwdQ9MZzXDveseyXaJZJT+FdI+b4P0qErIx6ngshTOfSmyZUqtpOnl/Kf1FqoH4tbn+XTilUeu0+Zp/wBPv8vqjn33WjcNkQwonqcsf6Co9fdKr+b253x5KdI+S4rT/RwPd4eu9esca5GrlkZ93jXkz19ktsnuQ8Pqgs4NjgnR24u2znSme9I2ce4eLH/ZIqQcYPCeDQiWZDPMdo1bBZ2HPSvsooyMsc49TgGY2iRBFEeNGBpxyx6VX3Wr0MlvjHNA6h41KmNzgMCdQKsdg2SefPbcYr3KdMoxTe7Pm9RrZTlhfpiV3x3prxDicghLiKJ2wIYu6mN/bPOTbnnbbYCu9wngcNuO6Mt4seZ/0HpUHl6P38LZ/RpgVOQyIWAI8mTIrpx8bv12e3dv+m6n8qza6i6xJQeF3Nnhuq01TcrN32fMm+pB4iujwfiKAlM48Qc45jSd/A7jB9PWq8Xid23KzmPuVz/lrYgTibbx2VwDyyQybe8gbV59Xh1sZZZ6l3iennBxTLIn4okY06sDcESEBsHOdJJw3PwI9xNcifpHErs4ldyfADIG4OMSYxggbgmo1b9G+KvubdIx5ySL/Q1uw9E5/wC1u4E9EBc/Ktvq0l2S+JijfB8svPsPe66TMxyIxnkC5LHHpyI92TWlPxO5bcvo9dl2/e2J+ddOLo7ar7dxcSeiBYwf61sx2tlFutrGT5zM0h/mOKcC7y+RNSl+2HzZFowJGwHMjeUYZyfkK6cXRu4YZMBRf2rh1jH8OdX0qYWcN9KMQROF8NCCNfnsPrXUtegN1JvNIkefe7f0H1NWwrj2TKrLpLqkl7tyBDgUCj9bcA+a20ef/UkwPpXg0tvGQIbaMsTgNOzSsfcndXPwNW9Z9XdmuDKZJT5M2lfkmM/Emtji1zbcMVDDZqdRORCqK2kYyfNz6ehrTFYPOsmpPYrC24Jxi7AAjm7PyIECAfu93I+BrvcL6qJjgzzxxjyiUuf4m0gH4GrQ4feRzRrLE2pHGQf98j4Y9K2a6V5Ihw7q54fFu6NMfOVtv4VwvzFSezsYYRpijSMeSKB+VbFKHBUQ6zrK4a0We13mtZEnUftBDl1+W/wqX1g0BVt7xeKO7suK2h/U3jLbXKjwZiNBYeEiNkH3Hzq0qrDpP0RhhnQ6uxt5rqJ3YA6Q+e6DvhCWwob8QHhvIOP9ZfCbQHVcpI4+5CQ5z5HTsPia6CX0qkh13XBl7RbLNmCFZu9qXJxkyexn8OPjUnHSjiV3va9ksZ3VwMkggEe2djgjbFVW2xrWZFtVMrHhFjVVvWb04smjmsMSFyMdqFIRH5qQ33sHn4YyM1m46OXk+91dsR4gscfw7LWnL0f4RCrCVw5II2PL3BfH3msr1y/x+Zrjov8All+xEc4H0m47PbxwW1zBD2KrEQ6ntO6BhjlGyunG/oa9eI9FL+8Ufp/FFcjkFg1Y9zHszUVur8tZ6F1CW3kdYpVOG0AqUBI3BALAejYr4sOk/GGXSJB++6KW/Lf41rrnxZMttfA0SD9CteH3EFsZnkjlyxU4BHgGwNgGYSY8RkDcb1Yaf+HW4B/VDxBY6j58v+1Uh+gXM93G80mt2kTJxjYEcgNhgA8qtS06JSyMWSFiCSQWGBjPm2BWXVU8UlJLc2aO1KDjN4R05+mduNk1uPwrgfWlb1l0CfHfZF9AC3+gpVS09hf6xp0VnxDpYboKwAVB7K4GR55I8a50nECa5XRqwZ4jnbDEfkf61IIOEgczmqrqo8byatPbN1Rx5HlZ8euovsZXUeQPd/hO2fWunb9Kr481R/3kP9CK+YrBF8BWwFUVbXdZBYi2V26Sm18VkU2bkPSe78YoR8H/APlWwnSW5P8Ad/BW/wDlWja28kpxFE0h/Apb5kbCu/Y9CL+TBKJEP+Y2Tj91M/UirlZfLuzNLT6KvnFHOfjVy338e4CvCS/k+9K3zx+VTmy6uoxvPO7+iAIPrk/IipBYdGbKHeOBMj7zd4/NskVJVWPqkQep08OiC+RVFpZTz/ZRSSeoU4/iO31rv2PQW9f2zHEPU6m+S7fWrPArIqxaePfcpnr7H07EOs+r63XeaSSU+QOhf5e99a79hwO1g+ygRT+1py38R3+tdE1xulXGmtIVlVFf9YqkFiuzZ5HBGryzseXjVqhFckZp2zn1M7NZrV4Zfx3ESTRNqSRQyn0P9fD4Vs1IrM1DesiOWNba8iXV+izh5FAyTAw0S4HmAQdvDNTGvl0BBBGQRgg+IoCCdALtY7y7tonEltIEvLZgcgJL9qo8gH0kD8Rqe1BOwsuE3TzyOqRPHoTH9lvqKaFyxDEAhgOYwdyM8vinW4GZoeHWU9xKvMuuhV9SPa+emgLPpVD2nWVxyK5AvERElIUK0YGg+GjB1HfA3J51JLy6uJFDXPETGGGdCDG3hsmM1RdequaL6dO7eTLJvuKW8IzNKifvMB9OdR286wLNdohJM3gEU4+bY+magAuOHxnuxyTt5ttk/X8q9o+OzqMW8EcIPjjJ+ZzmsUtdJ9K+5vh4fFdX9f8AZodM4uK3sj3AEqwBdrdj3CqjJGNsk7nPPyri3HFrOytoJYoVm7QKwDBFeFiG1DtVXW3lnnzyTmpLfWPEZo2eQXEi45IjnOfIY3+FcmDq5vZYoUNs225LlVC89tyM4zjl4VdRO2TTkVaiFUE0sEU450+uLhOziiWJSCCctI+CMEB39kb+A+NSToFxK7WzxGxXDlNx90DK/LVj4CpJF1RXGkd+EHy1Nt/JU/6N9C7W1hSMqJHG7Ow2LHckKcgDw9wrTdV6SPCZKLfRz4nuVstlcznvPJIfIZb/AFrop0KutJdbcsQNgzqC3zO3xxVtRxhRhQAPIDFfVZ4aGuO5qs8RsfLYpfhXVjfFCsqxxl3Lvl84yeQ0g5wAB4eNSzhfVlboP1sjOcfcAUD55Jqe1g1sUUuRhlNyeWRzgHQu0tJDMgZ5cEB5CCVB5hQoAGfPGakdKV0iZpWBWaA/N3RiE6WVEZ2LbKilidh4AZqX2PQ/iEv9iIx5ysF/lGW+Yq1uG8Ngt00QRJGvkigfPHM++tyqXRFyyzXHWTjBQiV/Y9W/9/cE/hiXH8zZz8hUhsOh9hDuIAx85Muf5th8BXfrFTUIrkimV1kubPmNAowAAPIDFfdYpUyoVzoONwPO9sGIlXfDAgMPHSeTY8a6VVb0y4fcWt+LqIEpJNBKrDHcdcQTRt4lZI3z6FKAtGs0pQGDWjxzhUV3BJbyjuSLg45g8wwPgwIBHqK3q5HFulFhbHFxdRRt+yXGo+5Blj8qAj3V/ZTWUtxZzsApImgGr2g2RLozuQCEYjwMlSrivGba1XXczxxL5yMBn3A7k+gqpOtHp6lxCkdlkEPrZpk0EqFOOz198NnG4A/Oqpu2kM2tIw+3tTIp3JJLNnZm9Tnwpk7gvuw64OHzXLQosmjHdlIUBz5BSQw8uXwA3rwvetGQjNvZFF/vLyRIl94GTrHuNUbDwC7eRMD9Y7LoVVxlie7pAAA38quGDqgkkfXcXCrnwUM5A8gWIA+Rrjz2Oxx3IJxa+R739LlnjuJJZEWWGNJDGUI0gBn227uwz471H+LidbiUW5kijZtWkOw8Ns4O+OVX7D1U8OULntWKkHOsDJHLIAxjO9de16DcMQ6v0ZHbzly/0YkVBRfFknKUXHCPy7BwSaRgFLM7EAaVJJY8h5k5q+rTq8mcgylE2GR7Rzjc4G31qxYLWNAAiKoHIKoGPlXvSdcZ9QrtlX0kVsegtqnt6nP8I+Q3+td6z4XBF9nEi+oAz8+dblK7GuMeSIytnLmxWKzSpkBSlKAUpSgFYNZrFAKUpQAVmsCs0BilK53DONwXDSJG3fibS6MCrDfGcHmpxsRtQHRpSlAc3pLHK1pOIcmTsn0AEglsHABG4J5ZHnXB6sekL3lqwl1dpC+glubKVDxk+ulgD6qal0siqMsQoHMk4A+JqpOk/WHDYXrjh/YzrKgabDd1ZgWVSGQHvEDBXx7u43yBbteF9ZxzIUkUMp8PyI8j61CeEdLOK3sKPaWEagrvNcSlYy3JtMagyFc+ZH9a226McSuP+M4pIinnHZIsIHmO0bU5+lAcrph07fhBFsR+kydnrRnbSQmWVRJgd9sqdxjON8Hdqn4/1ncXvQV7Qwxn7tuCmfe+S5+YHpV3Dqv4SSGeF3YZyzzSszZx7RLb8q7Vr0V4fGMJaQD/AKak/Mgmh0o7o7Z8a4lAFjkmKKSrdpO+jP8AEMjGO6S3PkKlXB+ppx/xF1oHiluun+YYz8Qatq3t0jXTGioo5BQAB8BXoa4MkP4Z1Z8KhGP0ftCRgtIxJPywAfXGa7th0csoCDDbQoRyYIuR/ixmunSujIxWaxShwUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoAKzWBWaAxVb9Muic0VweIWczxEkdrpBYoGIEjKu+peTFcYyCfE4silAVpH0u4ms5htYDxOMAYuEjWNCSPCQOY3wdjy3BraWy6R3ZYS3MNhHnYRRq7kc9iWYDnjOQcg7eNWDSgIda9XVocG8knvXHjcysV552jBCj5GurddD+HSCMNaxARnKBVC45HHdxkbDY7bV3KUAVQBgDAHIChpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgArNYFZoDFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoAKzSlAf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAACTFBMVEX//////v8AAAD///0cGhseHB0ZFxgYFhcSEBEVExT9//8jISIgHh////wgHBsdGx4vLjMAPqIUExEBQaMeHRsUEhQALp0oJywAJpcaGRcXFxnt8/gASa0AO6EAMpsiHh02NToAOaKertIAMZk5OD1CQUYkIygsLC709PRvjcAARaGXp84ALJcpKC4lJi4oJidNTlJiXVp9fX2pqKiGo8qBnctehb2qvs3cAABTcbIANpcoUKRrgrS1w9/L1+rX4u5sa2vgwcenW2HFx96krtCTUFKyY1+6urpZXWOanaGiRUmwYVXeu7nk4eCSj5Dm5eTOzM+et9Occ47QVl7LSEjKPDaUX3iImrvHJyazbXqSZoujJTtQbaS4PUnGUFecj67PnJ7bhYyllaDOnp/Vx8adX4hkKWoqbsJ7Nm24RFvIAACTF0apCC5saaIXV6tPfL47X59FToRDJXLOcmm+d3SmhpbWi45UZbONlcRne8F2jsicntTJs8kxRZm+k7Ollb8AJ3tfcpovT5JQYXIoPWo4T2lEWoMzQ2k/WYikTV6gteR+e6tylrkAAIJoeIt0hoqaqnsTMnhvhZU1GB3tiY3kYmraoreVydyvzvA5e7YabKp4sNBblMVJeoZng1xVf3NmS5ZkP3e9iofVb4NTKSjlPTvUhJymsp2WopNUSZXglZLrq6rla2fRO0a/jZW5aopmmGblx7iRbq93l97ch25gMS9cXoO1CwCJOTp3Hh6zbnR2L1fOmIfjd3i1WoP31cXvu5/utraiYE6cdXWebhb9AAARb0lEQVR4nO2ci0NTV57H8yLvEEgISDIhAfIiwCRAAyQhDwWL8gqhKqJoYdE6MiPCghBo6dioCOLgOOrUnS11hnathSmsu87oOrjKzj+2v9+5j1wQK6UPx93zSe6599zXOd/zO69wf1yRiEKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhiN90Bn5s2v/PK6x60xn40en4/reo3u2FnoPfP3GRSPrth8VO/kRgNwmoPTW7bcueg54dnytmT1UDzBZmGGM6ANdqMcAfkap1YqlYLNV5auAwbKnVRCGcgueJpS9BUsGLyX3YO6vFOrhFtUitg4NMyi9fKRVmhyAVq6U6sdrj6dBJ1dukxQOJwF11kGh7Z0fiO5cgXCpKeNp1WC7S19n6lTcRt6vbX1tTXk6aXNnezG4jW2sQUzhSNW54PJ2eGsaISaQEeEdIYAtlSNd7hw4f6U6VBY4cPfReT5mQ2rLanXHs8NHj3SW9Jw6ffL+sjL05lyCfeklJMkMdS1//+D91Nl4YHzgVQyzbgNb2eMQeRNRZw7bZn+0AoxGC3J+drh+s/yDszT/zi/r6+rPeXCuAQS5CtniKEQyLYJWLZxgBr9f7i8HBX4bD3l8NHj7nFRAeYjhDCALn8QPUssHw2cGTI8Hafz45unbm/PkzQXLiMCHIch5KsLdrbGxstbm5o6adq6OlHKFQyOidDgNDQxMTeFlvAwOxUioVuDA61v9+eUlJ+YX+8fG+yGYao0Ji25czFHEi4bGILe2JhJivbTuD7RSgLX9rbQbzJTyMFcVMLd5kYvUu29bbAdN1YPcFPRLpz7g46TTZHhaLku3f3nSGdwo7Lgg6bSKRl8D11yhNin2oWsSNEG845ztFMJTwCtUZK7E9MJpUzI6RMMhhkbw1NqRQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKN8VNevEItjBPyEU68QiqUgnFeFzUubxMHmmqEP/GqlYp9bh40Ux2cKIWKxGLxp0wEEvHDVE4bA680iVe+QqFj6qFL28wWUE3XHE6syjTkgVTsCviAkFzzw74hxVVX6/08nejTsuTBIVss+ByYeUAHq1MOWBfit44eZHwaSEdKy3DJQKs1f3svPLLmywowfrByVClEqlKMwwNDQEAdn0TgPhDBPDQ8PhCY5gqqlpqrc8NdmdauguLy9PpaYmYV93ajKV6oZIeXmgYSpV/mF5d6q7qSTV/SGc0t3UVN4Nq/KtlPCUl5A4tzCgO00kUvLReH9/f9/eb+MUS3ubzaYyqAxKpQFRKk1KkdVabC0Ohb1hdGvJLzUWGY3GXGOoqKi0CCktqpie//jsr8+FMAKxWUt5Y+PFWPfFaPcnlqZIoKnTuCcdi0TrRmKNkeRQRSQR3BO6dPnK5Zk9MxevXpm9OnN1ZmbkyuXZUP7rqajIJ6lWVBRVFHHk/2lwcPDx0ZZ9PC3vtghic3Nz3DI3t/+WQskrVCIidOYJTU0CZdeCgcnJu7g9MTWda2Q9grzzA7+v7/vofCgXdhhDJbHhZOJ6omQ4lkxaeveEIp0TExHLJ8lot6X7NxVFZQlPJFy8MLswc2Phym+rL43cSy8sXFq4+buFdKh4s0NRcRF+SEGiYxEEVs79KJd1MTISXyRUOHj0UOvoyZbRltbWltaWlpMtJ09i0AKcPdty9viJE8ePnz0O3DIbDCqVwZBRGAyeCU+DstqGQPhab6BsIvBO4HpgMsSkYPRa52/fvlO/fPv3XiN+hqOx3nDwM0/0U8v1u4nk3WBjXbj4XxLRz/7wr5a6Tz8LBTyNdUP56cXFmcUbi59/fmn2XnhxMTRzL73ozfUyGf/jn/5ICE/WTgaDUw0NwbJ0Q3qoNlSWzhVg5MgFhfWD7622rbYNLA0MDLQttQ2w9MGyvNy3Mt43ML6yPN4/fv+LLwuVrD6CSiWarD0fRq+qyfORhslA8FqA8aDiUrBa5+/c+bf6b+7c95LUauuiZbUlJZ7GpCUZSdTVvRONBou9kZilMeqJRiPhWGOsPRD6Kv3Vwo2Z33714MHsg+EbBx/M3ngQMlqZ/H5959ny8rOVP9efjsVidbHGOktTO/pQRaN1ZSErKyqjz2gc+ghMWP/N6tLS0ur40sA4Clsl6jbG+nA9vrq6urTac/+L+z1ra1/6TAqFQqUAdYVoTIUIK2l5U+Da1FTq7mTD3eCHkWjk2rXzIWiMpCStQ917xwfbu6YgcUz/bjSYjF23JHtj5clYMD8cjQxdDHSXxequW8r2eD+LRT619KYvLV4Mfz576ebsv6cXw5cW783MhKahOuAdrV/fbmtfXn6+8s0HICpmqUtZmjzdsZilKdEYTXM1ExLnTVi7FxUe2hh4uL6x/nBgZf3FOnw3YHtl5eFG28ZDDFaA5ysbGyt/8akKFfJCRSGDXC4CK1lLK9CrDYCuxGsMhYwY5VpNxfyx1aPvN00XW43Ydt6JTSc7hy2pdKw7GRsunY40TjclLZ80QjucLw2BcSOJkpFLN24+eLCw+KCjeuTG7ELHvd9BNFSMDdla7P2PY8dOIxOBhobywDvBZEmqPJkqi0xEGv6z1PpyLS3Gdlh/9IvVpT5SNdueLg0sgdlWB1Z7ILzQs9r1cVfXhZ6eC0e6jqx9maeQZQN5AK6zRRWlpRXQhyF7KvZsz/TX07/ZA8fxhJvJaGPDzcaG6caG67HGaKokGol9EolGr/8BTFJyPZYORZKzV29evnhlT/jq5Suzl9OXr165ePlm+mYov7S0uLg0NzwBIxCMTDDyFHvDE8FwEMapIK4mSoutaD7OzZHV+gH2NN+09I+Ojj7686NHsBobGx0bxS9uPhtdHl0eG4NgfHx09C8GWV62zWZDhTYtIGL8CuHDQ1wNmzhKuLErhUylcNSbb0il5lPzvQ2p+flz8/PzvcPz5yaCuAXr6XPn0n8FRsKwSo+M/HVkegaiMxX5IVKO+a8oRgRGCSgFMi6VksGJGS0eA0db9u+DD+EJsp9bEOhSyc4n/3WrUJ7N2TAvC0CHve8220DPZxE6RRMHZ/QFExNvMIvHg1+Lh3wIMQvjhRkj3pjRzWWYKUdBGU41QPeKQ1cwyE0x0uFjhw8fPnro3bF3N9Mq3G7FBYL9t6CHUWTL2UYIZPy80fmQc7DWER/vTd55as5JkaxE7LnoUY3zO9wrkurQpZNM6iAiwjkq7MIprA4XPPfbS3Pbg2qLJ9G+dy86jSYQCNuFMJMZbnLTZiNDBDMiqhQqlULgyb5pgsl58mV8yaWs8dCdXUyyjvqZIzqcpIpxLktcyVGHGv01YfJNpMNsHCJCT3X1piJj5+FiETNFJpkhhcE4zaqZEmMLj5ygZg7wxcBnPC5hBnp2NITx8AdDutUKxD11644fG53O7/RlGwST758g0Z8UnZT1J8UKDXW4s/NN5+iH5nVN/e3nbXFc3j28P/ebzgiFQqFQKBQKhUKhUCgUCuUt5v/H39HeeBaEz3LEnEuQaNNf91/+U9+mPVsflGxH5gU//4hvdnj5j5nS7RVm3JR+ajqbOWqAgx0ACaqBeDxOgngVelz5cXE6nfZm9n0qnp2/5Amo8ccdTv+BePVBfNOMp6ZZQCeCz9aYB26bEXuIaXdr3WbJDlAyqEwKuUyWlad0+A8Q/NXVHQIOCiEFBsXWXH2AFFf8gN2ldzodTqfffrCz07+DNE1mk1mvd7lclTmVbrvb7nDYnR0iiyXWvretbS9TGiyeVyFu1tq454+cCqUAOIQLg0KhkMvloFCmN5kgbZPZ6fAV/DxDJbMqqIRPgauy0pXj0ue4CszOuFMiwSuUPiDH7jZJ9Dk5ZhWUmNksk5vlcjMUnEyukMlkeoKMJQsjZg5IVVItsuaGTh8FTrz7lIV5bvz06T5ux9MegNuwKQysQoNyOxhxJjZEkTKZXItHXD+vdDi17koCagIqceV2+3yVUPJ6/IIN9BJ/PH6gAEQqfW53Tk6OneQbKoQCb6ggN1WQR9hy2DLL9XomQgTLUC4vEhR6jda/Ea+qEy3bMzc3x2w8IUF2xqtqW4VEG6+UyY1ci3tMerNS5rbb7ZBlDHjcbtThYqwB1UxvgkpndislSpVMq9dr9RqQBxcrwGpMvQAxWHCMQrxEzoEG3KQwLsrNtf6tHhS+t7yyvrK8vL68vr6+AgusMbY8js5U/bfRPfDZs/4vTn5ZaOC8qhiTwbLFiJw+FKuQExtmYTORKCUKVMiB6uyMQIi5kAJiR7OJNCyJwUBs6PD50LImVqECKieaS0aEymWZWspHMjVVGRcZjaUfo8IT+6AKEhcc9MIh/jgDuNm3NE7231+7v9Yz999zt1wGsAx5SA7VHBaixUS2sVqqhDAlniXzuSG/EqUhz1eA0hz45cxnJwIdjhy7oyDHUZljdzn0Jp+tyi3RGPIMUIGhErvwiF4JJlMwtVHOSpKxLTErCxsh2w4xSioro9BrDewFhfXPNp4/f/j8BQQvnr8AcPVwA3YyvHi40vZw4zl6VRkwHQXrVwXVhEQhhqphj4qpSkx9whxobTa3322A7lHi9/vcThxCHCT0k9EElhwH7jgAXzfudkiqOxIHJVX26pqOjnh1ldseh8MOFeoQ6oO1NitLSxYMCVoGRqneVAU2DB1DhYd60P2t60LX6tjf0acKrYk9TNeRta412DoCllw7sjZ3y0ekCR2r5IUkwnqSyeQyvlXIME+o0Kk1NDdXS5x2RiEIAhw4WKJCPzRM2HMARj9Qyihsr5FU+Tuaod/HTj+OZeHLIt0l3BMWYraMIAEaXLK0jC1BoTXXSryqDo1Cq1t5tP7i0cYj0gixLY5hsNS3vrSytLLevzLeN95/y5ydbbOhX5WNUQgR3gcJKJRlyTJgPkChBmqpxmeWKOU+t53IIhI57KRB2rGKwjfH4VK6nXGHxKdx5rnxGNRiJzTbLM5MxFScxTQAF2iZqIbfpzHHRcUh6wePBx8P/qoFnWxb5p7M/ZL0m0+ePCEh04XyPLllIIJAYPYOFJJM2GxaMzMmSxQ+t7AXFUCGC2awcJmVZAw3KPMMeRpNQY7bZ9a6NGa5QFiWljOfZjPazIaWVVgUOv0YxsNDra2t/9Payoab/av2o4sV7GzZ17L/lkFB/Klk6FglI26AhRnIXgU5pZBvLCAZ+xnMNNiQGRtILyqgAHpRGKLNKtIBKtlpitwGMxPoijQmGC1McqZ+CuxIBPIiXRqhFaFhwjYojEUbT7UN9PW1nTrVth0DPEvI322ssxFxU2VHJ9KFq7jRWEGGSxDKjc4KFVHo82UrVZoCtxBeoMuFcx7skiFQSrJtbjcavdDnc8G0RgG7zUq5sGawzZFrexrSuzA9DBvTZoEVZXH0N2PZ0UTe42MUkgWkYI4UbMZMZKA08RusZlCYrVQaCu1+mI7Lt1QqUvBskbP1Wy6X4Jk+GPUlPh+coNWoZGa0IT9zYYXKuXbASNXrubGC6VtRsLkKXxsoknJOe4SXX3tK9JN/x3jlzDvjS8ZP6vg5jcFgQ3tBN1mFvagDsGfMSAY8xG3zabJ92dkOGfSndh+0dIeE9Eh2t9ytKdCYMjMaTigrlzGpnleozQwbZj/8yJBK1WIx46fHO+xtUSjm3z4oFiXQlYr98cT9aCL/neJw27K3l+/HM/GnQw0/p884GHYy8L+JOp1O9l9eQDn0SwVuX1ZVdbVfuaVIJYJZFKMcmzCRyNoU66rMv8vfUK+ry0RCgsv/rn6peaqccV9BQU6OvxpfJtvO/xKtZkoVf4dWxau4H6FYL8Du2XKVZFNZOH5obaIdtucdgD9ldezrSl/v4sQ5xIoZP9RM8f5AuXkl3/81oNtcTv48Ixby5v4O9z1fdCrd1eUZ3f/Y8FnctLGjnL8lCikUCoVCoVAoFAqFQqFQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhUCiU3fG/+NwcPYU0CVcAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSDxUQEhIWExUVGBYVFxYYFxYVGRseHxYWGBgYFhgYHSkgGhwnIBoYIjUjJSkrLi4uGiA2ODMsNygvLiwBCgoKDg0OFRAQGi0fHR0tLS0rLS0tKy0tLjcrKy0tLS0tLS0tLS0tLS0tKy0tLSsrLS0tLTUtLS0tLS0tKy0tK//AABEIAPcAzAMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcFCAECBAP/xAA8EAABAwIDBgMGBQMEAgMAAAABAAIDBBEFITEGBxJBUWETInEUIzJCUoEVYnKRoSSxwTNDgtHh8Aglo//EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAIhEBAQACAQUAAgMAAAAAAAAAAAECERIDISIxQTJhE1GB/9oADAMBAAIRAxEAPwC8UREBERAREQEREBERAREQEREBEWF2zxY0mHVNUPijjcW/qtZv8kIK2qN8r2YrLTuhj9lje+K54my3a7hLuK5bmQbCw5ZhWjgGOQVkAnp3h7Llp0u1w1a4DQj/AKIuCtRKeoY1r+NniPdezjna/PW975q8/wD470MrKOondlHNI0Ri+vAC17reth/xQW0iIgIi8mK4jHTQSVEzuCONpc49h06nlZBGd522TcNoyWkGoluyBuufN5H0tvfubDmqCwjD5ZZGtF5KiodbM3JLjckn+SfVffG8bkxKtfXTXDB5YmcmtHwt9eZ7kq3d0eynhM/EJm+8lHumkfBGfm7F39rdSuWXldR6MZ/HjyvtL9kNnY6CkbTszPxSP5vefid6ch0ACza4XK6vPbsREQEREBERAREQEREBERAREQFSO/Pah80zMIpSX6OmZG0uc5+RZFlmbDzED8vRTrejts3DKS7CDUS3bC08vqkcPpb/ACbDqsJua2LdTxnEqoE1VTdw4/iYxx4iTf53nM9rDqghWAbk62XhdVSx0zMiWj3ktuYy8oP3Por2wXCoqSnjpoG8McY4Wj+SSeZJuSepXuRAREQFQW+Da011UMNp3Xghd71wOT5BqO7Wf3v0CnG+Lbb2Gm9mgd/UzggW1jZoX+pzA73PJU9s9gsj3spohxTTED9I1JPQAZlc88tTU9u3Sw33vqJPu42UFbUjib/TU5Bf0e7kz76nt6q/gLCwWM2awSOipWU0ejRm7m5x+Jx7k/4WUWsMeMY6mfKiIi0wIiICIiAiIgIiICIiAiIgLH4/i8dHSy1UxsyJpcbankGtv8xJAHchZBVRth4mN4iMLgfw0lO4PqpWnVwJHCMrEjNoz+IOJHkCDAbB4PLjmKPxatb7iJwDGatLm5sibfVjL8R6uPcq9V5sMw+KnhZBCwRxsHC1rcgB/k876kr1ICIiAsJthtNDh1I6qmzA8rGD4nvN7Nb+xPYAlZieZrGOe9wa1oLnOJsAALkk8gAtWN5u2j8UrLsuKeK7YW5j1kcPqdb7AAdbh1dVyVdRLiVSeJz3XaL5D6Wt6NaMvsru3VbKGnhNZM3384uAdWM1DexORP2HJVTub2bdWVwc4f08FpJAfhc7/baRoSSL+jSOa2UXOYeVtdcupvGYwREXRyEREBERAREQEREBERARFw91gTrbOw1+yDlFHNlttaSvL2QvLZWX44ZBwSCxsTa+YvlkTbmuNuNsIMNp/EkIMjriKK9i8jmejBcXdy9SAg8G8HaR8QZQUh4qyps1gBzjab3kJ+XIOseVnOz4bLL7HbNx0FK2Bli74pH2txvsLu7DQAcgAsHu6wGQcWKVYvVVQ4rEWMbCBZtuRNm5cgGt5EmcKRq35BERVkUe242jNDSiRjBJLI9sMLCbAvdfN1s+EAFxt0UhVY78awwxUkws4xyyu4CQCfcSDi7gE5+oQQPeHt9WmM0Mk0TxI0GUMiLCMwQ0u4zcHmLaW6quoYSfNkAcuLMNH7D+AF0e50hdNISXOJJPU8yrJ2a2Li9nBqWEyP8ANbic3hBGTcjrzN+foguPd3gdPR4fFHTvbK148R0zcxI4jNwPTkByACkypnYSlqsOxCKCKTxaSoeWOY7VjuBzw8DQGzTcjI9Bla5kBERAWPr8bp4HBk08cbiOIBzg02uRex5XB/Zc49i8VJTSVUzuFkbeI9TyDW9STYDuVqxtHikmIVT6uYDiechckNaPha2/ID98zzWblprHG5NtkRFpkREQEREBERAREQUht5suaDFGYjA/wWySOla75WPDHPkY63yuDXG3PicOS+WxuETY7ibsUq7mmidZgI4WuLbFkbGXNmA+Z2ZuTbPO3z3k1dRi2KR4bTvPgiQxtA0LmG007+rWeZoz1a62quvBcLipaeOmhbwxxtDWj+5PUk3JPMkoPYuURAREQeevrGQxPmlcGMjaXucdAALkrVPbTauTE691QbiMXZEw/JH36E6k9T2Cn+/Pa100gwunJLWG8/DmXOGbYx1DdSOtuirXAsAlqqmOkgHFJIbE52aNXOd0Def+bhNrpntgNl56l/tTaZ88MRIFiwAyCxaPMRe179L2uQrMhw7EnfDhxYestRC0f/mXn+FYOzWBx0NJFSRfDG21+bjq57rcyblZREQ7ZjZepjnbU1csd2A8EMLTwgkcJc6R+bzYkCwaMzqpiiIC4QlVdvD3kw/hpbRSkzTl8INnMdGAbSOIcAQbZA97jRCITvj22FZV+xRO/p4HeZwOUkguCctWtzaO/Eeix+zewVZXQe0QNYI+IsBe7hvw2uW9Re4v1BWE2T2UkrayOkj0d5pH2/02Ajid652HUkLanDaCOCFkETeGONoY1vQAWHqe6zZK6TO49o9SIi05iIiAiIgIiIChm8fas0kIghuambJoaLloJ4eID6ifK0cznmGlZ/aTG46OmdUSZ2yawavcfhY3168gCTkFB93WCyVc7sYq/MXEmAHTp4jQdGgeVg6XOrrrNvyN4z7Wb3dbGtoIfEkANTKB4jteEZWiaTqBlc/MRfopiiKxm3YiIqgobvP2xGHUZLCPaJbthb06yEdG3/eyk+K4jHTQPqJncMcbS5x/wOpOgHUrWfFMTkxWvkq5som/C2+TWC/Cwf57klZyymM2308OV08uFwljDVSXdLITwXuXEk/F1JJV67r9jvYoDUTN/qpwDIebG6tj9eZ6n0Cim6zZv2qf8Qmb7qE8MDTo5w1fbmG8u/orjXPpY38r9dOtlPxnwREXZwERVnvj299ih9kp3WqZhm4axMOXF+o6D7nkLhjt5O9w0s5pKAMkkYbTSuBcxpH+2wAi7up0GmulJ1VfLNUvqHnilleXGw1c48mj+AvEF7sGw6SpqYqaH/Ule1jT0JPxdgBc/ZXQ2b3b7KCgo2hwHjygPmd3tlGPytvb1uealq6RMs0Am5AAudTlqV3UBERAREQEREBdJpWsaXuIa1oLiSbAAC5JPILuqw3iY9JVTtwqkHGXO4ZOjnCxLHEf7bBZz+p4W/UFLdRrHHlXhJfjuJW8zaODUZjynl2kk582ssMi4q2oow1oa0BrWgAAZAAZAALGbMYHHRUzaePO13Pefie85ue7uT+wsFlkkMst9p6ERFWREVf73Ns/Yab2eF39TOCG21YzMOf2OoH3PJFk2gu+Dat1bUjDqY3iidaRwOT36W7tbp63PRYnZ3Z91VPHh0GTR5p5B8rR8R9eQ7qPUdI6ARVEbuJ84DRFa7jfJpaNbk6f9FbD7vNlhQUlngGeWz5nd+TAejdPW55rhceeW/kd5nww1PdSHD6JkMTIYmhrGNDWgcgF6URd3nERdXvABJIAAuScgO5KDB7a7TR4dRPqZLEjyxsvYveQeFo/a56AErVHE8QkqZ5KiZ3HJI4uc7v0HQAWAHIAKU70dsTiVaSwn2eG7IR9X1Snu62XRoHdQ8BWDqrs3A7KEceKSt1vFAD00kkH38o9HdVWGxuzb8QrY6VlwHeaR4+RgtxO9dAO5C2ww+iZBEyGJoayNoY1o5ACwCUehERQEREBERARFjdoMYjpIHTSXOjWMFuKR5ybGwHmT+2ZOQJQYHeLtWKKDw2O4ZpGkh2R8NmjpSDqbkNa35nEcg63l3ZbKGmiNXO21RMBZpuTFHfiDCTmXkniedS45qPbD4RJiVa7Eqoh8TH3bzbLK24bwX/2YR5W/U67jmXBW2sTv3dMvGcZ/oiItuYiLglBjto8bioqWSqmPljF7c3H5Wt7k5LWHEcWlrauSrlfwyus9gOTQAfKxpOmQyv0sTqpNvV2uOIVRhhu6mpzcWz43XAc8/lzsDyGeXEvjsbs67EasQA3p2ESveBZzWEAeHxfUbBvPMF2a55XfZ0xmu6abpdlvGk/Fp2Z5+C03tewaZADyAFh6nsrcXypoGxsbGxoa1oDWtGQAAsAF9VuTU0xbsREVQVQ79NtPCj/AAyB3nlF5yPljOkfq/n+X9Sn23G08eHUT6l9nO+GJn1vPwt9NSegBWqddWSTzPnlcXySOL3uPMnX0HbkLKwfABcgLmytDcjsZ7TUe3zNvDA73YIyfKM79wzX9VuhRFj7pdjvw+i45G2qJ7Plvq0fJF9gbn8xPZTpEUUREQEREBYHbajnkopDSyPjqI/exFjrcTmgkMeNHtcLjhOWY6LPLgm2ZQV9spvPglonzVpFPLC27xoJBydCDm4k5cGZBy5gmqsaxysxzE4448g67YowbiFpuHOeR85Au7UcOXZNuMcp5qieKlaDE6Vzm8IPvXE6C3yeJxv7jhA1ytndRsKMPg8aUXqZQOP8gNjwDvpf0A5ZhNMMoWQQxwRjhZG1rGgdALfvzXqREBERAVYb6Ns/ZoPYYXe+mb7wg/BHz9C4fxfqFNNsNoo8PpH1MmZGTG83uOjR/c9gVrLUVElTLJWTe9c515W3s6zvhI6AH9rNvks5XTWMd8No3ucyKDjbVcfh8OvEHH9r63BytzWyWxGzLMPpGwNsXnzSvHzOty/KNB2HcqH7ndkPDYMQmBL3N4YA4Ztj+s9CRkOjfVWepjPplfjlERbZF0lkDWlziAACSTkABmST0XdU9v02z4GfhcDvPIAagj5WHSP1dqfy/qQV5vN2wOJVpcwn2eK7IW9RfzSHu6w9AB3USCNC7WVRldlcAkr6yOkiyLzdzuTGD43n0H7kgc1tbg2GR0tPHTQt4Y42hrR/knmSbknmSVEd0uxn4fSeJK21TOA6TqxvyxfbU9yegU7UqiIiAiIgIiICgG+HaM09C6mjJ8WdrgS3VkWQkfrzuGjnd2Wil+PYvHSU7p5LkNsGtHxPcTZjGDm5xsAqfwjDpcZxB/im8TXB9S9pPCSL+HTxO+huYB5njdzCzllrtG8cdy2+nw3K7FulnGIzt91FlADeznDQgH5W5n9XoVe6+VLTtjY2ONoYxoDWtAsABkAAvqtMCIiAussga0ucQAASScgAMySuyqPfVtiQPwynPnfbxiOQOYj++RPa3UqW6WS26iEbwdp3YpXcLTw00XGIycm5fO/9R4ftYL27udkziFU10sYbFAAJiDlIR8LcsrmwvbkD1CwlBs9N4zaKMNkNSGktOsZ1uelhc36emexmzOBR0VKymi0bm53Nzj8Tj6/wLDkuWPld/HTKcezKNaALAWAyAXKIuzkIi4KDwY9XGCkmnaATFG94BNgS1pIBPc2WotdUySzPllcXSPcXvcdSSbn09OSszeJt7LUTS08ZdHFG8sMZFrlriLv5k3F7XsLDnmozhGCMljfLNfPRw1v/AJTci6RQBWhuT2M9pn9vmbeGB3uwRk+QZ37tZr+q3QhRXZ3YqprKlsMTHeEX8Lqjhd4bAM3Eutbito29ySPVbO4RhsdLTx00LeGONoa0f5J5km5J5klXaPYiIoCIiAiIgLq94aC4kAAXJOQA5kldlVm9ba1tnUUfmY2wnsf9RxzbTAjlo5/5bD5ipldRrHG5XTCbV45NilbHBTXs4ltOMxwsNw+qf9JcLhvMMudXK2NmMBioaVlNEMm/E7m53Nx/9yFhyUe3Z7KGliNVUC9VUeZ9/kbqGAcuVx2A5KbqYz7fbWeXyeoIiLTmIi8+IVscET5pXBkcbS9zjoABcoMFt9tUzDqN0psZXXbE3q7qR9I1P2HNUNhERtJiVTdxLiW8Wr3m5/7JXrxbFZMbxEyE8ELPhBOUcYzJd3Op/wDAUr2IwMYjViUttRUnljaRYPdrmOfIn7BefqW5XhHq6UmGPOpRuq2ZdDG6vqB7+oFwDqxhsQOxdkfQAKwFwFyu+Mkmo8+WVyu6IiKsijm3e1DMOonTusZD5ImfU8jK/wCUansO6z80rWNL3ENa0FzicgABck9lrBvJ2tdiNaXtv4LLshbp5b5uI+p2p+w5II3UVck0zpnuLnvcXOcdSSbklS7A6iWufFQxMDXnK4+G3zPd0sM/7dFEmMIs0C5NgANSTkABzK2S3XbHjD6O8gHtE1nSn6fpjHZt8+5PZLJSVJcDwqOlp46eIeVgtfmTqXHuTc/de9EQEREBERAREQRTb/aj2ODgjcBPKHcF8xG0fHM8fS3kObiB1UG3W7MGqmGIzNPgxEina/Mvfe7pX31dxZk83fpWGoaOfGsTe15s0lr6l4zDGtPkp4z0bp+Z3E7kr3o6VkUbYo2hrGANa0aADIBc55Xbtl4TjPf19kRF0cRERAVEb9NrzLIMOgN44zeYj5njRno3U/m/SrF3m7XCgpbRn+olu2MfT1kPpy726FU7s/GKaN1fO3xJXksp2HzcTzbzOB1AuCe5aPmWLlq6dMMNzbFYLs9UOqY6CnfaadoMwFx4bDZ1pM/ps4ju0amw2awPCY6SnjpohZjBbuTzce5OajW7XZD2KJ1RKL1VR55XHMtueLgv6m57+imi2xf6EREQXBXKjW321TMOo3TGxlddsLDzdbU/lbqf21IQQLfhtnwt/DYXZmxnI6atj++RPaw5lUxAy3mK7zzPnldI9xc5zi5zjqSTck+pWc2Q2ckxGsZTR5NHmkfyawEXPqdB3KqJtuU2O8ab8Snb7uIkQtPzPGr/AEboPzfpV6LzYbQRwQsgibwxxtDWt6AL0qKIiICIiAiIgIiIMDsXszHh9I2Bti8+aR/1O5n0Gg7d7rPIiG9iIiAvHjGJx00D6iU8LIxc9T0A6kmwHqvYqA3rba+21fsMDvcROsXXye/m6/0jMD7nmFLdRcZu6Y0zyYrXvq5ntYxpvYkENY25sG8w0C50uctXAGf7FYE2srvxF544IbMp2nTiBu53Q2JLri93O7WESwrAHz1DcKgefD8r6qQaDh1aCMnWJy/MejQVe9BRshiZDE0NYwBrWjkAuOGNt5V26l4+MehERd3ARF1e6wuTYDMlBi9p8ZFJSSVBsS0WY0/M45NHpzPYFa3bcY/PiNSah/w/CyNpuGN6Ad9Sed+gAGc2/wB40lbJJBHwimbIDEbAl3CC3jcTnZ13EWIsLXvmsfseyGO80xFwCYwdH214TobcxqMrgXUqxF44ieGNg4nPLWgDUkmzQO5JC2U3a7Htw6ks4A1Eoa6Z2udsmNP0tufuSoPuqwUVOIyYi6EcEdw12g8QkeYNtmQ2+eVuLmVc6u9oIiICIiAiIgIiICIiAiIgIhVI7wd8EragwYc5oZGS18xaH8buYjvlwjS/M6ZC5CXb3drvZKU00TvfzgtFtWMORd2J0H3PJUM3BZ4zG3wXufNYRFouXZ2yHrkkuPyz1bqyoPiuceI37WsANALZWCvDdXhXj3xaVub7sp22sGRi4JaO5uB2B6rPly/TpOPH9s5u22PbhtGI3WM8lnTOGl+TG/lbe3qSealqItOYiIg4uobvZxeODCp2OfwvmaYWAakuGY1yHCDc9OuhzO1+0UeH0clVJnw5MZze85NYPU/sATyWq2J18lTPJUTO4pJSXPd/gdGjQDkAFYPgzMr2QTP/ANJt3BxHu8yC7QWAz4uQIz5dl8qdpdwxxtLnvIaANSSbABXzsFusZRzMq55PFlawFrLeVjyPMb/NbkbC2utrKiX7FYUaXD4IHNDXtYOMAAeY5u4rZF2diedlm0RRRERAREQEREBERAREQERQreltqMNpLMINTNdsTdeH6pXDo3+TYdUES31bwDGHYZSv87haokac2gj/AEmkaOI1PIZc8qPY1dnvLnFziXOcS5zibkkm5JPMk5rkKoeH0W0m6xkwwelE/wAXCS3keAvcYr/8OH+FQm7nZg4jXshI90z3kx/ID8Pq4+X0ueS2la0AAAWAyACVXKIigLhxQqrd9u2fs8H4fC600zbyuBzZGcrdnPzHpfqEFdb1tsPxCs4Y3XpoCWxWOTzo6X76DsPzKGNXVoX3pqdz3tjY0ue4hrWjUkkAAdySFpEg3fbNyV9fHExzmNYRJLK0lpY0H5XDR5OTfuflK2lUZ3e7Jtw2jEWRlf55n63db4QfpaMh9zqSpOsqIiICIiAiIgIiICIiAiIg8WM4nHS00tTLfgiYXusLmwGgHVan7UY/LX1b6ubJz8mtvcMaPhY3sP5JJ5oiDGBc3RFpGz+6/ZQYfQNDgPGmtJKRnnbysB6NGXqXHmpgiLKiIiDD7WY8ygopauQFwjGTR8ziQ1je13EC/Jaq4niElTPJUTO4pJXFzj36DoALADoAuEViV8QFce43ZEH/AO0lANi5kAyNiCWySHodWj/keYRFaRcyIiyoiIgIiICIiAiIgIiICIiD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIPEhUSERAVFRUWFRoaGBYXGBggIBsbGh4WGB0aGB0YHiogHxwqGxobITEiJikrLjAuHR8zODMsNyguLisBCgoKDg0OFRAQFSsdIB43Li03LS0vLSsrLS0vLS0tLS8tKysrLSsuNysvKzcvLTcrMjIwNzcrOCs1LS0zNzcvK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQECAwj/xABIEAABAwIEAwUDCAYIBQUAAAABAAIDBBEFEiExBkFRBxMiMmFCUmIUIzNxgZGhsVNjcnPR8BdDVJKywcLhFlWCk9IIJDQ1ov/EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAIxEBAQEAAQUAAAcAAAAAAAAAAAERAgMSITFRBDJBYXGh0f/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQFiYtiMdLC+aVwDGC5JIG9gBc6XJIGvVY2PY9DRNBku57zlihYLySO91jefqdhuSFHm8Nz4o4S4qcsQIdHQMd4BYgg1Dh9K7Ty+UeqDJ4AxqoxBs9TLbuXPApwGOaMoFyWlwDnDUDMd3NdbSyli4a0AAAWA2AXKAiIgIiICIq44+7TWUmanosstRqC/dkZ9fed6bDmeSDccdcf02FDI456hzbtiHIG4DnnYC4PqbfaPn7iXHKirlM9XI4uI8MYOjQdQAL2Y3n1On1rHxCpfK90s8jpZHm7nONyT/OlhoNANFMOz7szlxG01QHQwA2BIs54HugjblmOnS/LWYiMcP8NVWJuMdLEXltszibNZe3mcduthcnWwKvfgHs4p8LAlfaapI1lI0ZfdsQPlHxbn0GilWD4TDRxNhp4mxsbyHM8yTuXHmTqs5S1RERQEREBERAREQEREBERARcErGxLEYqWN008rY42i7nuNgP8AfoNygylF8S4mfLK6lw1jZ5mm0krvoYP3jh5n/q269cqxA6rxjbvKOhPPyz1A9OcMR6+cj3bqU4Zh0NLG2GCJscbRZrWiwH8T67lBrcA4bZSuM0j3T1TxaSpkAzEb5WAaRx32Y3Trc6reIiAiIgIiICxcRxGGmZ3k8rIm+89wA62F9z6BRPjntIpsMvEwd/Ufo2usGfvHa5f2dT9Q1VK43jk+KSGapeX7hkLLhrRzJJNmMGlyTc/irImpfx12mS1l4KIuig1DpNnyeg5tb+J521BgVBQyTyNgp43SSO2a3+bAdSdAtxwxwzPisxjgc0NbrJJlsxgJIAaL3doNOvXmr44T4TpsMjyQNu4jxyutmefU8h6DT81rZE9ozwF2ZRURbUVWWap3A3ZGfhB8zviP2AbmxERYrQiIgIiIC0/FPEtNhkJmqX5Rs1o1c93usHM/gNzYLUdoPH1Pg8YzWfUPF44b77jM8+yy4352IHO3zdj+O1GIzGepkL3nbk1reTWDk3+Tc6oLZ/p6b/y1/wD3m/8AiipWyIPtFERAREQEXDnAAkmwGpJ5KFVHEtRiT3QYTYRg2kr3i8beRbA3+tf6+Uet0GZxrxBHCGU8cbp6p7mmKGPzNINw959hum53F+V7eGDcJyyyCrxWYVEwN44QPmYNvI0+Z9/bOv3XW44b4agoGu7sOfK/WWeQ5pJXdXuOv1DYdFuUBERAREQERdJpQxpc42DQST6DUoEsrWNLnODWtFySbAAbkk7BU3x52rOkzU+HEtbs6o5u9IhyHxnXpbQmM9oXHNTiMroC18EDHfQHRziNQ6a252IaPCNDroVEQFqRNcFm5JuSSSTzJ1JJ5m6lXAXA82Kvuc0dMD45beYj2GX8zvXUC2uuik3AnZY+fLPiDSyPdsGzn/vObW/DuedtjdFPAyJrWRsaxjQA1rQAABsABoAlow8EwaCiiEVPGGNH3k9XHclbBEWVEREBERAWFjGLQ0cTpqiQMY3meZ6NG5PoFqOMuMYcMZ4rPmcPm4Q4Anlck7N/E8gV88cScQ1mLSukmflay4JddscXwganN6WLj0KCQY32izT1rn00DXNkcAInC7nAADUjbQXtsNd9SvHiXAKerp3V2HsuY8xqmsLe7ZsTktoXDc5dCNR6xYNZGz22RvbvoJqi/Tfuofvv8Z8si4FxZwfKyRrI6XuXF0bdGttYZnEm5cWkgucST9wQQrIi6fI5P0U39138EVH2giLhrgdjf/bT81BytXxFxBT4fF3tTJlBNmtGrnu5NY0aud9X22C0nEXGmSU0WHxfKq3mwfRw/FO8aNA9299hpcX7cOcG91L8sr5fldadpHDwRD3IGbNHxbnXa5Qa+PCavGiH14dS0e7aJriHyjkapzdQP1Y+3UKcUtMyFjY42NYxoAa1oAAA2AA0AXqiAiIgIiICIozxpxtTYUz5w95M76OBmrnHle2zb8/uudEG6xfFIaOJ01RI2ONu7j+QG5J5AalUJx9x7UYneJhNPR2vlBGaVvJz3C4bH945eN2g0/E+N1WJTB1WS5xNoadguG35MaL53ciTcX0ObyCweDuyp0oZNimoBzMpgdv3rr+L9n7L2Jai2WXKh+H4FV4vTMdBSvLonBjJneFr4jfS7zqGHXNqbE+jRanA3ZvBh2WWa01SNc5HhjP6sHn8R16WvZTeKNrAGtAa0CwAFgAOQA2C7q6zgiIooiIgIi8K2rjgY6SV7WMaLuc42ACD3Vb9oPajFQh0NIWyzi4c7dkZ/wBTvTYc+iiXHvalLVn5NQZ2xu8OZoPeS+jQNWt/E+myrxlFluXZHOaAXOcbxRXvbMRcSSGxswXH7WoBqcbZueHFXLLWSd7Uvke6U3awayTX2yj2WfERa2wNrDJrKprmeIMkmhAyRg3hjZo3W9++kabakkEHUvDQB40sUtXJ3NIySR8ujnkfOS9b62ZH8I0sPETpa6OBeySCkDZay0stvo/6tuxsffNxz09Duqyg3APZtPibvlVW5zInG5efPJ+xfZvLNt0vyvPC+HaSljEUNPG1osfKCSRzJOpPqVs2gDQCwXKgWREQeNZVxwsdJK8MY0Xc5xsAqnwz5XjD524a6Siw+SZz5JzcPkc6weIRu27gSbEanWxDmnd0PClTir21WNWEbTmhoGHwM6OmPtvtpb6+RLRYMcYaA1oAAFgALAAcgByQazh3h6nw6LuqaMNBN3O9p7ju555n8BsABotqiICIiAiIgIsXE8RipYnTTyBkbBcuP86n0GpVHccdo1RiAMVPenpHDz3+clbsbnZjL6H7vETlIS/jntNEJdTYdllmGj5jrHFytceZ99LbX6nRVhhmG1FfUOZT5qmpebyzv8rQdy88hyyje2t/INzwXwRPiYbZpp6Ie3bxScj3QPXUZzyP1sV44FgkFBEIaaMMYOm5PVx3JWct9u958en+Tzfvz+P9aHgjgKDDB3jj31S4eKZw29Ix7I5dfssBL0RacBERAREQERQHj3tJiw/NDT2mqdiN2xn4rbu+EfbZBI+KuKabDIu8nfqfJGPM8+g6ep0CoHivi6rxh7i4iOCPXLrkjHVxGrn/AGXPIBauqnlrpW1FVK9xld4QAS+QNOoZyYwa67DWwOy5rsTbEBHF3bi0aNYPmo3HQn9bJbcm7dPa2GLy85Hq6fQ49vf1Lk/uuWPipmG2ZuYXDhbvJ2nYt/RRb73uOT9hncNcM1mNyAMAZCw+ax7uO9tG83Pt63PMjdSTgLsslrCKnEC9kTrODXE95J6uJ1a23Pc+m6vKho44I2xQsaxjRZrWiwAVnGTyx1fxHLnO2eJ8afhHhGmwuPJAy7yPHK62Z/1nkPQafmt+iLTgIiICIiAiIgIiICIiAo7xjxlTYVHmmdmkd9HCzV7ztoOQvzP4nRRfjvtRZTF1NQZZqgaOk3jiO3iOznX0t101PhNUYXh9VidS4R56iocfnJXnRo2u8+w34Rry/VoPbifiKpxSVrqkkjNaKmZctab2tlHnffQk6DY6/Nqe8Fdlr35ZsStluHtphrrsDK7mbaZelhoBlEu4H4Agwwd4499UkeKVw29Ixs0cuv1DQTBB1YwNAAAAAsAOQHILsiICIiAiIgLzqahkTS+Rwa1ou5ziAABzJK1PFfE0GGQmWY3J0YweZ56D06nkqC4m4rq8Zc7x5WRjMY72jjZ77j7RHO9z7oOwCVcf9qzpr0+HlzWE5TKAc7+VoxuAeu59OcGoKQQAyTZe8G4efDGDfz287z7gv9puFr2Bkbc2Z7WuH0lrSzDYiEHSKLq86nbXVo2/C/CtXjL2siYI4I9Mxv3cQO4F9XvO53J52FrZ58e6Zr0fhutOjy7+3b+n7X6wR3lY/uKNsr3zHx3Hifewy6GzIrDy7WGpsABcvZ/2WxUOWerDZZxq1u7Iz6X8zvU7cuqlHCPCFNhceSBl3keOV3md9Z5D4Rp+akCsmTHLqdS87tERFWBERARFwSg5Ran/AImof7bT/wDdj/iuUG1REQERR/jDi+mwqLPO673fRxN1e89GjpfmdEG4r66KnjdLNI2ONgu5zjYAKneJ+OJ8Va9tI80mHtuJKp2j5eWWMbgG/LX7fCdJxBiM+JkT4m8sZcfJ6GK5GZxe1pkt533aWlo8WuzdWqa8PdnzqtzKjE42tYwDuqRuwAvYzW9CbRgkC5uTsginC3CT8UaI6aP5NQNcCZy35yYgEZmZrm9i4X2GYj4BdHD+A0+HwiGmiDGDfq49XHclbGNgaAGgAAWAA0AHIei7ItuiIiIIiICIuksjWAuc4NaBckmwAHMk8kHdQjjztEgw0GOPLLUW8l/Cz1kI/wAO/wBW6iPaB2r3vT4eTYnKZwNXHa0Q3/6t+nVVc2mOZxkyvkabua93zcV7+KodzdfaMak7+6Q98WxKevk+UVUr3ZzlZYXc/W2SBg5X0vsD1Oh8pakRFoAaXMddkLTeONw9qVw+ml6jy8tvAu1JHLVSdzStkkkk8Jkt43i1srQNIoreyOW5t4RcvA3ZPBStElaGzS6ER+wz0+M/Xp6czRDuA+z2TFJfldVmbTu8WpOaQ+4zowbA9AAOovahoo6eNsULGsY0Wa1osAF7taALAWA2C5UBERAREQEXV7g0EkgAC5J5DqVUnHna0G5oMNIcdnVO4H7oHzH4jp0DtwFk4xxDS0bXOnnY0sbmLLgvt1DB4j9ypHjHtEnxK8YvT0jiGhgv3sl9s5HI3HgA1B6eIQCaskMveh7nTOdfMSXOc46a3uXE7W57L6D4A4AgpQyrnjLql7Q8Nk1EGYZixgPtAk3cdb39b0U7/wAE1n/KZf7j/wDyRfUCJoIvGsq44GOlle1jGC7nOIAAHMkqq+JuNpa89zSudBTuJb3h8Mkp00t5oozcX0z2Ps3AdBIeLePmwudTUQEs4Ds8h1jiIA8LiPNLqLRgjUi5aqopqKtqMRa6Frqqqc0l8k1iIwS+PMXFoEbdC5oDQdR0ymR8J8My1xaaYdxTgAOmsLOLXlw7ltgHv8pLyMoIO93MVt4DgcFDH3VPHlF7uJ1c93Nz3HVzvU/kg0nCHA8VEe/md39U65dK4aNLtxE0+UHmdzzPJS1EQEREBERARFDeOu0CnwtpYLS1BGkQPl6GQ8h6bn8UEgx/HYKCIzVEga0bDm49GjmVQfGvHlTi7zFGO7gbrkvYAe/O7b7NulytTjFZWYneuqnPMPeCIOa293HURQMH5nS+5J0OtmkbGMhY0lpuIQczGO96d39bL8PlG3ViBGGxtDw5zQ6/zoFpJBsRTtd9HH1ldqfvYtxwrwnU4u8MhjbFTsdqdcjPU85JLfb+yNpRwJ2YzVpFTiBe2N1iGnR8nT9hltudtgBYq7qGijp42xQxtYxos1rRYBUajhLhGmwuPJA27yPHK7zO+s8h8I0W/RFAREQEREBYWMYpFRxOnneGMYLk9fRo5k8gsTiXiWnw6PvJ36nyMGrnno0f57BUDxPxFPiEpkqj4Lkxx5iGNbcmzg0XJyjlYuPMbKyamvfj7tDnxQmNl4aX9FfV/rKRv+wNB8WhUSw7D5quRsFNG6SR2zW9OZJOgaOZOilXDvAFXizmPazuafYzuAFwP0cYt9QAFhzJO97cKcKUuFxd1TR2Jtnkdq956vd/kLAcgFbcEZ7OuzKHDcs9Rlmqve9mL0jvufjOvSysJEWVEREHzriXGs2Jz56ghrGuBgpm3IDgdCRvJNfLoNWi9rOsDPeF+AXTASV4LYh5KbQOePDY1Bb1DW3jGhtrp4G7fgLs6gwsCV9pqoixlI0YPdibs1vrufQaKbIOsbA0BrQAALAAWAA5ADkuyIgIiICIiAur3hoJJAAFyTyHUrCxvGYKKIzVEgYwddyfdaNyfQKiuLONazHJPk1JG5kJ2Ze2YAgZpnbAXI021A8RsgkvH3awBenw05nE5TOBfU6WhHM/F9191F8F4Oyh1Xi9w0WcYpH2vmuQ6VwJcSSPI3W+9z4V7UNLSYGHSVDDPPZndyNJAf3rJQ5sItePLb6U6mxtbULBwbCq3HZWMhAip4WtYDY93C0Cwa2+rnhp6km5NwDoWSX3XfGOIqjEH/JaNryJGsbljFi8saW5w1ukYINyAdrBxsABYfZ/2WxUWWarDZZxYtZuyP6ved6nQcuqlPCHCFNhceSBt3keOV3md/AfCNPzUgQtl9TBEREEREBEWNiFfFTRulmeGMaNXH+dT6IMlQjjbtBiobwQZZana3sx+shHP4d+tlCuLe0aesd3dKX08AdbvB9JIejACDtrYGwGriNlGOGeHqjEJDFTtFgR3spILWE6kOcL3fvoOYP1rUn1m10q556ufNI59RUSGwAFz6BoGw+pWTwp2XMAbLiHjkuHNhBOVliD4iPMdLEeXffdSrhHg6nw1nzYL5SPHM/zH0Hut9B9pO6kat5fCR1YwNAAAAAsAOQ9F2RFhoREQEREBERAREQERcE21KDlRLjnj2mwphDiJJyLtiB+4vPst/E8goj2idrTIM1Ph7g9+zp9w07Wj5OPxbfXyhPDXCQqb1uJyuERe4FuYlxeLfTHcEkizPM6/I2Dg6Rx1vEU/fTyFsYz5dBbKyxdHAwuFzsCb294jS+5rKqmwvKaYtDcou62ZznlhY8APaA8jMdS0NB3IsYzrpMWlmMNMyAT1MbXRsyRtZdkhzZSGO8EYacuQZTYXcQHFqsfgfs1bTuFTXuE9TuGnVkZvfwjYkE8gGjkOaqI5wxwNU4q4VFeXw05OYRZnZ5TuHPJ1t0J1sbNDQrgoKKOnjbFDG1jGizWtFgFkIooiIgIiICLhzgASTYDclVRx12pgZqfDnAnZ1ToQP3QOjj8R06X5MEs4347p8Lbk+lqCLthB26OkPst/E8gqSxri2qr3A1Ut2NLnNY1oDW5rDQDXQDQkk6nXUrTuuSXPc57nG5c4kucTzJOpJ6qyuBOzB82Worw6OO4LYNnO5gyHdo+HzdbbHfiM+2l4T4GqMSIPiig2fIRYubzYwbm9hf2et7WV44Hg0FDEIaeMMYOm5PVx5lZ4XKzbq4IiKKIiICIiAiIgIiICIoxxpxvT4W2zz3k7vo4GeZxOgvbYX57nkCg3WL4rDRxOmqJGxxt3J/IDck9BqqX4o4zqMYbIISYaJjHOLQ5oknDCxrtT4WsBe0m5ygX85FhrcTkq8Te+rrH5mQNkcYWxkxMsyQhjHXyPkDw3MzW+xd7Ky5p2UzL1TS0NdIyTe07JYjFmN2APlHdtvG2wB8RI8SDQYnRshhe9oYwwTCMzwxnZzSHMic4ZnFsjcnfyc3OynYJwXgVbibu6pWd1A11zIcxEbj5nBxPimIsLgZrAAFjSVMuGeB6nFiJ64uhpSI8sdmtlmbG1oaZC1oIaSC6xvYuOUDRyuGgoYqeNsUMbY2NFmtaLAINNwhwfTYWzLC3NI76SZ2r3nfU8hfkPxOqkKIgIiICIiAsDG8ZgoYjNUyiNg5ncn3Wgaud6DVaLjfjunwtuU/O1BF2wtOuuzpD7LfxPIFULj+OVGIy99UyZj7LRoxg6MbyHrqTzJVkS1IOOO0CfEyYmXhpf0YPik9ZSOXwDTrm0tG8Kw6WpkbDTxukkds1v5knQD1Oi23B/B1Rij7RDJEDZ8zh4R6N95/oNuZCvrhfhinw2Lu4GanzyOsXvPVx/wAhYDkFbcTNR7gXs5ioMs9Raap5H2I/3YO7vjOvS1zedoiy0IijXaFi01FROmgexjg5oL3tuGtJsTb67D7UElRRDhTimZ8zqHEYmw1bRmYWH5udmvjhvrfQ3b/uBL0BERAWs4gx+nw+IzVMoY3kObj0YNyVFuPO0ynw28UVpqnbID4WH9YRz+Ea9bbqhcbxipxKUzVMpcep0a0dGjYD0CC4P6cqT+yz/fH/ABXKo75PH75/uoriPsZFi4liEVNG6WeRscbRcucf5ufQKkeLO0SXFXyU9KXw0rGOdIQQJJWgtba50Y0lw30DbudcAtUVLOOO0wRl9Ph5Y+Ro+cqHEd1CNt9i6+g310AcdFAqSB1NU99NM2SUTwd49xDnPEgZI5znvGWCEMOhPjcRu0ZQMrD6OOIRXhAZHPJG5zY3FokDotW59X+BssZqHWyWeW2sL9cDgq8Ty09AMoZHFHPVF12Du82Ug5QZJAwht9vDdoaCHoPCqkMNR8mgZLPMGPp2MzDM6NwygNbEclPCB4v0jjqSwXIsLgrs0bDIazEMk1U45sgHgjOmw9pwsADsLC17XUk4P4OpsLYREC6V30kz9XvO5ueQvrb77nVSJAREQEREBEWBjWMQUUTpqiQRsbzO5PINA1c49BqgzibalVVx52qNjzU+HEOfs6o3a30jGzj8XlHxcojxx2gz4nmiiBhptsl/FIP1pHL4Bp1J5RbDsNlqZGwwRukkds1v4k30AHU2C1ImsWaRz3OfI8uc43c5xJJJ5knUlWTwJ2YyVOWeuDo4d2w6h7+mfmxvp5j8POXcB9msVDlnqss1QNQN2Rn4AR4nfEfsA52AlpjxpKZkLGxxsaxjRZrWgAAdAAvZEWVEREBYmLYdHVwyQTNvHIwtcPQ9PXmstEFH8W1copXQTNe2roJf/aVbWiz8haSzQANJZYhuotluTbW4OH8S+V00M+XL3kbXFp9lxHiafUOuPsWsjga2uqIJGtdFVQtmDSL3fHaGW4OnlNP+KhOL8ZnBKZkdOYpc8kwhieTmjjEkmSQkHxxkC4vYm41OtgszFsXgo2d5UTMib1cQL25NG5PoFSvGXa4+qL6ejvTxHTvzfMQTa7rfRsPUXd+QgeJVtRiEpmqZnvc91g0avdzyQxjRrB1NgNT4jocOipXNcIom9/O92jW+NjXcrAaSyDr5R8XIOjoCzWYFp3ynfrf0B3vzBuN1Y3AfZjLXZZ6wOhp92xjR0g/0t9TqeXVTDgHszZCGVOINEtTYHK45mtI2Lr+d4FtTcC2l91ZiupiM/wBH+F/2GL/9fxRSZFFfLHFXFVVi7zJPJkha6zWi+RhPssaNXyW+3rlG2LRVsdG4h7CWua5r4bjMWvaWl07uThfM2IWsQL2O+PA6WeRkVK10kx8LSxp8N/Zp2+w3rIfEdT4db3T2edk8VHlnrQ2WfQtj3ZGf9b/XYcuqDQ8J8C1OKfO1rpYqVxaS17vnajLfKX2sGRgEhrQAADoPbNy4dh8VNG2KCNscbRYNaLAf7+qyUQEREBERAReVRUMiaXyPaxo3c4gAfWToqs7Q+1NrG9xhsgdIdHTgXawfq76Od8WoHqdglXG/H1NhYyE97UEXbC07dHSH2G/ieQOtqJx/HKjEZe+qZC4+ywaMYOjG8vr3PMlakuLiXvcXOcbuc4kknmXE6k+pVm8B9mUlSGz1wdHCdWw6h7/2+bG+nmPpz16RHOD+EKjE32iGSIGz5nDwj0aPad6DbmQr24Y4YpsNjyQM1Ns8jtXvI5uPToBoOi2lLTMhY2ONjWMaLNa0AADoAF7KWqIiKAiIgIiICxcTxGKlidNPII42C7nO/m5PQDUrC4l4kpsOi72okDfdaPM89Gjn9ew5qgON+KarGD3mdsdLGbZSbNiNtO85veRtlBvrYCxQbbjjtSkrJWsoY3MADmNeL968Py5g218gIaNru53BUBpKe+Zzzq05XX2aW6ZR1IFhYbCy9SGQDTO3ONtppR1dv3EJ6C7nDqLETfs+7O5cTyz1V4aZoAYxoy5hvaMHZvV5uSeZOqI0HD3DtXijnRUjCGbSSuJDbb2eRuPgF79OavXgXgSmwlngHeTEeOYjX9lg9lvpz53UiwzDoqWNsMEbY42jRrR+PqfU6lZSKIiICIiCNcF8FUuEx5YW5pHDxzOAzO9Phb8I/E6qSoiAiIgIiICIiD5x7UsVnqsSnikce7gcGRs5AZQc1veN736EDktFh2GOnkZBEzPLIbNH8/ffkAry457OIsSk7+OXuJ8oa52XM14G2ZtwcwGmYHbe9hb14D7PosLLpXSd9O4Wz5coaDuGNudTzJP3arWjD4L7L4KF4nnd38wAy3FmMPMtHtOvs49NAFP1yiyCIiAiIgIiwMaxmCijMtTK2Ng5nmejQNSfQIM9V5x32oQUOaGmyzVA0OvgjPxEeZ3wj7SNlB+Nu1CevJp6EOiiIN3bPeOdyPI30H2nkoRT0wYMxI/btp/0jmVZB7YhUz1spmqpHSPd16dOjW+gXahmd3rI4Y+9eTlDQ0uyh2UkxN2zjKCHEGxaDyWZw9gNTisndUrCGA+OV17D1e7r6BXxwZwVTYUy0YzykeOZw8R9B7rfQfbdKiGdn/ZOISKjEbSy3uIybi/vSE+Zx3tt1urYa0AWAsAuUUUREQEREBERAREQEREBERAREQEREBERAREQEREBUb/6gv8A5NN+6d/iREFZ4T9FVfss/wAay8X8sX7ARFuekX12Nf8A1jP3j/zU5RFiqIiICIiAiIgIiIP/2Q==</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDERGBC_1-400.jpg?v=1705605516</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3003-200G-400.jpg?v=1705605509</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3603-200G-400.jpg?v=1705605511</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-GSP2702MH-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3603-3LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3903-3LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPRUSH-GSP2702MH-400.jpg?v=1705605605</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPRUSH-CF3003-2.5LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/PACIFIC-TLSF4206_1-400.jpg?v=1730827681</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/PREDATOR-GSP2102H-400.jpg?v=1705605819</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SNIPER-SF3903-200G-400.jpg?v=1705605863</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SNIPER-SF4203-200G-400.jpg?v=1705605863</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SE1802S-400.jpg?v=1705605868</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SE2102S-400.jpg?v=1705605868</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SL2402S-400.jpg?v=1705605870</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SUPREME-SF3903-400.jpg?v=1705605878</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SUPREME-SF4203-400.jpg?v=1705605878</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/TAKUMI-SC4253-300G_1-400.jpg?v=1705605884</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/TITANIUM-SF3903-400.jpg?v=1705605960</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/VALIANT-GSP2702H-400.jpg?v=1737998518</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/XTREMECHAOS-GSP2702MH-400.jpg?v=1705606000</t>
+  </si>
+  <si>
+    <t>PEJEREY TELESCOPICA 4MTS</t>
+  </si>
+  <si>
+    <t>BLUE MAX 1802 BEAST</t>
+  </si>
+  <si>
+    <t>DEFENDER 180 CASTER</t>
+  </si>
+  <si>
+    <t>DEFENDER 3003 CASTER</t>
+  </si>
+  <si>
+    <t>DEFENDER 3603 CASTER</t>
+  </si>
+  <si>
+    <t>• Medida: 2.70m en 2 tramos
+• Composición: fibra de vidrio
+• 6 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Medium Heavy
+• Libraje: 15 a 30
+• Capacidad de lanzamiento máximo: 80 a 180 gramos
+• Peso: 375 gramos
+• Medida cerrada: 142 cm
+• Diámetro (mm): Punta de la vara 4.2 mm / Base de la vara 20 mm / Mango 31 mm
+• Distancia desde el taco hasta el centro del portareel: 56 cm
+• Gancho porta anzuelo "hook keeper"
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura recortada de goma eva ergonómica antideslizante
+• Mango forrado con termocontraible antideslizante
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (recomendamos tamaño 6000)
+Modalidades de pesca: variada de río y mar
+Ejemplos de especies: carpa, sábalo, boga, bagre, chafalote, patí, dorado, surubí, corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
   </si>
 </sst>
 </file>
@@ -193,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +662,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -273,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -282,7 +762,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -290,6 +769,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -595,17 +1112,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,7 +1131,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -630,226 +1148,1712 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4">
-        <v>55357.5</v>
+      <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="23">
+        <v>40950</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5">
-        <v>28495.5</v>
+      <c r="A3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="24">
+        <v>23625</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="25">
+        <v>55357.5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="24">
+        <v>49500</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="26">
+        <v>32042.010000000002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="27">
+        <v>28495.5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="28">
+        <v>14962.5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="28">
+        <v>19125</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="28">
+        <v>21375</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="28">
+        <v>24750</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="28">
+        <v>13500</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="28">
+        <v>15750</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="11">
+        <v>23413.5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="23">
+        <v>25200</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="24">
+        <v>31500</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="24">
+        <v>39375</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="29">
+        <v>59624.565000000002</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="26">
+        <v>46081.034999999996</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4">
+        <v>52350</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
-        <v>23413.5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B23" s="25">
+        <v>56482.799999999996</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="23">
+        <v>78750</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="23">
+        <v>86625</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="28">
+        <v>67500</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="28">
+        <v>73125</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="24">
+        <v>11306.25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="25">
+        <v>22143</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="25">
+        <v>47553</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="25">
+        <v>58443</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="26">
+        <v>32537.504999999997</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="28">
+        <v>39379.049999999996</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="24">
+        <v>40500</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="30">
+        <v>23379.037499999999</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="30">
+        <v>25641.524999999998</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="29">
+        <v>59624.565000000002</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="31">
+        <v>37800</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
-        <v>56482.799999999996</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B39" s="25">
+        <v>58715.25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
-        <v>22143</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B40" s="25">
+        <v>64432.5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
-        <v>47553</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B41" s="25">
+        <v>66429</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
-        <v>58443</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4">
-        <v>58715.25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4">
-        <v>64432.5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4">
-        <v>66429</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="B42" s="25">
         <v>51183</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="25">
+        <v>57717</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="30">
+        <v>22323.21</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="4">
+        <v>32850</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="32">
+        <v>57807.75</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="28">
+        <v>10125</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="32">
+        <v>32207.175000000003</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="26">
+        <v>29234.205000000002</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="28">
+        <v>33750</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="26">
+        <v>31876.845000000001</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="26">
+        <v>44429.385000000002</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="25">
+        <v>59749.799999999996</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="28">
+        <v>33750</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="31">
+        <v>33075</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="30">
+        <v>23228.204999999998</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="30">
+        <v>26697.352500000001</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="31">
+        <v>33075</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="24">
+        <v>23625</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="24">
+        <v>26325</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="24">
+        <v>15750</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="24">
+        <v>16875</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="25">
+        <v>49186.5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="28">
+        <v>42750</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="32">
+        <v>49549.5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="30">
+        <v>44495.587499999994</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="26">
+        <v>42529.987500000003</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="21">
+        <v>93365.317500000005</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="21">
+        <v>100001.94749999999</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="29">
+        <v>63093.03</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="25">
+        <v>64795.5</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="25">
+        <v>73235.25</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="25">
+        <v>14520</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="25">
+        <v>16698</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="25">
+        <v>18694.5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="4">
+        <v>32250</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="26">
+        <v>52026.975000000006</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="26">
+        <v>55495.44</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="30">
+        <v>25641.524999999998</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="23">
+        <v>50400</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="23">
+        <v>78750</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="23">
+        <v>83475</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="21">
+        <v>-115447.87424624999</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="24">
+        <v>15750</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="24">
+        <v>16875</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="11">
+        <v>101095.5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="11">
+        <v>104453.25</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="4">
+        <v>54000</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="25">
+        <v>117975</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="24">
+        <v>45422.482499999998</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="31">
+        <v>31500</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="11">
+        <v>88935</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="11">
+        <v>92565</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="4">
+        <v>40500</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="33">
+        <v>62762.700000000004</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="33">
+        <v>68213.145000000004</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="25">
+        <v>53905.5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="28">
+        <v>39543.75</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="28">
+        <v>50979.127500000002</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" s="4">
+        <v>39000</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="24">
+        <v>17775</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="11">
+        <v>47916</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="24">
+        <v>39375</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -866,7 +2870,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,7 +2878,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -892,7 +2896,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5">
         <v>23213.121750000002</v>
@@ -904,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -912,9 +2916,9 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
         <v>43590.592499999999</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -924,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -932,9 +2936,9 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
         <v>29403</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -944,15 +2948,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>41026.44</v>
@@ -964,15 +2968,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5">
         <v>26850</v>
@@ -984,17 +2988,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7">
         <v>31071.495000000003</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1004,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D9C0C8-8CA6-45EF-8D87-0EFC188F6739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53630B-537A-49C0-BDD2-1A121A1CFCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="caña" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="184">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -589,27 +589,6 @@
   </si>
   <si>
     <t>DEFENDER 3603 CASTER</t>
-  </si>
-  <si>
-    <t>• Medida: 2.70m en 2 tramos
-• Composición: fibra de vidrio
-• 6 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
-• Acción: Rápida
-• Power: Medium Heavy
-• Libraje: 15 a 30
-• Capacidad de lanzamiento máximo: 80 a 180 gramos
-• Peso: 375 gramos
-• Medida cerrada: 142 cm
-• Diámetro (mm): Punta de la vara 4.2 mm / Base de la vara 20 mm / Mango 31 mm
-• Distancia desde el taco hasta el centro del portareel: 56 cm
-• Gancho porta anzuelo "hook keeper"
-• Portareel de grafito con capuchones de acero inoxidable
-• Empuñadura recortada de goma eva ergonómica antideslizante
-• Mango forrado con termocontraible antideslizante
-• Incluye funda de tela estampada con divisiones
-Tipo de reel utilizable: frontal (recomendamos tamaño 6000)
-Modalidades de pesca: variada de río y mar
-Ejemplos de especies: carpa, sábalo, boga, bagre, chafalote, patí, dorado, surubí, corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
   </si>
 </sst>
 </file>
@@ -753,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -803,9 +782,6 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,7 +1091,7 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,6 +1543,9 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -1581,6 +1560,9 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
@@ -1595,6 +1577,9 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -1609,6 +1594,9 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
@@ -1623,6 +1611,9 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
@@ -1688,6 +1679,9 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
@@ -1702,6 +1696,9 @@
       <c r="D33" s="2">
         <v>1</v>
       </c>
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -1716,6 +1713,9 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
+      <c r="E34" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -1730,6 +1730,9 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
+      <c r="E35" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1744,6 +1747,9 @@
       <c r="D36" s="2">
         <v>1</v>
       </c>
+      <c r="E36" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
@@ -1758,6 +1764,9 @@
       <c r="D37" s="2">
         <v>1</v>
       </c>
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
@@ -1772,6 +1781,9 @@
       <c r="D38" s="2">
         <v>1</v>
       </c>
+      <c r="E38" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
@@ -1871,6 +1883,9 @@
       <c r="D44" s="2">
         <v>1</v>
       </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -1885,6 +1900,9 @@
       <c r="D45" s="2">
         <v>1</v>
       </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
@@ -1899,6 +1917,9 @@
       <c r="D46" s="2">
         <v>1</v>
       </c>
+      <c r="E46" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
@@ -1913,6 +1934,9 @@
       <c r="D47" s="2">
         <v>1</v>
       </c>
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
@@ -1927,6 +1951,9 @@
       <c r="D48" s="2">
         <v>1</v>
       </c>
+      <c r="E48" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
@@ -1941,6 +1968,9 @@
       <c r="D49" s="2">
         <v>1</v>
       </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -1955,6 +1985,9 @@
       <c r="D50" s="2">
         <v>1</v>
       </c>
+      <c r="E50" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
@@ -1969,6 +2002,9 @@
       <c r="D51" s="2">
         <v>1</v>
       </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
@@ -1983,6 +2019,9 @@
       <c r="D52" s="2">
         <v>1</v>
       </c>
+      <c r="E52" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
@@ -1997,6 +2036,9 @@
       <c r="D53" s="2">
         <v>1</v>
       </c>
+      <c r="E53" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
@@ -2011,6 +2053,9 @@
       <c r="D54" s="2">
         <v>1</v>
       </c>
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
@@ -2042,6 +2087,9 @@
       <c r="D56" s="2">
         <v>1</v>
       </c>
+      <c r="E56" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
@@ -2056,6 +2104,9 @@
       <c r="D57" s="2">
         <v>1</v>
       </c>
+      <c r="E57" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
@@ -2070,6 +2121,9 @@
       <c r="D58" s="2">
         <v>1</v>
       </c>
+      <c r="E58" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
@@ -2084,6 +2138,9 @@
       <c r="D59" s="2">
         <v>1</v>
       </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
@@ -2098,6 +2155,9 @@
       <c r="D60" s="2">
         <v>1</v>
       </c>
+      <c r="E60" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
@@ -2112,6 +2172,9 @@
       <c r="D61" s="2">
         <v>1</v>
       </c>
+      <c r="E61" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
@@ -2126,6 +2189,9 @@
       <c r="D62" s="2">
         <v>1</v>
       </c>
+      <c r="E62" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
@@ -2140,6 +2206,9 @@
       <c r="D63" s="2">
         <v>1</v>
       </c>
+      <c r="E63" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
@@ -2154,6 +2223,9 @@
       <c r="D64" s="2">
         <v>1</v>
       </c>
+      <c r="E64" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
@@ -2168,6 +2240,9 @@
       <c r="D65" s="2">
         <v>1</v>
       </c>
+      <c r="E65" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
@@ -2182,6 +2257,9 @@
       <c r="D66" s="2">
         <v>1</v>
       </c>
+      <c r="E66" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
@@ -2213,6 +2291,9 @@
       <c r="D68" s="2">
         <v>1</v>
       </c>
+      <c r="E68" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
@@ -2227,6 +2308,9 @@
       <c r="D69" s="2">
         <v>1</v>
       </c>
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
@@ -2241,6 +2325,9 @@
       <c r="D70" s="2">
         <v>1</v>
       </c>
+      <c r="E70" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
@@ -2255,6 +2342,9 @@
       <c r="D71" s="2">
         <v>1</v>
       </c>
+      <c r="E71" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
@@ -2269,6 +2359,9 @@
       <c r="D72" s="2">
         <v>1</v>
       </c>
+      <c r="E72" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
@@ -2283,6 +2376,9 @@
       <c r="D73" s="2">
         <v>1</v>
       </c>
+      <c r="E73" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
@@ -2297,6 +2393,9 @@
       <c r="D74" s="2">
         <v>1</v>
       </c>
+      <c r="E74" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
@@ -2311,6 +2410,9 @@
       <c r="D75" s="2">
         <v>1</v>
       </c>
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
@@ -2325,6 +2427,9 @@
       <c r="D76" s="2">
         <v>1</v>
       </c>
+      <c r="E76" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
@@ -2339,6 +2444,9 @@
       <c r="D77" s="2">
         <v>1</v>
       </c>
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="78" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
@@ -2438,6 +2546,9 @@
       <c r="D83" s="2">
         <v>1</v>
       </c>
+      <c r="E83" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
@@ -2452,6 +2563,9 @@
       <c r="D84" s="2">
         <v>1</v>
       </c>
+      <c r="E84" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
@@ -2466,6 +2580,9 @@
       <c r="D85" s="2">
         <v>1</v>
       </c>
+      <c r="E85" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
@@ -2480,6 +2597,9 @@
       <c r="D86" s="2">
         <v>1</v>
       </c>
+      <c r="E86" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -2494,6 +2614,9 @@
       <c r="D87" s="2">
         <v>1</v>
       </c>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
@@ -2508,6 +2631,9 @@
       <c r="D88" s="2">
         <v>1</v>
       </c>
+      <c r="E88" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
@@ -2522,6 +2648,9 @@
       <c r="D89" s="2">
         <v>1</v>
       </c>
+      <c r="E89" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
@@ -2536,6 +2665,9 @@
       <c r="D90" s="2">
         <v>1</v>
       </c>
+      <c r="E90" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
@@ -2550,6 +2682,9 @@
       <c r="D91" s="2">
         <v>1</v>
       </c>
+      <c r="E91" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
@@ -2564,6 +2699,9 @@
       <c r="D92" s="2">
         <v>1</v>
       </c>
+      <c r="E92" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
@@ -2578,6 +2716,9 @@
       <c r="D93" s="2">
         <v>1</v>
       </c>
+      <c r="E93" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
@@ -2626,6 +2767,9 @@
       <c r="D96" s="2">
         <v>1</v>
       </c>
+      <c r="E96" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
@@ -2657,6 +2801,9 @@
       <c r="D98" s="2">
         <v>1</v>
       </c>
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
@@ -2671,6 +2818,9 @@
       <c r="D99" s="2">
         <v>1</v>
       </c>
+      <c r="E99" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
@@ -2719,6 +2869,9 @@
       <c r="D102" s="2">
         <v>1</v>
       </c>
+      <c r="E102" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -2733,6 +2886,9 @@
       <c r="D103" s="2">
         <v>1</v>
       </c>
+      <c r="E103" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
@@ -2747,6 +2903,9 @@
       <c r="D104" s="2">
         <v>1</v>
       </c>
+      <c r="E104" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
@@ -2778,6 +2937,9 @@
       <c r="D106" s="2">
         <v>1</v>
       </c>
+      <c r="E106" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
@@ -2792,6 +2954,9 @@
       <c r="D107" s="2">
         <v>1</v>
       </c>
+      <c r="E107" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
@@ -2806,6 +2971,9 @@
       <c r="D108" s="2">
         <v>1</v>
       </c>
+      <c r="E108" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
@@ -2820,16 +2988,19 @@
       <c r="D109" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B110" s="11">
         <v>47916</v>
       </c>
-      <c r="C110" s="34" t="s">
-        <v>184</v>
+      <c r="C110" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D110" s="2">
         <v>1</v>
@@ -2850,6 +3021,9 @@
       </c>
       <c r="D111" s="2">
         <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53630B-537A-49C0-BDD2-1A121A1CFCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D59F1B-61B5-4CFC-BEA2-19315AFEDF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="283">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -589,6 +589,303 @@
   </si>
   <si>
     <t>DEFENDER 3603 CASTER</t>
+  </si>
+  <si>
+    <t>CAN-012</t>
+  </si>
+  <si>
+    <t>CAN-013</t>
+  </si>
+  <si>
+    <t>CAN-014</t>
+  </si>
+  <si>
+    <t>CAN-015</t>
+  </si>
+  <si>
+    <t>CAN-016</t>
+  </si>
+  <si>
+    <t>CAN-017</t>
+  </si>
+  <si>
+    <t>CAN-018</t>
+  </si>
+  <si>
+    <t>CAN-019</t>
+  </si>
+  <si>
+    <t>CAN-020</t>
+  </si>
+  <si>
+    <t>CAN-021</t>
+  </si>
+  <si>
+    <t>CAN-022</t>
+  </si>
+  <si>
+    <t>CAN-023</t>
+  </si>
+  <si>
+    <t>CAN-024</t>
+  </si>
+  <si>
+    <t>CAN-025</t>
+  </si>
+  <si>
+    <t>CAN-026</t>
+  </si>
+  <si>
+    <t>CAN-027</t>
+  </si>
+  <si>
+    <t>CAN-028</t>
+  </si>
+  <si>
+    <t>CAN-029</t>
+  </si>
+  <si>
+    <t>CAN-030</t>
+  </si>
+  <si>
+    <t>CAN-031</t>
+  </si>
+  <si>
+    <t>CAN-032</t>
+  </si>
+  <si>
+    <t>CAN-033</t>
+  </si>
+  <si>
+    <t>CAN-034</t>
+  </si>
+  <si>
+    <t>CAN-035</t>
+  </si>
+  <si>
+    <t>CAN-036</t>
+  </si>
+  <si>
+    <t>CAN-037</t>
+  </si>
+  <si>
+    <t>CAN-038</t>
+  </si>
+  <si>
+    <t>CAN-039</t>
+  </si>
+  <si>
+    <t>CAN-040</t>
+  </si>
+  <si>
+    <t>CAN-041</t>
+  </si>
+  <si>
+    <t>CAN-042</t>
+  </si>
+  <si>
+    <t>CAN-043</t>
+  </si>
+  <si>
+    <t>CAN-044</t>
+  </si>
+  <si>
+    <t>CAN-045</t>
+  </si>
+  <si>
+    <t>CAN-046</t>
+  </si>
+  <si>
+    <t>CAN-047</t>
+  </si>
+  <si>
+    <t>CAN-048</t>
+  </si>
+  <si>
+    <t>CAN-049</t>
+  </si>
+  <si>
+    <t>CAN-050</t>
+  </si>
+  <si>
+    <t>CAN-051</t>
+  </si>
+  <si>
+    <t>CAN-052</t>
+  </si>
+  <si>
+    <t>CAN-053</t>
+  </si>
+  <si>
+    <t>CAN-054</t>
+  </si>
+  <si>
+    <t>CAN-055</t>
+  </si>
+  <si>
+    <t>CAN-056</t>
+  </si>
+  <si>
+    <t>CAN-057</t>
+  </si>
+  <si>
+    <t>CAN-058</t>
+  </si>
+  <si>
+    <t>CAN-059</t>
+  </si>
+  <si>
+    <t>CAN-060</t>
+  </si>
+  <si>
+    <t>CAN-061</t>
+  </si>
+  <si>
+    <t>CAN-062</t>
+  </si>
+  <si>
+    <t>CAN-063</t>
+  </si>
+  <si>
+    <t>CAN-064</t>
+  </si>
+  <si>
+    <t>CAN-065</t>
+  </si>
+  <si>
+    <t>CAN-066</t>
+  </si>
+  <si>
+    <t>CAN-067</t>
+  </si>
+  <si>
+    <t>CAN-068</t>
+  </si>
+  <si>
+    <t>CAN-069</t>
+  </si>
+  <si>
+    <t>CAN-070</t>
+  </si>
+  <si>
+    <t>CAN-071</t>
+  </si>
+  <si>
+    <t>CAN-072</t>
+  </si>
+  <si>
+    <t>CAN-073</t>
+  </si>
+  <si>
+    <t>CAN-074</t>
+  </si>
+  <si>
+    <t>CAN-075</t>
+  </si>
+  <si>
+    <t>CAN-076</t>
+  </si>
+  <si>
+    <t>CAN-077</t>
+  </si>
+  <si>
+    <t>CAN-078</t>
+  </si>
+  <si>
+    <t>CAN-079</t>
+  </si>
+  <si>
+    <t>CAN-080</t>
+  </si>
+  <si>
+    <t>CAN-081</t>
+  </si>
+  <si>
+    <t>CAN-082</t>
+  </si>
+  <si>
+    <t>CAN-083</t>
+  </si>
+  <si>
+    <t>CAN-084</t>
+  </si>
+  <si>
+    <t>CAN-085</t>
+  </si>
+  <si>
+    <t>CAN-086</t>
+  </si>
+  <si>
+    <t>CAN-087</t>
+  </si>
+  <si>
+    <t>CAN-088</t>
+  </si>
+  <si>
+    <t>CAN-089</t>
+  </si>
+  <si>
+    <t>CAN-090</t>
+  </si>
+  <si>
+    <t>CAN-091</t>
+  </si>
+  <si>
+    <t>CAN-092</t>
+  </si>
+  <si>
+    <t>CAN-093</t>
+  </si>
+  <si>
+    <t>CAN-094</t>
+  </si>
+  <si>
+    <t>CAN-095</t>
+  </si>
+  <si>
+    <t>CAN-096</t>
+  </si>
+  <si>
+    <t>CAN-097</t>
+  </si>
+  <si>
+    <t>CAN-098</t>
+  </si>
+  <si>
+    <t>CAN-099</t>
+  </si>
+  <si>
+    <t>CAN-100</t>
+  </si>
+  <si>
+    <t>CAN-101</t>
+  </si>
+  <si>
+    <t>CAN-102</t>
+  </si>
+  <si>
+    <t>CAN-103</t>
+  </si>
+  <si>
+    <t>CAN-104</t>
+  </si>
+  <si>
+    <t>CAN-105</t>
+  </si>
+  <si>
+    <t>CAN-106</t>
+  </si>
+  <si>
+    <t>CAN-107</t>
+  </si>
+  <si>
+    <t>CAN-108</t>
+  </si>
+  <si>
+    <t>CAN-109</t>
+  </si>
+  <si>
+    <t>CAN-110</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="E85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,6 +1656,9 @@
       <c r="E13" t="s">
         <v>149</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
@@ -1376,6 +1676,9 @@
       <c r="E14" t="s">
         <v>150</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
@@ -1393,6 +1696,9 @@
       <c r="E15" t="s">
         <v>150</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -1410,8 +1716,11 @@
       <c r="E16" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -1427,8 +1736,11 @@
       <c r="E17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>53</v>
       </c>
@@ -1444,8 +1756,11 @@
       <c r="E18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>54</v>
       </c>
@@ -1461,8 +1776,11 @@
       <c r="E19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F19" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
@@ -1478,8 +1796,11 @@
       <c r="E20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>56</v>
       </c>
@@ -1495,8 +1816,11 @@
       <c r="E21" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>57</v>
       </c>
@@ -1512,8 +1836,11 @@
       <c r="E22" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F22" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>14</v>
       </c>
@@ -1529,8 +1856,11 @@
       <c r="E23" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
@@ -1546,8 +1876,11 @@
       <c r="E24" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -1563,8 +1896,11 @@
       <c r="E25" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>60</v>
       </c>
@@ -1580,8 +1916,11 @@
       <c r="E26" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>61</v>
       </c>
@@ -1597,8 +1936,11 @@
       <c r="E27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>62</v>
       </c>
@@ -1614,8 +1956,11 @@
       <c r="E28" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>181</v>
       </c>
@@ -1631,8 +1976,11 @@
       <c r="E29" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F29" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>182</v>
       </c>
@@ -1648,8 +1996,11 @@
       <c r="E30" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>183</v>
       </c>
@@ -1665,8 +2016,11 @@
       <c r="E31" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F31" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>63</v>
       </c>
@@ -1682,8 +2036,11 @@
       <c r="E32" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>64</v>
       </c>
@@ -1699,8 +2056,11 @@
       <c r="E33" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F33" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>65</v>
       </c>
@@ -1716,8 +2076,11 @@
       <c r="E34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F34" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>66</v>
       </c>
@@ -1733,8 +2096,11 @@
       <c r="E35" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F35" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>67</v>
       </c>
@@ -1750,8 +2116,11 @@
       <c r="E36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F36" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>68</v>
       </c>
@@ -1767,8 +2136,11 @@
       <c r="E37" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F37" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>69</v>
       </c>
@@ -1784,8 +2156,11 @@
       <c r="E38" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F38" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>15</v>
       </c>
@@ -1801,8 +2176,11 @@
       <c r="E39" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F39" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>16</v>
       </c>
@@ -1818,8 +2196,11 @@
       <c r="E40" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F40" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>17</v>
       </c>
@@ -1835,8 +2216,11 @@
       <c r="E41" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>18</v>
       </c>
@@ -1852,8 +2236,11 @@
       <c r="E42" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F42" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>70</v>
       </c>
@@ -1869,8 +2256,11 @@
       <c r="E43" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F43" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>71</v>
       </c>
@@ -1886,8 +2276,11 @@
       <c r="E44" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F44" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>72</v>
       </c>
@@ -1903,8 +2296,11 @@
       <c r="E45" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F45" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>73</v>
       </c>
@@ -1920,8 +2316,11 @@
       <c r="E46" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F46" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>74</v>
       </c>
@@ -1937,8 +2336,11 @@
       <c r="E47" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F47" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>75</v>
       </c>
@@ -1954,8 +2356,11 @@
       <c r="E48" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F48" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>76</v>
       </c>
@@ -1971,8 +2376,11 @@
       <c r="E49" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F49" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>77</v>
       </c>
@@ -1988,8 +2396,11 @@
       <c r="E50" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F50" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>78</v>
       </c>
@@ -2005,8 +2416,11 @@
       <c r="E51" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F51" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>79</v>
       </c>
@@ -2022,8 +2436,11 @@
       <c r="E52" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F52" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>80</v>
       </c>
@@ -2039,8 +2456,11 @@
       <c r="E53" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F53" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>81</v>
       </c>
@@ -2056,8 +2476,11 @@
       <c r="E54" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F54" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>82</v>
       </c>
@@ -2073,8 +2496,11 @@
       <c r="E55" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F55" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>83</v>
       </c>
@@ -2090,8 +2516,11 @@
       <c r="E56" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F56" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>84</v>
       </c>
@@ -2107,8 +2536,11 @@
       <c r="E57" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F57" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>85</v>
       </c>
@@ -2124,8 +2556,11 @@
       <c r="E58" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F58" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>86</v>
       </c>
@@ -2141,8 +2576,11 @@
       <c r="E59" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F59" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>87</v>
       </c>
@@ -2158,8 +2596,11 @@
       <c r="E60" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F60" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>88</v>
       </c>
@@ -2175,8 +2616,11 @@
       <c r="E61" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F61" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>89</v>
       </c>
@@ -2192,8 +2636,11 @@
       <c r="E62" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F62" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>90</v>
       </c>
@@ -2209,8 +2656,11 @@
       <c r="E63" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F63" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>91</v>
       </c>
@@ -2226,8 +2676,11 @@
       <c r="E64" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F64" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>92</v>
       </c>
@@ -2243,8 +2696,11 @@
       <c r="E65" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F65" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>93</v>
       </c>
@@ -2260,8 +2716,11 @@
       <c r="E66" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F66" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>94</v>
       </c>
@@ -2277,8 +2736,11 @@
       <c r="E67" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F67" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>95</v>
       </c>
@@ -2294,8 +2756,11 @@
       <c r="E68" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F68" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>96</v>
       </c>
@@ -2311,8 +2776,11 @@
       <c r="E69" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F69" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>97</v>
       </c>
@@ -2328,8 +2796,11 @@
       <c r="E70" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F70" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>98</v>
       </c>
@@ -2345,8 +2816,11 @@
       <c r="E71" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F71" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>99</v>
       </c>
@@ -2362,8 +2836,11 @@
       <c r="E72" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F72" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>100</v>
       </c>
@@ -2379,8 +2856,11 @@
       <c r="E73" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F73" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>101</v>
       </c>
@@ -2396,8 +2876,11 @@
       <c r="E74" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F74" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>102</v>
       </c>
@@ -2413,8 +2896,11 @@
       <c r="E75" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F75" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>103</v>
       </c>
@@ -2430,8 +2916,11 @@
       <c r="E76" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F76" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>104</v>
       </c>
@@ -2447,8 +2936,11 @@
       <c r="E77" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F77" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>105</v>
       </c>
@@ -2464,8 +2956,11 @@
       <c r="E78" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F78" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>106</v>
       </c>
@@ -2481,8 +2976,11 @@
       <c r="E79" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F79" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
         <v>107</v>
       </c>
@@ -2498,8 +2996,11 @@
       <c r="E80" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F80" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>108</v>
       </c>
@@ -2515,8 +3016,11 @@
       <c r="E81" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F81" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>109</v>
       </c>
@@ -2532,8 +3036,11 @@
       <c r="E82" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F82" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>110</v>
       </c>
@@ -2549,8 +3056,11 @@
       <c r="E83" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F83" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>111</v>
       </c>
@@ -2566,8 +3076,11 @@
       <c r="E84" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F84" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>112</v>
       </c>
@@ -2583,8 +3096,11 @@
       <c r="E85" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F85" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>113</v>
       </c>
@@ -2600,8 +3116,11 @@
       <c r="E86" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F86" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>114</v>
       </c>
@@ -2617,8 +3136,11 @@
       <c r="E87" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F87" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>115</v>
       </c>
@@ -2634,8 +3156,11 @@
       <c r="E88" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F88" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>116</v>
       </c>
@@ -2651,8 +3176,11 @@
       <c r="E89" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F89" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>117</v>
       </c>
@@ -2668,8 +3196,11 @@
       <c r="E90" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F90" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="s">
         <v>118</v>
       </c>
@@ -2685,8 +3216,11 @@
       <c r="E91" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F91" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>119</v>
       </c>
@@ -2702,8 +3236,11 @@
       <c r="E92" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F92" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>120</v>
       </c>
@@ -2719,8 +3256,11 @@
       <c r="E93" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F93" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>121</v>
       </c>
@@ -2736,8 +3276,11 @@
       <c r="E94" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F94" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>122</v>
       </c>
@@ -2753,8 +3296,11 @@
       <c r="E95" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F95" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>123</v>
       </c>
@@ -2770,8 +3316,11 @@
       <c r="E96" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F96" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>124</v>
       </c>
@@ -2787,8 +3336,11 @@
       <c r="E97" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F97" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>125</v>
       </c>
@@ -2804,8 +3356,11 @@
       <c r="E98" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F98" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>126</v>
       </c>
@@ -2821,8 +3376,11 @@
       <c r="E99" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F99" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>127</v>
       </c>
@@ -2838,8 +3396,11 @@
       <c r="E100" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F100" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>128</v>
       </c>
@@ -2855,8 +3416,11 @@
       <c r="E101" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F101" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
         <v>129</v>
       </c>
@@ -2872,8 +3436,11 @@
       <c r="E102" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F102" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
         <v>130</v>
       </c>
@@ -2889,8 +3456,11 @@
       <c r="E103" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F103" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>131</v>
       </c>
@@ -2906,8 +3476,11 @@
       <c r="E104" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F104" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>132</v>
       </c>
@@ -2923,8 +3496,11 @@
       <c r="E105" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F105" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>133</v>
       </c>
@@ -2940,8 +3516,11 @@
       <c r="E106" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F106" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>134</v>
       </c>
@@ -2957,8 +3536,11 @@
       <c r="E107" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="F107" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>135</v>
       </c>
@@ -2974,8 +3556,11 @@
       <c r="E108" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F108" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>136</v>
       </c>
@@ -2991,8 +3576,11 @@
       <c r="E109" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F109" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>137</v>
       </c>
@@ -3008,8 +3596,11 @@
       <c r="E110" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F110" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>138</v>
       </c>
@@ -3025,9 +3616,11 @@
       <c r="E111" t="s">
         <v>157</v>
       </c>
+      <c r="F111" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D59F1B-61B5-4CFC-BEA2-19315AFEDF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="caña" sheetId="1" r:id="rId1"/>
     <sheet name="reel" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">caña!$A$1:$F$111</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="283">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -78,21 +81,9 @@
     <t>BLACK DRAGON 400 CASTER</t>
   </si>
   <si>
-    <t>blue max 1802 beas</t>
-  </si>
-  <si>
     <t>CORSAIR 270 CASTER</t>
   </si>
   <si>
-    <t>DEFENDER 180</t>
-  </si>
-  <si>
-    <t>DEFENDER 3003</t>
-  </si>
-  <si>
-    <t>DEFENDER 3603</t>
-  </si>
-  <si>
     <t>KARP HUNTER 270 CASTER</t>
   </si>
   <si>
@@ -105,24 +96,12 @@
     <t>KARP RUSH 270 CASTER</t>
   </si>
   <si>
-    <t>COSTA TELE</t>
-  </si>
-  <si>
-    <t>peje</t>
-  </si>
-  <si>
-    <t>bait</t>
-  </si>
-  <si>
     <t>RIO 2 T</t>
   </si>
   <si>
     <t>BAIT</t>
   </si>
   <si>
-    <t>RIO 3T</t>
-  </si>
-  <si>
     <t>COSTA 3 T</t>
   </si>
   <si>
@@ -184,6 +163,729 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
+  </si>
+  <si>
+    <t>atlantic 420 xfish</t>
+  </si>
+  <si>
+    <t>BAKER 2102 WATERDOG</t>
+  </si>
+  <si>
+    <t>BLACK POWER 270 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK POWER 300 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 1,80 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 2,40 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 2,70 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK SERPENT 3,00 SOLIDA XFISH</t>
+  </si>
+  <si>
+    <t>BLACK TARU 198 XFISH</t>
+  </si>
+  <si>
+    <t>BLACK TARU 210 XFISH</t>
+  </si>
+  <si>
+    <t>CAPITANIA 2,70 MTS 8855-6</t>
+  </si>
+  <si>
+    <t>CATANA EXPERT 300</t>
+  </si>
+  <si>
+    <t>CATANA EXPERT 390</t>
+  </si>
+  <si>
+    <t>CHASCOMUS 4,50</t>
+  </si>
+  <si>
+    <t>chelsea 270 water</t>
+  </si>
+  <si>
+    <t>COMPACT 1,80 ALBATROS</t>
+  </si>
+  <si>
+    <t>CORVINA 360</t>
+  </si>
+  <si>
+    <t>CORVINA 390</t>
+  </si>
+  <si>
+    <t>costa 390 xfish</t>
+  </si>
+  <si>
+    <t>costa 420 xfish</t>
+  </si>
+  <si>
+    <t>daiwa 240</t>
+  </si>
+  <si>
+    <t>DERBY 2102 waterdog</t>
+  </si>
+  <si>
+    <t>ESMERALDA 270 XFISH</t>
+  </si>
+  <si>
+    <t>gol xfish 2,40</t>
+  </si>
+  <si>
+    <t>GUAZU 240 SURFISH</t>
+  </si>
+  <si>
+    <t>GUAZU 270 SURFISH</t>
+  </si>
+  <si>
+    <t>HORCONES 450 kunnan</t>
+  </si>
+  <si>
+    <t>horizonte 3 mts red fish</t>
+  </si>
+  <si>
+    <t>KARP RUSH 300 CASTER</t>
+  </si>
+  <si>
+    <t>legend 270 xfish</t>
+  </si>
+  <si>
+    <t>litoral 180 surfish</t>
+  </si>
+  <si>
+    <t>MAGNA 210 ALBATROS</t>
+  </si>
+  <si>
+    <t>MAGNUN 1,85 BANDO</t>
+  </si>
+  <si>
+    <t>MOJARRA 1,50 XFISH</t>
+  </si>
+  <si>
+    <t>MUSTANG 210 BANDO</t>
+  </si>
+  <si>
+    <t>NASSER 210</t>
+  </si>
+  <si>
+    <t>NEO 360 XFISH</t>
+  </si>
+  <si>
+    <t>OCEAN 300</t>
+  </si>
+  <si>
+    <t>ORIENTE 210 WATERDOG</t>
+  </si>
+  <si>
+    <t>ORIENTE BECH 2702 WATERDOG</t>
+  </si>
+  <si>
+    <t>PACIFIC 4206 CASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pacific surf 270 </t>
+  </si>
+  <si>
+    <t>parana 270 mts red fish</t>
+  </si>
+  <si>
+    <t>paranacito 180 surfish</t>
+  </si>
+  <si>
+    <t>paranacito 210 surfish</t>
+  </si>
+  <si>
+    <t>peje 420</t>
+  </si>
+  <si>
+    <t>PLATINUM 3 MTS XFISH</t>
+  </si>
+  <si>
+    <t>PLATINUM 3.30 MTS XFISH</t>
+  </si>
+  <si>
+    <t>power 180</t>
+  </si>
+  <si>
+    <t>power boat 1 tramo</t>
+  </si>
+  <si>
+    <t>predator 180</t>
+  </si>
+  <si>
+    <t>predator 198</t>
+  </si>
+  <si>
+    <t>PREDATOR 210</t>
+  </si>
+  <si>
+    <t>QUERANTI 210 XFISH</t>
+  </si>
+  <si>
+    <t>QUERANTI 270 XFISH</t>
+  </si>
+  <si>
+    <t>RED FISH 300 XFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO PARANA 270 BANDO </t>
+  </si>
+  <si>
+    <t>ROCK 270 SURFISH</t>
+  </si>
+  <si>
+    <t>san pedro 180 1 tramo</t>
+  </si>
+  <si>
+    <t>SENNA 2702 WATERDOG</t>
+  </si>
+  <si>
+    <t>sensosurf 390 silvtar</t>
+  </si>
+  <si>
+    <t>sensosurf 450 silvtar</t>
+  </si>
+  <si>
+    <t>silver stone 300 kunnan</t>
+  </si>
+  <si>
+    <t>SNIPER 390 CASTER</t>
+  </si>
+  <si>
+    <t>SNIPER 420 CASTER</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 180</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 210</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 240</t>
+  </si>
+  <si>
+    <t>SPIDER 385 ALBATROS</t>
+  </si>
+  <si>
+    <t>SPUN 3 MTS WATER</t>
+  </si>
+  <si>
+    <t>SPUN 3,30 WATER</t>
+  </si>
+  <si>
+    <t>START 360 SURFISH</t>
+  </si>
+  <si>
+    <t>sudestada fish 270</t>
+  </si>
+  <si>
+    <t>super x xfish 2,40</t>
+  </si>
+  <si>
+    <t>supercast 360</t>
+  </si>
+  <si>
+    <t>supercast 390</t>
+  </si>
+  <si>
+    <t>supercast de marine sport 420</t>
+  </si>
+  <si>
+    <t>supreme 180</t>
+  </si>
+  <si>
+    <t>supreme 198</t>
+  </si>
+  <si>
+    <t>supreme 390 caster</t>
+  </si>
+  <si>
+    <t>supreme 420 caster</t>
+  </si>
+  <si>
+    <t>SURUBI 1,80 ALBATROS</t>
+  </si>
+  <si>
+    <t>takumi 425 4203</t>
+  </si>
+  <si>
+    <t>TELE SURF390</t>
+  </si>
+  <si>
+    <t>TELECAST 4</t>
+  </si>
+  <si>
+    <t>titanium 390 caster</t>
+  </si>
+  <si>
+    <t>titanium 420 caster</t>
+  </si>
+  <si>
+    <t>TRONADOR 3 MTS ALBATROS</t>
+  </si>
+  <si>
+    <t>ULTIMATE 360 PLUSFISH</t>
+  </si>
+  <si>
+    <t>ULTIMATE 390 PLUSFISH</t>
+  </si>
+  <si>
+    <t>VALIANT 2702 CASTER</t>
+  </si>
+  <si>
+    <t>VARIADA 240 XFISH</t>
+  </si>
+  <si>
+    <t>VARIADA 300 XFISH</t>
+  </si>
+  <si>
+    <t>VENDETA 210 ALBATROS</t>
+  </si>
+  <si>
+    <t>WARRIOR 165</t>
+  </si>
+  <si>
+    <t>XTREM CHAOS 270 CASTER</t>
+  </si>
+  <si>
+    <t>ZARATE 270 XFISH</t>
+  </si>
+  <si>
+    <t>VARIADA DE RIO 2 T 3MTS</t>
+  </si>
+  <si>
+    <t>BAITCASTING 2 T 1,80 MASIZA</t>
+  </si>
+  <si>
+    <t>VARIADA DE RIO/MAR TELESCOPICA 390MTS</t>
+  </si>
+  <si>
+    <t>AGUA NEGRA RED FISH</t>
+  </si>
+  <si>
+    <t>AMBITIONS XFISH</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPDw0NDQ8NDQ0NDQ0NDQ0NDw8ODw0NFREWFhURFRUYHSggGRonHRUVITEhJSkrOi4uFx8zODMsNzQtLisBCgoKDg0OFQ8QFSsdHR0rLS0tLS0rLS0tLSsrLS0tKysrLS0tLS0tKysrKy0tKysrKy0rLS0tLS0rLS0tLS0tLf/AABEIAMIBAwMBEQACEQEDEQH/xAAcAAADAQEBAQEBAAAAAAAAAAAAAQIDBQYEBwj/xABHEAACAgECAgQICQkGBwAAAAAAAQIDEQQSITEFBkFRBxNTYXGBktEUFhciUlSRk6IjMmJjocHS4eIVJEJDsfAzNERyc6Oy/8QAGgEBAQEBAQEBAAAAAAAAAAAAAAECAwQFBv/EAC4RAQACAgAEBQMEAgMBAAAAAAABAgMRBBIhUQUUMUFSExVhMkJxoSKxM0ORI//aAAwDAQACEQMRAD8A/UkiikiB4KFgIMALAUsEQYKpOJBLiUKUeH++ZBaAMFQ9oCcSiXEiaG0qngBOJAtoCcSoNoEuIRLiRdk0BO0gWAp4AEgE1y/32ECaCM5IDJoo7SK0ZAwEAYAQUwhNFEgGAoSIh4KGkANBCwFGAgwAmFJhCCkwEwiQhMKkCWQSAgKQCwQJlGcwMyo66I0oBgAExeQpgDKhECIoKhooCKyv1EYcOcuaiuLa/cSZ1A5ml6alOy+CplJUS22OLW9Zz/gfPk+0zW29jpaXVwtTdclLHNcpR9KfFG9jUqJ3BCbCk2AsgLIA2EIITAhhSYEkCAoBZAlgZzAgqOkr/wBGf2EaV4/9Gf4feAfCP0J/g94B8I/Ql+H3hC8e/oS/D7ymx49/Qf2oaNl8If0f2oo+bVdJKtZlDPof8jM9HSlJtOnEu68UQbTrnw86weeeIrHR9CnhuS0b2xn18qw/F0W2NRlLEX3JvD4eZlrxEWnULl8NvjpN5mOjzFfhmi8f3CUV9KV/Bed4g3j1HqiIfKmXsOj+slus007aKJwnKCenlWpX12t54puMcLh2rtOVp1OnSIjT6tLqdRGtbtHYt2VOy26G+T5NtJfsJaLTWW+Sny/p4Po/rStF0l0k7lK1WV1LK3Jbo225eIxfDEvMcsc6gpj550+3V9eNNqW/FwnTfFZjfXdKmyPrnXiXoeTfO7Tw9Y9/6Y6zwmz0tUVZCnVWNtRtjPapxSX50Yp4kdIl5rV0468NF+XnSabHZ+Uuy/sizTm9I/CNJNp6aGU3H/iy44f/AGnktxGp1p93D4TW9ItzeqX4SJfVofey/hM+Zns39nj5NNN1/lN48TXHP6cn+41XiNzrTz5vDYpHSXUr60SazipeqXvPTWdvmXpNZV8Zn+q+yfvOnRymJQ+tEv1Xsz95dQz1Zy60S/V+xL3k6J1Zy60z76/Yl7wvVjLrXZ3w+7fvB/kzl1rt74/dsm4OrKfW236UfuxtdSyfW+/6S+6RNrpnLrhqPpL7pDYwn1x1PZKP3SCaYT66av6S+6iQ0xfXXWfSj90gafrqnf5Wteir+YaUnqPLr7te8BPx/wBYfqgveAtt/wBYl7CAl13fWJ+zEipdF31ifsxAiWlt+sWezEo+bU9FSsWJX2cfNEkxtul5rLiXdQ6ZPc9Rfl+aHuOHlq930KeJ3pGoiEx6hUrLjfqMtOL/ADOKaw1yLXBWJ3sy+J3yUms1jq88/A7T2a27Hnqg3j7Tu+XD1nVvqzPQUS09esvsrlHaozWFHi2tuHmP5z5NGJpEzt1545YjXo5r6kp4lqdTqrZRfCzdvSSeU8Sy0Yti37vXHHcsaikOVb1aq1Gv1U9ROdMXBKCgotze/s4PzvBiuPfSXLBxM4bc1YbWeD5S4UWW1rPGeoUW2vNCOH9pqMER7vRbxK9o1NYadJeC/T3x4321zzulKuuuMW+3EV7ztFdPnzfcTGnMj4GtPnMtZqGu5V1r/XJqXOHe+T3S83bqW28vDrXH2TzzgrM7l9XH4rkpWKxEdD+TzSeU1PtV/wAJPLVa+75u0Lr6haWLyrNT651/wljh6xO3HJ4jkv7Q+2HVLTr/ABX+uUfcdYrp475Js0XVXT99vtL3GtQxMj4rab9Z7S9xdJsvitpu6z2/5BNl8VtL3We2DY+K+l+hP22AvitpfoS9tkUn1V0nk37cgJ+Kej8k/bkBL6p6PyP45e8Il9UdF5H8UveBnLqhofI/jl7wbZvqdofI/jl7wbe2SCrSAMAGAFgBgGAFtKpbQFtANoQtoBsAXi13ImjY2FBsCFsATgAtoBgA2gG0KTiEJoIlxCjABgCWiCcAJoBYCpkgjPAHVQVWQGgHgKAgACgAQAAmAACAGEACYEgAUBCwAMCcgJgS2AYAABkEMqpZEIKQQmwMmB1EFUA0FMICgIAoAEAmAAAAggAABgS0AgAKTAQQmAgFgBMBZIBlVLIiGwEFJsIlgZtgddBVYAAGUAQgABNgLIUABAmUNBAAAIBMBMBZCk2EJsCXIBbgDeBLmAtwA5EEuRRDZAZCpbKiJSIMmyjsKZFVvCGpFDyAOQC3AJyAW4A3ALIUZANwDUggcgFvCluCE5AS5ALcBLkAtwEuQC3ALcBLkELcAt4EymDZbgpbgSnIREmBk2B10yKpMopMug3IaC3DSbLJdA3FBuMypbiBbgo3AG4BpkNHkoTYCyDRNkQslElUmiIQVOAgwDQwDROJDUp2jZqS2g1KXEGp7EkNrqUymlwbS9LQ2kxLK7VVwW6dlcF3ynGK/aWB5Lp3wh6PTS2RVmpf0qXXsXrbWfUVHCl4WqsvGiux57YL9wNPf9IdYK9N/wAxZRVLmoSm3N+iC+c/sIsVmekQ4UvCTTv2xpulDDxYoNKTXcm0xt1jBefSH0Q65arMZPo63xU4wmnCcLLlCWNsnSpblncuDxzNOM9nT0nWiFrUd0aJubrUNVVdpm7E2nBOeFJ5jLgm+TKjruWo7q/sl7y6RhPWXKSrShKbW7bGMniPe3yQ0u2EulbPm42uTco7FVNyTi8Syl50WKkS+KfT1vzlGVeYtxknXJYks5jx7eHLzmMlZj0d8XLadS5d/WzURy3Zp4LjjdXNuWHjKUU+HneDzWtavrL6GLh8d/SsyNL1j1djkvG6epxk4tTrk3lc+EIyfr/mc4yXn3dMmHh6a1WbfwhdZNY7JUq3TqyOcKUa4Kb7FFyxlvsHPfcxt0nh+HrSLzWev9H/AG50g3CKs035SKlGSlpNqWWnl7uzD+wc2TuxGPhZrNuWeh6rpfpKMoQhZVc5p4dEapLK5p7sNd+eWPWJtk7rTFwsxMzWY13Y29O69OMYarT2yk9rVUU9jw3hvbjsfFZXDmN5O5NOFj1pMPkv6z66Mdy1NNrziSog5bM8m90I8OzKzx9Rmb5I99umPBw97a5JjfdEusuvW2LvxbLGKXU1Ys8k/m4TfdntRea8a/y69j6GDczGOeXuldY9a45errUmlJQf5zTWVxUdqysPi+0nNbW+Y+lh5tRimY7vno6z62bxLUSrWMuU8JJepNt8eRmmS1p62d8/C4cdNxj5paf27rXNR+GLZKDmrXJxjtTw1hxTbz2L3mua2/1dHnrXFNJt9HrHsI9Ma6VihDVb4uErHd43bXGtNpyk2ljisetDdt6iyx9CMc2nFqezLpDprXVNf3mVkJZ2W1Xb4SxzWVyfFcPOYyWtWf1bduGx4M24nHyzHs5760a3yuo7f82X2ljm+RNMUdPpM31m1nltR97InXf6nSMWPX/Ez+Mur4N3X8f1suH7TVa2mf1JNcMa/wAB8YNU/wDqLvbk/wB50th1/wBrG6a3GH/Q/tvUNNvUXLuWZceHpOVqzH70i9fT6P8Apr0frdVfYq1fOOctycm1FL18exes415rTrbpxt8XDYJy8nNPtHeTj01p3KcfhuqxXOMJ3xg51Rk20uPN5w+XDhz7TvOC+ukvh08Uya5rYY/hn0lqNRTNR8e7ISW6u1PCsj383j7Wee8Xr6v0HBZMXE4+eKa/Dm626VtN26bTVc5ww8vxkY7l9uGvWdMF9X/ljxDh6zhmYj0eNlq7HznL7WfRfl1ae1KWbMzi+cU9rfrwWJQPD4l6D13SPQWp02rtq1ttb1bgrptO21uVnFNtR4v0ZXHn2GLROuj1cLemO02s06H0Nc9RTG6+qFcr6Y271dHFO5KWW44XzXLtOdd76vZbiqamYnrL2VPTmjb1Govvp0879Ta7qq9Pqm79NCt1RjNqLabjZZiWVxjHHBNHbb5LhdNWy6VnpF0XK7UfA4tuS0uotU9S5Ripzco7U3Gut5lwy3ntGzT9L6g9A6rSaKNWv1TnbubhVudq09fZDf2+jilyXAnNJp0HZXXK/dZY7PGLCVc3uW1bVu5d/wBpuIt6sTMR6vi0UIrxqnZPxkpSf/DlJdzXBcs5frRes+hz1j1cnWwTrahNt/OSjCC4tcezH+Hc+XajnaZerFMRqzyup6MtlBX2y26bxcd1ylW8QUUtsVu4z4Y288v1njy47Tbmn0fY4fiaVxzjrG7vrqeoXjlp6nqovUXuVcqa9RGmTsljK/OjmO154L04Y6+kdXC1MV5rfJPLMR+dy5Tt8XqoTyoqq+mcvFvdGLi4yko8XlJ7scTzXn/6dH1605+GnfXpL7IaeycoQqk3bW9Xp61YklZKNrk4JPg5ONreH3eg6794nq8FYrSurek6mf8AxF/RN9O1Xb6L73KFcJThF2Jxlu4LhGL4Q587OxcprpuZ6utc8XmIrG61/B/2fdp1X8Iq1FVnwmmyO+e1OvK5V9+cfO9CJXcerWTNXLaeTrGp9vd8C0snXOyqNltdS/LyltjKpLscU3wePzu3GOD52PXpLfNPpkjrrpptPQXxtjZqFKHjbcwlvg3bZKWU48Xlcct93nwarTV5tMwl8sfSimOu5Kiq6VVTVMLadibutjXthDCylYsOG3iuLzw5dh1m06iutw801ibTeZms9oc7TaN3SlXXjO2TjGc4wclnknJpZw8+pnkpTmtMRL6HEcV5fFW16zO+k6dPXdGXWutTjTHUuE841GnXjYR2pcE8KXF9vFLzHa9Zt+rpL5fC8VTFNvp1tNJ7/ler0Nr2wudVepuqlBNaihQuUJ1zjGUVwT4Pt4tR7h1tGp6S6YbUpfeOJmkTty9bo5UwULHDfOan4uFkJ7UotNyS5N5Xb2P1YvSa11MvpY8sZcnNWOkQ+NzWOTfYvnrnjg+X7DUTqHKes+kdUyknnEXxzzkn+4kzG9kVtFdREalPi33Pm2uPb9nn/aai/Ri2GvNrXQpxlyalwXe1ju9BnfvPs1rry0iNSz2S5YljzTZYvHdynBabTMViXQ6Fj+U2brIOyLinGxxlufn/AHeguO8c/Vy4/h58tqI99vp1UYaXo+rSdHU3rXXxrWr1ca3GCePnp3SWMNtqO3kueHlP3c0Pz2ny66l1w02mcpWS09WybcnKMZcPmxzyXDl6D5+eYmz9J4TivXHNre75YtR3SljbGE5NN4TxF8DGGN3h7OOtFcFpeLwfUfj22lkozhKUYzUXlxnlxljseOOAHBcEB/SnWDq6ukFD4XpoynXwhbGartjF847ovO3zevmTqrpui9wjU6q3VCMYwhLZKMYpYSw/MNI8/q+o0btZDW2UwzVGCror8TVSpxk5KyUY43PL7e7tGh6HxOqxhRikuS3RwhpUy02qf0faQ0M5aDUvDxDKWE3JZSLoZz6KvksNVNZzhyTWe/kRdvj1XV2+eV+R488yfH9hi1Zl2x5Yq49nUO6Ut2aPaln/AOTzzw9u76VPEaV9kx8H9/bPT93OT4d35pI4e3tLrPimKY1NTfg/v8rR9s/cZnhLd2/vGPsXyd29t1X43+4eVt3T7vj9qH8nNnlquPmn7i+VnuzHi1I6RQLwbzX+dSvRGQjhJ7n3antQ/k4l5ev2JMeUnus+MV+AXg2xn8vXx5/k3x/aXys92fvFfifybLOXfHPf4p+8eWn5JPi8fAn4Nk+eoXo8W/4hHCflZ8Y3+wvk2j26hY/8X9RfLTvfMz93jWuQ14N4fWP/AFf1F8rv1sn3bXTkNeDeH1h/df1E8r+SPF5j9g+Tev6zL7r+o15b8pPi8/AfJtX9Zl93/UZ8t+T7tPxHyb1fWJ/dr+Ivlvyz91t8C+Tajy9nsL3jy8dz7tf4n8nFHl7PZXvL5aO5Hit/iH4OdP5a32V7yeWjuk+K3n2afEOr6zqH6zX0fzLl5+N75IZfJ5pvK3fhJ5aO7pHi2Ts+XW+DWmyLh8ItjGWM4gm8d2cm6YYrO3HiOPvmpyy5tngg02Pmam5PvlCLX+p2eB5bp3waazTv+7wlq4P/ABVbU15nFvP+pUcSXVLpL6jqvYA/qZIqKCqwAgEFJoiE0BLQUYAMA2WAAAAAAAAMAS0BLIqMAACATAQCYRIUmEQ2BLkAmyolsCJMIz3AejKp4AYCwAsEUYCE0FS0BIDAQAAAACAGAmwEyCWFIBAIGiYA0BOAiWgqWEZtAQ0BLZUTJgZSYROQPTpGlVgAACBEUgABNAS0RCaCkAgEyhNkC3AG4oMkAAmgE0AsBSwDZAGAhMCWFRIIzkBDAiSAhoCGUQB6VSNI0TAMgBBLCgAIEyAAlgSwEAAS0BLAQDQAAsgJsAyAskCAMgJlEsKmQGUgiGBMgIYESAz3FHo0dEUZQshRkgNwUbiAyAsgJsAyRCbCjIBkCWwJbCEFNADAlgSwE2AsgGSATAMlEtgTJhWUghMIloKiSCs5hGLkB6VHVkyACpIEQBFGQJcgDcAKQDyQACATKiGRQAZClkAbAlyAlyCFkB5AW4BNgQ2BLYENgGQEBMmFYyYHzTsjlgeqSOrmrACaIqcEUsADRBLQEtEEsKnJFG4IN4BvANwCyAZAWQoyAmwJbAlsBZAAABNhEMBMCQh4AQVnIKxmB8jT7gPYI6uZ5AnJFIkhBQAEEtBU7SBOIEOJFJxAloCcBCYDQUAACYEtgSABAAAS2BICZULJAygZBnIKxsAwCvVI6MBgSAZIEFMgABhUhCIpBCaAhoipaAnACYVOQhZAHICWwFkgEyh5AWQEwEESyhEQFAwrNkVjYBiwPUo6SgAWQEyCckC3EApDam5BEtgGQpZIg3FEuRAmwEBLCokyCGyiWwIbIDIApAG4oeQhOQVO4IMgADKhNgY54sisrGBi2Db1SOkiQAqAyqGSRJlUgMBMAYEsBBAwEAwADORFZsohgQyBgIBAMCZBElQwpxAo0gJIxXOXpIrKwqMWUf/Z</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/Ha6moH-lbCxVHu6pnOeE6Krf9KgDrUP_YKAbgPdRv5s/rs:fit:500:0:1:0/g:ce/aHR0cHM6Ly9odHRw/Mi5tbHN0YXRpYy5j/b20vRF9OUV9OUF84/ODU3NDQtTUxBNTE1/NjEyNTY0OTFfMDky/MDIyLU8ud2VicA</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/-WHRBCfIVbq4l2uIX8Yi0IeMywWLYE5ifaL8cDePHtM/rs:fit:500:0:1:0/g:ce/aHR0cDovL2h0dHAy/Lm1sc3RhdGljLmNv/bS9EXzkxMTQ5Ny1N/TEE3OTY0NTU3NjQ1/M18wOTIwMjQtWC5q/cGc</t>
+  </si>
+  <si>
+    <t>https://imgs.search.brave.com/xfLUTDawqZFFR7NNkvp6tuklYFb_dMXq4hWcGPXUNc0/rs:fit:500:0:1:0/g:ce/aHR0cHM6Ly9odHRw/Mi5tbHN0YXRpYy5j/b20vRF9OUV9OUF85/MDk1NTAtTUxBODE4/NTUyODQzOThfMDEy/MDI1LU8ud2VicA</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUQBxMVFhUXGBkXGRgWGBoYGRcaIBoXFxkXFiEaHSghGB8lGxMTIjIhJSkrLy8uFx8zODMsQygtLisBCgoKDQ0NFRAQFSseHR0tLS0rLSstKysrLSstLSstLS0tLS0rKy0tLSstLS0tKy0rLS4tKystNy0tKy0tLS0tLv/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABDEAABAwIEBAMFBgIJAwUBAAABAAIDBBEFBiFBBxIxURMiYRQyQnGBI0NSYpGhscEVJDNTcoKywtE1Y3NEVJLh8Bb/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAHxEBAQACAwACAwAAAAAAAAAAAAECESExQRJRYXGB/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERAREQEREBERAWDwTNEVTNNTxNkY+Jzx5wAJAx5jc+Mgm4D2kG9iLjTULOKL8jxslxeoqsNMr2eE8SuuDCyaR8byyPX3+VjeYAacovqUEoIiICIiAiLG1+NxRO8O7pJdoohzyehIHuD8ziB6oMkoX4r51dO92HYG8CMXEsgOj3f3YPTlHQ66n0GvniHxBqy99FRckQtZ/hu55G36sc8Dla4DqGXte3N1WgYThsk8jKfDmF0jzYAfuSdgOpOy3jjvm9JaYJgktRK2mwwFzyddvmXHYAEEna+9wuoMMpTFDFE43LGMYTa1+Vobe23RYPI+T4cOi5YrOldrJJbqevK3s0Hb6lbKrnn8v4mOOhERc2hERAREQEREBERAREQEREBERARFqmP4zLNMcNy0601gZ57XbSMP7GVw91n+Y6dQoZkxGermOG5beWWsKqpb9w0/dRHeZwP+UG+m2x4Hg8NHAymwtnJGwaDqSTqXOJ1JJJJKYJhMVLC2CgBDW3Nybuc46ue89XOcbkk91foCIiAiIgjTijj1e2ogw/L72xeOB5yeUuJLmhjXfd+6NRr5hqN9YxDiJVU9PJQOpY6WrDuR7oiOUC1y8C585v15ndb3VTjjikTqmCKCQGSJruYNvdriWOaCR0NgD6XCjok3Lnkuc43JOpJOpJ+q3jjv8ASWvUETi4NiBc9xAG5c4np8ySug+H2TWYfFzT2dUPA8R34R18NnoNzufoBo/BvLbJnCumaSI3HkJHlc8XaOTuG3cSfxctvdKmZMsvIaERFhRERAREQEREBERAREQEREBERARFrOaMwyMe2hy8GyVkouL+5AzoZ5uwGzerig85lxuUyjDst2NU8XfIRdlLGfvZO7j8LNzr0CymXcCio4RDRXOpc97jd8rzq+SQ/E4nX9gvGWsBjo4iyIl8jzzyyv1fNIer3n+A6AaLLoCIiAiIgLS+JGcxQxiGiINVNpGLX5AdPEcPnoBufQFX2fM4RYbBzyWfM+4ijvq4/id2aNz9N1A1ZK55fW5mLnyS8xa2/KSQLA22jb006co6rUx2MbWQuiLjiF3Sm7iSeYuJ1LuY7Xvr8762Cl3hxw6jMAqcyx80jxdkbrgMb3cAfePY9Bbe6p8L8husytzKC46OhifqWDrzvv3NiG7WBOvSWFcs7rU6ZmPqjSUrImNjpGNYxos1rQAAPQBVkRYaEREBERAREQEREBERAREQEREBFrWdoJWxirwh/h1EbmNaXEmJ7XyMYWTtHvM817jzNtcHqDiMzZjrYIoWUJidWzlojpzHzE/jeS145WNHMeY6aa7oMpm3M5gc2jwRolrph9nH8MY3mnt7rG9e5tYel1lLLbaNjjK8y1Ep5553e9K//axtyGtGgHzKtsl5TFGHzV7/ABqubWaY7/kZ2YP1O+wGzoCIiAiIgLA5xzTDh0BmrTdx0jjHvSO7DsNydh9Aq+aMwwUEDqjEnWA0a0e9I7WzGDcmx+QBJ6Ln3EMUfiM767MTwI2aCMOHlablsbATfXl6/Ee21k2KVTiTqqaSuzG650LWdA4a8sbB1DevQEdbkXud94aZJdUyDFMxMs24dDEb2NvdkcDc8o+EHra/S17Lh9lB+JStr8dby0zD9lFtIR/sBGtrcxFrWFlNoFtGrVvkR9REWFEREBERAREQEREBERAREQEREBEWEzZmSKgh8SoBe955IomavmkPRjB8yLnZBiuJ2NNhpHU8AL6mo8kEbdXF9xyut2Drf/rkVsmZXfTl9Zjr/GrpgPEkPRjdoYtmsHoBc69gKeUctSNkOI5mIfWyDoNWUzD0hi+h1dub/M7cgIiICIiArDHMYho4H1OJu5Y2DXuTs1o3cToAq2JV8dPE+eveGRsBc5x6Afz+W6gHM2Pz4rUMqKiF5oo5OWOIG1wPekdtzWIuegBtcXJVk2LDHMwPxWpNRjDvDhjB5IwfcZcDT8TyeW5A/YBZnIuUXYrOKitbyUUR5QLWMtj/AGbbdGjfU290Em5FrlbJrcUq3uog9lGx5538oYHaktihGpHl5bk9ybNuAugKGjjhjZDRNDGMAa1rdAAOgC1brpFSGJrGhkIDWtAAAFgANAANhZe0RYUREQEREBERAREQEREBERAREQERYzMeOwUMD6nFHcrG7fE52zGDdx7IKeaMww0EBnxAnrysY3V8jz7rGDclYHKWXZpJv6VzYAapwtDF1ZSRn4G/9wg+Z3qR3VLK2Bz1c4xbNjeWT/0tMelMw/E4byuFrnb9m70gIiICIiAqNXVMiY6WrcGMYC5znGwaBqSSqkkgaC6QgAAkk6AAaknsoIz1myTF520WCEilDrc3QTuF3Fx7tAaXBvU2va9gAtM6ZolxiUtpS5lHE9oY0NJdK9zgxr3NuLkucLNJHKDrqbJl/A5MQldQYFzRUsflqZrg89iTZptYkkycp3a8cws0NVlgNFWV74sOw+8Xhf20jHeVrLADn5TbmALxyg+Zx11BKn7LuBwUUDKbDG8rG/q47ucdyVrpFfCMMipoWU+HMDI2CwA/cnuSdSdyVeIiyoiIg+E919WscSaCSfD52UNy4AP5WmxeGnmc3TuAdFE2Tsz1NFG2oopXz02njQvJcYjuWX1aOxGncbqybHQCLWcMzkypjE2FU1TLGSRzNbHa4NiPNIDoVb4pn6Kmbz4rSVsTL25nQgtHzLXkBQbcsLjGa6KlkZDilQyN7+jTcn5usDyj1NgtHxzjFTGEjLrZHzuPK3nZytYT8RufNa406ai6h6qMr5DJWFz55D1Nybn9ydVvDH5X8Jbp1T/SMP8Aex//ADb/AMoudf8A+BxT/wBtJ+jP+UWvjh9s7y+nSiIi5NiIiAiK1xTEYqaJ8+IvDI2Dmc49AP5nYDdBSxzGIaOB9TijwyNguSd+zWjck6ALS8uYRNiU7MWzQwtjZrR0rukY2nlG8h0I7aHta3wLD5caqGYnj7CyijN6Omd952qJhvfqB/LV8loCIiAiIgIT3RQxxWz+6Uvw3LjiWgO9olZrcAHnjZbYAHmd9O6DHcVM/OrHPocBcfZm6SyNufGNwOUEfd8xaPzEja18RS4cZ5o8PywC6QXd4hJtAHeG4yOs0XcGsaL7c7mWJs5WuCz+IyGmyxF/XXEs5tbgWBfI42tyaNte/KbkWLRzTpkTKEWGweHD55XWMsttXu7Ds0XNh9epK10i6yhliDDqdtPhw9XvPvSO3c7+Q2GizaIsqIiICIiAoS4t5dFHIKnBPI2oEnixiwboAXOHa/MSR31HUqbVGPHu7aSCRv8AeuYfk+CYfxa1N0apwuwLEJhPFTzzU1MCD5bt5pDa4bvo0C5BHULY8zZNoKKB1Vmaoqqkg+WN8zrSP+FrQST9b6C5W05fxSGkwxtXiLgyPlLye9zZoaNybNsB1uoRzfmeXEJzUVvlYLiKK9wxvr3cbAk/8KybGELhzGRwAJNwB8I2aNzYaXU0cMMhmIjEMeBMzheNjtfDB15nX+M36bX79MTwoyJzluI423y9YY3Dr2lcO34R9eymNayvkSPqIiwoiIgIipVVQyNjpKpwYxgLnOcbBoAuSSegAQea6sjhjdNWvDI2Auc5xsABuVG9BSyY/O2rxRrmYZE68ELtDVOGniyj8HWw+ne9CIS5iqOaUOjwiF+gN2urJGnqdwwft0635JThia1oZCA1rQAABYADQAAdAAg9NaALN6BfURAREQERRjxV4jeyg0WBOvUuFnvHSEb22MliNPhvc7Ah54k5zkfIcJyrzOmdYTysBPgtJDSAW6g2d5nfCPXppNE1lDE2mwphlq5rNsAOZzrkGNu7WgAkk6WIdc9FotPK9r2+xlxkLhYtuXueTpbdxJ/W66I4eZNdTc1bjx562a5drdsDXEu8KK5Nhcm9vkNBrqXSK3DfI8eGw80wa6pkA8R46N38KO+oYD+pFzsBuSIsqIiICIiAiIgLQON8HNhb3aeSWJ2vq7kP7PK35zgAS42A1JO3zXO3EfNcmJVDoqcltLEeVg1+0N7GU+mw9D3JVk2lumGxXH5aqKCGbywU8bWRsB0JDeUyO7uP7XsN77XwwyKa14rMWb/VmHytP3zh/sB69+ndYrhzlH+kJy2QEU0R+0cPi7RtPc7nYD1C6IpoGRsbHTNDWtADWgWAA0AC3lZOIk57VGi2jei+oi5tCIiCwx7F46Snkqq+/hxN5ncouTsAB3JIH1WPwHNsFS50REkE7QC6Cob4cgadA4Amz2k7tJCyuJ0EdRDJT1zeaORpY4dwRY/I+qi2LLlYa2mgramF8dJ7SI5ZIuebwwyMeHPc8jxyVEZv6EnVBK9TUMjY6Spc1rGguc5xAa0DUkk6AKK5qqTMdQYKEujwqBw8V4u11U8WcGDs3obbXBOpaBg34Y/Gqs0mAyubh8JAnnjY2Jkrrg8sbWANf0Fi69tXdgZowbCoaSFlNhjAyNgs1o/cnuSbkk9SUFejpGRMbFRtDGMAa1rRYNA0ACrIiAiIgIi0riNnltAwQ0Fn1Unut/u29DK/0GthvbsCgsuKWf8A2JhpcHPNVvaemvhNtcuPd1rkN+p2Bgelri2N4qmh4e/ne91y8u7Mdrre5J3JI1Xk1MjZXzTyOMnMTLI7Ul19W69Tf9OilvhZw/DzHiONxcgFnQQHbtLIDfX8I20PZZ3u8C/4ScPxTgYhjLft36xMcLeCwj3iNnm/+UablSkiLQIiICIiAiIgIijLirnzwAaDBXfbuH2jx9y07D85H6DXcIMTxXz34hfh2Cu8g0nkB6neJp7fiP07rUMqYNUYm9tHTANijA5pQ23ht/DffmF7N+ve+My5gM1dO2lwsa9XvPuxt3c7/jcrpHLWAw0MDafDxoOrj7z3bvd3J/8ApavCPeA4LDRwMpsNbysb+rju5x3JO6yKIsqIiICIiD4TbUqCMfqX47irqbLD3tpmt8OeZpPIW3PO8W0cHAMYASebkBtYLLZ3zPPi9T/QmS3eTUVM4vy8oNnNBHwDoSPePlGl7yRlLLNPh1O2mwttgNXOPvSO3e87n02GgQXeBYPDRwMpsMYGRsFgNz3c47knUlX6IgIiICItezvm2DDaczVpBedI476vd29ANzt+gQWXEPOrMOhtFZ9TICIYr9T+N35R+/T5c74rPK6aSSre50rzzySnq0HUBvY2sLDpb0sPeYa6eondVYm68so5ub4ImWtZuwtY2H1313Hhfkl+IFs+LNPscZ8ofq6cjq3UX5Aep+g3tm8qyXCzJBrCyvx5g8BpvCxw1mI6Sv7jr197r3vOC8xsDQGxgAAWAAsABoAOy9K6QREVBERAREQERanxBznHh0Pks6okuIo/Xd7uzR+5sEFhxNz0KFns+GkGqkGm4iafvHevYb9egUG4dQzVU7YKAGSaVxJJN9Tq57zsOpJXiV81RMSeaaomf83PcdLD9vQAein7hxkpuHQ81RZ1TIPtHjXl38Nh7Dvude1tdIyWSsqxYdTiGm8z3WMkltXu/k0a2G31K2BEWVEREBERAREQazkHJsOF04hpfNI6zpZbayO9OzRqA3b5kk7MiICIiAiKI+LHEvwS6gy48eLq2aVv3feOM/j7n4enXoGazpxVp6KU09Ez2iVt+ezuVkZ/C51jd3cDpuVCGYsdqK2c1OKODpXf2bB7kTNdtgP3N+qwYdqr7D4HVErKeEHnmeyPQXJuQ0D5W/YJcdwbZwxydJiMh8UvbSMdeV4JBlfp5GH1Fr9hbey6OpaZkbGx0rQ1jQGta0WAA0ACt8GwqKlhZTYc0NjYLAfxJ7km5J9VeoCIiAiIgIiICIsdmDGoaOB9TiLrMaPq47NaNyeyCzzjmeHD6cz1mrj5Y4wdZH7AdhuTsFzhi+Jz1U7p64mSaU2AAJts2Ng2A6AfxJVxmrMctdO6qxI22jjv5YmfhHruTufoBJ3CPIfhhuI400+K4XhY4W8Np+NwPxkdOwPc6a6GS4WZC9jZ7Xi7R7U8aDr4LT8I/MdyPl3vIiIsgiIgIiICIiAiIgIiICIo04s8RBRNNHgzr1Tx5nDXwGnf/GR0G3U7AhZcWuJHgc1Bl9323SWVp/sh+Bn5zufh+Z0ghfS43JcSSdSTqST1J7leSqPhd3U/cG8g+zMGIYw2072/ZsPWFh3I2e4foNNytc4L8P8AxnNxLGmfZNN4GO+Nw+9cPwg+73OuwvOyUERFAREQEREBEXmSQNBdKQAASSTYADqT2QUcQrY4I3zVzgyNgLnOPQALnHPeb34jN4kl2wMJEMZ/1v8AzH9hp3vkOJmeDiEng0RIpIz5dvGePvHflHwj6/KpwyyMcQk9pxYH2VhsAfvnD4R+Qbnfp3VGW4TZC8YtxHG23jBvDGR75HSR35RsN+va82LyxgADYwAALADQAbAdl6UBERAREQEREBERAREQERWuJ17IInzVZs1guf4AfUkD6oNc4m5rOG0ZlpgDLI4RxX6BxBJeRuGhpNtzZcwVE75HukqXFz3kuc5xuXE9SSpEzfi0mKvkfK4MhYD4d/dB2H11BPrfawjqaJzSWzNLSOoIsUxsq6UyVv8AwqyA7EJRUYi0ikjOu3jOH3bfyj4j9BvbH8N8jyYnP57tpoyPFkG+/hsP4jv2BvuL9N0FHHDGyGiYGRsAa1regA6AK2oqxsDQGxAAAAAAWAA0AA2C9IigIiICIiAiIgKDeK+e/anOoMHf9g02lePvXD4G92A9TuR265Xi3n0jmw7An2d0nkb8I3iYdnHc7DTr0jnJ2V5cRnFPQ+WNtjLJbRjfTYuPQD69AVRf8P8AJj8Tm+0uyljI8Rw6uPXw2epHU7A+oXRtFSRwxsho2hjGANa1ugAHQBW+CYRDSQspsMYGxsFgNyd3OO7idSVfqAiIgIiICIiAiIgIiICIiDy94AJeQANSToAO5XP3FHiJ7ZJ7NhR/qsbruPTxyD19GDbv17K94vcQ/HLsPwR32INpZG/eEdWNP4Aep+L5dYmJQbgzEGuAfBpGw+Vu5d3cO63rh/ksVp9rzAwOiBs2NwuCRrY36Advp3Vlwh4c+Ly4hjzPs+sMTvj/AO48bt7Dfr0tecI2BoDYwAB0A0A+SxMJLtbdqVHSRxMEdExsbB0axoa0fIDRV0RbQREQEREBERAUc8T89Opw6iwDzVBbeR419nYd/wDGdht1WW4g5uNGwQYUA+rl0jbcWYN5X+gsbDcj0Kgisnfzey4UHyzySDneNXySk3/Y366DX1TZpa4NhM1ZOykwocz3kkk6ho+KR57C+p3uBuumcp5dioKZlNQjoLudbWR/xPd8/wBhYLE8OsnNw6Amo5XVMtnTPHf8DfQXPzJJW3ICIiAiIgIiICIiAiIgIiICIiDjEozqvqIrsai/s2f4W/wCroiIIiICIiAiIgIiIIJzV/1iv/8AHF/oVlwp/wCsRf8Ahd/pC+Is+r46EREWkEREBERAREQEREBERAREQEREH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMQERUUExMVFRUXFRsYGRcYFx0aGxkeGh8YGhshIBgdHSggGh0mGxsbJDEiJSorLi4uGiIzODMsNygtLisBCgoKDg0OFRAQFS0dIB8tKzctLS0tLS0tLS0rLS0vLS0tLS0tLS0tKy0tLS0tNzctLS0tMS0tKzctLSsvLTItLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABwgEBgEDBQL/xABNEAACAQIEAwUDCQMGCwkAAAABAgMAEQQhMUEFBhIHEyJRYTJCcRQjUmKBkaHB8LGy0RVDktLh8RckMzQ1U1RjdILCCBZyc5Oio8Pi/8QAGQEBAQEBAQEAAAAAAAAAAAAAAAIBAwQF/8QAJxEBAQACAQMEAgEFAAAAAAAAAAECETEDIWEyQXGxElEEIqGy4fD/2gAMAwEAAhEDEQA/ANdkw+L4Nj/AQmIW/SiqFimiy3v4wbHLIgjW4qauUuesLj4kYukMxPS0LuAwcahb26x5Efgbivvn7liLiGFYMhMsas8LLkwYC4APkxABH5gVVqROvM5k63rZLa5SZTK9+y5dKr52d9qU2DKwYxmlw+gc3aSL7dXT0OYGmwqfsLiUlRZI2DowDKym4IOhBpZp1dtKUrApSlArwObOaY+HqgIDyydXQjOsa2QAuzyvkiKCLnM5iwNe/WLj+HQ4hemaKOVc8nQMM8jkQdqDTOH9pK2w7YzCyYSLEErHMzdUdxYrdrKVVs+kkaC9rZjfAb6V4fE+UsNiYWhlErRMAChnlK2FiLKXIFiBa3lWi8DxM3LmJGExMjScOlf/ABeZs+5Jz6WOw8xp7wsOuwSvSuFN8xpXNApSlArxua+WoOJYcwTrcaq49qNtmU7H8Doa9mlBVjjHKuJ4fimw08fWhUskgIVWQEDrUsQARcXUnK/kQTtnLvMEnA5vB3k/DX8TeIP3fjZOtCNslNt+rW9iZm5j4DFj4TFLcbo6npeNrEBkYZqcz8QSDcEiokx/VhJv5N4gh7mZX7vELIwEhZr2XKwJJzVzYXtmLFqjE0YDGx4iNJYnDxuvUrKbgg1kVX3gHGsVy1ie6mvNgZWOa5gebL9GQC3Um+2xqeuHY6PERJLC4eNx1Ky6Efrass01kUpSsClKUClKUClKUCoB7YeSjg5mxkK/4vK93AH+SkbX/lY5+hJG4qfq6cXhkmRo5FDo4KsrC4IOoIrZdMqoDRhhcVunZp2gScMcRTdT4VmzXUxE6sg8vNd9Rnrx2i8hvwmXvI7vhHbwtqYyfcY/sbfTXXUHjDC4q+1Zwt3hMUkyLJGwdHAZWU3BB0INd1Vv7M+0F+GSdzMWfCscxqYifeX08131Geti8JiUlRZI2Do4DKym4YHMEHcVFmlO2lKVgUpSgVicU4bFiomhmQPG4sQfwIIzUg5gjMEXFZdKDRuWY5+EP8kxEneYS4GGmPtIP9W5tYW2/DLwpvNdGMwqTIUkUMrCxB/WR9a8DCYp8A4hnYtAxtFMfd+o529D+WkXK43vw7YdOZ46x9U9v38efDZqUpVuJSlKBXk8z8uwcRw7QYhOpDmCMmRhoynYj8cwbgkV61KCtXOEeM4ZbAYwCXDE/NTlbllFrAMSejpsLqtjfPxA+JyJzlLwWXpbqlwUjDqUZ9BPvLsGtqNGH2GrA8ycAg4hh2gxCdSNofeU7Mp2YfrKoPkil5emOFxKNLhpG+adQOiUHLpcNfpK3zAzz3FVGJ74dj48REksLh43HUrLoR+ttqyahCLjMnL06SLG/wAhxBvLB7QgfK5RhkDn7Ohzte3hmbhuPjxMSTQuHjcdSsuhH5H02rLGsmlKVgUpSgUpSgUpSg6Mdg4542jlQOjgqysLgg+lV07RORZOEy95H1PhHaytqYyfcc/sbf462Srox2DjnjaKVFeNwVZWFwQa2XQqMyBs63Xs07QH4a4hmJfCsc9zET7yjdfNftGeR6O0TkOThUneR3fCOfC+pjJ0Rz+xt9NdddwOBEyu3WF6RkMyWJ2AFX2sSthh51kVXRgysAysDcEHMEHcWrsqFeynntcMFweIKrGCe7e+Skm5BPxNTSpuLiuanNKUoFKUoFdOMwqTIUdQysLEH9ZGu6lGy2XcaxhMU+AcQzsWgY2ilPu+SP8Akfyv07OK6cXhUlQo6hlYWIP6yPrWu4TFPw9xDMS2HY2ilPufVb0/WlwvP0fH09Nk683PV7z9+Z58NopXANc10eUpSlArzuPcFhx0LQzr1I2fqpGjKdmB0NejSghDiuBOBmXB8QUy4Vr9zJ1FY20ydb5FcrLn0eIr4bAYHAOJYjl2UP45+GyvZvCR3bXtcAk2Pkb9Mg0OlTfxvhEWMhaGZepG+wqRoytqrA5gioY4pwL5Biljx958MVKQsco2BN81AykXUrfbqXTpqt7YmzhvEI8TEk0Lh43HUrLoR+R2I2NZVQRwzHzcuSiRC0/C5mHUNTETuM/LQ6OLb2Jm3hnEIsTEk0Lh43HUrDQj8j6bVljWVSlKwKUpQKUpQKUpQdGNwiTRtHKgdHBVlYXBB2IqHufezRcNH32EuI0U9Skk2A1udT8fv86mivl0DAggEEWIOYIOuVBUiRvlGQIUiwC2sLCpk7Ju0ASqmBxRCTIAkTHISAZBfRwNPpD11wu1Ds0ABxeATpKi8kCDIgD2kUbgaqNds9YqVhMAQemRcwd8q6drE8Lb0qL+yztG+U2weMa2JXJJDl3wGx/3lv6XxqUKizSilKVgUpSgV04vCpKhR1DK2oP6yPrXdSjZbLuNXw2JfhziKYlsOxtHKfc+q3p+zXS4XZwb11YrDLKhR1DKwsQf1kfWtdw+IfhziKUlsMxtHKfc+q3p+zXS4Xl6Pj6emydfvPV9+Z5+20UrgG9c11eUpSlArB41wmHGQtDOnWjfYQRoQdVYHMEaVnUoISxuDm4TP8nxR7zByhwrlQVlUgkq2V1kHiJUWDZkC+VY3CuIycAlMsBOI4Y7L3sat1Nh2a1iL72I+IsGsek1NPGeFQ4yF4Z0DxuLEH8CDqGBzBGYNVx7ROXcVwyURzO0uFYnuZTfpN8ysgGj5X6tTbqG4FbZpZHhfEYsVEk0Lh43F1YaEfkfMHMVlVX7k/iGI4DCmJMqTYKVh3kCsCydVgHQ3sXBuGAsDb7VnbhfEYsVEk0LiSNxdWGh/gRoQcwalrLpSlApWn9nnPMfFIrNZMQg+cj8/rL5r6bfcTuFApSlApSlAqHe1Ts4N2xuBXxZtLCo13LoBv5rvqM9ZipWy6KqISJlDKbSCxuD5aEHb41N/ZV2ifLAMLi2tiVFlc5d8B/1ga+evnXkdqvZuSWxuCXxZtNCo183Qefmu+ozvePuXOAtjQZ+8GHjiHUZmJHiGaqpHvXtntluRerqxPC0lKjDkTnoxsuExrENYdEr3uwOnV1eIE+uh/CT6hRSlKBSlKBXVisMsqFHAZSLEH9ZH1rtpRsuu8avh534c4ilJbDMbRyHWP6ren94yuF2dTfMaV14rDrKhRwGUixBrWsPO/DXEcpLYZjaOTeP6ren94yuBy9Hx9PTZOv3nq+/9/baqVwrXFxmDXNdXlKUpQKwuM8KhxkLwToJI3Fip/Ag6gg5gjMGs2lBXPj/AAifl6dI5UXEYFpOqGR0DdLZZNoQ62BtcBrXFs+n2OFcxpwoLjMM5bBTvabDP7Ya5DSRgeFTpdRZSPLK00cX4XFi4XhnQSRuLMp/WRBzBGYNVp585Jm4LMDcyYZyVjlI2OfdyAb2++1xbMDdsTb/AIVuE/7UP6D/ANWlVq72H/U//J/+aU017OAxkkUiz4dzHMhuCPxy3B3G9WD7Pud4uKRWNkxCD5yP8OpfNSfu0OxOpdqPZyWLY3Ar482lhUe35sg+l5rvqM9Yn4fj5IZUxGHcxzIb3H45bg7g61XqTwtnStR7Pud4uKRbJiEHzkX/AFL5qfw0PmduqFFKUoFKUoFRbzjy8eHBsRCglwvV1ywtY9LXv3gLXs18+r7/AFlKvmWMMpVgCCCCCLgg6gjcUFZuc+Yl4lKJEiCCMBbHN2AyBcnX8vxqQux/nkyt8hnkuyreFmPiIGsZJ9ogZg62B8q8ftC7MJYC+JwI641HUYrkuvmFFvGAM9b2BHiyqLmlLurglHW+YNjf47Vc1YlcKlQN2Zdo/wAhthcWzGAnwSE37m+x3Md8/q57aTujhgCCCCLgjMEH1qbFPqlKVgUpSgV04rDLKhRwGVhYg/rI+td1KNlsu41PD4h+GyCKUlsMx8D7p6H0/vG4G1owIBBuCLgjeurF4VJUKOOpWGY/Wh9a1fD4h+GyCKUlsMx8D/Q9D+Y+0bgcvR8fT1anXm56/wDL48/bbqV8owIBBuDmCNDX1XV5ClKUCsTinDosVE8MyCSNxZlOh/gRqCMway6UEW/4C+H/AOtxP9Nf6tKlKlAqI+1Ps5LF8bgl8ftSwqPb3LoPpea76jPWXKVsuhUvhvEJIZVxGHcxzIbi345bg7jerD9n3O8XFYdkxCD52K+n1l80J+7Q+uodqXZwWLY3BL857UsKj2/NkH0vNd9RnrE3DeIyQSriMO5jmQ3y38wRuDuN6rlPC2tK1Ps/53i4rDsk6Ad7FfT6y+aH8ND67ZUKKUpQKUpQfMqBgQb2IIyJBz8iMx8arH2i8iS8Im616nwzt83JupOfQ/1vI+98birPVjcRwEeJieKZA8bizKwyI/W+1bLpmlRo5VfLepF7NO0ZsCy4bFuWwxsEc5mHy+Mf7vwrXu0jkGXhEveJ1PhXbwPuh+g/r5Hf45VrMM4kGetXyzhcKNwwDKQQRcEG4IOhB3FfVQB2X9oTYBlwuKa+FJsjn+YJ/wDrP/t10vU/KwIBBuDmCN6izSnNKUrApSlArpxmFSZCji6nUfwOxHnXdSl7tlsu40+DFPwyQRSkth2J6H+juf7R9o3A22GVXUMrBlYAhgbgg5ggjUVjcW4bHioWilXqRhY2NiPUEZqRsRUY8O4nPwDFDCzkyYR7sr5DpFxd1Glhcd5GNCepdbNGOP49vZfW60z1lZ397+/KWqV8xSBgGUgqQCCDcEHMEHcV9VbmUpSgUpSgUpSgVEXap2bly2NwK/Oe1LCo9vzdB9LzXfUZ6y7SmxUjhfEZYJVxGHcpMhvcb+YI3BGoNWG7Puf4OKx2yjxCjxxHfzZPpL+I38zpna9yKYj/ACjgl6XVuuaNdDv3gA9faG4JPnfQcNB1lcVgz3WIB6+hTbMe10bXG43B01FVbNOPU6k6c3VoqVpfZzz3HxOPoeyYpB4006re8o8vMbfdW6VLrLLNwpSlGlKUoMbiOBjxETxSoHjdellbQg/rXaq0dpHIMvCJetOp8K7eCTdT9B/I+R3+NxVoKx8fgo8RG0UqK8bjpZWFwQa2XQqDDiQ+VS92L86lWXh87Eqb/J2J0Iue7J8rX6fK1vIVrHaD2VT4BmmwgafDa2GckXowGbL9Yfb5nTuDYwpLFJ0k9DrIAD0luhgcm20tcaGr5ieFwKV5XLXMEHEIFnga6nIg5MjDVWGxH45EXBBr1a5qKUpQKUpQfMjhQSTYAXJOwFRicVPzGz91DFHgYiwinxETO0rkFOtI+pLBQWIN8j0nUWWT2UEWOYNcIoAAAAAyAGgoIY4LxbGcuzjDY0mXCEnocDRcrNH8CfFFqNVv70yYTEpKiyRsHR1DKym4IOYIPlWNxnhEOMhaGeMSRtqDsdiCM1YbEZio8wWMl5dnEGILScOlc91NbOFmzIYAfafPNhn1CjJvaUaV8xSBlDKQQQCCDcEHQg7ivqjSlKUClKUClKUHDLfI6VDHP/Z2+DZsZgFvGD1yQC91tmWT0HkM12yyE0UojPCZzVVhUmTu8ThWK4lXHs5FiTkbfSzAIGTXyvnUmch9pjT4k4fGdKsxAjcCw6tOk7Z7Hzy3Fax2i8sScOxL4mKEHCyNmV9wtqD9DM2Fss7Z3tWtYvCLi1DIw70+y2nefVPlIPxv6gmd6eG9S9CzH2WepUWdl3aJ33Tg8Y1px4Udsuu3ut9fyO/x1lOqe/HKZTcKUpRRSlKBWr88clQcTg6DaOVLmKUDNCdQRuh3H26gGtopQVk4VxPG8BxzKy9Mi2EsRPgnTYqfvKtscjuKsNy1zBBxCBZ4GupyIPtI26sNiP4EZGvN585Mh4rB0t4JkuYpgM0PkfpIdx9uoqCuEcUxvAccysnTIthLET4J0zsQfv6XGmYI1FVyzhZyleXy3x+DiECzwNdTkQfaRhqrDZh/bpXqVLSlKUClKUCsXinDosVE8MyB43FmU/x1BGoIzBzrKpQRRguITctzrh8Szy8Nla0M5FzAT7rW29N/aX3gJUhlV1DKQysAQQbgg5ggjUEVj8U4bFioXhmQPG4synf+B3BGYqLcDj5+WMQuHxLNNwyVrQzEXaEnPpa32kga5soyZaCXaV5P/efBf7Xh/wD1k/jSg9aldGCxaTxrJE4dHUMrKbgg6EGu+gUpSgUpSg654VkUo6hlYWKkXBB1BG9QP2gclPwuRp4FL4Rz4l3iO2e2fst9h9Z8rrxECyKyOoZWBDKRcEHIgjcVliM8JnO6seLwwxgDo3z1vC1rCa2diPdlHlv915O7Lu0Xv7YTGHpnGSO3859U/X9d/jrqvP8AyS/C5DPArPg3PiW+cR2z2+q3rY+uuYvDrilEiN88PZcZd7bYjaUb+euepnenhmWXRy17LP0qLuy3tE7/AKcJi2tOPCjt/OW2Y/T9d/jrKNXK9+OUym4UpSiilKUCtX595Lh4rB0t4JkuYpQM0PkfpIdx+dbRSgrHwXiuM4DjmV06ZBYSxE+CZNmU+evS22YO4qxHLfH4eIYdZ4Gurag5Mjbqw2Yf3ZV5fPvJcPFYOlvBMlzFKBmh8j5odx9uoqDOC8WxnAccyOpVxYSxE+CZNmU6X+i/2HcVXLOFm6V5fLfH4OIQLPA11ORByZGGqsNmH9ouDXqVLSlKUClKUCsTi3DIsXC8M6B43FmU/rIg5gjMEVl0oIq/wFYH/aMV/ST+pSpVpQVv5A55k4RIFctJgpDcqMzETqyj9q76jPWxGAxkc8aSxOrxuAyspuCDVe+0Pkl+FSF0BkwUjWBOZjJ91j+62+hz16eQudZODSBWJlwMhuyjMxk+8vr5jf41dm+8TtZKlY/D8dHiIklidXjcdSspuCKyKhRSlKBSlKDrnhWRSjqGVgQVIuCDqCN6gftB5HfhbmfDqz4Rz4lvcxHbPW19G+w6+KfK+J4VdSrKGVgQQRcEHUEbiss259TpzOaqr2JhGJUOjWl1V9O8tsfKQfjrvcyp2Xdonyi2ExjWxAyR2y7y2x+v+3466p2h8iPwx2xGGBfCMfGm8ROmflnk22hvfPU5YhiQrobSjNGGXVbY+Tj8ftBMb/GvDLl0MvH/AH9lp6VF/Zh2i/KLYTGHpnHhRzl3nkD9f13+OsoV0lfQxymU3ClKUUUpSgVq3P3JUPFoOlvBMlzFMBmh8j9JDuPt1raaUFZeB8WxnAccyOpVxYSxE+CZNmU+ds1cfA7irD8u8dhx8CzwN1KciPeRhqrDZh/boa8nn3kuHisPS3gmS5imAzQ+R80O4+3WoP4HxbGcCxzo69MgIEsRPgnTYg6Xtfpf7DuKrlnCzNK8zl3j0OPgWaBupTkQfaRt1YbMP7dK9OpaUpSgUpSgUpSg6Mbg4542jlUOjgqysLgg1Xjnzk1+ESki8mClNlY5lCfcY+fk29vOrHVjcSwEeJieKZA8bizKdCPyO4O1bLoV15F5yk4NKASZcFK3iTUoT7yevmN7fbViOF8SixUSywuskbC4YfrI+hqBOJ8ufyPjnglBkwk4+bZsyF39A6E57kWO9q54NxabgOI64yZsHIwDrf8AXS9swdCPSsuU28t/kTHqfhYsLSsPhHE48XCk0LdUbi4P7QRsQciPSsyj1FKUoFKUoPiWIOpVgGUgggi4IOoI3FQR2jciNw12xOGUvhHN3j3iPx8r6NtexuNZ6r4miDqVYBlIIIIuCDqCNxWWbRnhMpqqsyouJsytaUC6tp1eh8ny/W8v9lfPpxf+KYo2xKDwsf5wDz+uB94z861DtF7OZMC7YrBqWw/tPGD4ovM+ZT11G+WdauJ1xIV4mMeJjIKsPCXI+GhG39uXOf014Jcv4+XfhaGlaD2Yc+fyghgnsuLjGY07wD3gPMbj7fhv1dX0cbLNwpSlGlKUoFatz9yVDxWDpbwTJnFMBmh8j9JDuPzraaUFOcPxueM2hlkia/iaN2Tq6b2uBbzOtS52cdrbFlw/EWGeSYjTPYSDT/n+/wA61ntj5FfAYlsXCt8NM5Y2/mpGNyD5KxzB+Iyyvo8YEg9aud4lccG9c1AnZX2knBlcHjGJgv0xyk37nyU/7v193/w+zPSsCLjMHeps0pzSlKwKUpQKUpQePzTy7FxCAwy3B9pHHtRsNGH5jQgkVAXM3f8ADJPk2ITUdPULGOWPPpZQbkEHbY7Z3M681c4YbhwUSsWkf2IYx1SNna4W+Qvlc2zyGeVeBxbBvjEkfHQ4aKOWPu1XETWMSX6gbBf8qT0knrHT0qBoWZrvtyz6WGdlsRTyNzhLwaX3pMHIfGl79P1lvow3GjDXYixfDOIxYmJJoXDxuLqw3/gfMHMVWPjPBTgMQIBNHiEYDxAN0sGF8ioY9QttfavX5T45ieCOrq3fYSQ+NAT0i/l1WKuBbMgX3ysa3Kwy6mOGpleVj6Vg8F4tDjIVmgcOjDI7g7gjYjyrOrHUpSlApSlBwReoc7R+zRoy2L4ev1pMOuuWpjA/d+7yqZKVlm05YTKaqo/8qSPIkyN3cyWKumTXG9/P8PSp87NO0BOJJ3M1kxaL4l0EoHvJ+a7fCtb7VuzXr68bgU8ebTQqPb3LoB73mo9rUZ6xDgsUysskbFJEPUrKbEEbg1epYzGTGanC31K0Ps17QU4knczWTFoM10EoHvIPPzXb4VvlSspSlApSlB0Y7BxzxtFKgeN1KsrC4INVp7SeQJODy97F1PhHbwvqYyfcf8m3+NWdrHx+CjnjeKVA8bqVZWFwQa2XQqIgWUZZNUj9lvaMcEVwmMYnD3tHIdYfQneP934aeB2j9n8vCJe9i6nwjN4X1MZOiv8Ak2/xrWlkWVfrVfKeFv1YEAg3BzBG9c1AnZd2inBdOFxbE4fSOQ5mH0PnH+78NJ5RwwBBBBFwRmCDpnUWaVt9UpSsCtD5s55cT/IOHJ3+MN+ojNIBoSx06h5E2G+dlO9utwRnmNsj99edwTgOGwSsuHiWMMepiM2Y+bMbsx+JoNU5a7N44X+UYqWWfFsep5BIygEi2TLZtMr3GWQAGVblhOGQxG6RorbtbxH4scz9prLpQeDzjytDxODu5MnXxRyWuUbz9QdCNx9hqDOKJNw+ZoMYnT1De/dygbhra53DbE2YAkk2RrzuO8Egx0LQ4iNZEOx1B81Oqn1FZZtx6vRx6k7q9clc4twrEmSMNJgJDZ195duoD6Q+4jLXSxvDcfHiYkmhcPG4urDQj+PptVauceV5uDT93JeTCyE91LbIj6LeTgffqPTJ5E5zk4NLvJgpGu6DWMn3l9fMb/cavXbsvCfjJFlaVjcOx8eIiSWFw8bi6spyI/W1ZNSspSlApSlAqH+1fs1Ll8bgU+c9qaFR7fm6D6W5XfUZ+1MFKSioWDxLdSyRsUkQhlZTYgjQg1P3Zp2grxBRBPZMUo00EoHvL5HzX7Rlpr3at2ali+NwS+PNpoVHt7l0A97zXfUZ6xHhcSbq6MUkQhlZTYgjQg+dXynhbylR/wBmnaCuPUQYiyYpR8BKBuvk3mv2jLSQKhRSlKBSlKDox2DjnjaOVFeNwVZWFwQarf2k9n8nCJO9hu+EdvCxzMZPuv8Ak2+hz1svXRjcIk8bRyoHR1KsrC4IOxFbLoqo/UHXLXf9frSpv7B58U2FlWXqOHRlEBb/AJu8VfNAem2wJI2sMKDsQjXF9fyk/Jeq/ddPzlvod51aX9617eudSxhsOsSKiKFRQAqgWAA0AFVllNJkdtKUqFFKUoFKUoFKUoI/7df9Dy/+ZF++KgHC/wCbN8KUq8eE1OH/AGe/9Ft/xD/sSpOpSpvKilKVgUpSgUpSgGql8w/6RxX/ABEn7xpSqxTkz+XP8/wn/ER/vCrS0pTJsKUpUtKUpQKUpQKUpQKUpQf/2Q==</t>
+  </si>
+  <si>
+    <t>https://xfish.com.ar/Image/0/750_750-SOLID25-1.80_2.png</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhUPDxEWFhAXExoZFRgYFxcaGBgXFRcXHR0dGhgYHSoiJBslHhcfIjEiJSktLi4uFyAzODctNygtLisBCgoKDg0OGxAQGy8mICUtLS0tLS0tLS0vNS0tLS0tLS04Ly8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOsA1wMBEQACEQEDEQH/xAAcAAEAAwADAQEAAAAAAAAAAAAABQYHAQMEAgj/xAA9EAABAwIFAgQDBgYBAgcAAAABAAIDBBEFBhIhMUFREyIyYWJxgQcUI0JSsTNykaHB4fAVQ1Njc4KS0dL/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAwQFAgEG/8QAMBEAAgICAQMCBAUEAwEAAAAAAAECAwQRIRIxUSJBE2GRoQVxgbHRIzLB8BTh8UL/2gAMAwEAAhEDEQA/ANxQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQHTW1IijdK69mtJsASTboANyTwANzdAV/7PczPxOlNRJH4bxK9hAvY6bEEX9nAH3BQFmQBAEAQBAEB8veACSbAC5J4ACAjcLzDS1LnNgma8tNjYOA3vwSLHjopJ1Th/cjiFkJ7UX2JRRnYQBAEAQBAEAQBAEAQBAEAQBAEAQFMxnMpqZW0eFtE8rZPxpCHGmgLWuLfEe0WLg6zgxpuS22yAseBYb92hbFqDnbue4NDQ97jdztI4uST9UBIIAgCAIAgI3HMcgoozNUPDW9B+Zx7NClqpnbLUERW3RrW5GOZnzZPinlIMVD0jB80gHBkI6dbcfut7GwYU8vlmNl/iD30x7/AO/c9FNiNDBFDHG9s0+tsrmNddl2C1i9u3luSBvc79Fw6LbrHvha0SKX/Fo6ny97Zp+UswNrY3FocHMIBDrXsRcHb6j6LIycWWPJJmhiZcciO4+xPKsWggCAIAgCAIAgCAIAgCAIAgOmsq44WOlleGRtF3OcbAL1RcnpHjaXcgKunmxJhjJkp6N1r28s8zeoII/DjI/956269Tio8b5OYtv8iZwjCoaSJsFNG2OJvDR3PJJ5JPUncrg7PYgCAIAgCAgc25ljoIS82MhsGN5N3EgbDc8HbrY8WJE+PRK6XSiK21VrbMTxnGzVOMlbIHG/lZfUW9dw3b6AWFl9NRjxqj0xR8/kTutnuvf5/L5HfjdG0RmWMl1IT4TZdRa0vc3kAcgOaW/LleV27ajLiXg5rolCTaW9e7X7ERl/K1RNPG0xu0l2zhbTqAvYu7bb8mw2C6yL41Qb2t+C9XON+4x9/kb9lbA/ubC29ybf2ubm3Ukn6AL5rJyHdLqZexMZUR6UTirFsIAgCAICmZmz0yEmKk0SSh1nvcT4LCOWlzAS5/s0G197K9RhynzLt9yndlRh2a/MuaolwIAgCAIAgCAjMTxlsLhCxplqXC7Ymc2/U88MZ8Tvpc7KSNba2+F5OJT09LudNJhDnvbUVrhJM03YwX8KE/A08v8Ajdv20jZeymkumHb7hR95Ewojs5QBAEAQBAdc8oY1z3EANBJJNgAO5KHjPzxjuMDE3ufNUthZFdx8rnGRz3OBLAw+YtGhtriwub8rdw7aovprW2zPULOndvcseTsv033Z7pony0cgL5J5mRxNaIr2MdnmWx73A2XmXk2KxJPUl7Lnv9iSEVos+FV8VW00uH072tib4f4kbo2MaQLWLhfcb/q623uqc65VS+Ja+/PD2eWdU10QRbMGwVlOAfVJptqtYAdmNGzW/Lc9SSqttzsfyJ6KFVFRJVQk4QBAEBw51tzwgM0zBmZ2ISOpqWfwqNgvNM293gG1g4cNPSxBf3tzq4+Kqo9c1uT7Iy8rKb3CD0vd/wCPzKU4jX4bdhbyNLgXBo9gB89tt1twjpfM+dsbkutbaP0Cvjz7YIAgCAIDhzgBcmwHKAgHYnLWEsoTphvZ1SRcHuIWn1H4z5R8XCn6FXzPv4/khU3P+3t5/gk8LwuOnaWxg3cbve43e93d7juT+3RRzm5dySMVHse1cHQQBAEAQBAeTFMThpYzNUSBkY5J79gOSfYLqEJTeoo5lJRW2YtnbM8+K6o4nGCjadg7bxCN/PY3JPRgPNr2vqF6eBKNfVvkqxzIufSeHLeQ62pj8WKIRQ7W8YDxJh/LawZbhuw35cd1VomoWKTekixbtweltmm5RyvWwAfe6wGMABsMTGhrA0WADy0GwHQDpyVYyciqb/px58sjrhLXqZbqSkZE0MiYGsF9gLbncn5k73VKUnLlk6SXY714ehAEAQBAZt9q2PExCjgfYyvLHEHctZ/EO3Ruzf5ne2+p+HUN2dTXYzsy1KDfsvuZtieOeBC2kjsNIGkACwJHqcer7d+/ZbkKYqfV7mXCFmTqVn9vggKGpkY507QS4bFztx5u/v8A7UzLdtcJx+Gz9Yr4k2ggCAIDxYpikVM3VKdybMa0anvd2Y0bkruFcpvSOZTUe5FjDpazzVo0QctpgeexmcPV/IPL3upeuNfEO/n+P5Iulz5n28fyT7GAAACwAsAOAAq5OfSAIAgCAIAgK5m3OEGHts465yPJE0+Y+7j+VvuforFGNO58dvJDbdGtcmT11RVYnUNM4dJKf4UDNgxvf4R3cdz7CxW1CurHhv7mRO+zIl0wNIyrkWOn0zVWmSoHpaB+FF7MaeT8R/2szKzpW+mPC/c0MbDjXzLllzVAuhAEAQBAEAQHRXVkcDHSzPayNou5zjYBexi5PSPG0ltn51rMVke5zGWkhFRI+N+lwk0PJuAOotZxFti3dfSUxa1JcPWjGsVb3B9t7PXh+RRLh0lYJHPqGlxYyPzBwaQAC0jUXO526EbL2Wa4XqtrjyWIJTi3E6cPwSOnsyvkEhHmNJE462ucBvM9o8lgfTuSbdLqWV07OKlr5v8AwRWfDq/qT79j9GL5Q1wgPHhWJMqWGSK9hI+MhwsQ+J7mOBHzafpZAeKvxkl5p6NglnHqN/w4veRw6/CNypo1LXVPhfd/75IZW89MOWdmGYMIneNK4y1JFjI4cD9LG8Nb7D63Xk7epdK4Xg6hXrl8slVESBAEAQBAEBwSgM8zd9oYaTTYdaSbh0vLGd9PRxHfgLRxcFz9U+xRyMyMOEU3LmX56+VzoyXO1XlqX3LWnqG39b/7DbjYrRuvrx46XfwUK6bMp7fCNfy7l6ChZohbdx9cjt3vPdx/xwsO/IndLcjYqpjUtRRLqElCAIAgCAIAgIPNOaafDo9c7rvI8kbfW8+w7e52UtNM7XqKI7LFBbZjOYcbqMRf4lU7RA0+WK50M7arbufbpz/KFv4+JGlcdzIvypTekezL+U6nEWOMA8Gm0kCSQWMpHAAH5L9th8RXGRmQqfT3Z7RiSn6pF8wvJssULqRpZHA7lwe8ycAbadPbm4PQhZs8qMpKb7r6FyGPOLaTWn9SawXJ1JS7siDnW5cBtfmzQLA+9rnqSoLMqyzhvgsKiCe2tssCrkx48VxOGlidPUPDIm8k/wBgANyT0A3KAqWXpJq9skkLHUtFLM95dxNLqsLstcNabXLhe5Oymg4QW+7+xDNSnx2RcKChjgYIoWBrB0H7k9T7lRyk5PbJIxUVpHpXJ0EAQBAEAQHkxPEYqaN007wyNvJP7AdT7BdQhKb1E5lJRW2ZhmDMs+IghpNNho9TjcSStPyHpNuOLA79tWnGjVy+ZfZGddkufC7HflvIZqD4szfBpLDTGLtklsB6id2sv05PJ7n2/P6F0w5fk4owXKXXZ9DTaSlZExscTQyNos1rRYAewWQ25PbNVJJaR3Lw9CAIAgCAIAgKLnP7QWUxNNRgS1W4Jv8Ahxdy48EjtfbrbhXcbDlbzLhFW/KjWuO5ldTI58nj1L3y1Eh25L3k8BjbeVvY2v8ApA5W5CEa46XCMeds7pcF/wAp/Z26TTUYmBpG8dMPS2+/4nc+39SeFl5X4hv01dvJo4+Co+qfc01jA0BoAAAsAOAB2WUaJygOUBFY1jsdNpZYyVD/AOHCzd7z8uje7jsFLXU589l5I52KPHv4I6LLzqstmxQNeQ4OjgG8URAPJ/O6zje+3tsEscP7YL9RBS7y+hZQ22w4URIcoAgCAIAgCArua83wYeNLjrqHDyRNI1H3d+lvufpdWKMeVr47eSG26Na57ma11RNWzg1QdNU7+DSxjyM5F3kngEbk26G5C1oVxphxwvdvuZkrZXS0u5oeAZV0Fs9ZpfMPRG2/hRb38oPqdf8AMfpbk5d2T1cQ4X3L9OOocvuWlVS0EAQBAEAQBAdFbVshY6WVwbGxpLnHgAL1Jt6R43owbOX2j1da8x0pkp6XVpZpB8WU9ANO5cf0t2HUrqUJQepLQUk+x0YDTSVdoqWEPqw4Ca1jEw9JHOA0k7EG3lDgdIN1qYmdGMGrH2MzJw5SnuHua5k/JMVD+NIfGqz6pXdL8hgPA9+T/ZU8nLlc/C8FyjGjUuO5a1ULAQBAEBFYLgUdNqfcyTv3kmfu95+fRvZo2Clstc/kvBHCtR59/JKqIkCAIAgCAIDglAZvnH7R9JNLhlpJtw6XljO+jo53v6R7rRxsFz9U+EUsjLjBcFcy1g89VI77s4vkc4+NWPuWt1W8rL+uQC42Nhf5FW7rIUrn9I/77FWuud3P3NUy7l2ChYWxAmR28kjt5JD3c7/HCybr52vcjSqqjWtImFCShAEAQBAEAQERmTMdPQR+LUPsT6GDd7z2aP8APAUtNM7XqKI7LI1rbMfzFj1RiLi+pPh0zTdsNyGt7GQ8l3tyegA3W9jYkKVvuzGyMyVnESIgwSoxCRkNHGWhzSPFcC0aB6rOtZrDv5W7mx53VX8SlW469yzgRsXMuxtuScqQ4XTiCLzPO8r7WL3W7dGjgDosY1CwoAgCAIAgCAIAgCAIAgPJimJRUsbp6iQMjbyT+wHJJ7DddQhKb1FHMpKK2zHc353mxDVFCTBQg2cTs+T2dbof0D67cbeLgKHqn3MvJzN+mJIZP+z904ElS10VLsRHxLL/ADn8rPh5/c85X4hGPpr7+TzHwnN9dv0NXpKVkTGxxMDI2izWtFgB7BYspOT2zWSSWkdy8PQgCAIAgCAICp5mzi2F5pKNomrbem/kjHeR3tfgb/JSqCjD4lj1H9/yIbLlHhdzK8XLjL94qZHTTSW8N1t38WETOjbm2q3Nw0EglbmHKPwd615RiXyssnruXHKv2fOmLajE22YDeOmHA95D1J7c9+yq5X4h/wDFX1L+NgqPqmaG7DY9ccgGkxizQ3ZtgHAAgdAHut/MVkN7NHR7EPQgCAIAgCAIAgCAIAgK5m7OEGHNs/zzkeSJp8x93H8rfc/S6sY+NO58dvJDdfGtcmR4hWVeJztM4dJI4/g07Ng0d7flb3ed/wB1uV0140Nv6mPZdZkS6YGkZQyIynLZ6vTJUD0NH8KL+UHl3xH/AGsrKzpWemHCNDGwo1cy5Zd1QLwQBAEAQBAEB8TStY0ve4NaBckmwAHUkok29IGc47nJ9Y51NQPMUAsJKix1uuQAIW873G/O9wO9qdTogpyj1N9l7fqUp5Kk3FPXzK9TxEPNFQReLKXXc02IbwNc7+4tfQDbc6rnyqWFO0r8nvr/AFJf5+RV9U30Q/38zQMq5NZSu+8VDvHrXeqV3DfaMHgAbX/YbKK/JdnpXEfBfpx1Dl8stSqlgIAgCAIAgCAjsYxunpGCSokDWk2bYFznH4WtBJ77DZS1UzseoLZHO2MFuTJFREgQBAeapxCGO/iSsbZuo6nNFmjqbnhe6etnPUt62ZnmT7WGukFLhwuXHT47h5Qe7WHkd3HYDe1l3V09a6ux5Pq6X09yvYBl2orpXFl3P1fjVEly1jutr+t/sNh7cretyKqIJL9EjDhTbkS3LhGu5by5BQs0xC8jv4kjt3vPue3sNliX5E7nuRs00wqWoomVATBAEAQBAEAQEbjuOQUUZlqH6R+UcucezR1P/CpKqp2vUUcWWRgtyZm9XjlRiLvEka5lM14tC3TszS465Xu2aTYaSdhY27rTWLGlab513/wjLnlSsfp7bPqmoarFZtUD/DpGFwNRpsXaramw33tYBur4bk76UdsKIafMn7fydQonbPqfCNFwHA4KKMQ0zA1v5jy5x7uPUrMttnbLqkzShXGC1Ek1GdhAEAQBAEBFY9mCnomh1Q+1zs0Auce50tBOkck/6Cmpx7LnqCIrLoQ7syfNGcqmqaXMa9sZdZkQNrsB3Lw3ff3O19uLrfxsCuHD5l7mPfkzlYtvUDtyrhJxOXTUOewhpJLLG1j6W3GlrQXDytG1tySdo8q3/ir0e5LTWsl7fZG0L542CPxrGoKOPxamQMbewuRdxPQD/PA5NhupK6p2PUVs4nOMe5l+YvtJ8RpdGXCHVZjWOLTIBsSXCzuR0sLc34WtR+GPvIzrMycpuEV+pB4hHNVxPAYyKnDC94Hpu0aiZZjubHe23I2KsPGqjxZLbfH+opVZcpT6aY+/LPrKX2ezVcha8hlIA3xJWnUZw4BwERsLRkEdBbrqPGDZDok0b0JdS2bjh9FHBG2GFgbGwWa0dAFHvZ0elD0IAgCAIAgCApePfaHTxSOpKT8erAPlafIC3kaupaNyB0B7FS0wjOajJ6IrrHCDklszTE6980n3ipk8WZxs227W9mxN4Pz4/mO6+jqqhVHS4R89bdO+Rb8qZAfNaoxEaY76m09zc+8p7+3Pe3CzsvPX9tf1/g0sTA6fVM02KMNAa0ANAsABYADoAFkN7NQ+0AQBAEAQBAVPOmdoqFr44/xKuwDYwCQ0uFwXnpsb25O3zXUdb5OZ709dzIcUrJ6q8sspEjtQksT5WjzeciwsRw0fp4C+owrKZw1Bdv3Pn7YTom3N739zz4VgU1cY4KPW97nEzuLdLWAWDS531cbHf2U92VClOU/08k9VMp86N3yrl5lBCImnU+w1vIsXW4AHRoubD3PJJJ+WyciV03JmrTUq46IvPGeocNboA8SpI8sY6X4Lj/gbqXFwp389l5OLshR9K7mM5txZ9TUN+8yeI5oHi6D5Q42JjYAbBrfTe+51Hst/DpUI+laXt/JRtT773IiayWWZwkkLneUBpI/K3YAWAFh7KzGEYrSOFKO+5oOUsec2P/p0sHjTy69LBpIJcD5ZN7aSOvQLMzcXqfx+rSR5j29G4Qhx7fn7mq5dwx1PEBK/XO6xkcBZt7bNYOjGjYf1O5WFdYpy2uEa1dah+pKqIlCAIAgCAID5e8NBc4gAC5J2AA7lAZtmvPJm1U2H/wAP0yTm9t/yxgbkni43PTutTHwNrqs+hm5GeocQ7mX1WHuhljjoQ98j3B0YZu/W0g6ZnN3u02tG3a1nOJJsqV9Lqn0lui1XQUja8mZQbABV1TAa54Bd1bESNwwcD/F7DYL2zKsnFQb4Qrxq65NxRcFXJwgCAIAgCAICsZrzlDRAsbaSot6Qdm+7z0+XJ9uV6eNmI4zjLpp3Tv8ANNKbOIAF7AAWA6ANsOtkBacqfZxU1P41U4wQu/Jb8Rzeb2Ow3/V/RWsbKljtuPJBdRG3W/Y1/B8KhpImwU7A2NvTkknkknck9yq9lsrJdUnyTRiorSPauDo/M+BVAqJnuqmePI5jheQkgF35u5dc/stv8Pu64fD6tNc/oY/4i5UL4kff9yQxbAmxuGhjbsaC9hBAddgdbbqCbLXqt+Itox4ZE4ydc29v38NnflCmkr53sbFrtHZvLYowXC5d8wLWUeVcqYqTev3Zb/4jcfh1rbb7/wCWbBlTKUFACWNBmcLOfpA27NHRv1JPXovnMrMne+e3g28bGVK77fuywqoWggCAIAgCA8OL4tDSxmWd+lvAHLnHo1rRuXHsF3XXKb1FHMpKK2zOc24lLVxkzyeDCbGOBrhqcL+qdwBABHAHUW8xstLGrjXLet+X/Bm5Nsprpj3fZIiMu4DPiB0048KlGzpiLfNsTT36nnufyq5flwqXl+P5KmPgzm/Vxo1fAcAp6KMR08YH6nHd7j3c7/gWFddO2XVI26641rUSUUZIEAQBAEAQELmnM0GHRGWc3d+Rg9Tz7dh7ldxrlJOSXCOHZFNJvlmYVmfq6Vpe9zYY3X0MjFnael3m7vqLLnR7sp000k7wxgL5Hus1o3JLj/c3XoNnyNkSGiY2WdjZKs+YuIBEZ7Mvxa/q6/JeHRc14AgCA/L0WICmc19P/FYQQ825Ht2XS4OHFSWmazhGHVGL+HU1MIgpvDALS38SR3UtJ3EZHF1dpy1TXqP9z+hRvwI3yTlxr3XcvWEYRBSRiGmjbHGOg6nuSdyfcqpbbO2XVN7ZehBQWke5RnYQBAEAQBAV/MWZ2Ux8GJvjVRFxGCAGg8Okdw1vz3N/qp6qHPl8IhtuUPzM9qMf0Wq6h3i1pJDT6mRC/pgbtf3duL9XWDTbu6KF0vt4XdlfGruy36PbvJ/2pEtl3JUtW4VOJ6mx31Ngv5ndjIeRt056bDZQWZD7L5a+X8luuqFcdR78qUvPP2XBpMMLWNDGNDWgWAAsAB0ACqNt9zs+0AQBAEAQBAVLMmcmQSfdYPNMdnOsCI+9m3Gp4/SO256K/j4E7I9b4X7mfkZ8K30rl/Lkz3FqiKSVwmcWzyyaGl7jbwtH5i7dpv2FiXjYbrZpg4Q0luOvbz/kxrXLI3Ym00+z7EZHlaqrZ9NK17oXE2keCxo0mx9W+m/FxcjosDKrVdjX28H0GNJzrTb29GqZMyLDh/4hPiVFvWRYNvyGDp8+flwq5YLcvD0IAgCApOWPs1pKMiSUePON9Tx5Gn4WcfU3+i92C7LwBAEAQBAEBw5wG5Nh1QGdZqz8XF1PhpBI2fOfQ2+1mdz77+wPTTxcDq9Vn0M/IzYw4jyyuYW2Qj7tE0ySSOdrNml79xq1u6Dfgm2wBP5V1kXwhLVfdfRf9jFw7LI/EyOIv293/wBfMv2WcmRU7/vM4ElUbb7lkdhwzV1+L+gA2WbKW5N+79zUdr6FXFaiuyX+fLLUuCM5QBAEAQBAEBV895j+6RCOFw+9SXDG8uDQCXOAHa39e52VnEhCdiVj4K2XOyNf9Pv+xiH/AFmoZd0ExGp1pHsbaQudc2Lz5yPqOCvqJUVy7r8kZdc3GOuxbcCybLir46mV72Qgkve5tnSG42YCTcbG7jtxbUb2oZGdDHTrhyzvGxZzcnNaTNhw+hjgjbFE2zGjb/ZPJXz85ucnKXc1qqo1RUI9kelckgQBAEAQBAEAQBAEAQHixbFYaSMz1EgZGOp6nsByT7BdQhKb6Yo5lJRW2ZNmTNU+JkxxB0dJa+geuRn6pHcNj9+Og1mwWrCqrGj1T5ZnWW2XtwrWl7s68Fy1PVv8GmdpiaSJptNmMP6YSTqc619RO99iR6BVuyrZp7ek/HcuYmPRTLqlHqa7b7b/AC9/yNVy/l+Chj8KnZb9Tju557uP+OAqXtpFuyyVkuqT2yVQjCAIAgCAIAgKhm3PEVJqihLXzjZxPojPxEcu+Ab97K9i4MrvU+EUcnNjX6Y8yKRhuR6vE5jV1MjooJCHOc6/jSW/S07NZ+noOjTbUYsiMK7GoPsTUOc607FyaRhuU6WAOa2MOa61w5rCCWjk2aNRJ3JdfcrmeRZJ7b5Oo0QitJcE61tthwoCY5QBAEAQBAEAQBAEAQBAVvNmcIaACO3i1TyBHC31EuNm37Ak27noFNVS58vhL3I52KPHuZ8/XUk12KTAPDnsjiOnw4JYzfTY6mue5oNjYtB51u0tUkp6XTBaX3ZGvMu5M5cydLUyPqKouipZHh4gALXyHfd5J1Bm/Bs4gNuGW0jic10pPujqMNN67Gj01OyNojjaGsaLNa0WAA6ABQPkmR2oAgCAIAgCA6qmdsbTJI4NY0Xc5xAAA6klepNvSPG0ltmaZmzxLUv+6Ye19nbAtBEsn8v6GfEdz8I3WtRhQqXxL3+hl25c7H0U/UlMoZAbCW1FbpknG7IxvHF/+ne52v35MOTnuz0w4RPj4ca/VLll8WcXggCAh6jNFFHUCjkqY21B4Y42uT0udr+17oCYQBAEAQBAEAQBAcEoDPMz/aBqlFDhrmmZ7tBnd/DYTf083O1gdxcgAOJV2GK1D4k1x4K0711dEXyVWPBY3NYA6SXEJXaj6XylzfLLG8tdpY1rvi2LfM51tB5+NLuvy17HLr6uP/TRcv5V0OFVXFktXsRpaBHG7SG3aLeZ9hbWRe2zQ0bKu5eCxGPktK4OwgCAIAgCAICKx/H4aJmuZ3mN9DG2L3kdh27k7DqVLTRO16iiK26FS3IzOWprsclLIgGwNdudzDF9f+5J+3S3qWvqnDj5kZr+LlS8RNFyzleCgYRENUrv4krvW8/Po32H9+VlX5E7pbl9DRpohUtRJtQExygCAIDFpsAjxKurqGfae80kRJ2NpiGgg9NBbx3vuvAWv7KcxvnZLh9Rq+8UhDNTzdz49wC74gRY89F6C/IAgCArOZ85w0R8No8Wfa7Gua0MB6vedm+wO5VmjFnbz2RBbkRr/MsyrE4QHkxTEoqWN01RIGRt5J/YDkk9huuoRcnpHkpKK2zJM1ZunxNroqXVHTX44dI0E3L3X2b1twbOFyQAtCulY84ysXH7EUenJrlGD9S7LyROVMtTVjtNJ5IwfPVEEBpHSIc6vfnvp4V/Lya4w6Xzv2MvHx7JT6nxo2nA8DipGnRd0jt5JHWL5D3JHTs0WA6BYEpbNlLgk1yehAEAQBAEAQFLzjn2KkDooC1842ceWRnsbbuf8A+pCvYuDK31S4iU8jLVb6Y8srOA5PqsSk+94i57IXWOkm0so5F7eiPs0f7Vq3MhTH4dKIKsWVj67TUqKjjgY2KFjWRtFmtaLALIlJye2aSSXCPQvD0IAgCAIDP884bLS1LMXpGAuG01wdrADUbflLRpJ6WB9x4CCybViXMEs8YtFLSOuAbt1lzHW1DYnyuK9BrqA66idsbS+Rwaxou5xIAAHUkr1Jt6R43ozDOX2j+UspCWRnbxLfiSf+i08N/8x30HfTowUl1WfQoWZTm+mr6kTln7Pp8RHjV5dDSnzMjHreSPW4u5PxO56ABe35ajxA6pxvdm0rKLxVM1Z8paEuiv4tSG6vCZyNwPOeG8jubb2UlVfxJKJxOXStmP4zjc1e77zWvtGCRHGB5B7MZ+Y+5+p/KvoKceFK4Mi3IlY9IueTckTT6Z6wGGm5bD/wByTsZD09uCOmlUczLg04RW/mWcTGlCSsb5NUp4GxtDGNDWAWAAsAsk0m23tnYh4EAQBAEAQHVVVLImOklcGsaLuc42AHuSvUm3pHjaS2zL8z55mq3/AHPDmPs/YaQRLJ8v/Dj9z5j8I3WtRhwqXxLvoZ1mRK19FX1JrJuQG05FRW6ZKgbsYB+HD8v1O+L+nc18nOlZ6Y8ImoxI18vll7WeXAvQEAQBAEAQHBF9jwgKtlCJtow1rR4QmDiALkid8TCT1OmF2/ugJTH8wQ0TQZSTI70Rt3kefhb/AJOympona9RIrboVLcmZBmLMtTiMwgYzxJCfJAw6ooz3eR63j/4j+oWvXTXjx6vv/v8A6ZrlZkPwvBdcmfZ0yBwqq8+NVncA7sYenzI/oOndZ+RlufEeEX6qIwNAVIsGZ59+0lkeqjoHaqhwLTKCNMbiCBpPV1+vA9zsrlWHOcXIgnkRi9GL0Mc8NQC5jnV2shsQ1OeXPBBEtju0gm7B5naty0c1U3F7RLpSRu2RcjCLTWV7Aas7sjvqZAOgaONQ+tuAeps3Zk7I9PZENeNCt7RflULAQBAEAQBAfL3hoJcQAOSdgEBAY1nKjpg28rZJHhxjjjLXOdpBvwbAbWuSBfbnZdxg3JR7HMpJR2Zy6or8fm0x2ZAx2538GL5ceJL79Omnk6/9HEj5kZ2rMl88RNLyvlenw9mmEXkd/Eldu959z0HsNv3WXdkTte5F+qqNa1EnFCSBAEAQBAEAQBAdVTUMiaZJXhjGi7nOIAA9yUBlOH55bFBIaQNc50shMzv4UbC9zh0u9xc95DR3v872Lh/F9UnwU8nLVXpXLIHC8NrMXld4JcI3bTVMnqcOw7N7Mb9Vo2XV48dfYqVUTtl1z5NcyrlWnw6PRA27yPPIfW4/PoPYLGuvna9yNSFah2J1QnYQH54yhlWasdppNgDaSqcDpb3EQ5Lv7/yr6K/Irojr38GRXTO57fCNqy5lamoWjwmapQ3SZX2Mjh21dB8I2WBZY7JOTNWEVGPSidXB0EAQBAEAQEDmrNUNBG5zyHSgXbGCASTsNR6AkH3NjYGxVjHxp3S0u3kguvjUt9zLcZzJVSvY+rkezU0OZFFfYOaSBoabk25LtwN7dFu041FcG4reuNsxb7ci2zpT478ELlbLrsTrQ2QSspnEvkdpc18mmzvURxdzRfpqFt91l51EYTc4vg1sVzUFGzufoKgoo4I2wwsDI2izWjgD/wC/dZ7bfct60eheAIAgCAIAgCAICIzLmKDD4TNUOt+lo9Tz2aP88BAYVnfOE1W+9Xs3mKjYSAL8OncNx8vUemgG692CZ+zvI9RXkVGIXbR2/DiA0g24DGDZrPlz7ndT05M6k1H3IZ0RnJSZttHSshYI4mBjGiwa0WAUDk29slSS7HcvD0IAgOijpI4WNiiYGRtFmtaLAD2C9bbe2eJa4R3rw9CAIAgCAICv58xiWiopKiAN8QFjQXAkDW9rb2HJ329yOeDYxao2WqMuxFbJxjtGGnEZpi9pjkfM4XZqBfdxe0OkdsfOLBt+jbg2BAX0fTXBrXCRkqE5R7733/InMmZYdJMPCnf94Zq8UssQ0uAG8ti0eUkW3NyLDy3VHOyvTrXDLGLHb3rsbTheHNgbYbvNtTt7m3zJsB2+fUlYbezSS0e1eHoQBAEAQBAEAQFezJmuKk/CYPFqSLtiaePd7vyt+atY+LO3nsvJVyMuFK57+DIc0TTVjxU07jLWlwjIaC9sRPpMDTwCAfMb2c3Ybhw6y8X4LWuxziZLujtotmQfsqZBapxAeJOdxGdw0ne7z+Z3tx3uqZcNSDbbDhAcoAgCAIAgCAIAgCAIAgOuohD2ljuCLHcg/QjcH3C9T09njWyi1X2dmVsdNJVONGy5It+K+5PqeTa+581vcAGxFtZfTuSXqf0K7pk5LnhfIuWE4XDSRNgpo2xxN4a39yeST1J3KqznKb3J8lhJLsexcnoQBAEAQBAEB8SyNYC5xAaBckmwAHclEtgz7MeezIHR0Lg2IXDqgjm3IiaeT8R2H91q42Cv7rfp/Jk5X4io+irl+So4LgtRiLjHT3ZT6vxZnEkvPdzvzHrpG37q9dk146+fsirj4k7ZdUjWst5bgoGaIW+Y+p59Tj7nt7BYV187ZbkbldUa1pEwoSQIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAID5ewOFnAEdigOv7rHxobb+ULrql5OeiPg7GMDRZoAHYbLlvZ1o+kAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw8NDQ0NDQ0NDQ0NDQ0ODQ0NDQ8ODQ0NFREWFxURFRYYHSggGBolHRYXITEtJykrLi4vGB81ODMuNygtLysBCgoKDg0OGA8QGC8jIB8tLS0rLTIrLTcrKysrLSstNy0yNS0rLS8vLS01LSsyLSsvLS03Ky01LS0tKysrLS0rK//AABEIALcBEwMBIgACEQEDEQH/xAAbAAADAAMBAQAAAAAAAAAAAAAAAQIDBQYEB//EADoQAAICAQIDBgIIBQMFAAAAAAABAhEDBCEFEjEGIkFRYXETgQcjMkJikaGxFFJywdEzgvBDY3Ph8f/EABoBAQEAAwEBAAAAAAAAAAAAAAABAgMEBQb/xAAtEQEAAgAEBAMHBQAAAAAAAAAAAQIDESExBBJBUTKR8AUiQmFxoeETI4Gxwf/aAAwDAQACEQMRAD8A7aKMkUTFGSKMmJxRkSEkWkRQi0hJFpACRQJDABgMARSENBTGhDAYAMARQhoBoaENAAxIYQwEMAAAAAAABiGIBEsolgSyWUyWBNAMANVFGSKEkWkA0i0hJFpACRSBIYAMKGFNDEkMBjQhgAwGADEMBjEMBgAAMYhgAxAAwEMIAPLxLiGLS4pZ80uXHDq/FvyX/P0OS030j6fJl5f4fIsD2jqFmwSgn5T73Lj93KvUxm1YnKZXJ2wGg4h2w0Wmg3lySU0k1i5bk0+lSXda9mfPuP8A0sZpNw0WOOPwUmuef5vb9DJH1vUZ4YoueScMcI9ZzkoxXzZxfF/pP4fp5/Dx/G1crp/AjHlXs5NWfKNRl1/EZfE1eoycnXvSbXskXotPBZI4dJhlqNRJ0uWPM2wPr2m7faPNPFjxY9VKWV4418FRcZSaVO3vV+FnUs5jsL2anocMsuqUJazNLmk4pP4OOtsaf5t11v0OoaAkAADXpFpAkUkA0ikgSKSAKGkCRSCkkOgGADAAAYAAxiGADQhoAGAAMYhgAxDABiQAMRObLGEZTnKMIRVynOSjGK8230R817bfSP8ADXwuGZcM3T59Q7lv/LjVU/6vy8wPX9JXEMWr4VizaTUYMsZ5ozhF5FFZYJtN096TTT2OV7bduoauMMGn0+OGPH9iUlCWTpVJraMfCl1/Q+d6jU8z7ycJPm3T627fK36jw5eSSnyqSXg7XN/h/mYxWNfmNlg0mo1TuUny+t1Rscelw6WPNJqc/wA7foZcGtnPlxabFJyk4qMOV8yckny14u2z6B2T+jlRa1PEu/kfeWnT7sX+Jr9l/wCjIctwLsxrOLNPfT6VOpZJKk15R837H1bs92b0vDcfJp8a5mqnmlvln7vwXojb48ajFRjFRjFJRjFJRivJLwKCJoTRVBQEUBVCA8CRaQkikA0MENBTGJDABgAAMQAMEIYDAQwGAhgMZNjsChk2FgWBJ59dr8WnjzZZqC8F1lL2XiY2tFYzmcliM9nqPBxPi+DSr6yfe8Mcd5v/AB8zlOL9r8k7hp08UenP1yP/AAarScNzah887jHq5z8fzPLx/acZ8uDGc9+jopw/W+j28Y7QZdYniUIxxNp/DpTcmnabvyaT+RxvbfgX8PpYa2ePlrLCMoqL70X4uujOs/iseCXJp6yzXWcVs35c78Pav7mu7X8D4nrsMMUdPlyy1L+13Y4sEE09033b9fJnHw1sXEx4vMzM/aI9dG28VrSY2cTxDTaXliuX4jVNb0na2s3fY3sdk4lmU541h0uP7eVQSfTaEPN/t+V9Z2c+jvS4MuOGtzfHy48UGsEU4YnN1bcruddK7vV7Pw+jYscYRUIRUYRSjGMUoxjFLZJLoj6GJzcUxMbtZwTs7pdBGtPiSn97LPvZZf7vD5UjbAMqEAwAkBiCEAAB4kNCRSAaGJDCmCAAGAgAYCAgYCAB2FisVgXYWTYWBVhZFilNRTlJpJbtt0kgMtkZ9RDFFzyTjCK8ZOv/AKc7xXtVjx3HAlkl/O/sL2XicpqdXn1c7lKU2+i8l6LwPNx/aVKe7T3p+zopw9p1tpDpOLdsKuGlXp8Sa3+Uf8nORhn1c+ZuU3J7yk2zJ/CQ08fiaiST+7DrKT9Et3+g9PqtTqn8HSwlFPq4pKSXv0ijy8S2LjW/dn6RDprFaR7vmvJDFpGk2smb+VJTcfddF+p69JpNZxFKO+PTrrbqL9395+iVext+C9k8WKp6hrLk68u/In6+MjqIpJJJJJKkkqSR34Hs+Z1vpHaP9ab48fC1vCOA4NKk4x58i/6kktn+FeH7m2JRSPVpStI5axlDlm0zOcuN43lvXZH/ACci2e9KKbX6s3XCuKuT5Jp7vuy6un0T8zktVqOfVZcm7Uss2ntvG6X6G/4FHmyQ9G3+R4mJxN6Y0RSfFaI85e9xOBWMCvNG0R/TpwEKz3ngHYCsLAYhWADAmwCPINCQ0FMYkNAMBAAwEBAwEAAAmxWA7CyWxWBVis5/tB2t0mgUlkmsmWK/0cbTcf630h89/Q+c8f7S8T4g3DHp8+LA+kY4smPC16zaTn+3kgZvonF+2Wl0zcITWfKtqhL6uL9ZePyOW1vHM2se8nyv7MI7QXsvE+eyxvDNrUOayRXM4Si4tKr6PZWunX2Rt+H8WnNcuLuLx5b5n7y6nl8fS9o1nTs3YN4idnWYdHFd7PNQS3ackpV6+X/NwjxdpvHpMad1GM+R2/VLq2TwXs1n1dTnePFd887p+sV947vhfBsGlX1cbnW+SW83/j5HPw/B3trEcsd+rovjRHzc5wzsrkyy+NrZyTe/Ld5H6PwijrtJp8eGChihGEV4JdfVvxZkolnrYPD0wvDGvfq5L4lrbsymZI5DxslzaNzBs4sw8RzfC0+fJ4wxZJL3UXR4VrXHwJ1ethmw5cMk4/ExyhzVaTa2bMbbTk2YcRzxntm4jRrwOv7OY92/KP7nJaSDjNwmqlGTjJeTR2nCe5j9z5vCrOJxtK9s58vy+g9qXyw5+bbuRPOeX4oc59M+bennDmMKkUmBlsdmNFIoYAAR5kMSGgpgAAMBAQMQCAYNibFYBYmzz63W4tPDnzTjCPhfWT8klu37HzztR9IGRc2PSQliVSfPy8+okl1airUOvq910A7fjPHdNoY3qMiUmrjij3ss/aP93SPmvHO3+q1uT+G0MXjU7ShjnFZJL8eV0or2rys4jU6vLqcknJynzNvJ3ns/F5cju9t9r2vpRlyZtPpKtrVaiEk4wx3HS4Zrx85yXm7fsYXxIrpEZz2j1p/JETK3q/4asksuDNq5zvCsc8OoxaaMak8mzknN9Fe65ZPyNrwTia/hm54pSlNZ4ZNQ8dwcFcnKU4xtv6xxq3vCKVN29XpsC1M5yxYIajNrnjeTD8LLWN8qlkUappyybrleyivOj6N2e+j+cvreIZJKMuStHinLkUYKoQbukorZJW/W7M+ubLOOXly17uC4Z2e1HE8sI6fFNYcOOGHHzNdzEr72SXRNtt0vOldH1jsx2IwaKMZZaz5lXVfVQfovH5/kdJpdNjwwjjxQjjxx+zCCSijOiTETuxCQ6GikiieUOQuikBj+GS8JnGgryS01nny6J+BtBmMwzrbJzmp4X8Sm1y5Y7RnW00ukZf2Z7NPjlCCjJNNdUba15Cbs5o4SkY360b5ZfVtvxFrUik7Q8UYNmSOM9AUdbnYlAtIqhhCoYAADEBR5wAAhjEADEFiCmIUnSbbSS3beySOc4r2rxY7jp0s8+nPdYYv3+98vzA6DNljji5zlGEV1lJpJfM5riXatbw0sebw+LNbf7Y+PzOY4jxHJmanqcrfjGNOorzjBdP3fqeLPqVBNR3feTUXvJ7tb+TXLXg6ez6mq+JFYzWImXq4nmyZ1OTzNZHFpZGviTXyeyXpscRrs88eSbhPDky4ZQwTeWDinjbTU5NV4txdd1qS86N1quIrm5Y80m66rvTl/NSv835t7FaDstqOJZVLl+rjFxfMlHHG+vNLx2rZGqK4lrTzbdGXuxGm7i8+fJnaxYYuGBbRUVyrl71Jvxa5pRvxXU7Lsl9G2fUKOXUXgw7PmnH6ya/DD+7/U+i9nexek0KjLkWbNGqnKK5IP8EfD3e/sdMdFaxWMoYTObXcE4FptBDk0+JRbVSyS3yz95f2WxsxFIoEUhIoBoogdgVY7IsLCrsdkWFgXYWRYWQVYWTY7KKCyUOwirAmwsCrCybCyirAmwAwgIdhDEI13FON4NLtOTlkrbDjqWR+6+6vcDZGo4l2hxYXKGNfxGaP2oY5JQx/+Sb2j+5y/Eu0GXUJqUnixV/oYpNNx/wC5k6v2VI02TiMKXK1yw6Y0nDGrTp0t2159X0601hfErWNWVazbSGx4txXLqVJ5cv1cb+rxqUcCaVpecnSb38nSNZl1ChLkjHmak4uUqj0vm5bdLZPrsq3bR4Nbror6yWVOSX1cISjOEPP7PdXyvqr8zSw1WXUSUcUG90vidVGkklH5V039TVNr2nKu3r1+GXLEbtnreJcq5bucO4pdeeqUWvlt7RXW2YtFpc+syKGPHLvVSim5NbfkvekjpeznYGc2suqbxxe9SX1svaP3fnufQuH8Pw6aHJgxxgvF9ZSfm31ZnXCrE59Um0zo5Xs92Fx4Up6p88uvwou1f4pePstjssWOMIqMIqMYqoxikopeiRQGxiYUAwAYCAodkWFgXYWRYWBdhZFhYVdhZNhYFWOyLCwLsLIsdhF2FkWOwLsLJsLAqwsmwsoqwJADGeXiHEsOmjzZsijf2Y9Zz/pit2c5xLtTOdx0sfhx6fHyLvP+mHh8/wAjl9VrIxbyTlLLkajKU5tt1JJxt9ejWy8+qexLTkjf8V7S583dwqWnxu1a31E/mvs/Lf1Ob1GqjjVqpty7zUua5NXu11/vv5OtZqOIdVKVf6bjzNXPlu4teqafq4L0NTrOLUnGMU5ScU5NtvkjVKl97qur2uuppnEm08sfZsisRrLc6vWNJuU2oShPlx9FkdPlaj+W/wCHq+j0+p4pOV4YLmb7r5Y3KlVK+tbLd108TJwnger184qMZrpaX2qWylJvaOyW73Pp3Z3sNg0qUs6WbJ15Ffwk/W95v32Mq4c/FOZNoy0hwvZ3sVqNa1Oa5cd/alaxr0/G/bY+ocE7OafRJOEefKl/qzStf0r7v/NzbpJJJKklSSWyQzawAwAACgAgAsLFYDsLJsLAdhZNisC7CyLCwLsLIsdgVY7IsLAqwsmwsC7CyLHYF2OzHY7AuwsmwsouwsiwsC7AiwA+N63it3ytRiusntFGlz8diko8ryci5Yz5uRON3UlW6XhTTql4I1Cnm1MvFr8oxXp5HXdmfo/y6lxy5bhi8JZF3X/THrL9jXyzbxeS5xHh83OY1qNdNKEWk7jBqO1Pwgl1+XXxbPoHZf6OuXly6tuL27mzyv3fSC9Fudrwfgen0Uaww79U8sqeR/PwXsbMziIjZiw6PSY8EFjwwjjgvCK6vzfm/cziGUNAIAGArFYVVismxWBQrJsTZBVismwsB2Fk2FgVYWTYWBVhZNhYFWFkWFgXYWRY7AuwsmwsC7HZFhZRdhZFjsC7CyLCwLsRNgEcz2f7G6fSKMsiWbKvNfVQfpHx+Z06ACodgAAAABFFhYAArCwABWKwAKVisQAFhYAArCxAAWFgABYWAEBYWAAFjsQFDsdiAB2FgADsLAAgsVgABYAAH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxANEA8NDQ8QDg4NDw0PDw0PDQ8QDw8QFxEWFhURGBcYHSggGBslGxUTITEhJSkrLi4uFx8zOTMtOCgtLisBCgoKDQ0OFRAQFSslHx0tLS0rKy0tKy0rKy0tLS0rLS0rLS0tKystKystLSs3KystLTcrKy0rKysrKy0rKysrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEBAQADAQEBAAAAAAAAAAAAAQIEBQYHAwj/xAA5EAACAQIDBQcCBQMDBQAAAAAAAQIDEQQFMQYSIUFhEyJRcYGSsUKRBzJSodEUYvFywfAVFiOy4f/EABgBAQEBAQEAAAAAAAAAAAAAAAABAwIE/8QAHBEBAQEBAQEBAQEAAAAAAAAAAAECEQMxIUET/9oADAMBAAIRAxEAPwD6vKXlpH6V4Im95e1Enr6L4QRFaUvL2o0peXtRhFQG1Ly9qNb3l7UYRoDW95e1F3vL2owUDe95e1F3/L2owUDW95e1F3vL2oyANb3l7UN7y9qMgCuXl7UN7y9qIyAa3vL7Ib3l9kZAF3vL2oX6L7IgAvovaiei9qAANLwXtRLLwXtRQA3V4L7Im4vBfZFAGdxeC+yG5HwX2KUDldlH9K+xTYA6ievpH4REcd4lKVn018jkRd+KA0iozctwNI1cygQbRTKNAUpClFAAAAgAAAAAAAAAAAAwAIAABSADngADxG1M1Qgq2801KKSvaL7uj4NuPPgrnS4TbCNKsqNfuKpbsptrdm7cYX5Po/3Od+IFenGnShV/I25zXek9yNL9MU3Li0rdTyFfF4XF0alDsJb0FBdlKmoXe6n4vs+DT1u7gfUsNjY1Oav5nJPg/wD3DicqcaM5VJUX+Sco3qUkvovfvR66nocl/FOrVcKf9MqqU1HdTaqOFtb6b1+TQ4PrKZUfjRq70YyStvJOz1V1oz9kyDSNGUaRRUUhQKAABCsgAAAAAAAAAAAQFAEAAAAAc6wKAPnm1+UzrVI16dKVacaShHs66o1Kb5TjKXBpq9zj7PbFQoz/AKjEcaknv9hGTlCD6y1qS4u8nrc9nNcfSPwiWA8/tJs3RxlKVNwSbi0moq6fifEcxyjGZRVnKknaPDS8ZR5SP6OaOvzTK6eJi4TindeGgiPkewv4jzw8uyxe9VpSfHj34P8At8fLofaMDjaeIhGtQqRqU56Tjp5dH0Z8O222DqYeUq2HV1rZaM6jZDbHEZZVau3Bu1SjO+7L+H1Lwf0lFmkdHs3tHh8yp9pQmt6KXaUW1v031XNHdxZyr9CmUaAoAKFiMpGBAAAAAAAAAAAAAAhQBAABzwAB1E9fSPwganr6L4QAyLGrFA4uJwsakXGaTT5WPl23X4fKd62HVnrwR9baMTppqz4gfzBl+PxOWV4tSlSqU33ZJ2v08j7hsVt5RzBRo1nGjiuCUW7Qqv8Atvz6c+RxdtNh6eLjKUIpT46I8psVs28FN1a6jOSk4Uoyim6dndyVya1JOrnNt4+1o0edy/NHFLfu4vg23dX6PVM7+hWjUW9F3XwcY3NfHWsXNfoUyjRo4AABGQ0SwEBSAALkuBQZ3ib4GwYc+hO06AfoD8+16EdboB+oPx7boTt+i+4Hag4/9R0/cAcKWvovhAs9fRfBEBSgqAJCxUWwGHG50ub5ZdOUIp3/ADRta/VdTvkg1clnZxZbL2PARlOk3Z70Xe6lx4fpa5HaYPHOF6lJ92N3NSdnBdX4HZ5plKnecLKX7S8zxedUa0HGFKTpTi5VG5JSTnFrdi78JRvxs/A8/wDlc38ej/SWfr3eTZ1SxkW6bd463TSl1XQ7K5/P2YZ9i6dTsKeIlRqYeUZTq02oyq1Gt61rWjFX4rm7n07Y3bmnjlGhibUcWlZpvuVX4x8H0+x6J1569pcp+aZpMqNAlygQAAQyzRkDLDNGWBlkZWRgRkZpmQIZNMjA5gAA/CWvovhBCWvpH4QQFKQoFRURFQFKQoFaOtzPK4V42kuPJrVHZEA+IbabHVaNSpXheanKU5ebdzyVKs48J3Uo6SXCSfgf0ni8JGonGSunyPmO2mw196th1x4txQDZD8RnScMLmTcoOyp4v6kuUZ21/wBX+T6lRqqajKDUoyScZRd014n89bK5R2uIcMXCcsNRs61OPCcnyprzPfYjaL/pLVXDJTwFTdUcDLhKg7O0VfRvi93la7tdXD6YmW553ZXazD5pC9J9nVirzw85Lfj1T+pdT0CYFAAAyUgBmWaIwMsjKyMCGTRGBlkZojA5gAA48tfSPwgJa+i+EAKVERUBUVERUBpAiKBQAAPyq0lJWa1P1CA8jm+SOm5VcOkpOzlG1rtXs/3PjOdYqp29TtbrcnJOMub5yt4vhx6H9I1YbyPEbWbEUsbeaW7P9S56agfO/wAP8vxFfFxxuEkqUcO//JvaST1ppfVJ/sfastzSNV7k+5UT4pqyf/08dkmBWBpww8VZ0+M3az3nq34o7udSFZbrap1Uu7U5P1MNelleiecseouU8/gc3lRl2OKVtN2r9LR3sZJq6d09HyNc7lY6zctEFwdOUDBAIQpGBCMpAIQpkDnXBABx56+i+CFnr6L4IBUVEKgKjSMooGikAFKZKBQQoBkauVhAdVmmVqp3l3Zx4qS/5xPM16Mqctyatx8lLrF+J7s4WPwEasWmvLxXVHGsSu87seYji4zj2VbvQ037cYs/bC4mrg3dvtsNK1nziji5hgZUW78YvSdv2f8AJnD4p0+GqX0SfC/TxMOXLeWaj2GGxUKsVOnLeT+6P2PJUoSg1XwkuD4zp8uqsd5lmawxCt+WovzU3r6G2PTv5WO8c/Y7AMhDRmrIwyAQEAAyVkA5oAA409fRfCIWevpH4REBSogQGkVGUVAaKZRQKCADQIANAguBSozcXA/HE4dTTTV078Dy+Y5W6V3FNw8FrHy/g9cfnUpqRNZlXNsrxFGtKDU4Pi+HSXTzOVuxrrepPs68eLtwd/E5uZ5Q03Okl4uHKX8M6KV1xvJOL1+qH8o8+8WPRnc09Dl+ctPscV3Zrhv6KXn16ndHif6uGJXZ1uElwhVStf8Ag5eX5nUwjVKt36V+7PVwXR8zrHpZ9c78v7Hqrhn5Ua0akVODUoy4prT/ACbubz4ws4oIABAQo5wAA4s9fRfCIJ6+i+EQg0EQIDSKiIqAtxclxcDQJcoFBLi4FKjNwBojZLi4FuLkIBZxudPmmUqpeUeE/Fc+jO3DJZ1ZePneLwcoNxtuz8OUvI1hMdaPZ1o78Vwd9V1XkeyzDLoVk015PmvU8nmOXypu0/Solr0Zhvz/ALG+PWfK/XDV54R9pRk6lF2bjy9fBnpsuzGGIjvU3x5wf5keEp4qpQm0neMvpf5WcyL49rhW4zXFw/5qjnG7l1vE091cHTZTnka1oVbQrfZSZ29z0zXXmss+qCA6cucAAOJN8fRfCIJvj6L4RLkGgiXCA0UyigaQMluBoXM3KBblMgDQuZAGiNkAFuQAACXFwKcfFYaNRNNJ3P2Fwrxua5S6V+G9T/eHl0OnW9TaafDk1yPo1WkpKzVzzea5M4tzpK65w/3Rjvzl+NsevPyumco1rX7tTlLRSZ2uS57u1Vg8RNKpJXpX/NKz/LfS/qdP/STk2qKvKze7dJ8PMzXlhMxhRweJqvDYmjJqnVUHCUKl+7vX142/2J5Yq+u5x9BTKeMecYzJnGjnEO1w992nmVFSlG3Lfja65HebO7Q4fMqTrYWTcYScJxlHdnCXg14PxubvO9JchLgDiy19F8Ignr6L4RAKioyUDVymQBoXJcXAqKZKBohLgDVxcyEwNAlwBSXIALclyC4FuQEApJJPgCXA6rMcpjPvLhJaNcHc6apgo1KkY4mCdZd2nWaSc1+mT8fA9ccDNsBGtCUWk95NPly8QPmm2m2lRQqZPSnGup7sas+L7K3HsIy0kv7j0X4Y5e8LhOKs61R1OrWiZ1mA2Eo0KrnuufeulJ3Wt9OZ7rB0t1JaFHc7wIAOPPX0XwQT19F8IhBSmSoClIAKUyUCggAtwQoFBABRcgAtwQFAAhBSAgFIxcFC5GCAfnKmtSqJoAcywNACS5f6Yf8AqigEEZUUAEVgAQoAAAACkAFAAAAAAAUAQEAMACAAoiIwAAAA5gAA/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhUTERIWFRUXFxgYGBgVFxkeHhcXGhcXFxcaGxsaHyghGBolHRcVITEiJi0rLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGzAlHSUtLS0tLy8rLS8vLS0tLS8tLS0vKy8tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAMEBBgMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcBBAUDAgj/xABHEAACAQMCAgcFBAcGBAYDAAABAgMABBESIQUxBgcTIkFRYTJxgZGhM0JisRQjUnKSosFDU4LC0fA0Y4PhFZOjstLxFiRE/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EADMRAAICAQIEAgkEAQUAAAAAAAABAgMRBCESMTJBBVETFGFxgZGhwfAiQrHRUhUkYuHx/9oADAMBAAIRAxEAPwC8aUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSlAKUpQClKUApSsMwG5OB60BmleCXkRBIkQgcyGBA9/lX1b3CSDVG6uOWVIIz7xQHrSlKAUrDMBzricR6YcOgJEt3EGH3QwZv4VyaA7lKrm+64eHglbdJZyOZGlVHqSxyB8KjF/1w30pItbeKMAZLPmQgeeFZT5fdPuqLkkWKqT7F20r88v0i6Q3ZPZvdhRvkQiIeWxymR6bmlOI76Jn6GpSlSKhSlKAUpSgFKUoBSlKAUpSgFKUoBSlfMjhQSxAA5k8hQH1SvMTpjVqGnzyMfOvsHPKgM0rznmVFLMcKBknyFQDi3TS+7Qx29qRsCMozsVIyrYXYZHvxyoCw685p0QZdlUebEAfWq2jueLTrh+0BPlIE0+XcjXX8819WfQm6La5Jt/MjUf/AFNwfhXCWFtuSTjXTmxgUkTJIwxsrZAGcZLAEAVCulvSKa7CIYlEesMhRic5BUajsMb+XlW/0m6GJHbyTNIzt3dRPeITUNRAwu4GTg5rmdG7CGDTFIe1hYkYbBGhxg4xjbfOR5jc1XKUk8vkaoVVzrwurfHw7GhY8Du5D+rjbbyXl/SpPbdHr6BDIsphLNqk7MLv5HSuBnw+PxEl6M8SYSS2U5/XQAFWP9tbt9nL6nYq34lPmK2uk97otpijEEI3eABxt6girTGQjpZ0o4pb2qvDLDI4B1ERNvgFtidi2ATyAODjwBqqTp/x26zouJ2Hj2EYGPii5Hzq4OiDxcQi+1xJpDEKo7siud9843CNjycVwOL9L7CxkNqT2XZhCIoozpQOiyADGAdnoCu7bo7x2777dvgjnPMw9PZZtX0qUWvVvKVAlulhXbKxjtCTjfLPpHuC591avE+tSEH9RDI/q5CA/LUa5q9Y97OrqipEBg5jVmkAzvpycE7YycYzUZLuW1SecE6g6E2KpiQdog3JlOAfU4VRn416PxHhVkmQbeFB/dAMSfTQram+NVFxK9kuWBuVkCjlqc5PqFxzPnsPWsxWc2AVcIngi4TPr3j3v3t6qND5vfP55PsWdH1j2bk9n22kbanVUUn0JYkn0OKxVdNwouczDfGwXUcD4NgUph+f8Ek4pYaz8WvofrKlKVeYBSlKAUpSgFKUoBSlYZgNycUBmlR7j3TOxtBmSUM37EXeb442HxIqveL9eaocQ2THyaWQAe/Cg5+dcyiXC8ZwXHXldXCRqXkYKq7kscAVQVx163x9mCBfg5/zV42HWRf8Qfs5GQaSG0INIIBxq5E6lJB58t/CukSw+kPWMwylnET4dpIpA/wqf6/KoTNf3N23/wC1NIw5gA4A88DkKmvSXj8MnDlklwspOnT49ouz+4YOfiKrYcZUHIGa5JNrYnXKKmnJZR37DhuvELNjS3dbGcqw2OCRz2+dSheGSQWjdhdSBlIdUEmAQD3wAOWR6nlyqBW3Hn1rtgY059MnB9cHB+FWR0Y4Na3adoXmJXAZTlVBIDYU4ywGcZBqMdtmXXpSXFHfDx/TIvxa54x2hM5Mlmww8YKAhTzIxudOxzk/Gur0Z4jLAZIXi7dodKqMb9md4mAwcAasY8mHlWj1m3RhsruFH09mY1RmYamVipZB4k6S488D3mo1w/pIkz2sv6SIpXthFIWB77phTnI07kas5+8MctpmYt5briUgGm3ji9ZHJ/lXetKOSSSQRPxDDMSNNvHgDGc98g/OtNenXYxATPE7gbtHk6vIlcgKfPvYqL8Q61EUnsyq55hNI388Rq5/mFQcvIujVJ819ieXnAliACRPcZzlpJsAe/cZzvUC6ScDEV0k0QQK0eGWI6hG+AmjI5DJXGfhUcvOsO4lPcV2Ph3R+cpcj34FcqbjF/K4YMCVORmVnCkcmC6goI8wtQmlJYZook6pJrH1/wDCe23Rm8SVJ3vu+mdOVPdViNa5Lbg4Hyr74lx23QMt5fqQVKMiuxLKRgg4O23lv61XF0Z5vt5pn8yW0L7sEZb/AHtWIeFRJuhVfxONz7gQB/vnUuLYp9Hlkh4n1jiKMxcNh0jBVSAyhR5hRjJ9Nx51WhsJnYmTOo7ksckk77+tTf8ARGxpWMsT4oh1Ef8ATA29N67HB+r++mOVt2RT4zdwD4Hvfy1KLK7ElyK/t+CA4zvXcsuERKp1AeGM8vXO4q2+FdVKjBuJz+7CMfDW+cj/AAipXYdC+HRY02yMR4yZkP8AOTj4V1kYvDyUbw7h8jnEKtNjYBIyQPcFG3zFSPh3V/fyHP6OIs/elkAJ9cDWwPyq7Y4wowoAA8AMCvqucKJO1srWw6sZAP1l3pPlEn+Zjk/IUqyqV3CI8cvMUrXu72KIZlkRB5uwH51wL7p/w2L+3DnyjBb6jb60bSCi3yRJ6VWt91twjIht3b1dgo+majnEOtHiD7RCOIei6j82J/KoO2C7l0dLbLsXbWjf8YtoBmaeOP8AfdR9Cc1RQvuLXxYfpEjYGWHaLGACcZ5qMZI+YrxPQy8yC0ROrOGBDA4ODuD51B3rGUsotjo/1cMpJMtbiHWdwuPZZGlPlGh/NsD61HL/AK4D/wDz2h98r/5VH9aj1n0ElPtlU95z+Wa7Nt0Lt03kct7gB9TmsstZLsjbHQUx6pZONedYnFZtldYh5RoM/NsmuPM99cn9ZLNJnwZmI+VWXZ9H7dRlLfV6sCf+1bnapGGBeKLSuplJAKoM5YqNwNj8qhx3T5fwWf7Wvt82VvY9C7pv7MqPxYX/AN2K9OOdX5WMO5QjWoYKTtk41ZxsN8HHnUzu+lFnHGkpleRHJCmNfIkNkNjkRy9R51q8b4+j284ih7RFyjOGyNJj1M/uGR+dSVNsf1vP57ERerhY1WksP2fdkF4/0R4ZbyQzuzR2u6uMu5dwdSAEAlQRrz+6PPNY4v0x4OikW1tlwuFdIwmny7xw30qvb+9ctIiuwjdtRQE6SfaBK8iQSd6147V25D516SllHiyjiTRY3CIlv0CzXaQNqJ0kAmTb2sFgAfA+4VIoOrlcbXjEfhjX/U1U9twa5yHXY7YKsM+nj9K60Usw2e5lLctMJwc+pQfTeot7klDbcs6Lo3w23Gqdw+PGZxj+Ef1Fa931j2sKdnCXdVzhEbA3OcAx5GN/vGq8Th6McnUz+Tkn4krk/CtlISDgyIcD2RoAA9cjP++dRbyy2MUlg4vSC9ubyVpXTSGOQoOygDAGSdzt/wBhS24HJIisxOF2GN8emBv4eld+y4XLdviCJpTsB2QYqPjnCj34FWTwzqplKr286oAPZRdZGee5woPwNS3K8RT3KlXhcZx2gf3u2SfcpB/09a3YrNF2VgufDHeb5/8A176vTh/VxYR7v2sx/wCZIcfJMCpHw/g9tAMQwRx/uIAfnjJrnCzrsXZFD8P6LXswAS0dl88FAfe7FAfgDUn4f1XXTY7Vo4R5Bi5HvAABPrqNW9ild4URdrIPw/qztUx2sssvpkIvyXf61IrDozYw7xW0YP7RXLfxNk11qV3CIuTfMAUpWvd3sUQzLIiDzdgPzrpE2KVFOIdYXDouUplPlGpP1OB9ajd/1rMdre2+Mrf5V/1qErIx5svhp7Z8oln15z3CIMu6qPNiAPmapO96a8Um5TaB5RKB9ef1rmxcLu7lsntJT5sWb/6rNLW1rZbm2HhVzWZbIu206SWcshiinR3CliFOQACAe9y5sNs1mqw4T0NvEJZSIzjG7AHGxxtnypUVrH/gxLw+Ce1iIZFYzzHKq8h8wCfrXUteh123OML++wH0GTU0ueldjHt2wb0jBb8tvrXHu+sKIfZws375C/lqrK+J82ekppdMUfFr0CP9pMB6Iufqf9K69n0OtE5q0h/E39FxURu+sC6b2BGg9FJPzY4+lcW86UXb+1M59xwPkuBXOB+Q45Pmy3YnhtSHRIlxt91TvjxPlz+FavEelUCh2kuDIFRX0xLjOopjYkKfbTnyqmHv535Zrc4PBtJ2xYBgg7qhsqJBI4wSACdCjOfE1qpckuGXIw6iuLfHHLkWbddLowrvBD2iB0jR5GIEjMwDaVX7q55+JIrl8d6UXZna3tmSLLRoCqrkFg7HLEHkAM+VR5RGVdexOh2DmMyHs1cAjKqoDDYkY1fkMe0SsF0Ikca77Igz3hpPefU+4251o4qo8kZlp9RPqZ83d/d3zfr+1RBoSXAbSnZrIZWx7KnONvMgeVeJFwVkE0yYZY0Lq6uzRx6ioCht9R0bsRsDmtmSFmHfdmxy1MTj5navq14a8m0UbyH8CM31Gwp6dvpR31KMeuRrWwSMAazMq9ppQx6RiUKr6jq/ZDAYGxOaSCJIm0RkYR11O5Y4fAbYBVyQAuccqk9h0Ev5MZiWIecrgfRNR+eK35Oq+6k7r3ESp+FGYn5kUXpJc+RF+rwW27Kbt+Frktj3E1vQWRZgqqWY8lUEk+4Dc1eXD+rCyUATM8uN8Z0KT7l73w1VLOG8Jt7caYIUjH4FAz7yNz8auMTZSXDOr++kwUtmi29uUqp/qyj3AfGpTw7qrlx+vu8DxWNS380h/wAtWhSucKJekfYiVj1c8OQDXG0xH96xIPvVcKfiKklhw2CAaYYo4h5Roqj+UCtmldIttjFZrGa5XEuktlb/AG1zEh8iwz8hvXTh1qVX/EetvhyZEQkmP4RpHzbf6VHL3raunyIII4x5tlj/AEH0NRc0uZZCmc+SLjrTveJwQjMsqJ+8wH0qirzpTxG42e4fB8EOkfyYzXxZ9HbuY5EcjZ8SD+ZrPLVwWy3NsPDptZk0kWpxDrH4fHkK7Sn8CnHzbAqN33WpK32FuqjzkJP0GBXOs+gEx+0dE9M5PyH+td2y6FWie0zyH0wAfzP1ql33S6Y495ctNpa+uWfcRK96XcTn5zso8o8L9V3+tffDehtzdKJdanV+0XLDDFe93Tjlnny3qfNY2tuhcQqAo8Rkk+ABbxqH8Q6TcUB1QSwqpORFoxkcvb3Y8vDGceFSrjOTza9hbfXFJUR392dvcZh6vpw2JGQeuSc/DFdmz6DW6+27MfQAD+pr4senUZTvw4lGoSLq5NpBQjHNWJ55OADz2ztv0ldGj7SREVohIdK7buNhjJPdBHvzT1KLeX9SD8Ttwknj3LB1rTgMEeNEA97DP/ur2/TYdQj7aPUeSqc+Y2xtnY1BIJ7lsSmRlkUKUMh2dmLNpy226788HIHiK1RGiriVxq7oUxnUYzl2LHScEZ0rgNnfPhVyprgjO7rrXyz9SaXnSK3REcK769WBywFOknbPjjHxpUJfs8AAGUgYBkDKAuWOFVJAcksSSSfdSu5qJqjUPcr9YJW+7WzHwpzzOK7PaKCAOZ5Acz7h4117Ho7fTfZ2smPNxoH8+M/CsyjJ8kelKVcepkai4QvjvW0vD08BU7sura7bHbTRxjyUFz/lH51IbHq4s03keWU+raR8kwfrU1RNlEtbTHluVQtoo510+H8BuJfsreRh56SB/E2F+tXNY8DtYd4oI1PnpGf4jvXQq1UebMs9e/2oqyx6AXjY19nEPxNqPyXb61ILPq8hH2szv6KAg/qfrUzrNWKqKM8tVbLucaz6L2UXswIT5uNR+bZrrooAwBgelfVYqeChtvmZpXxLKqjLMFHmxAH1rkcQ6U2UK6nmXHmOX8R7v1rpw7NKr3iHWtartEpf1GSPgVGg/wAVRm96y7+X7CEqCQue6oydgCQHwT+8K5xLzLFVN9i52YAZJwPM1ybnpNZpnEwkI5iFWlI94jDY+NUnxH/xmZmEssMekqDr77DUcAgP2j4HiQBjB8jXPm4EZVDXN9cSKyghWwiqxHsPqdgDk6TpGNj6Z7lEXHBbHFesy3iJVUUHHOeeKMfwBnl/kqI8S62ZGTWtwiJnSTbWssve54Ek5iTOx8K5vBOhgSRuxtRpfAUXCBtI0upIeQYIYNkjBwyDGxxUyXog8yst1KDGxBaNQCDjGNQ9nbSmNvujyo3g5hsrG+6dLcNpZuIXRP3DMkQP+CFGNbXB4Zpf+H4DEfNrmSR8epDsuflU0uuIcJ4fmNmhQr932jjmCEXJGeYwBzrpQdN+HyaY4ZVdmTVtzAwCSSM6CAfZODnbnz5JpLJ2KbeCMp0Avbkhrlra3QezHaxYVfoCT7y1SPh3V/Zx+2WkPq2B/L/rXyOnaFNQjbPjqG6fvg+yfHbOxFRq56wVwVaZDknAQ6u74DMY2OOecDnVE1n9pqqnJbKRYkVpZ2ykqkUeOZOAR8960J+lVpkKHZzn7qn+uPpVXnpMrhlRHcMxY6sDLEgkkDIPIbeg5V8i9uWGFCoD4Af0Ofpis05SzthfnwN9dMWnxZf58Sxp+lP7EXv1E5GRz07HY/8AauLe9MH5duq7/wBnv4cjpGob1FBYSP8AaOzf79a2oeEoOYz76g22XQogu358T2uukIZJGy50oSWbyLDODn1OMjNcmOGR941Cod1A2wDuNhXam4eGjdAPaQr9Nvriux/4MNSpaq0qaE06RqIGkAayNlOxO+KsdfFWl7SCsjVe9+aItLxCS3uLdyFPaK8LErkEnGnI/wATfxN6VIFuJMAKEQDONKjIycnDNlhv61zOm/BpkNrG66HadCq5BOD3ATg+Z5VaNn0GhG8sjP6L3R/U/WtDjY4oxRtohOWVnfYr2VS28jFvVmJ/Otyy4PPL9lC7eoGB/E2F+tWlZcEtovs4UB8yMn5nJro0VHmxLxB8oIri16EXTDLmOP0JLH46Rj6mlWNSp+hgUPWW+ZqWHDIIBiGGOMeSIq/kK26Uq0y5FK1LzicEQzLKifvMB9KjvEOsSwjzpZpD+Bdvm2BXHJLmTjCUuSJdSq8//Or2f/hLPA/blJI9/gPkTUV4909aMlZ793fl2NioznyMnh7udE88jrr4eplz3N3HGMyOqDzZgPzrkTdLLQAlGaUDmY1JUe9zhR86o1+M3cpzFBHAP25szze8a+6vyrat+jj3PfuJ3mPP9YS4X/p7Kg9wqiWqri8J5fsNENFY1xNYXm/6LA4h1p26krFpZvJCZWB9RF3B8XriXHTPitxnsYGRcHLSEIBjOdl3yNLbdp91vI1nhXDP0dSqHAyCc6dOcacAqMpkNgg7Ec+VbyxTtGQw075XW2rDYJBLZ38R57533qqWr8l9y2OjXnn8+ZHBZXtwC814UPeXSikMGBAA1jL6TnnrOwOxr7g6KW4bU2uR8e02xbfxbvMfDx8T5ZMj7KIJ+skGrAB0kqScDIySEzk4+HxrZgu7eNdOnVgD2sEDbG4HInGTtzJqpWynz/PgXOEYL9P8fc5VrwuMkmGFRkEZCkkDGhhhs5Bw2SBzJ8hjojg8jKe10qh2Kk90gHUCVx3Tkk8vWta86QMM6iqr7wgbfwYDbHLnvvsKj/EOlUYOe1ZscgoDEHl94aTtkd0jmdt811N/mw4W/wAySyPh9khGt3kO2F5Y9o5BQAkYVuZI7taVt0ks4N7WAZkkKuebKQrA69OpwqsgU5273jzNd8U6YM3swgnw17rnlnsx7JxkZVvGo9d8av5Ng2geGkY0+5my4+daYJvuZLv09i3J+ljNl2ymlmCnuhSAdmLaiVz7W4BGrBG1Rq66wFTUHuFcEkqEDMy/4gSjNz3wvuxVfW3A7q6fP6yZuWQGc/Fjy+NdqDoSsf8AxU8cP4c9o/8A5ce3zNW8C7mfikafEuktvJIZRa9rI2AXlAxgDCjs+8o2A9nTyr0srnit3+rtosKPBEGlf8T57P4Eeldu2gsIfsbZpm/buCAo90SbMP3jW1LxC6n/AFetseEUC6Vx5BU3I9+akRwcxuiUKb8TvmeQDAigbtHX0LPkL7sD314WvA4NWY0fT4dqwJ+OkAD3VLeFdAr6XGm3KL5ykIPke99K6nGOiE1okffjeSRtKxjIy23dViN2OdhpFRayTrkovLI/a2IUcse4Vv2toWOEUufJVJP0qedC+HcNuIyywkyodMsc7FmRvIjZSOeCBvj4VNIYVQYRQo8lAA+Qqr0OeZr9dwsRRV9l0QvJP7MRjzkYD6DJrv2PQBR9tOT6RqB9WyT9KmtZqapiimestl3wcS36K2SAgQgkgjU5LHfbILeyfdioAvDbiwke7gdu4TFcppBDFN1Z1G41KyOp5gSY28baqGdP9UMF0y7C4tZk900cTvGR6smsZ/5aCrEsGdtye7I90esLnid7HfXEZSCJg6BhjWy5EYQfsgksTyOw8zVp1q8LC9jFoxp7NMY5Y0jGPStfjXHrS0Aa6nSIMcDW2Mn0rpE6dK5MnSaxVFkN1FoYZUhwdQ9MZzXDveseyXaJZJT+FdI+b4P0qErIx6ngshTOfSmyZUqtpOnl/Kf1FqoH4tbn+XTilUeu0+Zp/wBPv8vqjn33WjcNkQwonqcsf6Co9fdKr+b253x5KdI+S4rT/RwPd4eu9esca5GrlkZ93jXkz19ktsnuQ8Pqgs4NjgnR24u2znSme9I2ce4eLH/ZIqQcYPCeDQiWZDPMdo1bBZ2HPSvsooyMsc49TgGY2iRBFEeNGBpxyx6VX3Wr0MlvjHNA6h41KmNzgMCdQKsdg2SefPbcYr3KdMoxTe7Pm9RrZTlhfpiV3x3prxDicghLiKJ2wIYu6mN/bPOTbnnbbYCu9wngcNuO6Mt4seZ/0HpUHl6P38LZ/RpgVOQyIWAI8mTIrpx8bv12e3dv+m6n8qza6i6xJQeF3Nnhuq01TcrN32fMm+pB4iujwfiKAlM48Qc45jSd/A7jB9PWq8Xid23KzmPuVz/lrYgTibbx2VwDyyQybe8gbV59Xh1sZZZ6l3iennBxTLIn4okY06sDcESEBsHOdJJw3PwI9xNcifpHErs4ldyfADIG4OMSYxggbgmo1b9G+KvubdIx5ySL/Q1uw9E5/wC1u4E9EBc/Ktvq0l2S+JijfB8svPsPe66TMxyIxnkC5LHHpyI92TWlPxO5bcvo9dl2/e2J+ddOLo7ar7dxcSeiBYwf61sx2tlFutrGT5zM0h/mOKcC7y+RNSl+2HzZFowJGwHMjeUYZyfkK6cXRu4YZMBRf2rh1jH8OdX0qYWcN9KMQROF8NCCNfnsPrXUtegN1JvNIkefe7f0H1NWwrj2TKrLpLqkl7tyBDgUCj9bcA+a20ef/UkwPpXg0tvGQIbaMsTgNOzSsfcndXPwNW9Z9XdmuDKZJT5M2lfkmM/Emtji1zbcMVDDZqdRORCqK2kYyfNz6ehrTFYPOsmpPYrC24Jxi7AAjm7PyIECAfu93I+BrvcL6qJjgzzxxjyiUuf4m0gH4GrQ4feRzRrLE2pHGQf98j4Y9K2a6V5Ihw7q54fFu6NMfOVtv4VwvzFSezsYYRpijSMeSKB+VbFKHBUQ6zrK4a0We13mtZEnUftBDl1+W/wqX1g0BVt7xeKO7suK2h/U3jLbXKjwZiNBYeEiNkH3Hzq0qrDpP0RhhnQ6uxt5rqJ3YA6Q+e6DvhCWwob8QHhvIOP9ZfCbQHVcpI4+5CQ5z5HTsPia6CX0qkh13XBl7RbLNmCFZu9qXJxkyexn8OPjUnHSjiV3va9ksZ3VwMkggEe2djgjbFVW2xrWZFtVMrHhFjVVvWb04smjmsMSFyMdqFIRH5qQ33sHn4YyM1m46OXk+91dsR4gscfw7LWnL0f4RCrCVw5II2PL3BfH3msr1y/x+Zrjov8All+xEc4H0m47PbxwW1zBD2KrEQ6ntO6BhjlGyunG/oa9eI9FL+8Ufp/FFcjkFg1Y9zHszUVur8tZ6F1CW3kdYpVOG0AqUBI3BALAejYr4sOk/GGXSJB++6KW/Lf41rrnxZMttfA0SD9CteH3EFsZnkjlyxU4BHgGwNgGYSY8RkDcb1Yaf+HW4B/VDxBY6j58v+1Uh+gXM93G80mt2kTJxjYEcgNhgA8qtS06JSyMWSFiCSQWGBjPm2BWXVU8UlJLc2aO1KDjN4R05+mduNk1uPwrgfWlb1l0CfHfZF9AC3+gpVS09hf6xp0VnxDpYboKwAVB7K4GR55I8a50nECa5XRqwZ4jnbDEfkf61IIOEgczmqrqo8byatPbN1Rx5HlZ8euovsZXUeQPd/hO2fWunb9Kr481R/3kP9CK+YrBF8BWwFUVbXdZBYi2V26Sm18VkU2bkPSe78YoR8H/APlWwnSW5P8Ad/BW/wDlWja28kpxFE0h/Apb5kbCu/Y9CL+TBKJEP+Y2Tj91M/UirlZfLuzNLT6KvnFHOfjVy338e4CvCS/k+9K3zx+VTmy6uoxvPO7+iAIPrk/IipBYdGbKHeOBMj7zd4/NskVJVWPqkQep08OiC+RVFpZTz/ZRSSeoU4/iO31rv2PQW9f2zHEPU6m+S7fWrPArIqxaePfcpnr7H07EOs+r63XeaSSU+QOhf5e99a79hwO1g+ygRT+1py38R3+tdE1xulXGmtIVlVFf9YqkFiuzZ5HBGryzseXjVqhFckZp2zn1M7NZrV4Zfx3ESTRNqSRQyn0P9fD4Vs1IrM1DesiOWNba8iXV+izh5FAyTAw0S4HmAQdvDNTGvl0BBBGQRgg+IoCCdALtY7y7tonEltIEvLZgcgJL9qo8gH0kD8Rqe1BOwsuE3TzyOqRPHoTH9lvqKaFyxDEAhgOYwdyM8vinW4GZoeHWU9xKvMuuhV9SPa+emgLPpVD2nWVxyK5AvERElIUK0YGg+GjB1HfA3J51JLy6uJFDXPETGGGdCDG3hsmM1RdequaL6dO7eTLJvuKW8IzNKifvMB9OdR286wLNdohJM3gEU4+bY+magAuOHxnuxyTt5ttk/X8q9o+OzqMW8EcIPjjJ+ZzmsUtdJ9K+5vh4fFdX9f8AZodM4uK3sj3AEqwBdrdj3CqjJGNsk7nPPyri3HFrOytoJYoVm7QKwDBFeFiG1DtVXW3lnnzyTmpLfWPEZo2eQXEi45IjnOfIY3+FcmDq5vZYoUNs225LlVC89tyM4zjl4VdRO2TTkVaiFUE0sEU450+uLhOziiWJSCCctI+CMEB39kb+A+NSToFxK7WzxGxXDlNx90DK/LVj4CpJF1RXGkd+EHy1Nt/JU/6N9C7W1hSMqJHG7Ow2LHckKcgDw9wrTdV6SPCZKLfRz4nuVstlcznvPJIfIZb/AFrop0KutJdbcsQNgzqC3zO3xxVtRxhRhQAPIDFfVZ4aGuO5qs8RsfLYpfhXVjfFCsqxxl3Lvl84yeQ0g5wAB4eNSzhfVlboP1sjOcfcAUD55Jqe1g1sUUuRhlNyeWRzgHQu0tJDMgZ5cEB5CCVB5hQoAGfPGakdKV0iZpWBWaA/N3RiE6WVEZ2LbKilidh4AZqX2PQ/iEv9iIx5ysF/lGW+Yq1uG8Ngt00QRJGvkigfPHM++tyqXRFyyzXHWTjBQiV/Y9W/9/cE/hiXH8zZz8hUhsOh9hDuIAx85Muf5th8BXfrFTUIrkimV1kubPmNAowAAPIDFfdYpUyoVzoONwPO9sGIlXfDAgMPHSeTY8a6VVb0y4fcWt+LqIEpJNBKrDHcdcQTRt4lZI3z6FKAtGs0pQGDWjxzhUV3BJbyjuSLg45g8wwPgwIBHqK3q5HFulFhbHFxdRRt+yXGo+5Blj8qAj3V/ZTWUtxZzsApImgGr2g2RLozuQCEYjwMlSrivGba1XXczxxL5yMBn3A7k+gqpOtHp6lxCkdlkEPrZpk0EqFOOz198NnG4A/Oqpu2kM2tIw+3tTIp3JJLNnZm9Tnwpk7gvuw64OHzXLQosmjHdlIUBz5BSQw8uXwA3rwvetGQjNvZFF/vLyRIl94GTrHuNUbDwC7eRMD9Y7LoVVxlie7pAAA38quGDqgkkfXcXCrnwUM5A8gWIA+Rrjz2Oxx3IJxa+R739LlnjuJJZEWWGNJDGUI0gBn227uwz471H+LidbiUW5kijZtWkOw8Ns4O+OVX7D1U8OULntWKkHOsDJHLIAxjO9de16DcMQ6v0ZHbzly/0YkVBRfFknKUXHCPy7BwSaRgFLM7EAaVJJY8h5k5q+rTq8mcgylE2GR7Rzjc4G31qxYLWNAAiKoHIKoGPlXvSdcZ9QrtlX0kVsegtqnt6nP8I+Q3+td6z4XBF9nEi+oAz8+dblK7GuMeSIytnLmxWKzSpkBSlKAUpSgFYNZrFAKUpQAVmsCs0BilK53DONwXDSJG3fibS6MCrDfGcHmpxsRtQHRpSlAc3pLHK1pOIcmTsn0AEglsHABG4J5ZHnXB6sekL3lqwl1dpC+glubKVDxk+ulgD6qal0siqMsQoHMk4A+JqpOk/WHDYXrjh/YzrKgabDd1ZgWVSGQHvEDBXx7u43yBbteF9ZxzIUkUMp8PyI8j61CeEdLOK3sKPaWEagrvNcSlYy3JtMagyFc+ZH9a226McSuP+M4pIinnHZIsIHmO0bU5+lAcrph07fhBFsR+kydnrRnbSQmWVRJgd9sqdxjON8Hdqn4/1ncXvQV7Qwxn7tuCmfe+S5+YHpV3Dqv4SSGeF3YZyzzSszZx7RLb8q7Vr0V4fGMJaQD/AKak/Mgmh0o7o7Z8a4lAFjkmKKSrdpO+jP8AEMjGO6S3PkKlXB+ppx/xF1oHiluun+YYz8Qatq3t0jXTGioo5BQAB8BXoa4MkP4Z1Z8KhGP0ftCRgtIxJPywAfXGa7th0csoCDDbQoRyYIuR/ixmunSujIxWaxShwUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoAKzWBWaAxVb9Muic0VweIWczxEkdrpBYoGIEjKu+peTFcYyCfE4silAVpH0u4ms5htYDxOMAYuEjWNCSPCQOY3wdjy3BraWy6R3ZYS3MNhHnYRRq7kc9iWYDnjOQcg7eNWDSgIda9XVocG8knvXHjcysV552jBCj5GurddD+HSCMNaxARnKBVC45HHdxkbDY7bV3KUAVQBgDAHIChpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgArNYFZoDFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoBSlKAUpSgFKUoAKzSlAf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAACTFBMVEX//////v8AAAD///0cGhseHB0ZFxgYFhcSEBEVExT9//8jISIgHh////wgHBsdGx4vLjMAPqIUExEBQaMeHRsUEhQALp0oJywAJpcaGRcXFxnt8/gASa0AO6EAMpsiHh02NToAOaKertIAMZk5OD1CQUYkIygsLC709PRvjcAARaGXp84ALJcpKC4lJi4oJidNTlJiXVp9fX2pqKiGo8qBnctehb2qvs3cAABTcbIANpcoUKRrgrS1w9/L1+rX4u5sa2vgwcenW2HFx96krtCTUFKyY1+6urpZXWOanaGiRUmwYVXeu7nk4eCSj5Dm5eTOzM+et9Occ47QVl7LSEjKPDaUX3iImrvHJyazbXqSZoujJTtQbaS4PUnGUFecj67PnJ7bhYyllaDOnp/Vx8adX4hkKWoqbsJ7Nm24RFvIAACTF0apCC5saaIXV6tPfL47X59FToRDJXLOcmm+d3SmhpbWi45UZbONlcRne8F2jsicntTJs8kxRZm+k7Ollb8AJ3tfcpovT5JQYXIoPWo4T2lEWoMzQ2k/WYikTV6gteR+e6tylrkAAIJoeIt0hoqaqnsTMnhvhZU1GB3tiY3kYmraoreVydyvzvA5e7YabKp4sNBblMVJeoZng1xVf3NmS5ZkP3e9iofVb4NTKSjlPTvUhJymsp2WopNUSZXglZLrq6rla2fRO0a/jZW5aopmmGblx7iRbq93l97ch25gMS9cXoO1CwCJOTp3Hh6zbnR2L1fOmIfjd3i1WoP31cXvu5/utraiYE6cdXWebhb9AAARb0lEQVR4nO2ci0NTV57H8yLvEEgISDIhAfIiwCRAAyQhDwWL8gqhKqJoYdE6MiPCghBo6dioCOLgOOrUnS11hnathSmsu87oOrjKzj+2v9+5j1wQK6UPx93zSe6599zXOd/zO69wf1yRiEKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhiN90Bn5s2v/PK6x60xn40en4/reo3u2FnoPfP3GRSPrth8VO/kRgNwmoPTW7bcueg54dnytmT1UDzBZmGGM6ANdqMcAfkap1YqlYLNV5auAwbKnVRCGcgueJpS9BUsGLyX3YO6vFOrhFtUitg4NMyi9fKRVmhyAVq6U6sdrj6dBJ1dukxQOJwF11kGh7Z0fiO5cgXCpKeNp1WC7S19n6lTcRt6vbX1tTXk6aXNnezG4jW2sQUzhSNW54PJ2eGsaISaQEeEdIYAtlSNd7hw4f6U6VBY4cPfReT5mQ2rLanXHs8NHj3SW9Jw6ffL+sjL05lyCfeklJMkMdS1//+D91Nl4YHzgVQyzbgNb2eMQeRNRZw7bZn+0AoxGC3J+drh+s/yDszT/zi/r6+rPeXCuAQS5CtniKEQyLYJWLZxgBr9f7i8HBX4bD3l8NHj7nFRAeYjhDCALn8QPUssHw2cGTI8Hafz45unbm/PkzQXLiMCHIch5KsLdrbGxstbm5o6adq6OlHKFQyOidDgNDQxMTeFlvAwOxUioVuDA61v9+eUlJ+YX+8fG+yGYao0Ji25czFHEi4bGILe2JhJivbTuD7RSgLX9rbQbzJTyMFcVMLd5kYvUu29bbAdN1YPcFPRLpz7g46TTZHhaLku3f3nSGdwo7Lgg6bSKRl8D11yhNin2oWsSNEG845ztFMJTwCtUZK7E9MJpUzI6RMMhhkbw1NqRQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKN8VNevEItjBPyEU68QiqUgnFeFzUubxMHmmqEP/GqlYp9bh40Ux2cKIWKxGLxp0wEEvHDVE4bA680iVe+QqFj6qFL28wWUE3XHE6syjTkgVTsCviAkFzzw74hxVVX6/08nejTsuTBIVss+ByYeUAHq1MOWBfit44eZHwaSEdKy3DJQKs1f3svPLLmywowfrByVClEqlKMwwNDQEAdn0TgPhDBPDQ8PhCY5gqqlpqrc8NdmdauguLy9PpaYmYV93ajKV6oZIeXmgYSpV/mF5d6q7qSTV/SGc0t3UVN4Nq/KtlPCUl5A4tzCgO00kUvLReH9/f9/eb+MUS3ubzaYyqAxKpQFRKk1KkdVabC0Ohb1hdGvJLzUWGY3GXGOoqKi0CCktqpie//jsr8+FMAKxWUt5Y+PFWPfFaPcnlqZIoKnTuCcdi0TrRmKNkeRQRSQR3BO6dPnK5Zk9MxevXpm9OnN1ZmbkyuXZUP7rqajIJ6lWVBRVFHHk/2lwcPDx0ZZ9PC3vtghic3Nz3DI3t/+WQskrVCIidOYJTU0CZdeCgcnJu7g9MTWda2Q9grzzA7+v7/vofCgXdhhDJbHhZOJ6omQ4lkxaeveEIp0TExHLJ8lot6X7NxVFZQlPJFy8MLswc2Phym+rL43cSy8sXFq4+buFdKh4s0NRcRF+SEGiYxEEVs79KJd1MTISXyRUOHj0UOvoyZbRltbWltaWlpMtJ09i0AKcPdty9viJE8ePnz0O3DIbDCqVwZBRGAyeCU+DstqGQPhab6BsIvBO4HpgMsSkYPRa52/fvlO/fPv3XiN+hqOx3nDwM0/0U8v1u4nk3WBjXbj4XxLRz/7wr5a6Tz8LBTyNdUP56cXFmcUbi59/fmn2XnhxMTRzL73ozfUyGf/jn/5ICE/WTgaDUw0NwbJ0Q3qoNlSWzhVg5MgFhfWD7622rbYNLA0MDLQttQ2w9MGyvNy3Mt43ML6yPN4/fv+LLwuVrD6CSiWarD0fRq+qyfORhslA8FqA8aDiUrBa5+/c+bf6b+7c95LUauuiZbUlJZ7GpCUZSdTVvRONBou9kZilMeqJRiPhWGOsPRD6Kv3Vwo2Z33714MHsg+EbBx/M3ngQMlqZ/H5959ny8rOVP9efjsVidbHGOktTO/pQRaN1ZSErKyqjz2gc+ghMWP/N6tLS0ur40sA4Clsl6jbG+nA9vrq6urTac/+L+z1ra1/6TAqFQqUAdYVoTIUIK2l5U+Da1FTq7mTD3eCHkWjk2rXzIWiMpCStQ917xwfbu6YgcUz/bjSYjF23JHtj5clYMD8cjQxdDHSXxequW8r2eD+LRT619KYvLV4Mfz576ebsv6cXw5cW783MhKahOuAdrV/fbmtfXn6+8s0HICpmqUtZmjzdsZilKdEYTXM1ExLnTVi7FxUe2hh4uL6x/nBgZf3FOnw3YHtl5eFG28ZDDFaA5ysbGyt/8akKFfJCRSGDXC4CK1lLK9CrDYCuxGsMhYwY5VpNxfyx1aPvN00XW43Ydt6JTSc7hy2pdKw7GRsunY40TjclLZ80QjucLw2BcSOJkpFLN24+eLCw+KCjeuTG7ELHvd9BNFSMDdla7P2PY8dOIxOBhobywDvBZEmqPJkqi0xEGv6z1PpyLS3Gdlh/9IvVpT5SNdueLg0sgdlWB1Z7ILzQs9r1cVfXhZ6eC0e6jqx9maeQZQN5AK6zRRWlpRXQhyF7KvZsz/TX07/ZA8fxhJvJaGPDzcaG6caG67HGaKokGol9EolGr/8BTFJyPZYORZKzV29evnhlT/jq5Suzl9OXr165ePlm+mYov7S0uLg0NzwBIxCMTDDyFHvDE8FwEMapIK4mSoutaD7OzZHV+gH2NN+09I+Ojj7686NHsBobGx0bxS9uPhtdHl0eG4NgfHx09C8GWV62zWZDhTYtIGL8CuHDQ1wNmzhKuLErhUylcNSbb0il5lPzvQ2p+flz8/PzvcPz5yaCuAXr6XPn0n8FRsKwSo+M/HVkegaiMxX5IVKO+a8oRgRGCSgFMi6VksGJGS0eA0db9u+DD+EJsp9bEOhSyc4n/3WrUJ7N2TAvC0CHve8220DPZxE6RRMHZ/QFExNvMIvHg1+Lh3wIMQvjhRkj3pjRzWWYKUdBGU41QPeKQ1cwyE0x0uFjhw8fPnro3bF3N9Mq3G7FBYL9t6CHUWTL2UYIZPy80fmQc7DWER/vTd55as5JkaxE7LnoUY3zO9wrkurQpZNM6iAiwjkq7MIprA4XPPfbS3Pbg2qLJ9G+dy86jSYQCNuFMJMZbnLTZiNDBDMiqhQqlULgyb5pgsl58mV8yaWs8dCdXUyyjvqZIzqcpIpxLktcyVGHGv01YfJNpMNsHCJCT3X1piJj5+FiETNFJpkhhcE4zaqZEmMLj5ygZg7wxcBnPC5hBnp2NITx8AdDutUKxD11644fG53O7/RlGwST758g0Z8UnZT1J8UKDXW4s/NN5+iH5nVN/e3nbXFc3j28P/ebzgiFQqFQKBQKhUKhUCgUCuUt5v/H39HeeBaEz3LEnEuQaNNf91/+U9+mPVsflGxH5gU//4hvdnj5j5nS7RVm3JR+ajqbOWqAgx0ACaqBeDxOgngVelz5cXE6nfZm9n0qnp2/5Amo8ccdTv+BePVBfNOMp6ZZQCeCz9aYB26bEXuIaXdr3WbJDlAyqEwKuUyWlad0+A8Q/NXVHQIOCiEFBsXWXH2AFFf8gN2ldzodTqfffrCz07+DNE1mk1mvd7lclTmVbrvb7nDYnR0iiyXWvretbS9TGiyeVyFu1tq454+cCqUAOIQLg0KhkMvloFCmN5kgbZPZ6fAV/DxDJbMqqIRPgauy0pXj0ue4CszOuFMiwSuUPiDH7jZJ9Dk5ZhWUmNksk5vlcjMUnEyukMlkeoKMJQsjZg5IVVItsuaGTh8FTrz7lIV5bvz06T5ux9MegNuwKQysQoNyOxhxJjZEkTKZXItHXD+vdDi17koCagIqceV2+3yVUPJ6/IIN9BJ/PH6gAEQqfW53Tk6OneQbKoQCb6ggN1WQR9hy2DLL9XomQgTLUC4vEhR6jda/Ea+qEy3bMzc3x2w8IUF2xqtqW4VEG6+UyY1ci3tMerNS5rbb7ZBlDHjcbtThYqwB1UxvgkpndislSpVMq9dr9RqQBxcrwGpMvQAxWHCMQrxEzoEG3KQwLsrNtf6tHhS+t7yyvrK8vL68vr6+AgusMbY8js5U/bfRPfDZs/4vTn5ZaOC8qhiTwbLFiJw+FKuQExtmYTORKCUKVMiB6uyMQIi5kAJiR7OJNCyJwUBs6PD50LImVqECKieaS0aEymWZWspHMjVVGRcZjaUfo8IT+6AKEhcc9MIh/jgDuNm3NE7231+7v9Yz999zt1wGsAx5SA7VHBaixUS2sVqqhDAlniXzuSG/EqUhz1eA0hz45cxnJwIdjhy7oyDHUZljdzn0Jp+tyi3RGPIMUIGhErvwiF4JJlMwtVHOSpKxLTErCxsh2w4xSioro9BrDewFhfXPNp4/f/j8BQQvnr8AcPVwA3YyvHi40vZw4zl6VRkwHQXrVwXVhEQhhqphj4qpSkx9whxobTa3322A7lHi9/vcThxCHCT0k9EElhwH7jgAXzfudkiqOxIHJVX26pqOjnh1ldseh8MOFeoQ6oO1NitLSxYMCVoGRqneVAU2DB1DhYd60P2t60LX6tjf0acKrYk9TNeRta412DoCllw7sjZ3y0ekCR2r5IUkwnqSyeQyvlXIME+o0Kk1NDdXS5x2RiEIAhw4WKJCPzRM2HMARj9Qyihsr5FU+Tuaod/HTj+OZeHLIt0l3BMWYraMIAEaXLK0jC1BoTXXSryqDo1Cq1t5tP7i0cYj0gixLY5hsNS3vrSytLLevzLeN95/y5ydbbOhX5WNUQgR3gcJKJRlyTJgPkChBmqpxmeWKOU+t53IIhI57KRB2rGKwjfH4VK6nXGHxKdx5rnxGNRiJzTbLM5MxFScxTQAF2iZqIbfpzHHRcUh6wePBx8P/qoFnWxb5p7M/ZL0m0+ePCEh04XyPLllIIJAYPYOFJJM2GxaMzMmSxQ+t7AXFUCGC2awcJmVZAw3KPMMeRpNQY7bZ9a6NGa5QFiWljOfZjPazIaWVVgUOv0YxsNDra2t/9Payoab/av2o4sV7GzZ17L/lkFB/Klk6FglI26AhRnIXgU5pZBvLCAZ+xnMNNiQGRtILyqgAHpRGKLNKtIBKtlpitwGMxPoijQmGC1McqZ+CuxIBPIiXRqhFaFhwjYojEUbT7UN9PW1nTrVth0DPEvI322ssxFxU2VHJ9KFq7jRWEGGSxDKjc4KFVHo82UrVZoCtxBeoMuFcx7skiFQSrJtbjcavdDnc8G0RgG7zUq5sGawzZFrexrSuzA9DBvTZoEVZXH0N2PZ0UTe42MUkgWkYI4UbMZMZKA08RusZlCYrVQaCu1+mI7Lt1QqUvBskbP1Wy6X4Jk+GPUlPh+coNWoZGa0IT9zYYXKuXbASNXrubGC6VtRsLkKXxsoknJOe4SXX3tK9JN/x3jlzDvjS8ZP6vg5jcFgQ3tBN1mFvagDsGfMSAY8xG3zabJ92dkOGfSndh+0dIeE9Eh2t9ytKdCYMjMaTigrlzGpnleozQwbZj/8yJBK1WIx46fHO+xtUSjm3z4oFiXQlYr98cT9aCL/neJw27K3l+/HM/GnQw0/p884GHYy8L+JOp1O9l9eQDn0SwVuX1ZVdbVfuaVIJYJZFKMcmzCRyNoU66rMv8vfUK+ry0RCgsv/rn6peaqccV9BQU6OvxpfJtvO/xKtZkoVf4dWxau4H6FYL8Du2XKVZFNZOH5obaIdtucdgD9ldezrSl/v4sQ5xIoZP9RM8f5AuXkl3/81oNtcTv48Ixby5v4O9z1fdCrd1eUZ3f/Y8FnctLGjnL8lCikUCoVCoVAoFAqFQqFQKBQKhUKhUCgUCoVCoVAoFAqFQqFQKBQKhUKhUCiU3fG/+NwcPYU0CVcAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSDxUQEhIWExUVGBYVFxYYFxYVGRseHxYWGBgYFhgYHSkgGhwnIBoYIjUjJSkrLi4uGiA2ODMsNygvLiwBCgoKDg0OFRAQGi0fHR0tLS0rLS0tKy0tLjcrKy0tLS0tLS0tLS0tLS0tKy0tLSsrLS0tLTUtLS0tLS0tKy0tK//AABEIAPcAzAMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcFCAECBAP/xAA8EAABAwIDBgMGBQMEAgMAAAABAAIDBBEFITEGBxJBUWETInEUIzJCUoEVYnKRoSSxwTNDgtHh8Aglo//EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAIhEBAQACAQUAAgMAAAAAAAAAAAECERIDISIxQTJhE1GB/9oADAMBAAIRAxEAPwC8UREBERAREQEREBERAREQEREBEWF2zxY0mHVNUPijjcW/qtZv8kIK2qN8r2YrLTuhj9lje+K54my3a7hLuK5bmQbCw5ZhWjgGOQVkAnp3h7Llp0u1w1a4DQj/AKIuCtRKeoY1r+NniPdezjna/PW975q8/wD470MrKOondlHNI0Ri+vAC17reth/xQW0iIgIi8mK4jHTQSVEzuCONpc49h06nlZBGd522TcNoyWkGoluyBuufN5H0tvfubDmqCwjD5ZZGtF5KiodbM3JLjckn+SfVffG8bkxKtfXTXDB5YmcmtHwt9eZ7kq3d0eynhM/EJm+8lHumkfBGfm7F39rdSuWXldR6MZ/HjyvtL9kNnY6CkbTszPxSP5vefid6ch0ACza4XK6vPbsREQEREBERAREQEREBERAREQFSO/Pah80zMIpSX6OmZG0uc5+RZFlmbDzED8vRTrejts3DKS7CDUS3bC08vqkcPpb/ACbDqsJua2LdTxnEqoE1VTdw4/iYxx4iTf53nM9rDqghWAbk62XhdVSx0zMiWj3ktuYy8oP3Por2wXCoqSnjpoG8McY4Wj+SSeZJuSepXuRAREQFQW+Da011UMNp3Xghd71wOT5BqO7Wf3v0CnG+Lbb2Gm9mgd/UzggW1jZoX+pzA73PJU9s9gsj3spohxTTED9I1JPQAZlc88tTU9u3Sw33vqJPu42UFbUjib/TU5Bf0e7kz76nt6q/gLCwWM2awSOipWU0ejRm7m5x+Jx7k/4WUWsMeMY6mfKiIi0wIiICIiAiIgIiICIiAiIgLH4/i8dHSy1UxsyJpcbankGtv8xJAHchZBVRth4mN4iMLgfw0lO4PqpWnVwJHCMrEjNoz+IOJHkCDAbB4PLjmKPxatb7iJwDGatLm5sibfVjL8R6uPcq9V5sMw+KnhZBCwRxsHC1rcgB/k876kr1ICIiAsJthtNDh1I6qmzA8rGD4nvN7Nb+xPYAlZieZrGOe9wa1oLnOJsAALkk8gAtWN5u2j8UrLsuKeK7YW5j1kcPqdb7AAdbh1dVyVdRLiVSeJz3XaL5D6Wt6NaMvsru3VbKGnhNZM3384uAdWM1DexORP2HJVTub2bdWVwc4f08FpJAfhc7/baRoSSL+jSOa2UXOYeVtdcupvGYwREXRyEREBERAREQEREBERARFw91gTrbOw1+yDlFHNlttaSvL2QvLZWX44ZBwSCxsTa+YvlkTbmuNuNsIMNp/EkIMjriKK9i8jmejBcXdy9SAg8G8HaR8QZQUh4qyps1gBzjab3kJ+XIOseVnOz4bLL7HbNx0FK2Bli74pH2txvsLu7DQAcgAsHu6wGQcWKVYvVVQ4rEWMbCBZtuRNm5cgGt5EmcKRq35BERVkUe242jNDSiRjBJLI9sMLCbAvdfN1s+EAFxt0UhVY78awwxUkws4xyyu4CQCfcSDi7gE5+oQQPeHt9WmM0Mk0TxI0GUMiLCMwQ0u4zcHmLaW6quoYSfNkAcuLMNH7D+AF0e50hdNISXOJJPU8yrJ2a2Li9nBqWEyP8ANbic3hBGTcjrzN+foguPd3gdPR4fFHTvbK148R0zcxI4jNwPTkByACkypnYSlqsOxCKCKTxaSoeWOY7VjuBzw8DQGzTcjI9Bla5kBERAWPr8bp4HBk08cbiOIBzg02uRex5XB/Zc49i8VJTSVUzuFkbeI9TyDW9STYDuVqxtHikmIVT6uYDiechckNaPha2/ID98zzWblprHG5NtkRFpkREQEREBERAREQUht5suaDFGYjA/wWySOla75WPDHPkY63yuDXG3PicOS+WxuETY7ibsUq7mmidZgI4WuLbFkbGXNmA+Z2ZuTbPO3z3k1dRi2KR4bTvPgiQxtA0LmG007+rWeZoz1a62quvBcLipaeOmhbwxxtDWj+5PUk3JPMkoPYuURAREQeevrGQxPmlcGMjaXucdAALkrVPbTauTE691QbiMXZEw/JH36E6k9T2Cn+/Pa100gwunJLWG8/DmXOGbYx1DdSOtuirXAsAlqqmOkgHFJIbE52aNXOd0Def+bhNrpntgNl56l/tTaZ88MRIFiwAyCxaPMRe179L2uQrMhw7EnfDhxYestRC0f/mXn+FYOzWBx0NJFSRfDG21+bjq57rcyblZREQ7ZjZepjnbU1csd2A8EMLTwgkcJc6R+bzYkCwaMzqpiiIC4QlVdvD3kw/hpbRSkzTl8INnMdGAbSOIcAQbZA97jRCITvj22FZV+xRO/p4HeZwOUkguCctWtzaO/Eeix+zewVZXQe0QNYI+IsBe7hvw2uW9Re4v1BWE2T2UkrayOkj0d5pH2/02Ajid652HUkLanDaCOCFkETeGONoY1vQAWHqe6zZK6TO49o9SIi05iIiAiIgIiIChm8fas0kIghuambJoaLloJ4eID6ifK0cznmGlZ/aTG46OmdUSZ2yawavcfhY3168gCTkFB93WCyVc7sYq/MXEmAHTp4jQdGgeVg6XOrrrNvyN4z7Wb3dbGtoIfEkANTKB4jteEZWiaTqBlc/MRfopiiKxm3YiIqgobvP2xGHUZLCPaJbthb06yEdG3/eyk+K4jHTQPqJncMcbS5x/wOpOgHUrWfFMTkxWvkq5som/C2+TWC/Cwf57klZyymM2308OV08uFwljDVSXdLITwXuXEk/F1JJV67r9jvYoDUTN/qpwDIebG6tj9eZ6n0Cim6zZv2qf8Qmb7qE8MDTo5w1fbmG8u/orjXPpY38r9dOtlPxnwREXZwERVnvj299ih9kp3WqZhm4axMOXF+o6D7nkLhjt5O9w0s5pKAMkkYbTSuBcxpH+2wAi7up0GmulJ1VfLNUvqHnilleXGw1c48mj+AvEF7sGw6SpqYqaH/Ule1jT0JPxdgBc/ZXQ2b3b7KCgo2hwHjygPmd3tlGPytvb1uealq6RMs0Am5AAudTlqV3UBERAREQEREBdJpWsaXuIa1oLiSbAAC5JPILuqw3iY9JVTtwqkHGXO4ZOjnCxLHEf7bBZz+p4W/UFLdRrHHlXhJfjuJW8zaODUZjynl2kk582ssMi4q2oow1oa0BrWgAAZAAZAALGbMYHHRUzaePO13Pefie85ue7uT+wsFlkkMst9p6ERFWREVf73Ns/Yab2eF39TOCG21YzMOf2OoH3PJFk2gu+Dat1bUjDqY3iidaRwOT36W7tbp63PRYnZ3Z91VPHh0GTR5p5B8rR8R9eQ7qPUdI6ARVEbuJ84DRFa7jfJpaNbk6f9FbD7vNlhQUlngGeWz5nd+TAejdPW55rhceeW/kd5nww1PdSHD6JkMTIYmhrGNDWgcgF6URd3nERdXvABJIAAuScgO5KDB7a7TR4dRPqZLEjyxsvYveQeFo/a56AErVHE8QkqZ5KiZ3HJI4uc7v0HQAWAHIAKU70dsTiVaSwn2eG7IR9X1Snu62XRoHdQ8BWDqrs3A7KEceKSt1vFAD00kkH38o9HdVWGxuzb8QrY6VlwHeaR4+RgtxO9dAO5C2ww+iZBEyGJoayNoY1o5ACwCUehERQEREBERARFjdoMYjpIHTSXOjWMFuKR5ybGwHmT+2ZOQJQYHeLtWKKDw2O4ZpGkh2R8NmjpSDqbkNa35nEcg63l3ZbKGmiNXO21RMBZpuTFHfiDCTmXkniedS45qPbD4RJiVa7Eqoh8TH3bzbLK24bwX/2YR5W/U67jmXBW2sTv3dMvGcZ/oiItuYiLglBjto8bioqWSqmPljF7c3H5Wt7k5LWHEcWlrauSrlfwyus9gOTQAfKxpOmQyv0sTqpNvV2uOIVRhhu6mpzcWz43XAc8/lzsDyGeXEvjsbs67EasQA3p2ESveBZzWEAeHxfUbBvPMF2a55XfZ0xmu6abpdlvGk/Fp2Z5+C03tewaZADyAFh6nsrcXypoGxsbGxoa1oDWtGQAAsAF9VuTU0xbsREVQVQ79NtPCj/AAyB3nlF5yPljOkfq/n+X9Sn23G08eHUT6l9nO+GJn1vPwt9NSegBWqddWSTzPnlcXySOL3uPMnX0HbkLKwfABcgLmytDcjsZ7TUe3zNvDA73YIyfKM79wzX9VuhRFj7pdjvw+i45G2qJ7Plvq0fJF9gbn8xPZTpEUUREQEREBYHbajnkopDSyPjqI/exFjrcTmgkMeNHtcLjhOWY6LPLgm2ZQV9spvPglonzVpFPLC27xoJBydCDm4k5cGZBy5gmqsaxysxzE4448g67YowbiFpuHOeR85Au7UcOXZNuMcp5qieKlaDE6Vzm8IPvXE6C3yeJxv7jhA1ytndRsKMPg8aUXqZQOP8gNjwDvpf0A5ZhNMMoWQQxwRjhZG1rGgdALfvzXqREBERAVYb6Ns/ZoPYYXe+mb7wg/BHz9C4fxfqFNNsNoo8PpH1MmZGTG83uOjR/c9gVrLUVElTLJWTe9c515W3s6zvhI6AH9rNvks5XTWMd8No3ucyKDjbVcfh8OvEHH9r63BytzWyWxGzLMPpGwNsXnzSvHzOty/KNB2HcqH7ndkPDYMQmBL3N4YA4Ztj+s9CRkOjfVWepjPplfjlERbZF0lkDWlziAACSTkABmST0XdU9v02z4GfhcDvPIAagj5WHSP1dqfy/qQV5vN2wOJVpcwn2eK7IW9RfzSHu6w9AB3USCNC7WVRldlcAkr6yOkiyLzdzuTGD43n0H7kgc1tbg2GR0tPHTQt4Y42hrR/knmSbknmSVEd0uxn4fSeJK21TOA6TqxvyxfbU9yegU7UqiIiAiIgIiICgG+HaM09C6mjJ8WdrgS3VkWQkfrzuGjnd2Wil+PYvHSU7p5LkNsGtHxPcTZjGDm5xsAqfwjDpcZxB/im8TXB9S9pPCSL+HTxO+huYB5njdzCzllrtG8cdy2+nw3K7FulnGIzt91FlADeznDQgH5W5n9XoVe6+VLTtjY2ONoYxoDWtAsABkAAvqtMCIiAussga0ucQAASScgAMySuyqPfVtiQPwynPnfbxiOQOYj++RPa3UqW6WS26iEbwdp3YpXcLTw00XGIycm5fO/9R4ftYL27udkziFU10sYbFAAJiDlIR8LcsrmwvbkD1CwlBs9N4zaKMNkNSGktOsZ1uelhc36emexmzOBR0VKymi0bm53Nzj8Tj6/wLDkuWPld/HTKcezKNaALAWAyAXKIuzkIi4KDwY9XGCkmnaATFG94BNgS1pIBPc2WotdUySzPllcXSPcXvcdSSbn09OSszeJt7LUTS08ZdHFG8sMZFrlriLv5k3F7XsLDnmozhGCMljfLNfPRw1v/AJTci6RQBWhuT2M9pn9vmbeGB3uwRk+QZ37tZr+q3QhRXZ3YqprKlsMTHeEX8Lqjhd4bAM3Eutbito29ySPVbO4RhsdLTx00LeGONoa0f5J5km5J5klXaPYiIoCIiAiIgLq94aC4kAAXJOQA5kldlVm9ba1tnUUfmY2wnsf9RxzbTAjlo5/5bD5ipldRrHG5XTCbV45NilbHBTXs4ltOMxwsNw+qf9JcLhvMMudXK2NmMBioaVlNEMm/E7m53Nx/9yFhyUe3Z7KGliNVUC9VUeZ9/kbqGAcuVx2A5KbqYz7fbWeXyeoIiLTmIi8+IVscET5pXBkcbS9zjoABcoMFt9tUzDqN0psZXXbE3q7qR9I1P2HNUNhERtJiVTdxLiW8Wr3m5/7JXrxbFZMbxEyE8ELPhBOUcYzJd3Op/wDAUr2IwMYjViUttRUnljaRYPdrmOfIn7BefqW5XhHq6UmGPOpRuq2ZdDG6vqB7+oFwDqxhsQOxdkfQAKwFwFyu+Mkmo8+WVyu6IiKsijm3e1DMOonTusZD5ImfU8jK/wCUansO6z80rWNL3ENa0FzicgABck9lrBvJ2tdiNaXtv4LLshbp5b5uI+p2p+w5II3UVck0zpnuLnvcXOcdSSbklS7A6iWufFQxMDXnK4+G3zPd0sM/7dFEmMIs0C5NgANSTkABzK2S3XbHjD6O8gHtE1nSn6fpjHZt8+5PZLJSVJcDwqOlp46eIeVgtfmTqXHuTc/de9EQEREBERAREQRTb/aj2ODgjcBPKHcF8xG0fHM8fS3kObiB1UG3W7MGqmGIzNPgxEina/Mvfe7pX31dxZk83fpWGoaOfGsTe15s0lr6l4zDGtPkp4z0bp+Z3E7kr3o6VkUbYo2hrGANa0aADIBc55Xbtl4TjPf19kRF0cRERAVEb9NrzLIMOgN44zeYj5njRno3U/m/SrF3m7XCgpbRn+olu2MfT1kPpy726FU7s/GKaN1fO3xJXksp2HzcTzbzOB1AuCe5aPmWLlq6dMMNzbFYLs9UOqY6CnfaadoMwFx4bDZ1pM/ps4ju0amw2awPCY6SnjpohZjBbuTzce5OajW7XZD2KJ1RKL1VR55XHMtueLgv6m57+imi2xf6EREQXBXKjW321TMOo3TGxlddsLDzdbU/lbqf21IQQLfhtnwt/DYXZmxnI6atj++RPaw5lUxAy3mK7zzPnldI9xc5zi5zjqSTck+pWc2Q2ckxGsZTR5NHmkfyawEXPqdB3KqJtuU2O8ab8Snb7uIkQtPzPGr/AEboPzfpV6LzYbQRwQsgibwxxtDWt6AL0qKIiICIiAiIgIiIMDsXszHh9I2Bti8+aR/1O5n0Gg7d7rPIiG9iIiAvHjGJx00D6iU8LIxc9T0A6kmwHqvYqA3rba+21fsMDvcROsXXye/m6/0jMD7nmFLdRcZu6Y0zyYrXvq5ntYxpvYkENY25sG8w0C50uctXAGf7FYE2srvxF544IbMp2nTiBu53Q2JLri93O7WESwrAHz1DcKgefD8r6qQaDh1aCMnWJy/MejQVe9BRshiZDE0NYwBrWjkAuOGNt5V26l4+MehERd3ARF1e6wuTYDMlBi9p8ZFJSSVBsS0WY0/M45NHpzPYFa3bcY/PiNSah/w/CyNpuGN6Ad9Sed+gAGc2/wB40lbJJBHwimbIDEbAl3CC3jcTnZ13EWIsLXvmsfseyGO80xFwCYwdH214TobcxqMrgXUqxF44ieGNg4nPLWgDUkmzQO5JC2U3a7Htw6ks4A1Eoa6Z2udsmNP0tufuSoPuqwUVOIyYi6EcEdw12g8QkeYNtmQ2+eVuLmVc6u9oIiICIiAiIgIiICIiAiIgIhVI7wd8EragwYc5oZGS18xaH8buYjvlwjS/M6ZC5CXb3drvZKU00TvfzgtFtWMORd2J0H3PJUM3BZ4zG3wXufNYRFouXZ2yHrkkuPyz1bqyoPiuceI37WsANALZWCvDdXhXj3xaVub7sp22sGRi4JaO5uB2B6rPly/TpOPH9s5u22PbhtGI3WM8lnTOGl+TG/lbe3qSealqItOYiIg4uobvZxeODCp2OfwvmaYWAakuGY1yHCDc9OuhzO1+0UeH0clVJnw5MZze85NYPU/sATyWq2J18lTPJUTO4pJSXPd/gdGjQDkAFYPgzMr2QTP/ANJt3BxHu8yC7QWAz4uQIz5dl8qdpdwxxtLnvIaANSSbABXzsFusZRzMq55PFlawFrLeVjyPMb/NbkbC2utrKiX7FYUaXD4IHNDXtYOMAAeY5u4rZF2diedlm0RRRERAREQEREBERAREQERQreltqMNpLMINTNdsTdeH6pXDo3+TYdUES31bwDGHYZSv87haokac2gj/AEmkaOI1PIZc8qPY1dnvLnFziXOcS5zibkkm5JPMk5rkKoeH0W0m6xkwwelE/wAXCS3keAvcYr/8OH+FQm7nZg4jXshI90z3kx/ID8Pq4+X0ueS2la0AAAWAyACVXKIigLhxQqrd9u2fs8H4fC600zbyuBzZGcrdnPzHpfqEFdb1tsPxCs4Y3XpoCWxWOTzo6X76DsPzKGNXVoX3pqdz3tjY0ue4hrWjUkkAAdySFpEg3fbNyV9fHExzmNYRJLK0lpY0H5XDR5OTfuflK2lUZ3e7Jtw2jEWRlf55n63db4QfpaMh9zqSpOsqIiICIiAiIgIiICIiAiIg8WM4nHS00tTLfgiYXusLmwGgHVan7UY/LX1b6ubJz8mtvcMaPhY3sP5JJ5oiDGBc3RFpGz+6/ZQYfQNDgPGmtJKRnnbysB6NGXqXHmpgiLKiIiDD7WY8ygopauQFwjGTR8ziQ1je13EC/Jaq4niElTPJUTO4pJXFzj36DoALADoAuEViV8QFce43ZEH/AO0lANi5kAyNiCWySHodWj/keYRFaRcyIiyoiIgIiICIiAiIgIiICIiD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIPEhUSERAVFRUWFRoaGBYXGBggIBsbGh4WGB0aGB0YHiogHxwqGxobITEiJikrLjAuHR8zODMsNyguLisBCgoKDg0OFRAQFSsdIB43Li03LS0vLSsrLS0vLS0tLS8tKysrLSsuNysvKzcvLTcrMjIwNzcrOCs1LS0zNzcvK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQECAwj/xABIEAABAwIEAwUDCAYIBQUAAAABAAIDBBEFEiExBkFRBxMiMmFCUmIUIzNxgZGhsVNjcnPR8BdDVJKywcLhFlWCk9IIJDQ1ov/EABgBAQEBAQEAAAAAAAAAAAAAAAABAgME/8QAIxEBAQEAAQUAAAcAAAAAAAAAAAERAgMSITFRBDJBYXGh0f/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQFiYtiMdLC+aVwDGC5JIG9gBc6XJIGvVY2PY9DRNBku57zlihYLySO91jefqdhuSFHm8Nz4o4S4qcsQIdHQMd4BYgg1Dh9K7Ty+UeqDJ4AxqoxBs9TLbuXPApwGOaMoFyWlwDnDUDMd3NdbSyli4a0AAAWA2AXKAiIgIiICIq44+7TWUmanosstRqC/dkZ9fed6bDmeSDccdcf02FDI456hzbtiHIG4DnnYC4PqbfaPn7iXHKirlM9XI4uI8MYOjQdQAL2Y3n1On1rHxCpfK90s8jpZHm7nONyT/OlhoNANFMOz7szlxG01QHQwA2BIs54HugjblmOnS/LWYiMcP8NVWJuMdLEXltszibNZe3mcduthcnWwKvfgHs4p8LAlfaapI1lI0ZfdsQPlHxbn0GilWD4TDRxNhp4mxsbyHM8yTuXHmTqs5S1RERQEREBERAREQEREBERARcErGxLEYqWN008rY42i7nuNgP8AfoNygylF8S4mfLK6lw1jZ5mm0krvoYP3jh5n/q269cqxA6rxjbvKOhPPyz1A9OcMR6+cj3bqU4Zh0NLG2GCJscbRZrWiwH8T67lBrcA4bZSuM0j3T1TxaSpkAzEb5WAaRx32Y3Trc6reIiAiIgIiICxcRxGGmZ3k8rIm+89wA62F9z6BRPjntIpsMvEwd/Ufo2usGfvHa5f2dT9Q1VK43jk+KSGapeX7hkLLhrRzJJNmMGlyTc/irImpfx12mS1l4KIuig1DpNnyeg5tb+J521BgVBQyTyNgp43SSO2a3+bAdSdAtxwxwzPisxjgc0NbrJJlsxgJIAaL3doNOvXmr44T4TpsMjyQNu4jxyutmefU8h6DT81rZE9ozwF2ZRURbUVWWap3A3ZGfhB8zviP2AbmxERYrQiIgIiIC0/FPEtNhkJmqX5Rs1o1c93usHM/gNzYLUdoPH1Pg8YzWfUPF44b77jM8+yy4352IHO3zdj+O1GIzGepkL3nbk1reTWDk3+Tc6oLZ/p6b/y1/wD3m/8AiipWyIPtFERAREQEXDnAAkmwGpJ5KFVHEtRiT3QYTYRg2kr3i8beRbA3+tf6+Uet0GZxrxBHCGU8cbp6p7mmKGPzNINw959hum53F+V7eGDcJyyyCrxWYVEwN44QPmYNvI0+Z9/bOv3XW44b4agoGu7sOfK/WWeQ5pJXdXuOv1DYdFuUBERAREQERdJpQxpc42DQST6DUoEsrWNLnODWtFySbAAbkk7BU3x52rOkzU+HEtbs6o5u9IhyHxnXpbQmM9oXHNTiMroC18EDHfQHRziNQ6a252IaPCNDroVEQFqRNcFm5JuSSSTzJ1JJ5m6lXAXA82Kvuc0dMD45beYj2GX8zvXUC2uuik3AnZY+fLPiDSyPdsGzn/vObW/DuedtjdFPAyJrWRsaxjQA1rQAABsABoAlow8EwaCiiEVPGGNH3k9XHclbBEWVEREBERAWFjGLQ0cTpqiQMY3meZ6NG5PoFqOMuMYcMZ4rPmcPm4Q4Anlck7N/E8gV88cScQ1mLSukmflay4JddscXwganN6WLj0KCQY32izT1rn00DXNkcAInC7nAADUjbQXtsNd9SvHiXAKerp3V2HsuY8xqmsLe7ZsTktoXDc5dCNR6xYNZGz22RvbvoJqi/Tfuofvv8Z8si4FxZwfKyRrI6XuXF0bdGttYZnEm5cWkgucST9wQQrIi6fI5P0U39138EVH2giLhrgdjf/bT81BytXxFxBT4fF3tTJlBNmtGrnu5NY0aud9X22C0nEXGmSU0WHxfKq3mwfRw/FO8aNA9299hpcX7cOcG91L8sr5fldadpHDwRD3IGbNHxbnXa5Qa+PCavGiH14dS0e7aJriHyjkapzdQP1Y+3UKcUtMyFjY42NYxoAa1oAAA2AA0AXqiAiIgIiICIozxpxtTYUz5w95M76OBmrnHle2zb8/uudEG6xfFIaOJ01RI2ONu7j+QG5J5AalUJx9x7UYneJhNPR2vlBGaVvJz3C4bH945eN2g0/E+N1WJTB1WS5xNoadguG35MaL53ciTcX0ObyCweDuyp0oZNimoBzMpgdv3rr+L9n7L2Jai2WXKh+H4FV4vTMdBSvLonBjJneFr4jfS7zqGHXNqbE+jRanA3ZvBh2WWa01SNc5HhjP6sHn8R16WvZTeKNrAGtAa0CwAFgAOQA2C7q6zgiIooiIgIi8K2rjgY6SV7WMaLuc42ACD3Vb9oPajFQh0NIWyzi4c7dkZ/wBTvTYc+iiXHvalLVn5NQZ2xu8OZoPeS+jQNWt/E+myrxlFluXZHOaAXOcbxRXvbMRcSSGxswXH7WoBqcbZueHFXLLWSd7Uvke6U3awayTX2yj2WfERa2wNrDJrKprmeIMkmhAyRg3hjZo3W9++kabakkEHUvDQB40sUtXJ3NIySR8ujnkfOS9b62ZH8I0sPETpa6OBeySCkDZay0stvo/6tuxsffNxz09Duqyg3APZtPibvlVW5zInG5efPJ+xfZvLNt0vyvPC+HaSljEUNPG1osfKCSRzJOpPqVs2gDQCwXKgWREQeNZVxwsdJK8MY0Xc5xsAqnwz5XjD524a6Siw+SZz5JzcPkc6weIRu27gSbEanWxDmnd0PClTir21WNWEbTmhoGHwM6OmPtvtpb6+RLRYMcYaA1oAAFgALAAcgByQazh3h6nw6LuqaMNBN3O9p7ju555n8BsABotqiICIiAiIgIsXE8RipYnTTyBkbBcuP86n0GpVHccdo1RiAMVPenpHDz3+clbsbnZjL6H7vETlIS/jntNEJdTYdllmGj5jrHFytceZ99LbX6nRVhhmG1FfUOZT5qmpebyzv8rQdy88hyyje2t/INzwXwRPiYbZpp6Ie3bxScj3QPXUZzyP1sV44FgkFBEIaaMMYOm5PVx3JWct9u958en+Tzfvz+P9aHgjgKDDB3jj31S4eKZw29Ix7I5dfssBL0RacBERAREQERQHj3tJiw/NDT2mqdiN2xn4rbu+EfbZBI+KuKabDIu8nfqfJGPM8+g6ep0CoHivi6rxh7i4iOCPXLrkjHVxGrn/AGXPIBauqnlrpW1FVK9xld4QAS+QNOoZyYwa67DWwOy5rsTbEBHF3bi0aNYPmo3HQn9bJbcm7dPa2GLy85Hq6fQ49vf1Lk/uuWPipmG2ZuYXDhbvJ2nYt/RRb73uOT9hncNcM1mNyAMAZCw+ax7uO9tG83Pt63PMjdSTgLsslrCKnEC9kTrODXE95J6uJ1a23Pc+m6vKho44I2xQsaxjRZrWiwAVnGTyx1fxHLnO2eJ8afhHhGmwuPJAy7yPHK62Z/1nkPQafmt+iLTgIiICIiAiIgIiICIiAo7xjxlTYVHmmdmkd9HCzV7ztoOQvzP4nRRfjvtRZTF1NQZZqgaOk3jiO3iOznX0t101PhNUYXh9VidS4R56iocfnJXnRo2u8+w34Rry/VoPbifiKpxSVrqkkjNaKmZctab2tlHnffQk6DY6/Nqe8Fdlr35ZsStluHtphrrsDK7mbaZelhoBlEu4H4Agwwd4499UkeKVw29Ixs0cuv1DQTBB1YwNAAAAAsAOQHILsiICIiAiIgLzqahkTS+Rwa1ou5ziAABzJK1PFfE0GGQmWY3J0YweZ56D06nkqC4m4rq8Zc7x5WRjMY72jjZ77j7RHO9z7oOwCVcf9qzpr0+HlzWE5TKAc7+VoxuAeu59OcGoKQQAyTZe8G4efDGDfz287z7gv9puFr2Bkbc2Z7WuH0lrSzDYiEHSKLq86nbXVo2/C/CtXjL2siYI4I9Mxv3cQO4F9XvO53J52FrZ58e6Zr0fhutOjy7+3b+n7X6wR3lY/uKNsr3zHx3Hifewy6GzIrDy7WGpsABcvZ/2WxUOWerDZZxq1u7Iz6X8zvU7cuqlHCPCFNhceSBl3keOV3md9Z5D4Rp+akCsmTHLqdS87tERFWBERARFwSg5Ran/AImof7bT/wDdj/iuUG1REQERR/jDi+mwqLPO673fRxN1e89GjpfmdEG4r66KnjdLNI2ONgu5zjYAKneJ+OJ8Va9tI80mHtuJKp2j5eWWMbgG/LX7fCdJxBiM+JkT4m8sZcfJ6GK5GZxe1pkt533aWlo8WuzdWqa8PdnzqtzKjE42tYwDuqRuwAvYzW9CbRgkC5uTsginC3CT8UaI6aP5NQNcCZy35yYgEZmZrm9i4X2GYj4BdHD+A0+HwiGmiDGDfq49XHclbGNgaAGgAAWAA0AHIei7ItuiIiIIiICIuksjWAuc4NaBckmwAHMk8kHdQjjztEgw0GOPLLUW8l/Cz1kI/wAO/wBW6iPaB2r3vT4eTYnKZwNXHa0Q3/6t+nVVc2mOZxkyvkabua93zcV7+KodzdfaMak7+6Q98WxKevk+UVUr3ZzlZYXc/W2SBg5X0vsD1Oh8pakRFoAaXMddkLTeONw9qVw+ml6jy8tvAu1JHLVSdzStkkkk8Jkt43i1srQNIoreyOW5t4RcvA3ZPBStElaGzS6ER+wz0+M/Xp6czRDuA+z2TFJfldVmbTu8WpOaQ+4zowbA9AAOovahoo6eNsULGsY0Wa1osAF7taALAWA2C5UBERAREQEXV7g0EkgAC5J5DqVUnHna0G5oMNIcdnVO4H7oHzH4jp0DtwFk4xxDS0bXOnnY0sbmLLgvt1DB4j9ypHjHtEnxK8YvT0jiGhgv3sl9s5HI3HgA1B6eIQCaskMveh7nTOdfMSXOc46a3uXE7W57L6D4A4AgpQyrnjLql7Q8Nk1EGYZixgPtAk3cdb39b0U7/wAE1n/KZf7j/wDyRfUCJoIvGsq44GOlle1jGC7nOIAAHMkqq+JuNpa89zSudBTuJb3h8Mkp00t5oozcX0z2Ps3AdBIeLePmwudTUQEs4Ds8h1jiIA8LiPNLqLRgjUi5aqopqKtqMRa6Frqqqc0l8k1iIwS+PMXFoEbdC5oDQdR0ymR8J8My1xaaYdxTgAOmsLOLXlw7ltgHv8pLyMoIO93MVt4DgcFDH3VPHlF7uJ1c93Nz3HVzvU/kg0nCHA8VEe/md39U65dK4aNLtxE0+UHmdzzPJS1EQEREBERARFDeOu0CnwtpYLS1BGkQPl6GQ8h6bn8UEgx/HYKCIzVEga0bDm49GjmVQfGvHlTi7zFGO7gbrkvYAe/O7b7NulytTjFZWYneuqnPMPeCIOa293HURQMH5nS+5J0OtmkbGMhY0lpuIQczGO96d39bL8PlG3ViBGGxtDw5zQ6/zoFpJBsRTtd9HH1ldqfvYtxwrwnU4u8MhjbFTsdqdcjPU85JLfb+yNpRwJ2YzVpFTiBe2N1iGnR8nT9hltudtgBYq7qGijp42xQxtYxos1rRYBUajhLhGmwuPJA27yPHK7zO+s8h8I0W/RFAREQEREBYWMYpFRxOnneGMYLk9fRo5k8gsTiXiWnw6PvJ36nyMGrnno0f57BUDxPxFPiEpkqj4Lkxx5iGNbcmzg0XJyjlYuPMbKyamvfj7tDnxQmNl4aX9FfV/rKRv+wNB8WhUSw7D5quRsFNG6SR2zW9OZJOgaOZOilXDvAFXizmPazuafYzuAFwP0cYt9QAFhzJO97cKcKUuFxd1TR2Jtnkdq956vd/kLAcgFbcEZ7OuzKHDcs9Rlmqve9mL0jvufjOvSysJEWVEREHzriXGs2Jz56ghrGuBgpm3IDgdCRvJNfLoNWi9rOsDPeF+AXTASV4LYh5KbQOePDY1Bb1DW3jGhtrp4G7fgLs6gwsCV9pqoixlI0YPdibs1vrufQaKbIOsbA0BrQAALAAWAA5ADkuyIgIiICIiAur3hoJJAAFyTyHUrCxvGYKKIzVEgYwddyfdaNyfQKiuLONazHJPk1JG5kJ2Ze2YAgZpnbAXI021A8RsgkvH3awBenw05nE5TOBfU6WhHM/F9191F8F4Oyh1Xi9w0WcYpH2vmuQ6VwJcSSPI3W+9z4V7UNLSYGHSVDDPPZndyNJAf3rJQ5sItePLb6U6mxtbULBwbCq3HZWMhAip4WtYDY93C0Cwa2+rnhp6km5NwDoWSX3XfGOIqjEH/JaNryJGsbljFi8saW5w1ukYINyAdrBxsABYfZ/2WxUWWarDZZxYtZuyP6ved6nQcuqlPCHCFNhceSBt3keOV3md/AfCNPzUgQtl9TBEREEREBEWNiFfFTRulmeGMaNXH+dT6IMlQjjbtBiobwQZZana3sx+shHP4d+tlCuLe0aesd3dKX08AdbvB9JIejACDtrYGwGriNlGOGeHqjEJDFTtFgR3spILWE6kOcL3fvoOYP1rUn1m10q556ufNI59RUSGwAFz6BoGw+pWTwp2XMAbLiHjkuHNhBOVliD4iPMdLEeXffdSrhHg6nw1nzYL5SPHM/zH0Hut9B9pO6kat5fCR1YwNAAAAAsAOQ9F2RFhoREQEREBERAREQERcE21KDlRLjnj2mwphDiJJyLtiB+4vPst/E8goj2idrTIM1Ph7g9+zp9w07Wj5OPxbfXyhPDXCQqb1uJyuERe4FuYlxeLfTHcEkizPM6/I2Dg6Rx1vEU/fTyFsYz5dBbKyxdHAwuFzsCb294jS+5rKqmwvKaYtDcou62ZznlhY8APaA8jMdS0NB3IsYzrpMWlmMNMyAT1MbXRsyRtZdkhzZSGO8EYacuQZTYXcQHFqsfgfs1bTuFTXuE9TuGnVkZvfwjYkE8gGjkOaqI5wxwNU4q4VFeXw05OYRZnZ5TuHPJ1t0J1sbNDQrgoKKOnjbFDG1jGizWtFgFkIooiIgIiICLhzgASTYDclVRx12pgZqfDnAnZ1ToQP3QOjj8R06X5MEs4347p8Lbk+lqCLthB26OkPst/E8gqSxri2qr3A1Ut2NLnNY1oDW5rDQDXQDQkk6nXUrTuuSXPc57nG5c4kucTzJOpJ6qyuBOzB82Worw6OO4LYNnO5gyHdo+HzdbbHfiM+2l4T4GqMSIPiig2fIRYubzYwbm9hf2et7WV44Hg0FDEIaeMMYOm5PVx5lZ4XKzbq4IiKKIiICIiAiIgIiICIoxxpxvT4W2zz3k7vo4GeZxOgvbYX57nkCg3WL4rDRxOmqJGxxt3J/IDck9BqqX4o4zqMYbIISYaJjHOLQ5oknDCxrtT4WsBe0m5ygX85FhrcTkq8Te+rrH5mQNkcYWxkxMsyQhjHXyPkDw3MzW+xd7Ky5p2UzL1TS0NdIyTe07JYjFmN2APlHdtvG2wB8RI8SDQYnRshhe9oYwwTCMzwxnZzSHMic4ZnFsjcnfyc3OynYJwXgVbibu6pWd1A11zIcxEbj5nBxPimIsLgZrAAFjSVMuGeB6nFiJ64uhpSI8sdmtlmbG1oaZC1oIaSC6xvYuOUDRyuGgoYqeNsUMbY2NFmtaLAINNwhwfTYWzLC3NI76SZ2r3nfU8hfkPxOqkKIgIiICIiAsDG8ZgoYjNUyiNg5ncn3Wgaud6DVaLjfjunwtuU/O1BF2wtOuuzpD7LfxPIFULj+OVGIy99UyZj7LRoxg6MbyHrqTzJVkS1IOOO0CfEyYmXhpf0YPik9ZSOXwDTrm0tG8Kw6WpkbDTxukkds1v5knQD1Oi23B/B1Rij7RDJEDZ8zh4R6N95/oNuZCvrhfhinw2Lu4GanzyOsXvPVx/wAhYDkFbcTNR7gXs5ioMs9Raap5H2I/3YO7vjOvS1zedoiy0IijXaFi01FROmgexjg5oL3tuGtJsTb67D7UElRRDhTimZ8zqHEYmw1bRmYWH5udmvjhvrfQ3b/uBL0BERAWs4gx+nw+IzVMoY3kObj0YNyVFuPO0ynw28UVpqnbID4WH9YRz+Ea9bbqhcbxipxKUzVMpcep0a0dGjYD0CC4P6cqT+yz/fH/ABXKo75PH75/uoriPsZFi4liEVNG6WeRscbRcucf5ufQKkeLO0SXFXyU9KXw0rGOdIQQJJWgtba50Y0lw30DbudcAtUVLOOO0wRl9Ph5Y+Ro+cqHEd1CNt9i6+g310AcdFAqSB1NU99NM2SUTwd49xDnPEgZI5znvGWCEMOhPjcRu0ZQMrD6OOIRXhAZHPJG5zY3FokDotW59X+BssZqHWyWeW2sL9cDgq8Ty09AMoZHFHPVF12Du82Ug5QZJAwht9vDdoaCHoPCqkMNR8mgZLPMGPp2MzDM6NwygNbEclPCB4v0jjqSwXIsLgrs0bDIazEMk1U45sgHgjOmw9pwsADsLC17XUk4P4OpsLYREC6V30kz9XvO5ueQvrb77nVSJAREQEREBEWBjWMQUUTpqiQRsbzO5PINA1c49BqgzibalVVx52qNjzU+HEOfs6o3a30jGzj8XlHxcojxx2gz4nmiiBhptsl/FIP1pHL4Bp1J5RbDsNlqZGwwRukkds1v4k30AHU2C1ImsWaRz3OfI8uc43c5xJJJ5knUlWTwJ2YyVOWeuDo4d2w6h7+mfmxvp5j8POXcB9msVDlnqss1QNQN2Rn4AR4nfEfsA52AlpjxpKZkLGxxsaxjRZrWgAAdAAvZEWVEREBYmLYdHVwyQTNvHIwtcPQ9PXmstEFH8W1copXQTNe2roJf/aVbWiz8haSzQANJZYhuotluTbW4OH8S+V00M+XL3kbXFp9lxHiafUOuPsWsjga2uqIJGtdFVQtmDSL3fHaGW4OnlNP+KhOL8ZnBKZkdOYpc8kwhieTmjjEkmSQkHxxkC4vYm41OtgszFsXgo2d5UTMib1cQL25NG5PoFSvGXa4+qL6ejvTxHTvzfMQTa7rfRsPUXd+QgeJVtRiEpmqZnvc91g0avdzyQxjRrB1NgNT4jocOipXNcIom9/O92jW+NjXcrAaSyDr5R8XIOjoCzWYFp3ynfrf0B3vzBuN1Y3AfZjLXZZ6wOhp92xjR0g/0t9TqeXVTDgHszZCGVOINEtTYHK45mtI2Lr+d4FtTcC2l91ZiupiM/wBH+F/2GL/9fxRSZFFfLHFXFVVi7zJPJkha6zWi+RhPssaNXyW+3rlG2LRVsdG4h7CWua5r4bjMWvaWl07uThfM2IWsQL2O+PA6WeRkVK10kx8LSxp8N/Zp2+w3rIfEdT4db3T2edk8VHlnrQ2WfQtj3ZGf9b/XYcuqDQ8J8C1OKfO1rpYqVxaS17vnajLfKX2sGRgEhrQAADoPbNy4dh8VNG2KCNscbRYNaLAf7+qyUQEREBERAReVRUMiaXyPaxo3c4gAfWToqs7Q+1NrG9xhsgdIdHTgXawfq76Od8WoHqdglXG/H1NhYyE97UEXbC07dHSH2G/ieQOtqJx/HKjEZe+qZC4+ywaMYOjG8vr3PMlakuLiXvcXOcbuc4kknmXE6k+pVm8B9mUlSGz1wdHCdWw6h7/2+bG+nmPpz16RHOD+EKjE32iGSIGz5nDwj0aPad6DbmQr24Y4YpsNjyQM1Ns8jtXvI5uPToBoOi2lLTMhY2ONjWMaLNa0AADoAF7KWqIiKAiIgIiICxcTxGKlidNPII42C7nO/m5PQDUrC4l4kpsOi72okDfdaPM89Gjn9ew5qgON+KarGD3mdsdLGbZSbNiNtO85veRtlBvrYCxQbbjjtSkrJWsoY3MADmNeL968Py5g218gIaNru53BUBpKe+Zzzq05XX2aW6ZR1IFhYbCy9SGQDTO3ONtppR1dv3EJ6C7nDqLETfs+7O5cTyz1V4aZoAYxoy5hvaMHZvV5uSeZOqI0HD3DtXijnRUjCGbSSuJDbb2eRuPgF79OavXgXgSmwlngHeTEeOYjX9lg9lvpz53UiwzDoqWNsMEbY42jRrR+PqfU6lZSKIiICIiCNcF8FUuEx5YW5pHDxzOAzO9Phb8I/E6qSoiAiIgIiICIiD5x7UsVnqsSnikce7gcGRs5AZQc1veN736EDktFh2GOnkZBEzPLIbNH8/ffkAry457OIsSk7+OXuJ8oa52XM14G2ZtwcwGmYHbe9hb14D7PosLLpXSd9O4Wz5coaDuGNudTzJP3arWjD4L7L4KF4nnd38wAy3FmMPMtHtOvs49NAFP1yiyCIiAiIgIiwMaxmCijMtTK2Ng5nmejQNSfQIM9V5x32oQUOaGmyzVA0OvgjPxEeZ3wj7SNlB+Nu1CevJp6EOiiIN3bPeOdyPI30H2nkoRT0wYMxI/btp/0jmVZB7YhUz1spmqpHSPd16dOjW+gXahmd3rI4Y+9eTlDQ0uyh2UkxN2zjKCHEGxaDyWZw9gNTisndUrCGA+OV17D1e7r6BXxwZwVTYUy0YzykeOZw8R9B7rfQfbdKiGdn/ZOISKjEbSy3uIybi/vSE+Zx3tt1urYa0AWAsAuUUUREQEREBERAREQEREBERAREQEREBERAREQEREBUb/6gv8A5NN+6d/iREFZ4T9FVfss/wAay8X8sX7ARFuekX12Nf8A1jP3j/zU5RFiqIiICIiAiIgIiIP/2Q==</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDERGBC_1-400.jpg?v=1705605516</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3003-200G-400.jpg?v=1705605509</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3603-200G-400.jpg?v=1705605511</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-GSP2702MH-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3603-3LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3903-3LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPRUSH-GSP2702MH-400.jpg?v=1705605605</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPRUSH-CF3003-2.5LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/PACIFIC-TLSF4206_1-400.jpg?v=1730827681</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/PREDATOR-GSP2102H-400.jpg?v=1705605819</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SNIPER-SF3903-200G-400.jpg?v=1705605863</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SNIPER-SF4203-200G-400.jpg?v=1705605863</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SE1802S-400.jpg?v=1705605868</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SE2102S-400.jpg?v=1705605868</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SL2402S-400.jpg?v=1705605870</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SUPREME-SF3903-400.jpg?v=1705605878</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SUPREME-SF4203-400.jpg?v=1705605878</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/TAKUMI-SC4253-300G_1-400.jpg?v=1705605884</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/TITANIUM-SF3903-400.jpg?v=1705605960</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/VALIANT-GSP2702H-400.jpg?v=1737998518</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/XTREMECHAOS-GSP2702MH-400.jpg?v=1705606000</t>
+  </si>
+  <si>
+    <t>PEJEREY TELESCOPICA 4MTS</t>
+  </si>
+  <si>
+    <t>BLUE MAX 1802 BEAST</t>
+  </si>
+  <si>
+    <t>DEFENDER 180 CASTER</t>
+  </si>
+  <si>
+    <t>DEFENDER 3003 CASTER</t>
+  </si>
+  <si>
+    <t>DEFENDER 3603 CASTER</t>
+  </si>
+  <si>
+    <t>CAN-012</t>
+  </si>
+  <si>
+    <t>CAN-013</t>
+  </si>
+  <si>
+    <t>CAN-014</t>
+  </si>
+  <si>
+    <t>CAN-015</t>
+  </si>
+  <si>
+    <t>CAN-016</t>
+  </si>
+  <si>
+    <t>CAN-017</t>
+  </si>
+  <si>
+    <t>CAN-018</t>
+  </si>
+  <si>
+    <t>CAN-019</t>
+  </si>
+  <si>
+    <t>CAN-020</t>
+  </si>
+  <si>
+    <t>CAN-021</t>
+  </si>
+  <si>
+    <t>CAN-022</t>
+  </si>
+  <si>
+    <t>CAN-023</t>
+  </si>
+  <si>
+    <t>CAN-024</t>
+  </si>
+  <si>
+    <t>CAN-025</t>
+  </si>
+  <si>
+    <t>CAN-026</t>
+  </si>
+  <si>
+    <t>CAN-027</t>
+  </si>
+  <si>
+    <t>CAN-028</t>
+  </si>
+  <si>
+    <t>CAN-029</t>
+  </si>
+  <si>
+    <t>CAN-030</t>
+  </si>
+  <si>
+    <t>CAN-031</t>
+  </si>
+  <si>
+    <t>CAN-032</t>
+  </si>
+  <si>
+    <t>CAN-033</t>
+  </si>
+  <si>
+    <t>CAN-034</t>
+  </si>
+  <si>
+    <t>CAN-035</t>
+  </si>
+  <si>
+    <t>CAN-036</t>
+  </si>
+  <si>
+    <t>CAN-037</t>
+  </si>
+  <si>
+    <t>CAN-038</t>
+  </si>
+  <si>
+    <t>CAN-039</t>
+  </si>
+  <si>
+    <t>CAN-040</t>
+  </si>
+  <si>
+    <t>CAN-041</t>
+  </si>
+  <si>
+    <t>CAN-042</t>
+  </si>
+  <si>
+    <t>CAN-043</t>
+  </si>
+  <si>
+    <t>CAN-044</t>
+  </si>
+  <si>
+    <t>CAN-045</t>
+  </si>
+  <si>
+    <t>CAN-046</t>
+  </si>
+  <si>
+    <t>CAN-047</t>
+  </si>
+  <si>
+    <t>CAN-048</t>
+  </si>
+  <si>
+    <t>CAN-049</t>
+  </si>
+  <si>
+    <t>CAN-050</t>
+  </si>
+  <si>
+    <t>CAN-051</t>
+  </si>
+  <si>
+    <t>CAN-052</t>
+  </si>
+  <si>
+    <t>CAN-053</t>
+  </si>
+  <si>
+    <t>CAN-054</t>
+  </si>
+  <si>
+    <t>CAN-055</t>
+  </si>
+  <si>
+    <t>CAN-056</t>
+  </si>
+  <si>
+    <t>CAN-057</t>
+  </si>
+  <si>
+    <t>CAN-058</t>
+  </si>
+  <si>
+    <t>CAN-059</t>
+  </si>
+  <si>
+    <t>CAN-060</t>
+  </si>
+  <si>
+    <t>CAN-061</t>
+  </si>
+  <si>
+    <t>CAN-062</t>
+  </si>
+  <si>
+    <t>CAN-063</t>
+  </si>
+  <si>
+    <t>CAN-064</t>
+  </si>
+  <si>
+    <t>CAN-065</t>
+  </si>
+  <si>
+    <t>CAN-066</t>
+  </si>
+  <si>
+    <t>CAN-067</t>
+  </si>
+  <si>
+    <t>CAN-068</t>
+  </si>
+  <si>
+    <t>CAN-069</t>
+  </si>
+  <si>
+    <t>CAN-070</t>
+  </si>
+  <si>
+    <t>CAN-071</t>
+  </si>
+  <si>
+    <t>CAN-072</t>
+  </si>
+  <si>
+    <t>CAN-073</t>
+  </si>
+  <si>
+    <t>CAN-074</t>
+  </si>
+  <si>
+    <t>CAN-075</t>
+  </si>
+  <si>
+    <t>CAN-076</t>
+  </si>
+  <si>
+    <t>CAN-077</t>
+  </si>
+  <si>
+    <t>CAN-078</t>
+  </si>
+  <si>
+    <t>CAN-079</t>
+  </si>
+  <si>
+    <t>CAN-080</t>
+  </si>
+  <si>
+    <t>CAN-081</t>
+  </si>
+  <si>
+    <t>CAN-082</t>
+  </si>
+  <si>
+    <t>CAN-083</t>
+  </si>
+  <si>
+    <t>CAN-084</t>
+  </si>
+  <si>
+    <t>CAN-085</t>
+  </si>
+  <si>
+    <t>CAN-086</t>
+  </si>
+  <si>
+    <t>CAN-087</t>
+  </si>
+  <si>
+    <t>CAN-088</t>
+  </si>
+  <si>
+    <t>CAN-089</t>
+  </si>
+  <si>
+    <t>CAN-090</t>
+  </si>
+  <si>
+    <t>CAN-091</t>
+  </si>
+  <si>
+    <t>CAN-092</t>
+  </si>
+  <si>
+    <t>CAN-093</t>
+  </si>
+  <si>
+    <t>CAN-094</t>
+  </si>
+  <si>
+    <t>CAN-095</t>
+  </si>
+  <si>
+    <t>CAN-096</t>
+  </si>
+  <si>
+    <t>CAN-097</t>
+  </si>
+  <si>
+    <t>CAN-098</t>
+  </si>
+  <si>
+    <t>CAN-099</t>
+  </si>
+  <si>
+    <t>CAN-100</t>
+  </si>
+  <si>
+    <t>CAN-101</t>
+  </si>
+  <si>
+    <t>CAN-102</t>
+  </si>
+  <si>
+    <t>CAN-103</t>
+  </si>
+  <si>
+    <t>CAN-104</t>
+  </si>
+  <si>
+    <t>CAN-105</t>
+  </si>
+  <si>
+    <t>CAN-106</t>
+  </si>
+  <si>
+    <t>CAN-107</t>
+  </si>
+  <si>
+    <t>CAN-108</t>
+  </si>
+  <si>
+    <t>CAN-109</t>
+  </si>
+  <si>
+    <t>CAN-110</t>
   </si>
 </sst>
 </file>
@@ -193,7 +895,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +938,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -273,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -282,7 +1038,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -290,6 +1045,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -595,17 +1385,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="E85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,7 +1404,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -630,223 +1421,2203 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4">
-        <v>55357.5</v>
+      <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="23">
+        <v>40950</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5">
-        <v>28495.5</v>
+      <c r="A3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="24">
+        <v>23625</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="25">
+        <v>55357.5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="24">
+        <v>49500</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="26">
+        <v>32042.010000000002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="27">
+        <v>28495.5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="28">
+        <v>14962.5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="28">
+        <v>19125</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="28">
+        <v>21375</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="28">
+        <v>24750</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="28">
+        <v>13500</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="28">
+        <v>15750</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="11">
+        <v>23413.5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="23">
+        <v>25200</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="24">
+        <v>31500</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="24">
+        <v>39375</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="29">
+        <v>59624.565000000002</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="26">
+        <v>46081.034999999996</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4">
+        <v>52350</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
-        <v>23413.5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B23" s="25">
+        <v>56482.799999999996</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="23">
+        <v>78750</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="23">
+        <v>86625</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="28">
+        <v>67500</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="28">
+        <v>73125</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="24">
+        <v>11306.25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="25">
+        <v>22143</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="25">
+        <v>47553</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="25">
+        <v>58443</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="26">
+        <v>32537.504999999997</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="28">
+        <v>39379.049999999996</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="24">
+        <v>40500</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="30">
+        <v>23379.037499999999</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="30">
+        <v>25641.524999999998</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="29">
+        <v>59624.565000000002</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="31">
+        <v>37800</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
-        <v>56482.799999999996</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B39" s="25">
+        <v>58715.25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
-        <v>22143</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B40" s="25">
+        <v>64432.5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
-        <v>47553</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B41" s="25">
+        <v>66429</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
-        <v>58443</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4">
-        <v>58715.25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4">
-        <v>64432.5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4">
-        <v>66429</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="B42" s="25">
         <v>51183</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="25">
+        <v>57717</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="30">
+        <v>22323.21</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="4">
+        <v>32850</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="32">
+        <v>57807.75</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="28">
+        <v>10125</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="32">
+        <v>32207.175000000003</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="26">
+        <v>29234.205000000002</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="28">
+        <v>33750</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="26">
+        <v>31876.845000000001</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="26">
+        <v>44429.385000000002</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="25">
+        <v>59749.799999999996</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="28">
+        <v>33750</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="31">
+        <v>33075</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="30">
+        <v>23228.204999999998</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="30">
+        <v>26697.352500000001</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="31">
+        <v>33075</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="24">
+        <v>23625</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="24">
+        <v>26325</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="24">
+        <v>15750</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="24">
+        <v>16875</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="25">
+        <v>49186.5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="28">
+        <v>39375</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="28">
+        <v>42750</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="28">
+        <v>45000</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="32">
+        <v>49549.5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="30">
+        <v>44495.587499999994</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="26">
+        <v>42529.987500000003</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="21">
+        <v>93365.317500000005</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="21">
+        <v>100001.94749999999</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="29">
+        <v>63093.03</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="25">
+        <v>64795.5</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="25">
+        <v>73235.25</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="25">
+        <v>14520</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="25">
+        <v>16698</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="25">
+        <v>18694.5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="4">
+        <v>32250</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="26">
+        <v>52026.975000000006</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="26">
+        <v>55495.44</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="30">
+        <v>25641.524999999998</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="23">
+        <v>50400</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="24">
+        <v>33750</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>157</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="23">
+        <v>78750</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>157</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="23">
+        <v>83475</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>157</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="21">
+        <v>-115447.87424624999</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>157</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="24">
+        <v>15750</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="24">
+        <v>16875</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="11">
+        <v>101095.5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>173</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="11">
+        <v>104453.25</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="4">
+        <v>54000</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="25">
+        <v>117975</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="24">
+        <v>45422.482499999998</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="31">
+        <v>31500</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="11">
+        <v>88935</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>176</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="11">
+        <v>92565</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="4">
+        <v>40500</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>157</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="33">
+        <v>62762.700000000004</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>157</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="33">
+        <v>68213.145000000004</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="25">
+        <v>53905.5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="28">
+        <v>39543.75</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>157</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="28">
+        <v>50979.127500000002</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>157</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" s="4">
+        <v>39000</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>157</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="24">
+        <v>17775</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>157</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="11">
+        <v>47916</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="24">
+        <v>39375</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>157</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +3637,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,7 +3645,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -892,7 +3663,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5">
         <v>23213.121750000002</v>
@@ -904,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -912,9 +3683,9 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
         <v>43590.592499999999</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -924,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -932,9 +3703,9 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
         <v>29403</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -944,15 +3715,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>41026.44</v>
@@ -964,15 +3735,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5">
         <v>26850</v>
@@ -984,17 +3755,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7">
         <v>31071.495000000003</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1004,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA611395-AA9F-4C5C-AEA9-6339C6810227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -105,9 +105,6 @@
     <t>KARP RUSH 270 CASTER</t>
   </si>
   <si>
-    <t>COSTA TELE</t>
-  </si>
-  <si>
     <t>peje</t>
   </si>
   <si>
@@ -184,6 +181,25 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/ATLANTIC-400.jpg?v=1705605422</t>
+  </si>
+  <si>
+    <t>• Medida: 3.90m en 4 secciones
+• Composición: grafito IM6
+• 5 pasahilos SiC de titanio de 3 y 4 patas, aptos para multifilamento
+• Acción: Heavy
+• Capacidad de lanzamiento máximo: 100 a 220 gramos
+• Peso: 480 gramos
+• Medida cerrada: 122 cm
+• Diámetro: Punta 3.2 mm / Base 26 mm
+• Distancia entre el taco y el porta reel: 65 cm
+• Primer pasahilo rebatible para transporte
+• Empuñadura de polímero anti-deslizante
+• Exclusivo tope interno de goma que evita el impacto entre sus tramos
+• Portareel de grafito a rosca con capuchones de acero inoxidable
+• Incluye capuchón protector de pasahilos y funda de tela</t>
   </si>
 </sst>
 </file>
@@ -273,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -290,6 +306,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -598,14 +617,15 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -629,15 +649,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>55357.5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+      <c r="C2" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -657,13 +677,13 @@
         <v>28495.5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -677,16 +697,16 @@
         <v>23413.5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -697,16 +717,16 @@
         <v>56482.799999999996</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -717,16 +737,16 @@
         <v>22143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -737,16 +757,16 @@
         <v>47553</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -757,16 +777,16 @@
         <v>58443</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -777,16 +797,16 @@
         <v>58715.25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -797,16 +817,16 @@
         <v>64432.5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -817,16 +837,16 @@
         <v>66429</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -837,16 +857,16 @@
         <v>51183</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +912,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5">
         <v>23213.121750000002</v>
@@ -904,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -912,7 +932,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8">
         <v>43590.592499999999</v>
@@ -924,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -932,7 +952,7 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8">
         <v>29403</v>
@@ -944,15 +964,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5">
         <v>41026.44</v>
@@ -964,15 +984,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5">
         <v>26850</v>
@@ -984,15 +1004,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8">
         <v>31071.495000000003</v>
@@ -1004,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA611395-AA9F-4C5C-AEA9-6339C6810227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -105,6 +105,9 @@
     <t>KARP RUSH 270 CASTER</t>
   </si>
   <si>
+    <t>COSTA TELE</t>
+  </si>
+  <si>
     <t>peje</t>
   </si>
   <si>
@@ -181,25 +184,6 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/ATLANTIC-400.jpg?v=1705605422</t>
-  </si>
-  <si>
-    <t>• Medida: 3.90m en 4 secciones
-• Composición: grafito IM6
-• 5 pasahilos SiC de titanio de 3 y 4 patas, aptos para multifilamento
-• Acción: Heavy
-• Capacidad de lanzamiento máximo: 100 a 220 gramos
-• Peso: 480 gramos
-• Medida cerrada: 122 cm
-• Diámetro: Punta 3.2 mm / Base 26 mm
-• Distancia entre el taco y el porta reel: 65 cm
-• Primer pasahilo rebatible para transporte
-• Empuñadura de polímero anti-deslizante
-• Exclusivo tope interno de goma que evita el impacto entre sus tramos
-• Portareel de grafito a rosca con capuchones de acero inoxidable
-• Incluye capuchón protector de pasahilos y funda de tela</t>
   </si>
 </sst>
 </file>
@@ -289,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -306,9 +290,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -617,15 +598,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -649,15 +629,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>55357.5</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>50</v>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -677,13 +657,13 @@
         <v>28495.5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -697,16 +677,16 @@
         <v>23413.5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -717,16 +697,16 @@
         <v>56482.799999999996</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -737,16 +717,16 @@
         <v>22143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -757,16 +737,16 @@
         <v>47553</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -777,16 +757,16 @@
         <v>58443</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -797,16 +777,16 @@
         <v>58715.25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -817,16 +797,16 @@
         <v>64432.5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -837,16 +817,16 @@
         <v>66429</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
@@ -857,16 +837,16 @@
         <v>51183</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +892,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5">
         <v>23213.121750000002</v>
@@ -924,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -932,7 +912,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8">
         <v>43590.592499999999</v>
@@ -944,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -952,7 +932,7 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8">
         <v>29403</v>
@@ -964,15 +944,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5">
         <v>41026.44</v>
@@ -984,15 +964,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5">
         <v>26850</v>
@@ -1004,15 +984,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8">
         <v>31071.495000000003</v>
@@ -1024,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BCA70D-0991-4D70-A3D6-C90C218D6719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -184,6 +184,171 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
+  </si>
+  <si>
+    <t>KARP RUSH 300 CASTER</t>
+  </si>
+  <si>
+    <t>PACIFIC 4206 CASTER</t>
+  </si>
+  <si>
+    <t>PREDATOR 210</t>
+  </si>
+  <si>
+    <t>SNIPER 390 CASTER</t>
+  </si>
+  <si>
+    <t>SNIPER 420 CASTER</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 180</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 210</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 240</t>
+  </si>
+  <si>
+    <t>supreme 390 caster</t>
+  </si>
+  <si>
+    <t>supreme 420 caster</t>
+  </si>
+  <si>
+    <t>takumi 425 4203</t>
+  </si>
+  <si>
+    <t>titanium 390 caster</t>
+  </si>
+  <si>
+    <t>titanium 420 caster</t>
+  </si>
+  <si>
+    <t>VALIANT 2702 CASTER</t>
+  </si>
+  <si>
+    <t>XTREM CHAOS 270 CASTER</t>
+  </si>
+  <si>
+    <t>CAN-012</t>
+  </si>
+  <si>
+    <t>CAN-013</t>
+  </si>
+  <si>
+    <t>CAN-014</t>
+  </si>
+  <si>
+    <t>CAN-015</t>
+  </si>
+  <si>
+    <t>CAN-016</t>
+  </si>
+  <si>
+    <t>CAN-017</t>
+  </si>
+  <si>
+    <t>CAN-018</t>
+  </si>
+  <si>
+    <t>CAN-019</t>
+  </si>
+  <si>
+    <t>CAN-020</t>
+  </si>
+  <si>
+    <t>CAN-021</t>
+  </si>
+  <si>
+    <t>CAN-022</t>
+  </si>
+  <si>
+    <t>CAN-023</t>
+  </si>
+  <si>
+    <t>CAN-024</t>
+  </si>
+  <si>
+    <t>CAN-025</t>
+  </si>
+  <si>
+    <t>CAN-026</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/ATLANTIC_1-400.jpg?v=1705605422</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/BLACKDRAGON-TL4004_1-400.jpg?v=1737998486</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/BLUEMAX-SP1802M-400.jpg?v=1705605457</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/CORSAIR-BTR2702H-400.jpg?v=1705605499</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDERGSP_1-400.jpg?v=1705605516</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3003-200G-400.jpg?v=1705605509</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3603-200G-400.jpg?v=1705605511</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-GSP2702MH-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3603-3LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3903-3LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPRUSH-GSP2702MH-400.jpg?v=1705605605</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPRUSH-CF3003-2.5LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/PACIFIC-TLSF4206_1-400.jpg?v=1730827681</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/PREDATOR-GSP2102H-400.jpg?v=1705605819</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SNIPER-SF3903-200G-400.jpg?v=1705605863</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SNIPER-SF4203-200G-400.jpg?v=1705605863</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SE1802S-400.jpg?v=1705605868</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SE2102S-400.jpg?v=1705605868</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SL2402S-400.jpg?v=1705605870</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SUPREME-SF3903-400.jpg?v=1705605878</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SUPREME-SF4203-400.jpg?v=1705605878</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/TAKUMI-SC4253-300G_1-400.jpg?v=1705605884</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/TITANIUM-SF3903-400.jpg?v=1705605960</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/VALIANT-GSP2702H_1-400.jpg?v=1737998518</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/XTREMECHAOS-GSP2702MH-400.jpg?v=1705606000</t>
   </si>
 </sst>
 </file>
@@ -595,17 +760,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -643,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -663,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -673,7 +839,7 @@
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>23413.5</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -683,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>30</v>
@@ -703,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>31</v>
@@ -723,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
@@ -743,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>33</v>
@@ -763,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>34</v>
@@ -783,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>35</v>
@@ -803,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -823,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>37</v>
@@ -843,11 +1009,314 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>57717</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4">
+        <v>59749.799999999996</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4">
+        <v>49186.5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4">
+        <v>64795.5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4">
+        <v>73235.25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4">
+        <v>14520</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4">
+        <v>16698</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4">
+        <v>18694.5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3">
+        <v>101095.5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3">
+        <v>104453.25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4">
+        <v>117975</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3">
+        <v>88935</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3">
+        <v>92565</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="4">
+        <v>53905.5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3">
+        <v>47916</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BCA70D-0991-4D70-A3D6-C90C218D6719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0645454F-EBC5-4E0A-A76C-5F7905386D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +839,7 @@
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>23413.5</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1179,7 +1179,7 @@
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>101095.5</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1199,7 +1199,7 @@
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>104453.25</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1239,7 +1239,7 @@
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>88935</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1259,7 +1259,7 @@
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>92565</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1299,7 +1299,7 @@
       <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>47916</v>
       </c>
       <c r="C27" s="2" t="s">

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0645454F-EBC5-4E0A-A76C-5F7905386D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51D9C33-3EE4-4228-9AD2-2F6D376ABA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,14 +438,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,6 +454,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -769,7 +770,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="109.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -779,7 +780,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -799,8 +800,8 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
-        <v>55357.5</v>
+      <c r="B2" s="10">
+        <v>55400</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -819,7 +820,7 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>28495.5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -839,7 +840,7 @@
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>23413.5</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -856,10 +857,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="10">
         <v>56482.799999999996</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -876,10 +877,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="10">
         <v>22143</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -896,10 +897,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <v>47553</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -916,10 +917,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="10">
         <v>58443</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -936,10 +937,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="10">
         <v>58715.25</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -956,10 +957,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="10">
         <v>64432.5</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -976,10 +977,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
         <v>66429</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -996,10 +997,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="10">
         <v>51183</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1016,10 +1017,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="10">
         <v>57717</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1036,10 +1037,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="10">
         <v>59749.799999999996</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1056,10 +1057,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="10">
         <v>49186.5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1076,10 +1077,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="10">
         <v>64795.5</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1096,10 +1097,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="10">
         <v>73235.25</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1116,10 +1117,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="10">
         <v>14520</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1136,10 +1137,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="10">
         <v>16698</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1156,10 +1157,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="10">
         <v>18694.5</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1179,7 +1180,7 @@
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="9">
         <v>101095.5</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1199,7 +1200,7 @@
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="9">
         <v>104453.25</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1219,7 +1220,7 @@
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="10">
         <v>117975</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1239,7 +1240,7 @@
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="9">
         <v>88935</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1259,7 +1260,7 @@
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="9">
         <v>92565</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1279,7 +1280,7 @@
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="10">
         <v>53905.5</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1299,7 +1300,7 @@
       <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="9">
         <v>47916</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1335,7 +1336,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1343,7 +1344,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1363,7 +1364,7 @@
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>23213.121750000002</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1383,7 +1384,7 @@
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>43590.592499999999</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1403,7 +1404,7 @@
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>29403</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1423,7 +1424,7 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>41026.44</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1443,7 +1444,7 @@
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>26850</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1463,7 +1464,7 @@
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>31071.495000000003</v>
       </c>
       <c r="C7" s="2" t="s">

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51D9C33-3EE4-4228-9AD2-2F6D376ABA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9254FDE-46E6-449D-B1AE-B7D271553158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,9 +276,6 @@
     <t>CAN-026</t>
   </si>
   <si>
-    <t>https://www.caster.com.ar/images/productos/ATLANTIC_1-400.jpg?v=1705605422</t>
-  </si>
-  <si>
     <t>https://www.caster.com.ar/images/productos/BLACKDRAGON-TL4004_1-400.jpg?v=1737998486</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>https://www.caster.com.ar/images/productos/XTREMECHAOS-GSP2702MH-400.jpg?v=1705606000</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQSEhMUExMWFhIXGRsYGRcYFRgYFhodGRgXGx0eGBoYHiggHholGxgXIjEhJSorLi4uFx8zODMsNygtLisBCgoKDQ0OFQ8QFSsZFRktKysrKysrNzcrKystLSstNzctNzcrLTcrKystLC0tLTctLSsrLTctLS0rLTcrLSsrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABDEAABAwIDBQUECAUDAwUBAAABAAIDBBESITEFBkFRYQcTInGBMkKRoRQjUnKCscHwYpKi0eEIM0MkY/FTc7LC0hX/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAXEQEBAQEAAAAAAAAAAAAAAAAAAREx/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARFbbR2hFAwyTSMjjGrnuDW/E8eiC5VKpqWRtL5HtYxouXOIa0DqTkFE+9XbXGy8dBH3r9O9kBbGPusyc7+keajaSo2hticNe+SokJyYMomfhbZoA5/Eq4Jj2x2wUETsEPeVDr2vG20f87tR1aCtp3R246tp2zPgfAScmuN7jLxNNhdp8lqe5HZXDS4ZKm00+uG31bfT3j55dFIoCg+oiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIrHa+2IKWMyVErIoxxcbX6Aak9BmgvlZ7V2pDTRmSeVkUY957gB5DmegURb1dthN49nRE8O+lb82R/q63koq2nU1NXJ3tRK+V/N5xW6NA8LR0FlcEwb0dszBdlEwEnISyg2v/DGPzcR5FRVvhtKWpljlmmfJibcYnXwn3rNGTc+QHBY51EcNjrwPlwK9U7RIG31GSqts7PdwJNouLie7p2nxPtdzuOFvW3oL8V0Du9u9T0UYjp4w0cTq5x5uPFY7s2p2x7Npgzi0k9XFxv88vRbMsoIiICIiAiIgIiICLy+QNFyQBzJsEY8EXBBHMZhB6REQEREBERAREQEREBERBoXahvdVUXcw0cOKWYOPeFpcGYS0Wa0e07PjpyKjam7PdqbRk76qLy4+/UOta/BrNWjoGgLoWy+oIx2L2N07LGolfKfstGBn6n4WW77M3ZpKcWip429cIc71c65PxWXRBrW8+5VNWMP1bWS+7I1oBB/it7Q8/Rc17ToX0tS9jhhIcWuHJwP7+K65ULduu7tnMq2DJ/gf94Dwn1aCPwqwZ3sZ2/3kTqZx8TfGzyPtD45+pUmLlvcvbjqWoilHuuz6g5EeoJHqun6WobIxr2m7XAOB6EXCgqoiICIiAiIgLUN7N92Uz+4gAlquI9yIc5COPJozPTVYDtK7SBTh1PSOBm0fKMxH0bwL/y/KGWbdc2+Em7jdzibucTqSdbqyDetrzyVUzu/mkcGMD3EQiV1y62GGMjuowBmXEAnmrndnbH/APPrIo2TB8T3sjkDbCNwk0OFpwCVjjm5tgc+ijiTarzbPO+V+fS+vlYrbuzXdSarq4pXtc2CJweSQQCQbgXPEkDLXyARXRSIiiCIiAi+FwHHVfUBERAREQEREBERAREQFgd+dmCooaiO2eAub5s8Q/K3qs8revcBFIXeyGOJ8sJug5AbLhe4dSPgcl0b2O7Y+kUAaTd0Ti30OY+eL5LmuY+M+am7/Tw4mOr5B7B/Tf8AUq1UwIiKIIiICjvtZ3zNJGKeF1p5B4iDmxp/U/l5hZ/fje6PZ8JcbOmcDgZ+ruTR89PLmjbG23zzPlkJfI83JOn76KyDyIJJ5BHEx0kjjk1oLnE+QUi7rdjE8mF9W8QN+w2z5f8A8tP83ksT2T7xto6wYv8AblGCQ/Zvm0k9D8iV0eEqtc2BuPRUbbRQNLiLGR/jkPm52nkLBUKsO2fI17cTqR5s9upjJ0I6H/HELalTqYGyNcx4DmuBBB0IKiPsUgcA5pu0i4I0IK9rWN35XU0zqSQkt9qJx4g3y88j6g8wtnQEREGE3uYe47xvtRuDstbaH8wfRWcG+1KA0TSCN5bc3Bw5ZZHrqFlN4ayKOCTvXAAtcLE5m40A4lQftItq2yQxOvUQgyxi1i5o9po55EG3QcEE2bK3mpKl2CCoje/7IcMX8pzWXXHVeCHNmYS3MG4Nix4zyIzGlwf7Ke+yDtA+nx/R6h3/AFcYycf+Zg97740cPI8Ta4JKREUBERAREQEREBaf2rbcFLs6XOz5h3TOfiBxH0YHetua3Alczdru9306qLY3XgiuyPkRfxP/ABEC3RreasGitddxPO5+JXRfYPs7u9nGQixmkc70b4QfkVzpEDew1Oi693T2aKajpoR7kbQfO1z8yVarLIioVtYyJpfI4NaOJ/TmeiyiusVt3eKnpGF00gbb3dXH0Ubb69qpa4x03hz1Fi93mTkxvxd1CizaW1nyOMk7y+Q5ht8hf96nMq4Mhv1tR9bVSz4j3JsGB7rYGgAcrW16581qby0aeLqRYeg1PrbyXqoqHSG54aDgPL+6zG6+51XtB3/TxEsvYyu8MLfxHU9G3PRVVlHUgNvcAjRT52K7eqamkc2oa8tjIEUpaQHsI0BPtFpFr8iOSj/Z+7EOyNpws2kxtRDJGXRPDHFneAtv4L+LDnkb+002vpve9HaA1jaiGC4kjOFoYMzZrXix0ALTbLqpRvO2NsRU0ZfI7IcBmf8AHqvmwdsR1cLZY9DcEHUEcCoGpN84pI6tkheWOYXA2u4EgA6cQcLvQnmr/sZ3w7qokp5TZj/EOQI1+Vj8VBMO9GzTLGHx/wC/F4mW1PNvrYEdWtV1sPaQqIWSDUjMcj+8/VYzbe+tLTjOQSP4NYQfidAoo2nv45hl7g902RxcWtOhOZsddSTlbVETNtfb9PTA97IAfsjN3wGnqo53j7Vjm2nbgH2jYu+Gg+aijaG2pJCbuOaxuIuOQLirgzW195Zp3FznuJPEkk/NY+k20+nqIKhh+sicCOR5tPm0keRWT2LulNUEXBDfgPis5vDu5TU1DMHvaJwA5gv7wcLgebSfkqavd490op4ZKykA+jzN77ANWkm7xb7THeK3IWUZUFXLSzsljdgmieHNI5j82kZEcQTzW3bhbzSNjmo8YGMF0JOgeBp5Hj0JPurWqyUFpfgs9rsD2n3SDxHy+CK6m3O3iZtCkjqGZF2T28WPHtNPrmOYIPFZtc5diO9Rpq3uJHfU1Nm56NkHsHpiuWnndvJdGrKCIiAiIgIi+E2zOiCP+2Tej6JS9yw2mqARlq2MWDj0JuGjzJ4Lmyc3PVbh2g7f+nVsswP1YOCP7jb2+ObvxLTpDmtQZvcfZ/0jaFJFwdK2/k3xn/4rroLnHsE2d3m0jIdIYnH1f4R+q6OUosNt7VZSwulfoNBxJ4ALn7fDfaarebO8Ogt7I6NH68VtXbrt44o6Vptztzdr/Tb4lR9sTZneYjphAt0v/gJIrFCPDc+9xJ4efX95q43f3bqK+QtponSZ+J+jG9XvOQ8tehW0bpboGurRTm4pogJJ3DUj3YweBdz5A8guhKGijhY2OJjWRtFmtaAGgdAFbRG+6fY7Tw2fWOFRJr3YFoB5jV/rl/CpNiia0BrQGtGQAAAA6AL2iyjR+2DZDp9nSSR376n+taRqWj2x5Ybm3NoUExTT4g7IPmjZY38JF8MZJv8AbBiOli7ourJGBwLSLgixB0IOq562vSQ0TpqScutBPaEtBOKGpsJGEjQtaWSgn34zzCsVgt34DVQiPA3HHjIZYBzsz9WCSLA3c0+0QHtOWSt46F7S10JIdE5oBtYlrgXRP9W4mO5GPqtt2Pu/M2rJDA+ORrnyZDBiZYSHQ+F4wSgjPxNA0utt2VutGaiMNexsga8FmHwvjJuWtAOWCWzm66uGV0MQ9tvaLi4uNw7Rw4gjX5rFxiSQ+EfvzWxb6TMkqZXtjwPjdgmYeNjYPy8sJ/B9pbmPoFExjriR7mMe1upAe24uOFx+qcRp+xNzZZrFwIbzOQ/yttZs+ioW3lcHPGjRn8gtf25v2912s+rZpYe18eC0mt2o55Jv5nmg3rbe/wC6zmwARt04X/t+a0DaG0HyuLnuLieZVo5119axUVaWRzHB7faYQf8Az0Onqtn27G3FFUt/2KpoD+j8xn1yIJ+0x50ssBRxWOfskWPr/YrZt1mCdk+z5DYyAvhJ4SNAJ9CGtd+Aj3kGuPb3biASHNOThkQRmCDwOhC6v3L24K2ip6jLE9gxgaB7fC8fzArlbaMDsN3Cz4zgeOORsD8bj4KY/wDTrtUuhqqY/wDG5srfKQEOHoWA/iUomFF8X1QEREBaX2tbd+i7PkDTaWf6puednDxkeTL+pC3Rc+9tG2/pFf3TTeOnbgtwxus55+GBv4SrBHc2ixz9VkZ9FlN0N2fpjnEusxhAdzzF/nn8CtDf/wDTpMwPqmn23BtvIcvmfRTmudNo7Th2eWNpWgSMIOIXufMhbTsrtqGECaBzjxLS0fqPyCzYNF7TJy/a9Tf3HYR8AfyIWR3PzZKOrfycsRvttuGtrpKiFjmB7WYw/DfG0YSRhJFi0M9QclcbsVWBz+RAJ9Db/wC3yVVJHZHUtjdXPkc1jHvBa5zgBZj5Yze/Ij5rfBvNRkloqoSRwEjT+RXKW1sRmlacw2WQtHAYncPOwKqUU72HI6qYjrWHaUL/AGZY3eT2n9VYbe3npqNt5pQDwY3xPPkB+ZsFzUNuPbr/AI9DxVvUVjpn3HIXTBIe9navNLdlP9THzB+sP4vd9PitG2HWAzODx4ZCSXfxHO55knjzsqcdAAMTyA3mdP8AKtK3bEbRhibc/aP6fv4K4Jj3L3oEL44n2LD9VfkSPqvQkOj9YxxWJ2tVyQzP7q5kgkEsOtnscHDuy4XAAjbOwkgC5iJOajOl21cDG4jQEjI2J9pv8THBrx1aFm9o1/fvY6Zgdbwvbn07xrS3PP2m25syKYuqW/dS11Q2rhzbK0B+WTg4CxI6tt5EDitc2htAuZFbVjTFfmzFjZfqLkeQC2Sqo2lxjJb3bgXNDPZDS7MMv7od4m8w8fZK1CopzG90b9Wm3mNQR0ORHQoi3c4nVAxXFPSE66K+jpgEFhFTE6q9jgAVdsaqtjRFJkS91Be10c0Zs9hBB5OacTT6EK9hgut43W7OqiqGJ47mI6OeM3fdbrbqbDzU1Wu7yRslMVWwWhqm4ZAPckGTh6EXH3SeK2L/AE97OkFXVyEEMZF3TuRe54NvMCN38w5q82tumacSUbgO7kGOJw0xtGo43cBYjoOak7crYwpKSKOzcZGORzTcPe7Muudb5fCwyU1WcRfURBERBZbZ2g2mgmnf7MTHPPXCCbeZ09VynU1DpHvkebve4vceriSfmVOXbntTuqFsI1nkANvss8Z/qDB6qA3Fagt6t914oNoywOLonlhIsbaEciDkV6mCsyqLyTaT3ElwaSeOf91TNY7k34H9SqC+KCvT1Jxi9s8tAPyCz1DUhjgTpofI5H5ErWBqsuXmwJyOhCovtuQPZjc0AnK5tfSwyvzGfkLrDx7Te32mg+bbD+my2rZE4kjFxcs8BHMWOH4su38K23ZW78BZfJ1+g5Ag+oIPqgjehPfg2aRnnb2eOl+Onx4LJbOoTHIHEXZo63tAHjbjY2OXJZ/bdG2Zhp4CyIYu9kfh/C0C3EhtzysOa1SofNRSYXSCWI8RoD0v7J/NBQ2/SvLwC/FqCTk0Z+7zba1rX4rGuYxuniPXQenH95K42jV9466tWREoKZdfVbbu2/vI738UZax/3XZRv+P1bvOMrX46RXeyqn6NMHubjiILJWfbjfk9o62zHUDkoMnvNHPSSxhtu5J71jcDQMTbh7bgX94+jxyWU3x2K2angrofZIDX9Acm4urXXYfNvJZ/bfcz0Qhllb9IYR3UhybKcGKM4tB3sRyB43+ysDHDJBE2PE6SIOdJgwlrZBgtLG04iCXREyMOt4nZXUGp7P4tOv7/AH8Ff92qVXR91LYHE02LXfaa4BzHerSD8lkqOmfLIGMjcXG2gvc8hbiqLNkK2DdzdaerdhhYSOLzkxvm7T01W57s9n7WyxituMQBDARnfFYOI+6bgcxmpapKVkTQyNoYwaNaLALOjU91ez2npLPkAmmHFw8DT/C39T8luSIgsNs7LZUR4HZEZtcNWuGhH9l53fgkjhayW2JpIFjcYQfD8lkUQEREBERBoXanuPLtJsLoJGtkixDC+4a4Pw8QDZww8uPBQbvFu3U0MgjqI8LnDE3C5r7i9r+EkgX5gKce0XtDFCTBAA+qIuSc2RA6YhxfxDfU8AYE2ptZ73ve97pJnG7nONzfr+gGQ0yVgxlQw6W/T81bmnd9k/BepyTmTcleYyRoSPIkLQ+GF32XfylXEcLQbEF7uIaLgeZuF6EznCxcbD939BdKZgfr7PBvAeg1PVBRqwB7rmnkW2+YP6LLDA+EOxDGciON/wDysZXQBo8OQ4j9VRpoy7IHP9/v0QX2zq0xSZ+yfC7y5+hAPxW0N3hdFG9vTL1/yT/MOS1avpiLO55Hz/yvjCXMwnUaeX7y+CDLUO3DC5jiA/xB72nR2YyPSwsrreKYzxuxSB7mgzRmxxGBxthcQA3E3IgC9vGOC1MArObD2gyNjxIXGw8LTdzDfUYCcINwM7aOcoMAxxGWts/7+izkEIsCNDmsUS0ynCLNN7C97DUC/HgLrIUswY0tceo9dR++aou8KtqlzRqVTZNJM4MhY5zibAAEk+QCkrdDsZlltJXOMbNe7FjIfPg35noEtGsbCkbNA+nkNjGw2dr9TiuHecEhxf8Atyyjgr/Y9U54dC8Fs7JCHHUskYbg5DPxDGNGm78xxz/aXuc3Zr6erom4Y2kNc0kuAdawve5wSNxNd/lWu72x4aqQyseWEwWYDqQHNDMfN0VnQvve7cJ95RWtbQpBhLAA22J8TRwbivNEMh/tyEyN5xyXUt9j1VDLC8hjRUNwtebZ2AAyOtjr624LQNlbd+izSOrGNLHuMbmhoJD2tLRhHMgYDmLgjgFT7P8Aac8O0Y3QU0v0eQluY8RYXWFxxw+vNSomve2mJiErfbiOIHplf5gH0WWoakSxskGjmg/Hgqk0Yc1zToQQfVYTdOQhkkJ1jcR8SbgfiB+KgzyIiAiIgIiIC0jtV3sdQUzREbVExLWHLwNAu59jxFwB1cOS3dc29r+3vpVfKGm8cP1DeV2k94f57j8IVg02rrXPJNySSS5xJLnE6kk5366q1DV7AX1aFN7V4axXEbCTYC69vDW/xHpoPM8UHimjve+ml+V1bz0zm5i/pwVYPJ42PDkrqKstkR8UGNihc853tzKqwxeNoBt4r36DiryWrBGQA/fxVuxpJ8Pqf7IMm6XEcBbkePAHh++qpOpviF9AV212IX4jI/oUGG7oF2dx5GyqSbPFrlxA87q6q4veH76qz2lUnuwANcvhw/fBB8o4o7ktdiIF9HC1vPLl8Fkd3djurauOFovisOmedz0AN/RYimOCMn3n6eX7/NTp2E7tYIjWPGb/AAx3HujIuHna3xUo3zdjdGloGAQRAOtnIc3n1Og6CwWeRFkWm1dnR1MMkMoxRyNLSP1HIg5g8wuc6mhq6WsloWPwztOKEeyZr5fVvOQL47i32m21aF0Vtba0NLGZJ5WxsHFxtfoBqT0C5/7V+0WHaHdMpo3DuZBIyoJs+4vk1vBt7G5zu0aKwZKl3FjpWmp2vVtijkOI0xAfK+17XsT49L4Q63PlN2yIImxM7gDuy0FpGdwQLEk5m4tmVyBX1c9S8yzSOe93vPJJ+fBdJdjW0mS7MiY17nOgJicHEEixxNAsB4cLhbytwSjelruzD/19QBphufPwf3Kb7b0x0FPJI5wM2EmOPV7jpcN1sCbk6KDd0d7alm0oZ5HOIlkDX4zd7mvOGwAsAAXDQagKDpRERAREQEREFht6pfFTTyRtxSMje5rebg0kD4rkueJ5Nzc8S48b5kk8yuw1rG8O41JUxTNFPFHM8G0rI2teHah2Jovra/MXHFWUcwNhJXow2zcbD5nyV1tClkp5HxyNLZWOLXA52I/TiDxBBTZMBkefC1wLSHYjYAEWvcAkEdB8FoU2QOdiGUbWsMhBvic0XzA1d8gr+LZ8TXFrR35wubm7AwHFhLw4tyIuywGIePWwuqldtFhOd535nJobGCXHib4gAXZPa72hmLG9rSU9RUOEMTXuve0UQJsHOJIsNG3PHLIckGJnjDTZrsYs03AsPE0G1rnS9vMFVIoHcchrZSrux2Nzvs6reIGfYYQ+U9CfYb6Fy99oXZbJF3cmzonSRhuGSPHikxXuHjEcwQbEDSwsNbTRF8NO0AXGaqF3LRSduZ2SSTRufXl8BNu7jYW4wM7l9w4C+VgOt+SuKfsSd3r+8qwIL+HCy8pb/FezWu8g4fkmiJy9UhtFrDz5jops3t7IYzRiKgawVHeNc6SZxLnNAcC0OscGZabNABwrD7udhJxB1bUNwj/jgvn5yOAI9G+qaI6cQeoIuOoKx9RBe7ef7/fmpo7Udw4oqdk9JE2NsDcMjGiwwXJx9SCTiJzINzoohe26D1sCij+kxPrWPFI14DwNSOA6tva9tQTbp1ZsqphkiY6ncx0NgGFhGGwGQFtLcuC5aZPjjMb9bWBPHkPNUqXaktN4Yu9EhGdi6MepBFx1SwdVbS2nDTsMk8rI2D3nuDR6X1PQKKd7O2poJi2dGZX6d68ENH3WanzNvIqNKXYtRWv7yZ7n9S4kW5YjmR0GSstpOMLjFFhAGRLbH5jL81MDbVRPUv72uqHOcfdvd3kBo0dArGNzR7DbDmc3H+3olLQPkcA1rpJHaAAuJ8gMysvtvdmpomxOqYHxtkvhJtYW4Ot7J6GxVGCeLG/BZfd7emroHSilkDDMA1xIBtY5OF8gRc52Oq9bP3aqas2gp5JOoacPq4+EfFSJuz2LSuIdWSNjb9iM43noXHwt9MSUR3RConnLmGSpq5LgvdidryBzPmchyUydnPZkaaRtVWOx1AzYzUMPMnQuHADIflvewN3aaiZgp4ms5u1e77zjmVlVAREUBERAREQEREGh9onZ23aBE0Tmx1IGE4gcEgGmK2YcODs8suVoyk7Jtoh2HuGEfaEzMP8AUQ75LolFdESbudjTRZ1ZLi/7UJLW/ikPiPoB5qTdk7HgpWYIImRt5NbYnq46k9Tcq+RQEREBERAREQeXsBBBAIIsQcwQeBHJc99oW40tBK6SJjn0TjdrmguMX8Mlsw0cHaW1z16GQhNHIoIOYNxzXiSG+ouBpmumtqbibPqHF0lJHiOrmYo3HzMZbf1VnTdmWy2G/wBEa4/9ySWQfyvcR8lrRz9syhqas91Tsll4FrLlg++fYb5uIUk7s9jDjZ9bLhH/AKURBPk55Fh5NB81MNJSRxNDI2NYwaNY0NaPQKspoxWwt3Kajbhp4Wx5WLrXefvPddx9Ssm9gIsQCORFwvSKD41oGQyC+oiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg//Z</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="10">
-        <v>55400</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>30</v>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>31</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>33</v>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>34</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>35</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>37</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>65</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>66</v>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>67</v>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>68</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>69</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>70</v>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>71</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>72</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>73</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>74</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>75</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>76</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>77</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>78</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>79</v>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9254FDE-46E6-449D-B1AE-B7D271553158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BC023-8503-4075-B2CC-24B53076163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,21 +78,9 @@
     <t>BLACK DRAGON 400 CASTER</t>
   </si>
   <si>
-    <t>blue max 1802 beas</t>
-  </si>
-  <si>
     <t>CORSAIR 270 CASTER</t>
   </si>
   <si>
-    <t>DEFENDER 180</t>
-  </si>
-  <si>
-    <t>DEFENDER 3003</t>
-  </si>
-  <si>
-    <t>DEFENDER 3603</t>
-  </si>
-  <si>
     <t>KARP HUNTER 270 CASTER</t>
   </si>
   <si>
@@ -105,27 +93,6 @@
     <t>KARP RUSH 270 CASTER</t>
   </si>
   <si>
-    <t>COSTA TELE</t>
-  </si>
-  <si>
-    <t>peje</t>
-  </si>
-  <si>
-    <t>bait</t>
-  </si>
-  <si>
-    <t>RIO 2 T</t>
-  </si>
-  <si>
-    <t>BAIT</t>
-  </si>
-  <si>
-    <t>RIO 3T</t>
-  </si>
-  <si>
-    <t>COSTA 3 T</t>
-  </si>
-  <si>
     <t>CAN-003</t>
   </si>
   <si>
@@ -192,39 +159,12 @@
     <t>PACIFIC 4206 CASTER</t>
   </si>
   <si>
-    <t>PREDATOR 210</t>
-  </si>
-  <si>
     <t>SNIPER 390 CASTER</t>
   </si>
   <si>
     <t>SNIPER 420 CASTER</t>
   </si>
   <si>
-    <t>SOLID CASTER 180</t>
-  </si>
-  <si>
-    <t>SOLID CASTER 210</t>
-  </si>
-  <si>
-    <t>SOLID CASTER 240</t>
-  </si>
-  <si>
-    <t>supreme 390 caster</t>
-  </si>
-  <si>
-    <t>supreme 420 caster</t>
-  </si>
-  <si>
-    <t>takumi 425 4203</t>
-  </si>
-  <si>
-    <t>titanium 390 caster</t>
-  </si>
-  <si>
-    <t>titanium 420 caster</t>
-  </si>
-  <si>
     <t>VALIANT 2702 CASTER</t>
   </si>
   <si>
@@ -348,7 +288,67 @@
     <t>https://www.caster.com.ar/images/productos/XTREMECHAOS-GSP2702MH-400.jpg?v=1705606000</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQSEhMUExMWFhIXGRsYGRcYFRgYFhodGRgXGx0eGBoYHiggHholGxgXIjEhJSorLi4uFx8zODMsNygtLisBCgoKDQ0OFQ8QFSsZFRktKysrKysrNzcrKystLSstNzctNzcrLTcrKystLC0tLTctLSsrLTctLS0rLTcrLSsrK//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABwMEBQYIAgH/xABDEAABAwIDBQUECAUDAwUBAAABAAIDBBESITEFBkFRYQcTInGBMkKRoRQjUnKCscHwYpKi0eEIM0MkY/FTc7LC0hX/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAXEQEBAQEAAAAAAAAAAAAAAAAAAREx/9oADAMBAAIRAxEAPwCcUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARFbbR2hFAwyTSMjjGrnuDW/E8eiC5VKpqWRtL5HtYxouXOIa0DqTkFE+9XbXGy8dBH3r9O9kBbGPusyc7+keajaSo2hticNe+SokJyYMomfhbZoA5/Eq4Jj2x2wUETsEPeVDr2vG20f87tR1aCtp3R246tp2zPgfAScmuN7jLxNNhdp8lqe5HZXDS4ZKm00+uG31bfT3j55dFIoCg+oiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIrHa+2IKWMyVErIoxxcbX6Aak9BmgvlZ7V2pDTRmSeVkUY957gB5DmegURb1dthN49nRE8O+lb82R/q63koq2nU1NXJ3tRK+V/N5xW6NA8LR0FlcEwb0dszBdlEwEnISyg2v/DGPzcR5FRVvhtKWpljlmmfJibcYnXwn3rNGTc+QHBY51EcNjrwPlwK9U7RIG31GSqts7PdwJNouLie7p2nxPtdzuOFvW3oL8V0Du9u9T0UYjp4w0cTq5x5uPFY7s2p2x7Npgzi0k9XFxv88vRbMsoIiICIiAiIgIiICLy+QNFyQBzJsEY8EXBBHMZhB6REQEREBERAREQEREBERBoXahvdVUXcw0cOKWYOPeFpcGYS0Wa0e07PjpyKjam7PdqbRk76qLy4+/UOta/BrNWjoGgLoWy+oIx2L2N07LGolfKfstGBn6n4WW77M3ZpKcWip429cIc71c65PxWXRBrW8+5VNWMP1bWS+7I1oBB/it7Q8/Rc17ToX0tS9jhhIcWuHJwP7+K65ULduu7tnMq2DJ/gf94Dwn1aCPwqwZ3sZ2/3kTqZx8TfGzyPtD45+pUmLlvcvbjqWoilHuuz6g5EeoJHqun6WobIxr2m7XAOB6EXCgqoiICIiAiIgLUN7N92Uz+4gAlquI9yIc5COPJozPTVYDtK7SBTh1PSOBm0fKMxH0bwL/y/KGWbdc2+Em7jdzibucTqSdbqyDetrzyVUzu/mkcGMD3EQiV1y62GGMjuowBmXEAnmrndnbH/APPrIo2TB8T3sjkDbCNwk0OFpwCVjjm5tgc+ijiTarzbPO+V+fS+vlYrbuzXdSarq4pXtc2CJweSQQCQbgXPEkDLXyARXRSIiiCIiAi+FwHHVfUBERAREQEREBERAREQFgd+dmCooaiO2eAub5s8Q/K3qs8revcBFIXeyGOJ8sJug5AbLhe4dSPgcl0b2O7Y+kUAaTd0Ti30OY+eL5LmuY+M+am7/Tw4mOr5B7B/Tf8AUq1UwIiKIIiICjvtZ3zNJGKeF1p5B4iDmxp/U/l5hZ/fje6PZ8JcbOmcDgZ+ruTR89PLmjbG23zzPlkJfI83JOn76KyDyIJJ5BHEx0kjjk1oLnE+QUi7rdjE8mF9W8QN+w2z5f8A8tP83ksT2T7xto6wYv8AblGCQ/Zvm0k9D8iV0eEqtc2BuPRUbbRQNLiLGR/jkPm52nkLBUKsO2fI17cTqR5s9upjJ0I6H/HELalTqYGyNcx4DmuBBB0IKiPsUgcA5pu0i4I0IK9rWN35XU0zqSQkt9qJx4g3y88j6g8wtnQEREGE3uYe47xvtRuDstbaH8wfRWcG+1KA0TSCN5bc3Bw5ZZHrqFlN4ayKOCTvXAAtcLE5m40A4lQftItq2yQxOvUQgyxi1i5o9po55EG3QcEE2bK3mpKl2CCoje/7IcMX8pzWXXHVeCHNmYS3MG4Nix4zyIzGlwf7Ke+yDtA+nx/R6h3/AFcYycf+Zg97740cPI8Ta4JKREUBERAREQEREBaf2rbcFLs6XOz5h3TOfiBxH0YHetua3Alczdru9306qLY3XgiuyPkRfxP/ABEC3RreasGitddxPO5+JXRfYPs7u9nGQixmkc70b4QfkVzpEDew1Oi693T2aKajpoR7kbQfO1z8yVarLIioVtYyJpfI4NaOJ/TmeiyiusVt3eKnpGF00gbb3dXH0Ubb69qpa4x03hz1Fi93mTkxvxd1CizaW1nyOMk7y+Q5ht8hf96nMq4Mhv1tR9bVSz4j3JsGB7rYGgAcrW16581qby0aeLqRYeg1PrbyXqoqHSG54aDgPL+6zG6+51XtB3/TxEsvYyu8MLfxHU9G3PRVVlHUgNvcAjRT52K7eqamkc2oa8tjIEUpaQHsI0BPtFpFr8iOSj/Z+7EOyNpws2kxtRDJGXRPDHFneAtv4L+LDnkb+002vpve9HaA1jaiGC4kjOFoYMzZrXix0ALTbLqpRvO2NsRU0ZfI7IcBmf8AHqvmwdsR1cLZY9DcEHUEcCoGpN84pI6tkheWOYXA2u4EgA6cQcLvQnmr/sZ3w7qokp5TZj/EOQI1+Vj8VBMO9GzTLGHx/wC/F4mW1PNvrYEdWtV1sPaQqIWSDUjMcj+8/VYzbe+tLTjOQSP4NYQfidAoo2nv45hl7g902RxcWtOhOZsddSTlbVETNtfb9PTA97IAfsjN3wGnqo53j7Vjm2nbgH2jYu+Gg+aijaG2pJCbuOaxuIuOQLirgzW195Zp3FznuJPEkk/NY+k20+nqIKhh+sicCOR5tPm0keRWT2LulNUEXBDfgPis5vDu5TU1DMHvaJwA5gv7wcLgebSfkqavd490op4ZKykA+jzN77ANWkm7xb7THeK3IWUZUFXLSzsljdgmieHNI5j82kZEcQTzW3bhbzSNjmo8YGMF0JOgeBp5Hj0JPurWqyUFpfgs9rsD2n3SDxHy+CK6m3O3iZtCkjqGZF2T28WPHtNPrmOYIPFZtc5diO9Rpq3uJHfU1Nm56NkHsHpiuWnndvJdGrKCIiAiIgIi+E2zOiCP+2Tej6JS9yw2mqARlq2MWDj0JuGjzJ4Lmyc3PVbh2g7f+nVsswP1YOCP7jb2+ObvxLTpDmtQZvcfZ/0jaFJFwdK2/k3xn/4rroLnHsE2d3m0jIdIYnH1f4R+q6OUosNt7VZSwulfoNBxJ4ALn7fDfaarebO8Ogt7I6NH68VtXbrt44o6Vptztzdr/Tb4lR9sTZneYjphAt0v/gJIrFCPDc+9xJ4efX95q43f3bqK+QtponSZ+J+jG9XvOQ8tehW0bpboGurRTm4pogJJ3DUj3YweBdz5A8guhKGijhY2OJjWRtFmtaAGgdAFbRG+6fY7Tw2fWOFRJr3YFoB5jV/rl/CpNiia0BrQGtGQAAAA6AL2iyjR+2DZDp9nSSR376n+taRqWj2x5Ybm3NoUExTT4g7IPmjZY38JF8MZJv8AbBiOli7ourJGBwLSLgixB0IOq562vSQ0TpqScutBPaEtBOKGpsJGEjQtaWSgn34zzCsVgt34DVQiPA3HHjIZYBzsz9WCSLA3c0+0QHtOWSt46F7S10JIdE5oBtYlrgXRP9W4mO5GPqtt2Pu/M2rJDA+ORrnyZDBiZYSHQ+F4wSgjPxNA0utt2VutGaiMNexsga8FmHwvjJuWtAOWCWzm66uGV0MQ9tvaLi4uNw7Rw4gjX5rFxiSQ+EfvzWxb6TMkqZXtjwPjdgmYeNjYPy8sJ/B9pbmPoFExjriR7mMe1upAe24uOFx+qcRp+xNzZZrFwIbzOQ/yttZs+ioW3lcHPGjRn8gtf25v2912s+rZpYe18eC0mt2o55Jv5nmg3rbe/wC6zmwARt04X/t+a0DaG0HyuLnuLieZVo5119axUVaWRzHB7faYQf8Az0Onqtn27G3FFUt/2KpoD+j8xn1yIJ+0x50ssBRxWOfskWPr/YrZt1mCdk+z5DYyAvhJ4SNAJ9CGtd+Aj3kGuPb3biASHNOThkQRmCDwOhC6v3L24K2ip6jLE9gxgaB7fC8fzArlbaMDsN3Cz4zgeOORsD8bj4KY/wDTrtUuhqqY/wDG5srfKQEOHoWA/iUomFF8X1QEREBaX2tbd+i7PkDTaWf6puednDxkeTL+pC3Rc+9tG2/pFf3TTeOnbgtwxus55+GBv4SrBHc2ixz9VkZ9FlN0N2fpjnEusxhAdzzF/nn8CtDf/wDTpMwPqmn23BtvIcvmfRTmudNo7Th2eWNpWgSMIOIXufMhbTsrtqGECaBzjxLS0fqPyCzYNF7TJy/a9Tf3HYR8AfyIWR3PzZKOrfycsRvttuGtrpKiFjmB7WYw/DfG0YSRhJFi0M9QclcbsVWBz+RAJ9Db/wC3yVVJHZHUtjdXPkc1jHvBa5zgBZj5Yze/Ij5rfBvNRkloqoSRwEjT+RXKW1sRmlacw2WQtHAYncPOwKqUU72HI6qYjrWHaUL/AGZY3eT2n9VYbe3npqNt5pQDwY3xPPkB+ZsFzUNuPbr/AI9DxVvUVjpn3HIXTBIe9navNLdlP9THzB+sP4vd9PitG2HWAzODx4ZCSXfxHO55knjzsqcdAAMTyA3mdP8AKtK3bEbRhibc/aP6fv4K4Jj3L3oEL44n2LD9VfkSPqvQkOj9YxxWJ2tVyQzP7q5kgkEsOtnscHDuy4XAAjbOwkgC5iJOajOl21cDG4jQEjI2J9pv8THBrx1aFm9o1/fvY6Zgdbwvbn07xrS3PP2m25syKYuqW/dS11Q2rhzbK0B+WTg4CxI6tt5EDitc2htAuZFbVjTFfmzFjZfqLkeQC2Sqo2lxjJb3bgXNDPZDS7MMv7od4m8w8fZK1CopzG90b9Wm3mNQR0ORHQoi3c4nVAxXFPSE66K+jpgEFhFTE6q9jgAVdsaqtjRFJkS91Be10c0Zs9hBB5OacTT6EK9hgut43W7OqiqGJ47mI6OeM3fdbrbqbDzU1Wu7yRslMVWwWhqm4ZAPckGTh6EXH3SeK2L/AE97OkFXVyEEMZF3TuRe54NvMCN38w5q82tumacSUbgO7kGOJw0xtGo43cBYjoOak7crYwpKSKOzcZGORzTcPe7Muudb5fCwyU1WcRfURBERBZbZ2g2mgmnf7MTHPPXCCbeZ09VynU1DpHvkebve4vceriSfmVOXbntTuqFsI1nkANvss8Z/qDB6qA3Fagt6t914oNoywOLonlhIsbaEciDkV6mCsyqLyTaT3ElwaSeOf91TNY7k34H9SqC+KCvT1Jxi9s8tAPyCz1DUhjgTpofI5H5ErWBqsuXmwJyOhCovtuQPZjc0AnK5tfSwyvzGfkLrDx7Te32mg+bbD+my2rZE4kjFxcs8BHMWOH4su38K23ZW78BZfJ1+g5Ag+oIPqgjehPfg2aRnnb2eOl+Onx4LJbOoTHIHEXZo63tAHjbjY2OXJZ/bdG2Zhp4CyIYu9kfh/C0C3EhtzysOa1SofNRSYXSCWI8RoD0v7J/NBQ2/SvLwC/FqCTk0Z+7zba1rX4rGuYxuniPXQenH95K42jV9466tWREoKZdfVbbu2/vI738UZax/3XZRv+P1bvOMrX46RXeyqn6NMHubjiILJWfbjfk9o62zHUDkoMnvNHPSSxhtu5J71jcDQMTbh7bgX94+jxyWU3x2K2angrofZIDX9Acm4urXXYfNvJZ/bfcz0Qhllb9IYR3UhybKcGKM4tB3sRyB43+ysDHDJBE2PE6SIOdJgwlrZBgtLG04iCXREyMOt4nZXUGp7P4tOv7/AH8Ff92qVXR91LYHE02LXfaa4BzHerSD8lkqOmfLIGMjcXG2gvc8hbiqLNkK2DdzdaerdhhYSOLzkxvm7T01W57s9n7WyxituMQBDARnfFYOI+6bgcxmpapKVkTQyNoYwaNaLALOjU91ez2npLPkAmmHFw8DT/C39T8luSIgsNs7LZUR4HZEZtcNWuGhH9l53fgkjhayW2JpIFjcYQfD8lkUQEREBERBoXanuPLtJsLoJGtkixDC+4a4Pw8QDZww8uPBQbvFu3U0MgjqI8LnDE3C5r7i9r+EkgX5gKce0XtDFCTBAA+qIuSc2RA6YhxfxDfU8AYE2ptZ73ve97pJnG7nONzfr+gGQ0yVgxlQw6W/T81bmnd9k/BepyTmTcleYyRoSPIkLQ+GF32XfylXEcLQbEF7uIaLgeZuF6EznCxcbD939BdKZgfr7PBvAeg1PVBRqwB7rmnkW2+YP6LLDA+EOxDGciON/wDysZXQBo8OQ4j9VRpoy7IHP9/v0QX2zq0xSZ+yfC7y5+hAPxW0N3hdFG9vTL1/yT/MOS1avpiLO55Hz/yvjCXMwnUaeX7y+CDLUO3DC5jiA/xB72nR2YyPSwsrreKYzxuxSB7mgzRmxxGBxthcQA3E3IgC9vGOC1MArObD2gyNjxIXGw8LTdzDfUYCcINwM7aOcoMAxxGWts/7+izkEIsCNDmsUS0ynCLNN7C97DUC/HgLrIUswY0tceo9dR++aou8KtqlzRqVTZNJM4MhY5zibAAEk+QCkrdDsZlltJXOMbNe7FjIfPg35noEtGsbCkbNA+nkNjGw2dr9TiuHecEhxf8Atyyjgr/Y9U54dC8Fs7JCHHUskYbg5DPxDGNGm78xxz/aXuc3Zr6erom4Y2kNc0kuAdawve5wSNxNd/lWu72x4aqQyseWEwWYDqQHNDMfN0VnQvve7cJ95RWtbQpBhLAA22J8TRwbivNEMh/tyEyN5xyXUt9j1VDLC8hjRUNwtebZ2AAyOtjr624LQNlbd+izSOrGNLHuMbmhoJD2tLRhHMgYDmLgjgFT7P8Aac8O0Y3QU0v0eQluY8RYXWFxxw+vNSomve2mJiErfbiOIHplf5gH0WWoakSxskGjmg/Hgqk0Yc1zToQQfVYTdOQhkkJ1jcR8SbgfiB+KgzyIiAiIgIiIC0jtV3sdQUzREbVExLWHLwNAu59jxFwB1cOS3dc29r+3vpVfKGm8cP1DeV2k94f57j8IVg02rrXPJNySSS5xJLnE6kk5366q1DV7AX1aFN7V4axXEbCTYC69vDW/xHpoPM8UHimjve+ml+V1bz0zm5i/pwVYPJ42PDkrqKstkR8UGNihc853tzKqwxeNoBt4r36DiryWrBGQA/fxVuxpJ8Pqf7IMm6XEcBbkePAHh++qpOpviF9AV212IX4jI/oUGG7oF2dx5GyqSbPFrlxA87q6q4veH76qz2lUnuwANcvhw/fBB8o4o7ktdiIF9HC1vPLl8Fkd3djurauOFovisOmedz0AN/RYimOCMn3n6eX7/NTp2E7tYIjWPGb/AAx3HujIuHna3xUo3zdjdGloGAQRAOtnIc3n1Og6CwWeRFkWm1dnR1MMkMoxRyNLSP1HIg5g8wuc6mhq6WsloWPwztOKEeyZr5fVvOQL47i32m21aF0Vtba0NLGZJ5WxsHFxtfoBqT0C5/7V+0WHaHdMpo3DuZBIyoJs+4vk1vBt7G5zu0aKwZKl3FjpWmp2vVtijkOI0xAfK+17XsT49L4Q63PlN2yIImxM7gDuy0FpGdwQLEk5m4tmVyBX1c9S8yzSOe93vPJJ+fBdJdjW0mS7MiY17nOgJicHEEixxNAsB4cLhbytwSjelruzD/19QBphufPwf3Kb7b0x0FPJI5wM2EmOPV7jpcN1sCbk6KDd0d7alm0oZ5HOIlkDX4zd7mvOGwAsAAXDQagKDpRERAREQEREFht6pfFTTyRtxSMje5rebg0kD4rkueJ5Nzc8S48b5kk8yuw1rG8O41JUxTNFPFHM8G0rI2teHah2Jovra/MXHFWUcwNhJXow2zcbD5nyV1tClkp5HxyNLZWOLXA52I/TiDxBBTZMBkefC1wLSHYjYAEWvcAkEdB8FoU2QOdiGUbWsMhBvic0XzA1d8gr+LZ8TXFrR35wubm7AwHFhLw4tyIuywGIePWwuqldtFhOd535nJobGCXHib4gAXZPa72hmLG9rSU9RUOEMTXuve0UQJsHOJIsNG3PHLIckGJnjDTZrsYs03AsPE0G1rnS9vMFVIoHcchrZSrux2Nzvs6reIGfYYQ+U9CfYb6Fy99oXZbJF3cmzonSRhuGSPHikxXuHjEcwQbEDSwsNbTRF8NO0AXGaqF3LRSduZ2SSTRufXl8BNu7jYW4wM7l9w4C+VgOt+SuKfsSd3r+8qwIL+HCy8pb/FezWu8g4fkmiJy9UhtFrDz5jops3t7IYzRiKgawVHeNc6SZxLnNAcC0OscGZabNABwrD7udhJxB1bUNwj/jgvn5yOAI9G+qaI6cQeoIuOoKx9RBe7ef7/fmpo7Udw4oqdk9JE2NsDcMjGiwwXJx9SCTiJzINzoohe26D1sCij+kxPrWPFI14DwNSOA6tva9tQTbp1ZsqphkiY6ncx0NgGFhGGwGQFtLcuC5aZPjjMb9bWBPHkPNUqXaktN4Yu9EhGdi6MepBFx1SwdVbS2nDTsMk8rI2D3nuDR6X1PQKKd7O2poJi2dGZX6d68ENH3WanzNvIqNKXYtRWv7yZ7n9S4kW5YjmR0GSstpOMLjFFhAGRLbH5jL81MDbVRPUv72uqHOcfdvd3kBo0dArGNzR7DbDmc3H+3olLQPkcA1rpJHaAAuJ8gMysvtvdmpomxOqYHxtkvhJtYW4Ot7J6GxVGCeLG/BZfd7emroHSilkDDMA1xIBtY5OF8gRc52Oq9bP3aqas2gp5JOoacPq4+EfFSJuz2LSuIdWSNjb9iM43noXHwt9MSUR3RConnLmGSpq5LgvdidryBzPmchyUydnPZkaaRtVWOx1AzYzUMPMnQuHADIflvewN3aaiZgp4ms5u1e77zjmVlVAREUBERAREQEREGh9onZ23aBE0Tmx1IGE4gcEgGmK2YcODs8suVoyk7Jtoh2HuGEfaEzMP8AUQ75LolFdESbudjTRZ1ZLi/7UJLW/ikPiPoB5qTdk7HgpWYIImRt5NbYnq46k9Tcq+RQEREBERAREQeXsBBBAIIsQcwQeBHJc99oW40tBK6SJjn0TjdrmguMX8Mlsw0cHaW1z16GQhNHIoIOYNxzXiSG+ouBpmumtqbibPqHF0lJHiOrmYo3HzMZbf1VnTdmWy2G/wBEa4/9ySWQfyvcR8lrRz9syhqas91Tsll4FrLlg++fYb5uIUk7s9jDjZ9bLhH/AKURBPk55Fh5NB81MNJSRxNDI2NYwaNY0NaPQKspoxWwt3Kajbhp4Wx5WLrXefvPddx9Ssm9gIsQCORFwvSKD41oGQyC+oiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg//Z</t>
+    <t>https://www.caster.com.ar/images/productos/ATLANTIC_1-400.jpg?v=1705605422</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/ADVANCE6003_1-400.jpg?v=1705605420</t>
+  </si>
+  <si>
+    <t>BLUE MAX 1802 BEAST</t>
+  </si>
+  <si>
+    <t>DEFENDER 180 CASTER</t>
+  </si>
+  <si>
+    <t>DEFENDER 3003 CASTER</t>
+  </si>
+  <si>
+    <t>DEFENDER 3603 CASTER</t>
+  </si>
+  <si>
+    <t>PREDATOR 210 CASTER</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 180 BEAST</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 210 BEAST</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 240 BEAST</t>
+  </si>
+  <si>
+    <t>SUPREME 390 CASTER</t>
+  </si>
+  <si>
+    <t>SUPREME 420 CASTER</t>
+  </si>
+  <si>
+    <t>TAKUMI 425 CASTER</t>
+  </si>
+  <si>
+    <t>TITANIUM 390 CASTER</t>
+  </si>
+  <si>
+    <t>TITANIUM 420 CASTER</t>
+  </si>
+  <si>
+    <t>COSTA TELESCOPICA</t>
+  </si>
+  <si>
+    <t>PEJERREY TELESCOPICA</t>
+  </si>
+  <si>
+    <t>BAIT CASTING</t>
+  </si>
+  <si>
+    <t>COSTA 3 TRAMOS</t>
+  </si>
+  <si>
+    <t>VARIADA 3 TRAMOS</t>
+  </si>
+  <si>
+    <t>VARIADA 2 TRAMOS</t>
   </si>
 </sst>
 </file>
@@ -764,14 +764,14 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="109.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -801,16 +801,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="10">
-        <v>2</v>
+        <v>55200</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -824,13 +824,13 @@
         <v>28495.5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -838,482 +838,482 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B4" s="9">
         <v>23413.5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="10">
         <v>56482.799999999996</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B6" s="10">
         <v>22143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B7" s="10">
         <v>47553</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B8" s="10">
         <v>58443</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10">
         <v>58715.25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="10">
         <v>64432.5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="10">
         <v>66429</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10">
         <v>51183</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B13" s="10">
         <v>57717</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B14" s="10">
         <v>59749.799999999996</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B15" s="10">
         <v>49186.5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B16" s="10">
         <v>64795.5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B17" s="10">
         <v>73235.25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B18" s="10">
         <v>14520</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B19" s="10">
         <v>16698</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B20" s="10">
         <v>18694.5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B21" s="9">
         <v>101095.5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B22" s="9">
         <v>104453.25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B23" s="10">
         <v>117975</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B24" s="9">
         <v>88935</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B25" s="9">
         <v>92565</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B26" s="10">
         <v>53905.5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B27" s="9">
         <v>47916</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4">
         <v>23213.121750000002</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7">
         <v>43590.592499999999</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7">
         <v>29403</v>
@@ -1414,15 +1414,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4">
         <v>41026.44</v>
@@ -1434,15 +1434,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>26850</v>
@@ -1454,15 +1454,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7">
         <v>31071.495000000003</v>
@@ -1474,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BC023-8503-4075-B2CC-24B53076163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -78,9 +78,21 @@
     <t>BLACK DRAGON 400 CASTER</t>
   </si>
   <si>
+    <t>blue max 1802 beas</t>
+  </si>
+  <si>
     <t>CORSAIR 270 CASTER</t>
   </si>
   <si>
+    <t>DEFENDER 180</t>
+  </si>
+  <si>
+    <t>DEFENDER 3003</t>
+  </si>
+  <si>
+    <t>DEFENDER 3603</t>
+  </si>
+  <si>
     <t>KARP HUNTER 270 CASTER</t>
   </si>
   <si>
@@ -93,6 +105,27 @@
     <t>KARP RUSH 270 CASTER</t>
   </si>
   <si>
+    <t>COSTA TELE</t>
+  </si>
+  <si>
+    <t>peje</t>
+  </si>
+  <si>
+    <t>bait</t>
+  </si>
+  <si>
+    <t>RIO 2 T</t>
+  </si>
+  <si>
+    <t>BAIT</t>
+  </si>
+  <si>
+    <t>RIO 3T</t>
+  </si>
+  <si>
+    <t>COSTA 3 T</t>
+  </si>
+  <si>
     <t>CAN-003</t>
   </si>
   <si>
@@ -151,204 +184,6 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
-  </si>
-  <si>
-    <t>KARP RUSH 300 CASTER</t>
-  </si>
-  <si>
-    <t>PACIFIC 4206 CASTER</t>
-  </si>
-  <si>
-    <t>SNIPER 390 CASTER</t>
-  </si>
-  <si>
-    <t>SNIPER 420 CASTER</t>
-  </si>
-  <si>
-    <t>VALIANT 2702 CASTER</t>
-  </si>
-  <si>
-    <t>XTREM CHAOS 270 CASTER</t>
-  </si>
-  <si>
-    <t>CAN-012</t>
-  </si>
-  <si>
-    <t>CAN-013</t>
-  </si>
-  <si>
-    <t>CAN-014</t>
-  </si>
-  <si>
-    <t>CAN-015</t>
-  </si>
-  <si>
-    <t>CAN-016</t>
-  </si>
-  <si>
-    <t>CAN-017</t>
-  </si>
-  <si>
-    <t>CAN-018</t>
-  </si>
-  <si>
-    <t>CAN-019</t>
-  </si>
-  <si>
-    <t>CAN-020</t>
-  </si>
-  <si>
-    <t>CAN-021</t>
-  </si>
-  <si>
-    <t>CAN-022</t>
-  </si>
-  <si>
-    <t>CAN-023</t>
-  </si>
-  <si>
-    <t>CAN-024</t>
-  </si>
-  <si>
-    <t>CAN-025</t>
-  </si>
-  <si>
-    <t>CAN-026</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/BLACKDRAGON-TL4004_1-400.jpg?v=1737998486</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/BLUEMAX-SP1802M-400.jpg?v=1705605457</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/CORSAIR-BTR2702H-400.jpg?v=1705605499</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/DEFENDERGSP_1-400.jpg?v=1705605516</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3003-200G-400.jpg?v=1705605509</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3603-200G-400.jpg?v=1705605511</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-GSP2702MH-400.jpg?v=1705605604</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3603-3LB-400.jpg?v=1705605604</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3903-3LB-400.jpg?v=1705605604</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/KARPRUSH-GSP2702MH-400.jpg?v=1705605605</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/KARPRUSH-CF3003-2.5LB-400.jpg?v=1705605604</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/PACIFIC-TLSF4206_1-400.jpg?v=1730827681</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/PREDATOR-GSP2102H-400.jpg?v=1705605819</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/SNIPER-SF3903-200G-400.jpg?v=1705605863</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/SNIPER-SF4203-200G-400.jpg?v=1705605863</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/SOLID-SE1802S-400.jpg?v=1705605868</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/SOLID-SE2102S-400.jpg?v=1705605868</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/SOLID-SL2402S-400.jpg?v=1705605870</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/SUPREME-SF3903-400.jpg?v=1705605878</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/SUPREME-SF4203-400.jpg?v=1705605878</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/TAKUMI-SC4253-300G_1-400.jpg?v=1705605884</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/TITANIUM-SF3903-400.jpg?v=1705605960</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/VALIANT-GSP2702H_1-400.jpg?v=1737998518</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/XTREMECHAOS-GSP2702MH-400.jpg?v=1705606000</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/ATLANTIC_1-400.jpg?v=1705605422</t>
-  </si>
-  <si>
-    <t>https://www.caster.com.ar/images/productos/ADVANCE6003_1-400.jpg?v=1705605420</t>
-  </si>
-  <si>
-    <t>BLUE MAX 1802 BEAST</t>
-  </si>
-  <si>
-    <t>DEFENDER 180 CASTER</t>
-  </si>
-  <si>
-    <t>DEFENDER 3003 CASTER</t>
-  </si>
-  <si>
-    <t>DEFENDER 3603 CASTER</t>
-  </si>
-  <si>
-    <t>PREDATOR 210 CASTER</t>
-  </si>
-  <si>
-    <t>SOLID CASTER 180 BEAST</t>
-  </si>
-  <si>
-    <t>SOLID CASTER 210 BEAST</t>
-  </si>
-  <si>
-    <t>SOLID CASTER 240 BEAST</t>
-  </si>
-  <si>
-    <t>SUPREME 390 CASTER</t>
-  </si>
-  <si>
-    <t>SUPREME 420 CASTER</t>
-  </si>
-  <si>
-    <t>TAKUMI 425 CASTER</t>
-  </si>
-  <si>
-    <t>TITANIUM 390 CASTER</t>
-  </si>
-  <si>
-    <t>TITANIUM 420 CASTER</t>
-  </si>
-  <si>
-    <t>COSTA TELESCOPICA</t>
-  </si>
-  <si>
-    <t>PEJERREY TELESCOPICA</t>
-  </si>
-  <si>
-    <t>BAIT CASTING</t>
-  </si>
-  <si>
-    <t>COSTA 3 TRAMOS</t>
-  </si>
-  <si>
-    <t>VARIADA 3 TRAMOS</t>
-  </si>
-  <si>
-    <t>VARIADA 2 TRAMOS</t>
   </si>
 </sst>
 </file>
@@ -438,13 +273,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,8 +290,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -761,18 +595,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="109.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -780,7 +613,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -800,17 +633,17 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10">
-        <v>55200</v>
+      <c r="B2" s="4">
+        <v>55357.5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -820,17 +653,17 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>28495.5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -838,486 +671,183 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="9">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
         <v>23413.5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>56482.799999999996</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4">
+        <v>22143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>47553</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4">
+        <v>58443</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10">
-        <v>56482.799999999996</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B9" s="4">
+        <v>58715.25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="10">
-        <v>22143</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="B10" s="4">
+        <v>64432.5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="10">
-        <v>47553</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="B11" s="4">
+        <v>66429</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="10">
-        <v>58443</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="10">
-        <v>58715.25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="10">
-        <v>64432.5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10">
-        <v>66429</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B12" s="4">
+        <v>51183</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10">
-        <v>51183</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="10">
-        <v>57717</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="10">
-        <v>59749.799999999996</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="10">
-        <v>49186.5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10">
-        <v>64795.5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="10">
-        <v>73235.25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="10">
-        <v>14520</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="10">
-        <v>16698</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="10">
-        <v>18694.5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="9">
-        <v>101095.5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="9">
-        <v>104453.25</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="10">
-        <v>117975</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="9">
-        <v>88935</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="9">
-        <v>92565</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="10">
-        <v>53905.5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="9">
-        <v>47916</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="2"/>
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1330,13 +860,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1344,7 +874,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1362,9 +892,9 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5">
         <v>23213.121750000002</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1374,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1382,9 +912,9 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8">
         <v>43590.592499999999</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1394,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -1402,9 +932,9 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8">
         <v>29403</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1414,17 +944,17 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5">
         <v>41026.44</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1434,17 +964,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5">
         <v>26850</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1454,17 +984,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7">
+        <v>44</v>
+      </c>
+      <c r="B7" s="8">
         <v>31071.495000000003</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1474,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE89CB9-2FD6-4452-8E4F-4473AADE590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BC023-8503-4075-B2CC-24B53076163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -78,21 +78,9 @@
     <t>BLACK DRAGON 400 CASTER</t>
   </si>
   <si>
-    <t>blue max 1802 beas</t>
-  </si>
-  <si>
     <t>CORSAIR 270 CASTER</t>
   </si>
   <si>
-    <t>DEFENDER 180</t>
-  </si>
-  <si>
-    <t>DEFENDER 3003</t>
-  </si>
-  <si>
-    <t>DEFENDER 3603</t>
-  </si>
-  <si>
     <t>KARP HUNTER 270 CASTER</t>
   </si>
   <si>
@@ -105,27 +93,6 @@
     <t>KARP RUSH 270 CASTER</t>
   </si>
   <si>
-    <t>COSTA TELE</t>
-  </si>
-  <si>
-    <t>peje</t>
-  </si>
-  <si>
-    <t>bait</t>
-  </si>
-  <si>
-    <t>RIO 2 T</t>
-  </si>
-  <si>
-    <t>BAIT</t>
-  </si>
-  <si>
-    <t>RIO 3T</t>
-  </si>
-  <si>
-    <t>COSTA 3 T</t>
-  </si>
-  <si>
     <t>CAN-003</t>
   </si>
   <si>
@@ -184,6 +151,204 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSEhMWFRUVFhYVGBgWFhkZGxkdGBoWGBUYFxgYHSggGB4lHRcYITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGislHR8tKy0tKy0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLf/AABEIANsA5gMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABgcEBQIDCAH/xABQEAABAwICBgYGBQkEBgsAAAABAAIDBBESIQUGMUFRYQcTInGBkTJScqGxwRRCYpLRIzNDc6KywuHwJDWC0gg0U2OT8RUWFyVEg5Sjs8PT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEBAAICAgEEAwEAAAAAAAAAAQIRAzESIUEEUWFxMkKBIv/aAAwDAQACEQMRAD8AvFERAREQEREBERAREQEREBERARFh6W0nFTROmmdhY0Z8SdwA3k8EGYiqqv6WJCSIKZrRuMji4nva21vvFdmjdcauZjnyzNhtsDY2AH/iYimM3dRLdLRRUjWa86QDjgqLjd+TiP8AAvtF0k6Rb6Zjd7cdv3C1S3SrtRVho3pVdcCeBpG90Tjccwx17/eVkUNYyaNssTg5jxdpG/8ADuVHeiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLjJIGgucQANpJsB3kr6VT2uVbJJ2pQ97iThjxFrG24gcPMoLTdpiHDiDgW+tkGHue4hrvAlQ/WuOKtewvqB1MeYjja6QE73Oczs3tkM8s+Ki+p+inSXkmfd2QH1iBwBNy0eCmcuj48O93eT8l1x45b7c8s9dI+2tgpWEMiY4+sYrfB6i+mddLk2aByb2PHLP3qUaXpGAGzW39kFQPStGLknLuCufHIYZ2xgP1tffL3yTH/AOwLbUuueVnR5D7Vz5uzUXfSjFt3qQUMBtkfcfmuFxjeWdZc+stOReSnxH2m/MLK1a6RxR4mRxnq3OxYXOxBp3luy1xa42ZLA0lTNLO1hJ8vJRuakHAe5QmW1y6P6XYHG0kWDnjaPc63xUx0NrRS1RwxSDHa+B2TiBtLdzwN5aSAvNJoRg3j+t6sPoy0E2pjY5rA18MovIwlp7JDmuNjm7Px5KquxERUEREBERAREQEREBERAREQEREBF1SVDG5Oc0d5ATr28z3NJ+AQdqq/pPsJxb1BsG8k5nirIkrGt23HfZv7xCgWvVOKp7S2enja1oB6yZoJzJ+rfig0+qQNrjZfeTbnYbFMpWDDmPcVE9DxRQAg1MLz/u34vcBmttU6eaBYRyn2YZHfwrtjnI55ceVjC0y0Eb/IfioRpaJov6XuClGktKAg3gqLfqXD95RjSFbAcjFU+TG/EFTPklvyuHFlEeLhizxbVvqUbM3f13rVmanvfqanxkj/APzWzpa2I/8Ah5/vs/kuFyay467NIw3bnc5br3+Cjk0e7Md6lNRWQ2s6KQf4vwWvdU0P+xm8JD81nyXHCxpYSbK1+hBpDKjZa8Z9zlXD6ult2aeS3OUKZdHtfU2kFBTXFm4scjCB6WEXcRxOS1v8L4/lcyw9IaRZCLuOdr25cTwCijNL6Yae3RR25ODj+zIo5prWCQveaiFws4YhZ4w2aMLc24efpD0rps0n9PrC131TbiDf5LcQyteA5puDsIVc6jaViqYnl72BzC7sNvcDLDcHnfMZG3gN9qJpRs/0kMcHMjkDRbZctu63hh81SpWiIqgiIgIiICIiAiIgKB9J1dPAxrwXiE9k4HYbOsSMe8g8uCniwdNaJjqoXQyglrrHLIgjMOB3EKWbWKQ0Brk/GMLnBmONrsLi0nFLHHmQR6+5Xh/0VDvZi9suf++SvOUGj5otIdQ4h4E/VFoacwJQAchkbtDvBemkkLWGzRcA2QxDujb+CrPpYs2eMNaAMLdlhvcdgVsKoemF5FTHwwA7eZG9WdpenTqtcZlvAXzHxsFNnEloPz/AqB6ozD7IzGz57lOJK1lvSDjvsQV6cXDLppdOTEDL5qB6Uc4k/wA1MdNVYzsCe5qhukXuN7RvvzYfkFnkvtrjnpo+qditnfha621LG6wz8/5LXOimxXcx1uFjbyC29PI5oGTxywFea1vLb5Ws7GeZ7wFopeTR/XcpDUuxtt1cjvZY5aKopXC/5GUDnG78FDF0NJw399rK1+gmS8VUOEkee/0SLd2XvKqqGBxGUb/ulWj0ExuYKpro3MBdGQXAjYHA5H5LTS11VnTBpWWhlgqImtLZQ5kjXDJxZYtJtvsSL8laarvpuoutoWgC7mvxjwBuPK6UUtpPWszPD2wMhcMsUeIE323z3+R333XR0HRH6DLKRbrahxHPCyNpP3g7yXnhjc16w1J0T9EoKeAizmxgv9t3bf8AtOKkWt4iItIIiICIiAiIgIiICIiCidYtLii0nUuwkl02JttxBD7m/tKaUnSvTSNxCCbaR9XcSOPJQ7X9gGkai7Qe00582RlanRcOGFmWZGL7xJ+azVi4dH64R1NNUyxNewwMeSHBt8mF1xYkHxVYUeubamWJsjHvMj2R4pCL2dJhIyvlnutkt5qb+ZrW+vT1B8mtb8lEo9XoI4mSfSR1jQHtALBdze03K5JzC68XtnP0l+ktZKumNMyJ4axwpAGCNhxdY6NrrkgnO7swRsU7qmdSG4SLuGZsM8rkjgtJNqo2rdSzZMbFgkFnXIzMjW4cJBwueS04gBlkbWW+06wAMa3IAEC26wytdZt9FiKzaUiEZdLK2wfa73AgE3yLjk0mx2kbFj6RrMLsDWg9osJa+EWeGlxY4F47WG7rcASuyal6yGSOR5cx5c1zXNYb3tbazLCWgi1rEqP6S0HIZeudVOBDy9jWRRANJbgxEEYXuw5Yy26nP3P0v08v/TA0tXuyfHTvkDjHhcx0TmuxuLWYSx5JuQRcDcVL9HThxEf0WN0gvdrJYHXNjtxPxA5HLO1lBm6JljqGuhqngOdG12NrHWDHdhrGgBrGgOcMIFsypwzVhonjnZLgew3bgjja3fta0C97nab2y3BefPWlzt276ypb1TXNga3rbMY7HGQXYrYQ9jiCbgjwUGZXh0guQ4YDMMJxNLO0MQIABzBFtuSlUmrTmtu+bG2IXiwxxsewhznelhJcLuJAvkc7bLQ2k0dH11zd5zJ6zC45XsMVrlo3N2BMdaSWuMcNpDZuVxkO5x2HkDs4LBrK2WGaF8T3Md1rCC1xFwXDI4TmDw3raYsLwG2AyNgMsr2yB5rT6QJM9M02/PRN/wDdaOPNdMPl06xiztaekKogqXQwRxFoLmgvDiSWYQ7Y4DafcoVrJrdXVXVtkfGxuI26uPYcJOeIm+y3iuGn34pzJxllH3s/4VqK85X9Ug5eR+KltTU0zdTdWxNpCnDswZQ92QFwwOkOXAllvFejFTHRZCDpBp6wPwxSOtw9Ft/2vernW8embdiIi0goH0ga8uon9TC0GQNDnOcCQA64aGjjvuf+U8VIdL/+uv8A1UXzUos/UjTj6ylEsgaH4i04dmViDY7MipAq76GKnFTSs9VzT94EfwqxFQREQEREBERBRvTNCYtIMeMmzxtsftNOB3kMHmuqRufl8ArY1w1Xhr4mNluHRP6yNw2gjaOYO8chwVTE7DxAPuCzl01K2OqE9nTM9aCqb7nO+SrjRVQ7rDEDjiYxhabbLtbbMbbgk+Clei9ICKqzNhiLTfhKxzL935QKFUVc9lC3Ba4mIubmw6trreJv90q4dJe0hr9adKs0j1UEkuJrg2GJoxNkYLCNwH12uaA6+zPdZXN0jVFUyhc+lZiqQwWAGMjMdYWNPpEC5A5bDsVdam6zTQaNkqGkuMfWODbnD+izPBt3XI3Zneu7UrXOurXyGolY5rNjQwN27bH/AJ7VrSK4pdYdJOls2SaR4NixzcQ7nMIs33Kaa0svC0ua0G7S4NzAOE3AJzcASbcVINdtKup6V0gaXFuGzTewubXI5Kuvps1RHiklvfPCAAB7krWnzQ0wjqoni3Zew8Njgd2xenY3l/VuaRY5kEXuC02A4G5B8CvK0sZaOsDrEPa3vuHEW7sOfeF6Z1fq+sggf60TXebQkjz8uXjlGZpzKnlPBhPlmvPOg3Xqj7Lz7lf+tMlqSU/ZK8+6CP8AaSR6sixk64/ybDQ8g688svitZrHVBtXSn1ZY3nwlv/Cu3QT/AMq/vd81otP1GOtaPVc0DwI+d0xbqQV1beWNnElx77OHzK41rfyb+5a2E4qtvIH4FbXSJtG7uWL21Oks6AtHOdLU1R9FrWwNPFziHyDwDY/vK51rNXNHR09NFFGxrAGNJDRa7iAXk8STckrZrpGLdiIiqCpHpdH9uf8AqWfByu5Un0rj/vB36qP5qVYzuhCp/KSs4xg/dIHzVvKhuhyqw1zWn6we33E/EK+UiCIioIiICIiAqT0vS9VM9nqPezyN2/suarsVa9INEG1QcP07AR7ceXvaQO8KWbhFV6fitMTudHbxuAP3fetVTUD4GOdLDIaWfCGTdXdocCS055EgB7SLjfwUk1ngvCXjazb3ZX8rA+a0NNp95o3UJzjbMKlh9XsSMkb3Eva4cw7imFXJMNQa2KJzoXysaMbnNdZro3NcGtLbkgZgWIsQQpzHonR8EodSxwxueTcxvu3fY5nCzy4bFXmp8gIAsMwrBjgZg9EbOAXXTHlGj0/peEBwcHHCcLgGgg3uNt7HZ4qudIaTpW5RRFhNrjCALbcgDYKxtJUrLeiPJdWkJWyQyTdW0G7mhgGQbDGHNZszGJxeRvw22LFxrtOTDXXtUk9RjIJNwNg3AcABkrM0H0rthijiFI4iJmC4mGfhgy81rBokSOpy50v5e+PERtAxAsbh2bbHMWspLo3QjS57S+bCWwm1xc4y8drs5gWyuBv3ZrnbYxneK94b/wBcNLdLUc0Bj+iytLhnctI2bjfPPkq2o9NCF+IMc67SNth2vBb/AE/FhJb6pI47CQOSjNQFPLfZPH+s07KTTTYSXEYidjb7zfafFa98EombJK3DjDJRmDcSZsORNr3vY52WDVnNd0MnoC/1m+Tdny8lo7SfRkd6hzuDfwHzW1kYHvijOySVjD3OcAfisfQkHYLztebjuGQ+Z8l2aOqA6upxuE0TR3l7R8fgsfLfw9JBfURdXMREQFSnSt/eDv1UfzV1qlulj+8P/Jj+LlK1j2hOhax9LUNmYc2vxDz2HvGS9HaB0xHVwtmiOR2je072ledhFn2mm39cVuNEaRlpnY4JC077b+TmnI+Kz5aPF6CRVPD0k1QGbYncy1w+Dgu9vSZPvii/a/zK+cPGrRRVvB0nm/5SnFvsv+RCkWideaOchuPq3HdJ2f2vR96sylTVSZF8BX1VBQTpTb2In+qJDfgRgI+BU7UK6VW/2Vh+25vnG8/wpBAZHNkZ1osQcpBtsTv5td8+YUG0poQwPc9ucTgQD6pJHZPyO9bPR+kJIiC08rHMEHaCN45LbMqGyA9WACfShccjf/ZuO32TnwusXc9xvXpotTq4CXATbPJW1TPuw33Ko6rRERkxRyOp5Qc2PBt+I96mug9Pvazq52i4yEkZxNPePSHku2OcsccsLK2OktijjpxG/E4OIAIu02Lb/WF8jllY5HO631TM1wuDccQo3pR4sUq4uhho227RcbW/Nvx+ZfgB52I5LNjwuJLWBrcrNzNhzJ2lRpzrOupBQVAt5LhkmcYenGZ58FGa3IKU6YJfsBPcL/BR+p0RPJlZsbeL3fJt1mNY9Iy/MlSnV3QEMkQmkcXk5NjaHNDbW7T3kDHfcGXHE/VXKg0HTxHtuM7/AFQOz93f4myz6zS9uywAnZYZtb3nf3Bbt+zcmu3fpetDG4G+k4Wy3BYWg4iKyjG81dMD/wAWP/MsOCMl2J1ySbkrfauU+KspHcKuA+UrP8qk9G9vRqIi6MiIiAqj6Sa4Q6RJLcWKCPfb60itxUt0vf3gP1Ef70qVrGbqN1Ommn9E/wAMHzK140riPZDvJv4rXTxvmkEbLm5AsN5V8ak9H0FJG10zGyTEAnELtZyaDlccVO2rdKYNVLua77rUbXSja11vYb+C9NhgGQA8l8dGDtA8lPGJ5PN8dbG/IuseBGH5LHqWAHIlvA7Qr/0zqlR1TSJYGXP1mgNcP8Tfmqj1y1AqKEGSEmamGZ9aMfaA3faGXEBZuH2JWFoHXOso7YH9ZGPq+k37u1vhZWTq30o0lRZsp6h/2vRPjtHjlzVHOJ2t27s7e/cuj6UHGzxmDY3ycD37/FJbGrg9YxSNcA5pDgcwQbg9xC0muugnVlKYo3BkgcHsLh2bgEWdbOxDiL7r71QmgtZ6ujN6ac4d8cmbT8j35K0dWOlqCYiKrYaeU5X2xu7jtHv71uZOdxsQv/s40qP0ER7px8wuFTqPpGFuOSnGAelgeHkDm1uZCvmGrje3E17XN4hwI81GtbNeqajYcL2ySkdljSDn9oj4be7arvQq+k0UZmgYg4erKMQHHC4EPZ4Gw4LErtVpY8w17BxYetZ7rPb4hcXOqZXSVssr2ySE4WtcW7ONrDLZyt5auTWmuiNvpDncAWMcT7Iw3PeStXGa3WZluubDOw9iQO44Xi/i11j7l11NXJ+kjcOeEj4iy1ukNcZpTaRkL93biu7zBHwCwX6VlByaY/ZMjf2XOIXPrp0bLrm32rMhq5AOwwnnhJ9+xdOj4aqaB8uIgMue08tJABLrEDKw48RxXDRccc4uXucRtDib+V/687ZqXTsnq5PryNZ/iufJt1jveN4e/wBo4G+XpFbpuj2AWHZ9kNHvAuoxjc6SJl743sHfic0W8bqT2bZMkjyMLRe+xjG7SeDR6Z77lZsOiam3+p1f/pZf8q9K6O0NT04tBBHHu7DGtPmBcrOW/FNvOejdW62X0KKoG68kRjA5jHa/gpPqfqPXCuhllh6mniLXEySMc95bdwsyJzg27zvOQG8q5UV0n6ERFQREQFTPTIP7dHzp2f8AySq5lTfTULVcR/3Hwe/8VK1h2jvRfSCTSMVxezi/7oLh8F6GVI9CtNerLvVjcfOzfmruSJl2IiKoL4QvqIKz156NWvxT0TcL9roRk13Ex+q77Ow8t9P1tGcRuLOHZIdle2WFwPokbL7R3L1YoN0g6jNq2meAATgXI2CW3wfwO/YeIlm2pl91AiPgSM7EHcd4PAoXG1nDLnmFmVUBa4gjC8dk3BGzIteNot5j3LoB8xtB2j8e8ZFc3aV8jlIFmySAcGyG3vuszQ1KZZ4423xPcAXk3cBtcQTssLm66HNGC4GYdY+OI/ILbaoD+0F3qxPd72t+DitTtMpNN/phljgY24GGONg3knDGwd5t4LhLooxMAyc65xuAze7jf1fVGwAccS5Nqwyojke7CIhJMXHYHACKM8yDJlzAXDSOuUOB+G8jgxzWEMLe0QQ0uJtcA27xdb5cvL0xxcWXciKaXkhY84i4G2fVWDx9nFu8b9xWk+m097fRsr+k6aRzuZsC0E+AWyrKPqmOe4Y3AgOP2nX299neRUfJxG5sL8r/ADU8PFi5bvpYtJpKKopHw077PdZmCQhr8BJdIeDyQLdne61gLLZ6c0ZEImmIASRABpbtIbnhdxyzz3qrmRYLPyIG3dt5bu8KeU+lXSQCQnMtDi47yHYSTzJaT/iXLOdab45uUinD2hw3hfOjjVeSsr4JA28FO5skrrjIt7UTQNpJcweAKwaF1g/fm5WN0Cfm6r2ofhIrgzZpa6Ii6siIiAiIgIiICp3pyynp+cTx5O/mriVbdLmq1XWPp30sQlwCRrxjY0jEWlp7ZAIyOw32ZKVrG6rB6EKf88/7LW+Zv8la6h/Rrq7LRU7hOA17yDhBDrAX2kZXz3XUwRKIiKoIiICIiCBdI2owqmmop2gTgdpuwSgfB43HfsO4ikKiEtNnAgtJGyxad4IPMZg8F6sUG1+1DbVgzwANqLZjY2W253B3B3gdxEs23jl8VRlPC5wfsyaXWG+2ZI7gMweN8wLraanVDWVNnbJI3x91wHD3tHmtbW0j4nOY5pa5pLXNIsQRtBC6YZC1wcNrSCPDNZdZPSaVEbZJWxuOHrIpWgjc5pjmA8Qx477KM1tKyx6uTEbYgHNw5DMk3NsvHetnpWr/ADcrDbFZzTuDh2hcb7gkEcliVWEsbNHa+LJuZtf0o3X5Hx271M58vR9NjM94fPw0esE942ua7syEutfjtuOWY5ZrRwtub+K3dZCxzS0HCLlzb3OEnMtNs7E7xfu2k6dkcgOEMxbshfysteUrz8v0+fHdWPj5r7dnD4e9bqCoLYWMzt1fnikc+/gMIWPR6HcWmWQYWNIxDfYkDZuClWm+rYBG0DEQL22NG4eWzzWbUx47JutdQmzD4n3KzP8AR/8AzNV7cQ/ZcqvDrNPcfgrR/wBH4fkKv9awfsfzUx7Yz9RbCIi6uYiIgIiICIiAiIgIiICIiAiIgIiICIiCKa7akRV4xgiOdosJLXDhubIN44HaPcaG05oyWklMM7HRvHEdkjc5rgbFp4+djcL1ItTrJq5T10XVVDMQGbXDJ7D6zHbj7jvBCNY5aec6d+OB8R2t7Tfj8b/eWrExbs37RxUt1o1IqtFv6wXnpgcpGjNo4SN+qefok22bFFtIxYX5ei4Bze455LNd8Mve4xZX3XylNnAkgW5/ghWadHOAJcQLDnwdkTu9G3iFz1I9N5uTLusyXTF74WDE5uF5Pou+1g2X57+CwQ++ZzK7ooYQGlz7ki5AOzZssNu3I8F2uqYQCGx7QQCR7VttyLXbmOCOVjHkfZp7j+CuLoEpS2hmkP6SodbuYyNv72IeCqCChkms2Nty5waObiQGtHMkheltVdCtoqSKmZn1bcz6ziS57vFxJWsI4crbIiLo4iIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDi9oIIIuDkQd/G6gOs/RnBLG76M0MNy4R7Ggn0urP1L7cPo34KwERZbOnlXTmhJaWQxyNLSNzhY/z7xktYdue3mvVmm9B09ZGYqiJsjd18i3m1wzaeYKqbWXohmju+ikErNvVS+kPZcMne496zY7TlVYCsiliL3BoW5/6pzXOICMg2Icb24i1rjuKneo/R31mGSYFsORzydL3eqznv3cVnTpuSbrZdFerQs2pe3ssuIrj0nbHSeGwc78ArPXCKMNaGtADWgAACwAGQAG4LmtyaebPLyuxERVkREQEREBERAREQEREBERAREQEREBERAREQEREBERBjz0MTyHPjY4jYXNBI7iQshEQEREBERAREQEREBERB/9k=</t>
+  </si>
+  <si>
+    <t>KARP RUSH 300 CASTER</t>
+  </si>
+  <si>
+    <t>PACIFIC 4206 CASTER</t>
+  </si>
+  <si>
+    <t>SNIPER 390 CASTER</t>
+  </si>
+  <si>
+    <t>SNIPER 420 CASTER</t>
+  </si>
+  <si>
+    <t>VALIANT 2702 CASTER</t>
+  </si>
+  <si>
+    <t>XTREM CHAOS 270 CASTER</t>
+  </si>
+  <si>
+    <t>CAN-012</t>
+  </si>
+  <si>
+    <t>CAN-013</t>
+  </si>
+  <si>
+    <t>CAN-014</t>
+  </si>
+  <si>
+    <t>CAN-015</t>
+  </si>
+  <si>
+    <t>CAN-016</t>
+  </si>
+  <si>
+    <t>CAN-017</t>
+  </si>
+  <si>
+    <t>CAN-018</t>
+  </si>
+  <si>
+    <t>CAN-019</t>
+  </si>
+  <si>
+    <t>CAN-020</t>
+  </si>
+  <si>
+    <t>CAN-021</t>
+  </si>
+  <si>
+    <t>CAN-022</t>
+  </si>
+  <si>
+    <t>CAN-023</t>
+  </si>
+  <si>
+    <t>CAN-024</t>
+  </si>
+  <si>
+    <t>CAN-025</t>
+  </si>
+  <si>
+    <t>CAN-026</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/BLACKDRAGON-TL4004_1-400.jpg?v=1737998486</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/BLUEMAX-SP1802M-400.jpg?v=1705605457</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/CORSAIR-BTR2702H-400.jpg?v=1705605499</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDERGSP_1-400.jpg?v=1705605516</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3003-200G-400.jpg?v=1705605509</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/DEFENDER-SF3603-200G-400.jpg?v=1705605511</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-GSP2702MH-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3603-3LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPHUNTER-CF3903-3LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPRUSH-GSP2702MH-400.jpg?v=1705605605</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/KARPRUSH-CF3003-2.5LB-400.jpg?v=1705605604</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/PACIFIC-TLSF4206_1-400.jpg?v=1730827681</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/PREDATOR-GSP2102H-400.jpg?v=1705605819</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SNIPER-SF3903-200G-400.jpg?v=1705605863</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SNIPER-SF4203-200G-400.jpg?v=1705605863</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SE1802S-400.jpg?v=1705605868</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SE2102S-400.jpg?v=1705605868</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SOLID-SL2402S-400.jpg?v=1705605870</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SUPREME-SF3903-400.jpg?v=1705605878</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/SUPREME-SF4203-400.jpg?v=1705605878</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/TAKUMI-SC4253-300G_1-400.jpg?v=1705605884</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/TITANIUM-SF3903-400.jpg?v=1705605960</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/VALIANT-GSP2702H_1-400.jpg?v=1737998518</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/XTREMECHAOS-GSP2702MH-400.jpg?v=1705606000</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/ATLANTIC_1-400.jpg?v=1705605422</t>
+  </si>
+  <si>
+    <t>https://www.caster.com.ar/images/productos/ADVANCE6003_1-400.jpg?v=1705605420</t>
+  </si>
+  <si>
+    <t>BLUE MAX 1802 BEAST</t>
+  </si>
+  <si>
+    <t>DEFENDER 180 CASTER</t>
+  </si>
+  <si>
+    <t>DEFENDER 3003 CASTER</t>
+  </si>
+  <si>
+    <t>DEFENDER 3603 CASTER</t>
+  </si>
+  <si>
+    <t>PREDATOR 210 CASTER</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 180 BEAST</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 210 BEAST</t>
+  </si>
+  <si>
+    <t>SOLID CASTER 240 BEAST</t>
+  </si>
+  <si>
+    <t>SUPREME 390 CASTER</t>
+  </si>
+  <si>
+    <t>SUPREME 420 CASTER</t>
+  </si>
+  <si>
+    <t>TAKUMI 425 CASTER</t>
+  </si>
+  <si>
+    <t>TITANIUM 390 CASTER</t>
+  </si>
+  <si>
+    <t>TITANIUM 420 CASTER</t>
+  </si>
+  <si>
+    <t>COSTA TELESCOPICA</t>
+  </si>
+  <si>
+    <t>PEJERREY TELESCOPICA</t>
+  </si>
+  <si>
+    <t>BAIT CASTING</t>
+  </si>
+  <si>
+    <t>COSTA 3 TRAMOS</t>
+  </si>
+  <si>
+    <t>VARIADA 3 TRAMOS</t>
+  </si>
+  <si>
+    <t>VARIADA 2 TRAMOS</t>
   </si>
 </sst>
 </file>
@@ -273,14 +438,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -290,6 +454,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -595,17 +761,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="109.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,7 +780,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -633,17 +800,17 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
-        <v>55357.5</v>
+      <c r="B2" s="10">
+        <v>55200</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -653,17 +820,17 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>28495.5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -671,183 +838,486 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="9">
+        <v>23413.5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
-        <v>23413.5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="10">
+        <v>56482.799999999996</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="10">
+        <v>22143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="10">
+        <v>47553</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="10">
+        <v>58443</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10">
+        <v>58715.25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
+        <v>64432.5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10">
+        <v>66429</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10">
+        <v>51183</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="10">
+        <v>57717</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10">
+        <v>59749.799999999996</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="10">
+        <v>49186.5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10">
+        <v>64795.5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10">
+        <v>73235.25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4">
-        <v>56482.799999999996</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4">
-        <v>22143</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4">
-        <v>47553</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4">
-        <v>58443</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4">
-        <v>58715.25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4">
-        <v>64432.5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4">
-        <v>66429</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4">
-        <v>51183</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="10">
+        <v>14520</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="10">
+        <v>16698</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="10">
+        <v>18694.5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="9">
+        <v>101095.5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="9">
+        <v>104453.25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="10">
+        <v>117975</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="9">
+        <v>88935</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="9">
+        <v>92565</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10">
+        <v>53905.5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="9">
+        <v>47916</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -860,13 +1330,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,7 +1344,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -892,9 +1362,9 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="5">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4">
         <v>23213.121750000002</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -904,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -912,9 +1382,9 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7">
         <v>43590.592499999999</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -924,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -932,9 +1402,9 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7">
         <v>29403</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -944,17 +1414,17 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="5">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4">
         <v>41026.44</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -964,17 +1434,17 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="5">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4">
         <v>26850</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -984,17 +1454,17 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7">
         <v>31071.495000000003</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1004,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF77EFC-DEDF-4FB1-9160-A101458B2CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70B0059-AA85-41F5-8042-3F4D90609570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D7C1380-B331-4AFA-95D0-F5A0E135361D}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -824,7 +824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -864,7 +864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -884,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5">
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -904,7 +904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -924,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5">
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -944,7 +944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5">
+    <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
@@ -964,7 +964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5">
+    <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -984,7 +984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5">
+    <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5">
+    <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.5">
+    <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.5">
+    <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5">
+    <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5">
+    <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5">
+    <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5">
+    <row r="20" spans="1:6" ht="18.75">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75">
+    <row r="21" spans="1:6" ht="18">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75">
+    <row r="22" spans="1:6" ht="18">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5">
+    <row r="23" spans="1:6" ht="18.75">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>73</v>
@@ -1204,7 +1204,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75">
+    <row r="24" spans="1:6" ht="18">
       <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75">
+    <row r="25" spans="1:6" ht="18">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.5">
+    <row r="26" spans="1:6" ht="18.75">
       <c r="A26" s="3" t="s">
         <v>80</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75">
+    <row r="27" spans="1:6" ht="18">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BC023-8503-4075-B2CC-24B53076163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E2EAFD-BFC3-4E85-A2BB-8CE46004F521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -349,6 +349,25 @@
   </si>
   <si>
     <t>VARIADA 2 TRAMOS</t>
+  </si>
+  <si>
+    <t>• Medida: 3.90m en 4 secciones
+• Composición: grafito IM6
+• 5 pasahilos SiC de titanio de 3 y 4 patas, aptos para multifilamento
+• Acción: Heavy
+• Capacidad de lanzamiento máximo: 100 a 220 gramos
+• Peso: 480 gramos
+• Medida cerrada: 122 cm
+• Diámetro: Punta 3.2 mm / Base 26 mm
+• Distancia entre el taco y el porta reel: 65 cm
+• Primer pasahilo rebatible para transporte
+• Empuñadura de polímero anti-deslizante
+• Exclusivo tope interno de goma que evita el impacto entre sus tramos
+• Portareel de grafito a rosca con capuchones de acero inoxidable
+• Incluye capuchón protector de pasahilos y funda de tela
+Tipo de reel utilizable: frontal (recomendamos tamaño de 6000 a 9000)
+Modalidades de pesca: variada de río y mar, lance de costa
+Ejemplos de especies: bagre, dorado, róbalo, bagre de mar, corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo</t>
   </si>
 </sst>
 </file>
@@ -438,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -456,6 +475,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -764,7 +786,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,15 +818,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="10">
-        <v>55200</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>

--- a/data/productos.xlsx
+++ b/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\feria\agina 2 prueba\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E2EAFD-BFC3-4E85-A2BB-8CE46004F521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F5F115-D83B-47FD-88E6-DEDA607228ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="164">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -331,24 +331,6 @@
   </si>
   <si>
     <t>TITANIUM 420 CASTER</t>
-  </si>
-  <si>
-    <t>COSTA TELESCOPICA</t>
-  </si>
-  <si>
-    <t>PEJERREY TELESCOPICA</t>
-  </si>
-  <si>
-    <t>BAIT CASTING</t>
-  </si>
-  <si>
-    <t>COSTA 3 TRAMOS</t>
-  </si>
-  <si>
-    <t>VARIADA 3 TRAMOS</t>
-  </si>
-  <si>
-    <t>VARIADA 2 TRAMOS</t>
   </si>
   <si>
     <t>• Medida: 3.90m en 4 secciones
@@ -369,6 +351,609 @@
 Modalidades de pesca: variada de río y mar, lance de costa
 Ejemplos de especies: bagre, dorado, róbalo, bagre de mar, corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo</t>
   </si>
+  <si>
+    <t>• Medida: 4m en 4 secciones
+• Composición fibra de vidrio
+• 4+1 pasahilos de cerámica
+• Acción: Liviana
+• Capacidad de lanzamiento máximo: 35 gramos (peso total de la línea)
+• Peso de la caña: 290 gramos
+• Medida cerrada: 122 cm
+• Diámetro: Punta de la vara 2.8 mm / Base de la vara 25 mm
+• Distancia desde el taco hasta el centro del portareel: 48 cm
+• Portareel a rosca de grafito
+• Incluye capuchón protector de pasahilos y funda de tela
+Tipo de reel utilizable: frontal (combo ideal reel Caster Black Dragon 1004)
+Modalidades de pesca: de pejerrey en laguna y río
+Ejemplos de especies: pejerreyA</t>
+  </si>
+  <si>
+    <t>• Medida: 1.80m en 2 tramos
+• Composición: fibra de vidrio
+• 5 pasahilos de cerámica de 2 patas
+• Acción: Moderate Fast
+• Power: Medium
+• Libraje: 6 a 12
+• Capacidad de lanzamiento máximo: 8 a 25 gramos
+• Peso: 105 gramos
+• Medida cerrada: 94.5 cm
+• Diámetro (mm):Punta de la vara 2 mm / Base de la vara 30 mm / Base del mango 33 mm
+• Gancho porta anzuelo "hook keeper"
+• Portareel de grafito
+• Empuñadura recortada de goma eva ergonómica con diseño camuflado
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (recomendamos tamaño 2000 y 4000)
+Modalidades de pesca: señuelo o variada mediana para aquellos pescadores principiantes
+Ejemplos de especies: carpa, sábalo, boga, tararira, pejerrey, bagre, chafalote, trucha, patí</t>
+  </si>
+  <si>
+    <t>• Medida: 2.70m en 2 tramos
+• Tipo de reel utilizable: rotativo
+• Composición: fibra de vidrio
+• 9 pasahilos SiC de titanio de 3 patas con puntero reforzado, aptos para multifilamento
+• Acción: Rápida
+• Power: Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 425 gramos
+• Medida cerrada: 140 cm
+• Diámetro (mm): Punta 4.9 mm / Base 24.8 mm
+• Empuñadura goma eva ergonómica
+• Portareel de grafito con capuchones de acero inoxidable negro
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: rotativo (combo ideal reel Caster Corsair 503)
+Modalidades de pesca: variada de río, mar de embarcado, trolling
+Ejemplos de especies: bagre, patí, dorado, surubí, corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón</t>
+  </si>
+  <si>
+    <t>• Medida: 1.80m en 2 tramos
+• Tipo de reel utilizable: Rotativo o Huevito
+• Composición de fibra de vidrio
+• 4 + 1 pasahilos de cerámica de 2 y 3 patas
+• Acción: Medium Fast
+• Cast: 10 a 40 gramos
+• Peso: 125 gramos
+• Medida cerrada: 95 cm
+• Diámetro (mm): Punta 2.5 mm / Base 10.6 mm
+• Empuñadura de goma eva ergonómica
+• Portareel de grafito con ajuste flotante
+• Incluye funda de tela estampada
+Tipo de reel utilizable: huevito (combo ideal reel Caster Defender 104)
+Modalidades de pesca: señuelo o variada mediana para aquellos pescadores principiantes
+Ejemplos de especies: carpa, sábalo, boga, tararira, pejerrey, bagre, chafalote, trucha, patí</t>
+  </si>
+  <si>
+    <t>• Medida: 3.00m en 3 tramos
+• Composición: fibra de vidrio
+• 6 pasahilos de cerámica de 3 patas
+• Acción: Rápida
+• Power: Medium-Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 387 gramos
+• Medida cerrada: 107 cm
+• Diámetro (mm): Punta de la vara 3 mm / Base de la vara 22 mm
+• Distancia desde el taco hasta el centro del portareel: 61 cm
+• Soportes metálicos resinados en conectores
+• Portareel de grafito con capuchones de acero inoxidable
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Defender 6001)
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo</t>
+  </si>
+  <si>
+    <t>• Medida: 3.60m en 3 tramos
+• Tipo de reel utilizable: frontal
+• Composición: fibra de vidrio
+• 6 pasahilos de cerámica de 3 patas
+• Acción: Rápida
+• Power: Medium-Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 598 gramos
+• Medida cerrada: 127 cm
+• Diámetro (mm): Punta de la vara 3.5 mm / Base de la vara 25.5 mm
+• Distancia desde el taco hasta el centro del portareel: 72 cm
+• Soportes metálicos resinados en conectores
+• Portareel de grafito con capuchones de acero inoxidable
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Defender 6001)
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo</t>
+  </si>
+  <si>
+    <t>• Medida: 2.70m en 2 tramos
+• Composición: fibra de vidrio y grafito
+• 5 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Medium Heavy
+• Libraje: 30
+• Capacidad de lanzamiento máximo: 80 a 150 gramos
+• Peso: 387 gramos
+• Medida cerrada: 142 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 20 mm / Base del mango 34 mm
+• Distancia desde el taco hasta el centro del portareel: 43 cm
+• Empuñadura de goma eva ergonómica camuflada
+• Portareel de grafito con capuchones de acero inoxidable
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Karp Hunter 4006)
+Modalidades de pesca: variada de río
+Ejemplos de especies: ideal para pesca de carpas, se puede utilizar para pesca variada como boga, bagre, etc.</t>
+  </si>
+  <si>
+    <t>• Medida: 3.60m en 3 tramos
+• Composición: fibra de vidrio y grafito
+• 6 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida moderada
+• Libraje en arco de lanzamiento: 3
+• Capacidad de lanzamiento máximo: hasta 120 gramos
+• Peso: 400 gramos
+• Medida cerrada: 125.5 cm
+• Diámetro (mm): Punta de la vara 3.9 mm / Base de la vara 19 mm / Base del mango 26 mm
+• Distancia desde el taco hasta el centro del portareel: 66 cm
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura recortada de goma eva ergonómica camuflada
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Karp Hunter 4006)
+Modalidades de pesca: variada de río
+Ejemplos de especies: ideal para pesca de carpas, se puede utilizar también para pesca variada como boga, bagre, etc.</t>
+  </si>
+  <si>
+    <t>• Medida: 3.90m en 3 tramos
+• Composición: fibra de vidrio y grafito
+• 6 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Potencia: Media
+• Libraje en arco de lanzamiento: 3
+• Capacidad de lanzamiento máximo: hasta 120 gramos
+• Peso: 450 gramos
+• Medida cerrada: 135.5 cm
+• Diámetro (mm): Punta de la vara 3.2 mm / Base de la vara 21 mm / Base del mango 27.5 mm
+• Distancia desde el taco hasta el centro del portareel: 65.5 cm
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura recortada de goma eva ergonómica camuflada
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Karp Hunter 4006)
+Modalidades de pesca: variada de río
+Ejemplos de especies: ideal para pesca de carpas, se puede utilizar para pesca variada como boga, bagre, etc.</t>
+  </si>
+  <si>
+    <t>• Medida: 2.70m en 2 tramos
+• Composición: fibra de vidrio y grafito
+• 5 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Medium Heavy
+• Libraje: 30
+• Capacidad de lanzamiento máximo: 60 a 120 gramos
+• Peso: 395 gramos
+• Medida cerrada: 141 cm
+• Diámetro (mm): Punta de la vara 3 mm / Base de la vara 20 mm / Base del mango 34 mm
+• Distancia desde el taco hasta el centro del portareel: 43 cm
+• Empuñadura goma eva ergonómica
+• Portareel de grafito con capuchones de acero inoxidable
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Karp Rush 5006)
+Modalidades de pesca: variada de río
+Ejemplos de especies: ideal para pesca de carpas, se puede utilizar para pesca variada como boga, bagre, etc.</t>
+  </si>
+  <si>
+    <t>• Medida: 3.00m en 3 tramos
+• Composición: fibra de vidrio y grafito
+• 6 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida moderada
+• Libraje en arco de lanzamiento: 2.5
+• Capacidad de lanzamiento máximo: hasta 80 gramos
+• Peso: 325 gramos
+• Medida cerrada: 106.5 cm
+• Diámetro (mm): Punta de la vara 3 mm / Base de la vara 11 mm / Base del mango 28 mm
+• Distancia desde el taco hasta el centro del portareel: 66 cm
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura recortada de goma eva ergonómica
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Karp Rush 5006)
+Modalidades de pesca: variada de río
+Ejemplos de especies: ideal para pesca de carpas, se puede utilizar para pesca variada como boga, bagre, etc.</t>
+  </si>
+  <si>
+    <t>• Medida: 4.20m en 6 secciones
+• Composición: fibra de vidrio y grafito
+• 5 pasahilos SiC de titanio de 3 y 4 patas, aptos para multifilamento
+• Acción: Heavy
+• Capacidad de lanzamiento máximo: 100 a 250 gramos
+• Peso: 535 gramos
+• Medida cerrada: 108 cm
+• Diámetro: Punta 3.7 mm / Base 29.4 mm
+• Distancia entre el taco y el porta reel: 56,5 cm
+• Primer pasahilo rebatible para transporte
+• Empuñadura de goma eva con marcas de agarre
+• Portareel de grafito a rosca con capuchones de acero inoxidable
+• Incluye capuchón protector de pasahilos y funda de tela
+Tipo de reel utilizable: frontal (combo ideal reel Caster Pacific 6006)
+Modalidades de pesca: variada de río y mar, lance de costa
+Ejemplos de especies: bagre, dorado, róbalo, bagre de mar, corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo</t>
+  </si>
+  <si>
+    <t>• Medida: 2.10m en 2 tramos
+• Tipo de reel utilizable: frontal
+• Composición: fibra de vidrio y grafito
+• 5 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 270 gramos
+• Medida cerrada: 113 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 19 mm / Base del mango 28 mm
+• Distancia desde el taco hasta el centro del portareel: 37 cm
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura recortada de goma eva ergonómica camuflada
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Predator 4806 o Predator 5806)
+Modalidades de pesca: variada de río, mar de embarcado
+Ejemplos de especies: carpa, sábalo, boga, tararira, bagre, chafalote, lisa, patí, dorado, surubí, róbalo, bagre de mar, corvina</t>
+  </si>
+  <si>
+    <t>• Medida: 3.90m en 3 tramos
+• Tipo de reel utilizable: frontal
+• Composición: fibra de vidrio
+• Pasahilos de cerámica de 3 patas
+• Acción: Rápida
+• Power: Medium-Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 600 gramos
+• Medida cerrada: 137 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 26 mm
+• Distancia desde el taco hasta el centro del portareel: 73 cm
+• Distancia entre el taco y el porta reel: 64 cm
+• Soportes metálicos resinados en conectores
+• Portareel de grafito con capuchones de acero inoxidable
+• Incluye funda de tela estampada con divisiones
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo</t>
+  </si>
+  <si>
+    <t>• Medida: 4.20m en 3 tramos
+• Composición: fibra de vidrio
+• Pasahilos de cerámica de 3 patas
+• Acción: Rápida
+• Power: Medium-Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 700 gramos
+• Medida cerrada: 147 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 26.5 mm
+• Distancia desde el taco hasta el centro del portareel: 74 cm
+• Distancia entre el taco y el porta reel: 65 cm
+• Soportes metálicos resinados en conectores
+• Portareel de grafito con capuchones de acero inoxidable
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Sniper 9006)
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo</t>
+  </si>
+  <si>
+    <t>• Medida: 1.80m en 2 tramos
+• Composición: fibra de vidrio maciza
+• 4 pasahilos de titanio de 3 patas, aptos para multifilamento
+• Libraje: 15 a 25
+• Capacidad de lanzamiento máximo: 50 a 100 gramos
+• Peso: 240 gramos
+• Medida cerrada: 94 cm
+• Diámetro (mm): Punta de la vara 3 mm / Base de la vara 9 mm / Base del mango 26 mm
+• Distancia desde el taco hasta el centro del portareel: 29 cm
+• Encastre metálico en ambos extremos
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura de goma eva
+• Incluye funda de tela
+Tipo de reel utilizable: frontal (combo ideal reel Beast SE200)
+Modalidades de pesca: variada en río y laguna
+Ejemplos de especies: carpa, sábalo, boga, tararira, pejerrey, bagre, chafalote, trucha, patí, dorado, surubí</t>
+  </si>
+  <si>
+    <t>• Medida: 2.10m en 2 tramos
+• Composición: fibra de vidrio maciza
+• 5 pasahilos de titanio de 3 patas, aptos para multifilamento
+• Libraje: 15 a 25
+• Capacidad de lanzamiento máximo: 50 a 100 gramos
+• Peso: 310 gramos
+• Medida cerrada: 108 cm
+• Diámetro (mm): Punta de la vara 3 mm / Base de la vara 10 mm / Base del mango 27 mm
+• Distancia desde el taco hasta el centro del portareel: 32 cm
+• Encastre metálico en ambos extremos
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura de goma eva
+• Incluye funda de tela
+Tipo de reel utilizable: frontal (combo ideal reel Beast SE200)
+Modalidades de pesca: variada en río y laguna
+Ejemplos de especies: carpa, sábalo, boga, tararira, pejerrey, bagre, chafalote, trucha, patí, dorado, surubí</t>
+  </si>
+  <si>
+    <t>• Medida: 2.40m en 2 tramos
+• Composición: fibra de vidrio maciza
+• 5 pasahilos de titanio de 3 patas, aptos para multifilamento
+• Libraje: 15 a 25
+• Capacidad de lanzamiento máximo: 50 a 100 gramos
+• Peso: 380 gramos
+• Medida cerrada: 123cm
+• Diámetro (mm): Punta de la vara 3 mm / Base de la vara 11 mm / Base del mango 26.5 mm
+• Distancia desde el taco hasta el centro del portareel: 34 cm
+• Encastre metálico en ambos extremos
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura de goma eva
+• Incluye funda de tela
+Tipo de reel utilizable: frontal (combo ideal reel Beast SL500)
+Modalidades de pesca: variada en río y laguna
+Ejemplos de especies: carpa, sábalo, boga, tararira, pejerrey, bagre, chafalote, trucha, patí, dorado, surubí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medida: 3.90m en 3 tramos
+• Composición: carbono 30T
+• 7 pasahilos KW SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 668 gramos
+• Medida cerrada: 138 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 25.8 mm
+• Distancia entre el taco y el porta reel: 73 cm
+• Soportes metálicos resinados en conectores
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura con pintura de polímero anti-deslizante
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Supreme 9009)
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
+  </si>
+  <si>
+    <t>• Medida: 4.20m en 3 tramos
+• Composición: carbono 30T
+• 7 pasahilos KW SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 700 gramos
+• Medida cerrada: 147 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 25.8 mm
+• Distancia entre el taco y el porta reel: 78 cm
+• Soportes metálicos resinados en conectores
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura con pintura de polímero anti-deslizante
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Supreme 9009)
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
+  </si>
+  <si>
+    <t>• Medida: 4.25m en 3 tramos
+• Tipo de reel utilizable: rotativo o frontal
+• Composición: 100% carbono 30TK
+• 9 pasahilos híbridos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 150 a 300 gramos
+• Peso: 515 gramos
+• Medida cerrada: 153 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 21 mm / Base del mango 29 mm
+• Distancia desde el taco hasta el centro del portareel: 81 cm
+• Pintura anti-deslizante en conectores para facilitar el armado y desarmado de los tramos
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura de goma eva
+• Incluye funda de tela con divisiones
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
+  </si>
+  <si>
+    <t>• Medida: 3.90m en 3 tramos
+• Composición: carbono 24T
+• 7 pasahilos T SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 570 gramos
+• Medida cerrada: 136.5 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 26 mm
+• Distancia entre el taco y el porta reel: 73 cm
+• Soportes metálicos resinados en conectores
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura con pintura de polímero anti-deslizante
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Titanium 9007)
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
+  </si>
+  <si>
+    <t>• Medida: 4.20m en 3 tramos
+• Composición: carbono 24T
+• 7 pasahilos T SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 600 gramos
+• Medida cerrada: 146 cm
+• Diámetro (mm): Punta de la vara 4 mm / Base de la vara 26 mm
+• Distancia entre el taco y el porta reel: 78 cm
+• Soportes metálicos resinados en conectores
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura con pintura de polímero anti-deslizante
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Titanium 9007)
+Modalidades de pesca: mar desde la costa, escollera o muelle
+Ejemplos de especies: corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
+  </si>
+  <si>
+    <t>• Medida: 2.70m en 2 tramos
+• Composición: fibra de vidrio
+• 5 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Heavy
+• Libraje: 40
+• Capacidad de lanzamiento máximo: 100 a 200 gramos
+• Peso: 380 gramos
+• Medida cerrada: 142 cm
+• Diámetro (mm): Punta de la vara 5 mm / Base de la vara 23.5 mm / Base del mango 35 mm
+• Distancia desde el taco hasta el centro del portareel: 44 cm
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura recortada de goma eva ergonómica
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (combo ideal reel Caster Valiant 4006)
+Modalidades de pesca: variada de río y mar
+Ejemplos de especies: carpa, sábalo, boga, bagre, chafalote, patí, dorado, surubí, corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
+  </si>
+  <si>
+    <t>Agua negra 3 mts</t>
+  </si>
+  <si>
+    <t>CAPITANIA 2,70 MTS 8855-6</t>
+  </si>
+  <si>
+    <t>CORVINA 360</t>
+  </si>
+  <si>
+    <t>CORVINA 390</t>
+  </si>
+  <si>
+    <t>horizonte 3 mts red fish</t>
+  </si>
+  <si>
+    <t>parana 270 mts red fish</t>
+  </si>
+  <si>
+    <t>peje 420</t>
+  </si>
+  <si>
+    <t>sudestada fish 270</t>
+  </si>
+  <si>
+    <t>supercast 360</t>
+  </si>
+  <si>
+    <t>supercast 390</t>
+  </si>
+  <si>
+    <t>TELECAST 4</t>
+  </si>
+  <si>
+    <t>• Medida: 2.70m en 2 tramos
+• Composición: fibra de vidrio
+• 6 pasahilos SiC de titanio de 3 patas, aptos para multifilamento
+• Acción: Rápida
+• Power: Medium Heavy
+• Libraje: 15 a 30
+• Capacidad de lanzamiento máximo: 80 a 180 gramos
+• Peso: 375 gramos
+• Medida cerrada: 142 cm
+• Diámetro (mm): Punta de la vara 4.2 mm / Base de la vara 20 mm / Mango 31 mm
+• Distancia desde el taco hasta el centro del portareel: 56 cm
+• Gancho porta anzuelo "hook keeper"
+• Portareel de grafito con capuchones de acero inoxidable
+• Empuñadura recortada de goma eva ergonómica antideslizante
+• Mango forrado con termocontraible antideslizante
+• Incluye funda de tela estampada con divisiones
+Tipo de reel utilizable: frontal (recomendamos tamaño 6000)
+Modalidades de pesca: variada de río y mar
+Ejemplos de especies: carpa, sábalo, boga, bagre, chafalote, patí, dorado, surubí, corvina, lenguado, burriqueta, pescadilla, raya, chucho, brótola, pez gallo, bagre de mar, gatuzo, cazón, tiburón</t>
+  </si>
+  <si>
+    <t>CAN-027</t>
+  </si>
+  <si>
+    <t>CAN-028</t>
+  </si>
+  <si>
+    <t>CAN-029</t>
+  </si>
+  <si>
+    <t>CAN-030</t>
+  </si>
+  <si>
+    <t>CAN-031</t>
+  </si>
+  <si>
+    <t>CAN-032</t>
+  </si>
+  <si>
+    <t>CAN-033</t>
+  </si>
+  <si>
+    <t>CAN-034</t>
+  </si>
+  <si>
+    <t>CAN-035</t>
+  </si>
+  <si>
+    <t>CAN-036</t>
+  </si>
+  <si>
+    <t>CAN-037</t>
+  </si>
+  <si>
+    <t>https://redfish.com.ar/wp-content/uploads/2022/06/RF00326-510x340.jpg</t>
+  </si>
+  <si>
+    <t>https://redfish.com.ar/wp-content/uploads/2022/06/RF00232-510x340.jpg</t>
+  </si>
+  <si>
+    <t>https://redfish.com.ar/wp-content/uploads/2022/06/RF00316-510x340.jpg</t>
+  </si>
+  <si>
+    <t>Caña diseñada para pesca de costa de mar, para lanzamientos de plomos pesados. Grafito de alta calidad, pasahilos aptos multifilamento
+Pesca Variada de Rio y Mar – Grafito – Acción media
+Hasta 50Lbs – 2 Tramos – Hasta 100/250gr Plomada – Para Reel Frontal</t>
+  </si>
+  <si>
+    <t>Pesca Variada de Rio – Grafito – Acción media
+Hasta 50Lbs – 2 Tramos – Hasta 150/200gr Plomada – Para Reel Frontal</t>
+  </si>
+  <si>
+    <t>Pesca Pejerrey y Lisa – Fibra de vidrio – Telescópica
+Hasta 30gr Plomada – Reel Frontal</t>
+  </si>
+  <si>
+    <t>Pesca variada de rio – Fibra de vidrio Hueca – Acción media
+60Lbs – 2 Tramos – Hasta 150gr Plomada – Para Reel Frontal</t>
+  </si>
+  <si>
+    <t>https://redfish.com.ar/wp-content/uploads/2022/06/RF00264-510x340.jpg</t>
+  </si>
+  <si>
+    <t>https://redfish.com.ar/wp-content/uploads/2022/06/RF00252.jpg</t>
+  </si>
+  <si>
+    <t>https://redfish.com.ar/wp-content/uploads/2025/01/100-8778-510x510.jpg</t>
+  </si>
+  <si>
+    <t>Grafito – Telescópica – Hasta 30gr Plomada
+Pejerrey/Lisa (3,00 ; 3,60 ; 4,00 y 4,20mts)
+Para Reel Frontal – Color Verde</t>
+  </si>
+  <si>
+    <t>Fibra de vidrio Hueca – Acción media – 50Lbs – 2 Tramos
+Variada de Rio y Mar 2,70  Hasta 150gr Plomada
+Para Reel Frontal</t>
+  </si>
+  <si>
+    <t>https://redfish.com.ar/wp-content/uploads/2022/06/RF00207-510x340.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pesca variada de Rio y Mar – Fibra de vidrio Hueca
+50Lbs – Acción media – 2 Tramos – Reel Frontal</t>
+  </si>
+  <si>
+    <t>https://redfish.com.ar/wp-content/uploads/2025/06/BB1-1-1.jpg</t>
+  </si>
+  <si>
+    <t>Pesca variada de Rio y Mar – Fibra de vidrio Hueca – Acción media
+15/30lbs – 2 Tramos – Hasta 100gr Plomo- Reel Frontal</t>
+  </si>
+  <si>
+    <t>sin imagen</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +962,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,16 +1005,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Nunito"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF100E0E"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -452,12 +1054,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -476,6 +1089,21 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -783,17 +1411,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.85546875" customWidth="1"/>
     <col min="5" max="5" width="109.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -818,15 +1446,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="10">
-        <v>2</v>
+        <v>52000</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -838,14 +1466,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="225.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9">
         <v>28495.5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D3" s="2">
@@ -858,14 +1486,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="315.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="9">
         <v>23413.5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="2">
@@ -878,15 +1506,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="315.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="10">
         <v>56482.799999999996</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
+      <c r="C5" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -898,15 +1526,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="270.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="10">
         <v>22143</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>101</v>
+      <c r="C6" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -918,15 +1546,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B7" s="10">
         <v>47553</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
+      <c r="C7" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -938,15 +1566,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="10">
         <v>58443</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>102</v>
+      <c r="C8" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -958,15 +1586,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="10">
         <v>58715.25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
+      <c r="C9" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -978,15 +1606,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="10">
         <v>64432.5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>102</v>
+      <c r="C10" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -998,15 +1626,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="10">
         <v>66429</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1018,15 +1646,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="10">
         <v>51183</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>104</v>
+      <c r="C12" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1038,15 +1666,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="10">
         <v>57717</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>103</v>
+      <c r="C13" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1058,15 +1686,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="10">
         <v>59749.799999999996</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>99</v>
+      <c r="C14" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -1078,15 +1706,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="330.75" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="10">
         <v>49186.5</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>104</v>
+      <c r="C15" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1098,15 +1726,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="10">
         <v>64795.5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>102</v>
+      <c r="C16" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1118,15 +1746,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="10">
         <v>73235.25</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>102</v>
+      <c r="C17" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1138,15 +1766,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="10">
         <v>14520</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>104</v>
+      <c r="C18" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1158,15 +1786,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="10">
         <v>16698</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>104</v>
+      <c r="C19" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1178,15 +1806,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="285.75" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="10">
         <v>18694.5</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>104</v>
+      <c r="C20" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1198,15 +1826,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="9">
         <v>101095.5</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>102</v>
+      <c r="C21" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1218,15 +1846,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="9">
         <v>104453.25</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>102</v>
+      <c r="C22" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1238,15 +1866,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="330.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="10">
         <v>117975</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>102</v>
+      <c r="C23" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -1258,15 +1886,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="9">
         <v>88935</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>102</v>
+      <c r="C24" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1278,15 +1906,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="300.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="9">
         <v>92565</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>102</v>
+      <c r="C25" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1298,15 +1926,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="315.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="10">
         <v>53905.5</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>104</v>
+      <c r="C26" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1318,15 +1946,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="9">
         <v>47916</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>104</v>
+      <c r="C27" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1338,8 +1966,244 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="2"/>
+    <row r="28" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="9">
+        <v>40950</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="9">
+        <v>25200</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="136.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="9">
+        <v>78750</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="9">
+        <v>86625</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="9">
+        <v>37800</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="58.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="9">
+        <v>33075</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="9">
+        <v>33075</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="39" x14ac:dyDescent="0.4">
+      <c r="A35" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="9">
+        <v>50400</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="9">
+        <v>78750</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="15">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="9">
+        <v>83475</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="9">
+        <v>31500</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="12"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
